--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="10260" tabRatio="868" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="10260" tabRatio="868" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Codespace" sheetId="12" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="736">
   <si>
     <t>default_key</t>
   </si>
@@ -1780,6 +1780,471 @@
   </si>
   <si>
     <t>vecteur</t>
+  </si>
+  <si>
+    <t>west of 4th meridian - historical forest inventory - phase 3 maps</t>
+  </si>
+  <si>
+    <t>82h - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>82j - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>82o - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>82p - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>83a - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>83b - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>83c - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>83e - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>83f - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>83g - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>83h - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>83i - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>83j - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>83k - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>83l - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>83m - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>83n - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>83o - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>83p - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>83b - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>83c - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>83e - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>83f - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>83g - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>83i - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>83j - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>83k - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>83l - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>83m - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>83n - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>83o - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>83p - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>west of 4th meridian - historical forest inventory - phase 2 (detailed) maps</t>
+  </si>
+  <si>
+    <t>historical alberta resource atlas series maps - administrative regions</t>
+  </si>
+  <si>
+    <t>historical alberta resource atlas series maps - agricultural processing and manufacturing</t>
+  </si>
+  <si>
+    <t>historical alberta resource atlas series maps - agricultural production</t>
+  </si>
+  <si>
+    <t>historical alberta resource atlas series maps - natural resources</t>
+  </si>
+  <si>
+    <t>historical alberta resource atlas series maps - physical features</t>
+  </si>
+  <si>
+    <t>historical alberta resource atlas series maps - population</t>
+  </si>
+  <si>
+    <t>historical alberta resource atlas series maps - service and recreational facilities</t>
+  </si>
+  <si>
+    <t>historical hydrographic survey - bathymetric maps</t>
+  </si>
+  <si>
+    <t>74d - historical forest cover series</t>
+  </si>
+  <si>
+    <t>74e - historical forest cover series</t>
+  </si>
+  <si>
+    <t>74l - historical forest cover series</t>
+  </si>
+  <si>
+    <t>74m - historical forest cover series</t>
+  </si>
+  <si>
+    <t>west of 5th meridian - historical forest inventory - phase 2 (detailed) maps</t>
+  </si>
+  <si>
+    <t>west of 6th meridian - historical forest inventory - phase 2 (detailed) maps</t>
+  </si>
+  <si>
+    <t>72e - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>72l - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>72m - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>74d - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>74e - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>74l - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>84a - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>84b - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>84c - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>84d - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>84e - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>84f - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>84g - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>84h - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>84i - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>84j - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>84m - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>84n - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>84o - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>73m - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>83b - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>83c - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>83e - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>83f - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>83g - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>83i - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>83j - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>83k - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>83l - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>83m - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>83n - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>83o - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>83p - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>west of 5th meridian - historical forest inventory - phase 3 maps</t>
+  </si>
+  <si>
+    <t>73d - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>73e - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>73l - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>73m - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>73l - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>73m - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84a - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84b - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84c - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84d - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84e - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84f - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84g - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84h - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84i - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84j - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84k - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84l - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84m - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84n - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84o - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84p - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>82g - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>82h - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>82i - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>82j - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>82n - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>82o - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>82o - historical forest cover series</t>
+  </si>
+  <si>
+    <t>west of 6th meridian - historical forest inventory - phase 3 maps</t>
+  </si>
+  <si>
+    <t>74d - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>74e - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>74l - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>74m - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>73l - historical forest cover series</t>
+  </si>
+  <si>
+    <t>73m - historical forest cover series</t>
+  </si>
+  <si>
+    <t>83b - historical forest cover series</t>
+  </si>
+  <si>
+    <t>83c - historical forest cover series</t>
+  </si>
+  <si>
+    <t>83e - historical forest cover series</t>
+  </si>
+  <si>
+    <t>83f - historical forest cover series</t>
+  </si>
+  <si>
+    <t>83g - historical forest cover series</t>
+  </si>
+  <si>
+    <t>83i - historical forest cover series</t>
+  </si>
+  <si>
+    <t>83j - historical forest cover series</t>
+  </si>
+  <si>
+    <t>83k - historical forest cover series</t>
+  </si>
+  <si>
+    <t>83l - historical forest cover series</t>
+  </si>
+  <si>
+    <t>83m - historical forest cover series</t>
+  </si>
+  <si>
+    <t>83n - historical forest cover series</t>
+  </si>
+  <si>
+    <t>83o - historical forest cover series</t>
+  </si>
+  <si>
+    <t>83p - historical forest cover series</t>
+  </si>
+  <si>
+    <t>84a - historical forest cover series</t>
+  </si>
+  <si>
+    <t>84b - historical forest cover series</t>
+  </si>
+  <si>
+    <t>84c - historical forest cover series</t>
+  </si>
+  <si>
+    <t>84d - historical forest cover series</t>
+  </si>
+  <si>
+    <t>84e - historical forest cover series</t>
+  </si>
+  <si>
+    <t>84f - historical forest cover series</t>
+  </si>
+  <si>
+    <t>84g - historical forest cover series</t>
+  </si>
+  <si>
+    <t>84h - historical forest cover series</t>
+  </si>
+  <si>
+    <t>84i - historical forest cover series</t>
+  </si>
+  <si>
+    <t>84j - historical forest cover series</t>
+  </si>
+  <si>
+    <t>84k - historical forest cover series</t>
+  </si>
+  <si>
+    <t>84l - historical forest cover series</t>
+  </si>
+  <si>
+    <t>84m - historical forest cover series</t>
+  </si>
+  <si>
+    <t>84n - historical forest cover series</t>
+  </si>
+  <si>
+    <t>84o - historical forest cover series</t>
+  </si>
+  <si>
+    <t>84p - historical forest cover series</t>
+  </si>
+  <si>
+    <t>82o - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84a - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>84i - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>84j - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>84k - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>84l - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>84m - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>84n - historical watershed boundary maps</t>
   </si>
 </sst>
 </file>
@@ -2747,7 +3212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30:F44"/>
     </sheetView>
   </sheetViews>
@@ -5347,10 +5812,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D199"/>
+  <dimension ref="A1:D354"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="B198" sqref="B198:D199"/>
+    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
+      <selection activeCell="B353" sqref="B353:D354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8144,6 +8609,2176 @@
         <v>279</v>
       </c>
       <c r="D199" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>581</v>
+      </c>
+      <c r="B200" t="s">
+        <v>289</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D200" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>582</v>
+      </c>
+      <c r="B201" t="s">
+        <v>289</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D201" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>583</v>
+      </c>
+      <c r="B202" t="s">
+        <v>289</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D202" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>584</v>
+      </c>
+      <c r="B203" t="s">
+        <v>289</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D203" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>585</v>
+      </c>
+      <c r="B204" t="s">
+        <v>289</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D204" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>586</v>
+      </c>
+      <c r="B205" t="s">
+        <v>289</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D205" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>587</v>
+      </c>
+      <c r="B206" t="s">
+        <v>289</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D206" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>588</v>
+      </c>
+      <c r="B207" t="s">
+        <v>289</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D207" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>589</v>
+      </c>
+      <c r="B208" t="s">
+        <v>289</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D208" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>590</v>
+      </c>
+      <c r="B209" t="s">
+        <v>289</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D209" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>591</v>
+      </c>
+      <c r="B210" t="s">
+        <v>289</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D210" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>592</v>
+      </c>
+      <c r="B211" t="s">
+        <v>289</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D211" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>593</v>
+      </c>
+      <c r="B212" t="s">
+        <v>289</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D212" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>594</v>
+      </c>
+      <c r="B213" t="s">
+        <v>289</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D213" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>595</v>
+      </c>
+      <c r="B214" t="s">
+        <v>289</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D214" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>596</v>
+      </c>
+      <c r="B215" t="s">
+        <v>289</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D215" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>597</v>
+      </c>
+      <c r="B216" t="s">
+        <v>289</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D216" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>598</v>
+      </c>
+      <c r="B217" t="s">
+        <v>289</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D217" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>599</v>
+      </c>
+      <c r="B218" t="s">
+        <v>289</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D218" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>600</v>
+      </c>
+      <c r="B219" t="s">
+        <v>289</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D219" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>601</v>
+      </c>
+      <c r="B220" t="s">
+        <v>289</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D220" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>602</v>
+      </c>
+      <c r="B221" t="s">
+        <v>289</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D221" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>603</v>
+      </c>
+      <c r="B222" t="s">
+        <v>289</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D222" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>604</v>
+      </c>
+      <c r="B223" t="s">
+        <v>289</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D223" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>605</v>
+      </c>
+      <c r="B224" t="s">
+        <v>289</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D224" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>606</v>
+      </c>
+      <c r="B225" t="s">
+        <v>289</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D225" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>607</v>
+      </c>
+      <c r="B226" t="s">
+        <v>289</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D226" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>608</v>
+      </c>
+      <c r="B227" t="s">
+        <v>289</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D227" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>609</v>
+      </c>
+      <c r="B228" t="s">
+        <v>289</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D228" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>610</v>
+      </c>
+      <c r="B229" t="s">
+        <v>289</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D229" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>611</v>
+      </c>
+      <c r="B230" t="s">
+        <v>289</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D230" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>612</v>
+      </c>
+      <c r="B231" t="s">
+        <v>289</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D231" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>613</v>
+      </c>
+      <c r="B232" t="s">
+        <v>289</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D232" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>614</v>
+      </c>
+      <c r="B233" t="s">
+        <v>289</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D233" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>615</v>
+      </c>
+      <c r="B234" t="s">
+        <v>289</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D234" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>616</v>
+      </c>
+      <c r="B235" t="s">
+        <v>289</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D235" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>617</v>
+      </c>
+      <c r="B236" t="s">
+        <v>289</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D236" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>618</v>
+      </c>
+      <c r="B237" t="s">
+        <v>289</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D237" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>619</v>
+      </c>
+      <c r="B238" t="s">
+        <v>289</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D238" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>620</v>
+      </c>
+      <c r="B239" t="s">
+        <v>289</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D239" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>621</v>
+      </c>
+      <c r="B240" t="s">
+        <v>289</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D240" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>622</v>
+      </c>
+      <c r="B241" t="s">
+        <v>289</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D241" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>623</v>
+      </c>
+      <c r="B242" t="s">
+        <v>289</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D242" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>624</v>
+      </c>
+      <c r="B243" t="s">
+        <v>289</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D243" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>625</v>
+      </c>
+      <c r="B244" t="s">
+        <v>289</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D244" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>626</v>
+      </c>
+      <c r="B245" t="s">
+        <v>289</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D245" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>627</v>
+      </c>
+      <c r="B246" t="s">
+        <v>289</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D246" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>628</v>
+      </c>
+      <c r="B247" t="s">
+        <v>289</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D247" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>629</v>
+      </c>
+      <c r="B248" t="s">
+        <v>289</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D248" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>630</v>
+      </c>
+      <c r="B249" t="s">
+        <v>289</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D249" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>631</v>
+      </c>
+      <c r="B250" t="s">
+        <v>289</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D250" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>632</v>
+      </c>
+      <c r="B251" t="s">
+        <v>289</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D251" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>633</v>
+      </c>
+      <c r="B252" t="s">
+        <v>289</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D252" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>634</v>
+      </c>
+      <c r="B253" t="s">
+        <v>289</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D253" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>635</v>
+      </c>
+      <c r="B254" t="s">
+        <v>289</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D254" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>636</v>
+      </c>
+      <c r="B255" t="s">
+        <v>289</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D255" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>637</v>
+      </c>
+      <c r="B256" t="s">
+        <v>289</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D256" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>638</v>
+      </c>
+      <c r="B257" t="s">
+        <v>289</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D257" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>639</v>
+      </c>
+      <c r="B258" t="s">
+        <v>289</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D258" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>640</v>
+      </c>
+      <c r="B259" t="s">
+        <v>289</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D259" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>641</v>
+      </c>
+      <c r="B260" t="s">
+        <v>289</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D260" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>642</v>
+      </c>
+      <c r="B261" t="s">
+        <v>289</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D261" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>643</v>
+      </c>
+      <c r="B262" t="s">
+        <v>289</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D262" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>644</v>
+      </c>
+      <c r="B263" t="s">
+        <v>289</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D263" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>645</v>
+      </c>
+      <c r="B264" t="s">
+        <v>289</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D264" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>646</v>
+      </c>
+      <c r="B265" t="s">
+        <v>289</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D265" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>647</v>
+      </c>
+      <c r="B266" t="s">
+        <v>289</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D266" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>648</v>
+      </c>
+      <c r="B267" t="s">
+        <v>289</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D267" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>649</v>
+      </c>
+      <c r="B268" t="s">
+        <v>289</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D268" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>650</v>
+      </c>
+      <c r="B269" t="s">
+        <v>289</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D269" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>651</v>
+      </c>
+      <c r="B270" t="s">
+        <v>289</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D270" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>652</v>
+      </c>
+      <c r="B271" t="s">
+        <v>289</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D271" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>653</v>
+      </c>
+      <c r="B272" t="s">
+        <v>289</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D272" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>654</v>
+      </c>
+      <c r="B273" t="s">
+        <v>289</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D273" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>655</v>
+      </c>
+      <c r="B274" t="s">
+        <v>289</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D274" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>656</v>
+      </c>
+      <c r="B275" t="s">
+        <v>289</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D275" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>657</v>
+      </c>
+      <c r="B276" t="s">
+        <v>289</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D276" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>658</v>
+      </c>
+      <c r="B277" t="s">
+        <v>289</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D277" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>659</v>
+      </c>
+      <c r="B278" t="s">
+        <v>289</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D278" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>660</v>
+      </c>
+      <c r="B279" t="s">
+        <v>289</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D279" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>661</v>
+      </c>
+      <c r="B280" t="s">
+        <v>289</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D280" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>662</v>
+      </c>
+      <c r="B281" t="s">
+        <v>289</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D281" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>663</v>
+      </c>
+      <c r="B282" t="s">
+        <v>289</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D282" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>664</v>
+      </c>
+      <c r="B283" t="s">
+        <v>289</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D283" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>665</v>
+      </c>
+      <c r="B284" t="s">
+        <v>289</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D284" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>666</v>
+      </c>
+      <c r="B285" t="s">
+        <v>289</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D285" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>667</v>
+      </c>
+      <c r="B286" t="s">
+        <v>289</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D286" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>668</v>
+      </c>
+      <c r="B287" t="s">
+        <v>289</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D287" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>669</v>
+      </c>
+      <c r="B288" t="s">
+        <v>289</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D288" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>670</v>
+      </c>
+      <c r="B289" t="s">
+        <v>289</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D289" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>671</v>
+      </c>
+      <c r="B290" t="s">
+        <v>289</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D290" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>672</v>
+      </c>
+      <c r="B291" t="s">
+        <v>289</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D291" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>673</v>
+      </c>
+      <c r="B292" t="s">
+        <v>289</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D292" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>674</v>
+      </c>
+      <c r="B293" t="s">
+        <v>289</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D293" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>675</v>
+      </c>
+      <c r="B294" t="s">
+        <v>289</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D294" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>676</v>
+      </c>
+      <c r="B295" t="s">
+        <v>289</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D295" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>677</v>
+      </c>
+      <c r="B296" t="s">
+        <v>289</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D296" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>678</v>
+      </c>
+      <c r="B297" t="s">
+        <v>289</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D297" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>679</v>
+      </c>
+      <c r="B298" t="s">
+        <v>289</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D298" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>680</v>
+      </c>
+      <c r="B299" t="s">
+        <v>289</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D299" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>681</v>
+      </c>
+      <c r="B300" t="s">
+        <v>289</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D300" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>682</v>
+      </c>
+      <c r="B301" t="s">
+        <v>289</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D301" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>683</v>
+      </c>
+      <c r="B302" t="s">
+        <v>289</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D302" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>684</v>
+      </c>
+      <c r="B303" t="s">
+        <v>289</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D303" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>685</v>
+      </c>
+      <c r="B304" t="s">
+        <v>289</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D304" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>686</v>
+      </c>
+      <c r="B305" t="s">
+        <v>289</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D305" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>687</v>
+      </c>
+      <c r="B306" t="s">
+        <v>289</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D306" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>688</v>
+      </c>
+      <c r="B307" t="s">
+        <v>289</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D307" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>689</v>
+      </c>
+      <c r="B308" t="s">
+        <v>289</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D308" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>690</v>
+      </c>
+      <c r="B309" t="s">
+        <v>289</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D309" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>691</v>
+      </c>
+      <c r="B310" t="s">
+        <v>289</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D310" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>692</v>
+      </c>
+      <c r="B311" t="s">
+        <v>289</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D311" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>693</v>
+      </c>
+      <c r="B312" t="s">
+        <v>289</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D312" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>694</v>
+      </c>
+      <c r="B313" t="s">
+        <v>289</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D313" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>695</v>
+      </c>
+      <c r="B314" t="s">
+        <v>289</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D314" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>696</v>
+      </c>
+      <c r="B315" t="s">
+        <v>289</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D315" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>697</v>
+      </c>
+      <c r="B316" t="s">
+        <v>289</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D316" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>698</v>
+      </c>
+      <c r="B317" t="s">
+        <v>289</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D317" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>699</v>
+      </c>
+      <c r="B318" t="s">
+        <v>289</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D318" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>700</v>
+      </c>
+      <c r="B319" t="s">
+        <v>289</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D319" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>701</v>
+      </c>
+      <c r="B320" t="s">
+        <v>289</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D320" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>702</v>
+      </c>
+      <c r="B321" t="s">
+        <v>289</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D321" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>703</v>
+      </c>
+      <c r="B322" t="s">
+        <v>289</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D322" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>704</v>
+      </c>
+      <c r="B323" t="s">
+        <v>289</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D323" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>705</v>
+      </c>
+      <c r="B324" t="s">
+        <v>289</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D324" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>706</v>
+      </c>
+      <c r="B325" t="s">
+        <v>289</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D325" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>707</v>
+      </c>
+      <c r="B326" t="s">
+        <v>289</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D326" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>708</v>
+      </c>
+      <c r="B327" t="s">
+        <v>289</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D327" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>709</v>
+      </c>
+      <c r="B328" t="s">
+        <v>289</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D328" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>710</v>
+      </c>
+      <c r="B329" t="s">
+        <v>289</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D329" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>711</v>
+      </c>
+      <c r="B330" t="s">
+        <v>289</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D330" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>712</v>
+      </c>
+      <c r="B331" t="s">
+        <v>289</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D331" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>713</v>
+      </c>
+      <c r="B332" t="s">
+        <v>289</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D332" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>714</v>
+      </c>
+      <c r="B333" t="s">
+        <v>289</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D333" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>715</v>
+      </c>
+      <c r="B334" t="s">
+        <v>289</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D334" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>716</v>
+      </c>
+      <c r="B335" t="s">
+        <v>289</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D335" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>717</v>
+      </c>
+      <c r="B336" t="s">
+        <v>289</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D336" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>718</v>
+      </c>
+      <c r="B337" t="s">
+        <v>289</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D337" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>719</v>
+      </c>
+      <c r="B338" t="s">
+        <v>289</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D338" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>720</v>
+      </c>
+      <c r="B339" t="s">
+        <v>289</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D339" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>721</v>
+      </c>
+      <c r="B340" t="s">
+        <v>289</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D340" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>722</v>
+      </c>
+      <c r="B341" t="s">
+        <v>289</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D341" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>723</v>
+      </c>
+      <c r="B342" t="s">
+        <v>289</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D342" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>724</v>
+      </c>
+      <c r="B343" t="s">
+        <v>289</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D343" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>725</v>
+      </c>
+      <c r="B344" t="s">
+        <v>289</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D344" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>726</v>
+      </c>
+      <c r="B345" t="s">
+        <v>289</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D345" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>727</v>
+      </c>
+      <c r="B346" t="s">
+        <v>289</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D346" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>728</v>
+      </c>
+      <c r="B347" t="s">
+        <v>289</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D347" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>729</v>
+      </c>
+      <c r="B348" t="s">
+        <v>289</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D348" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>730</v>
+      </c>
+      <c r="B349" t="s">
+        <v>289</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D349" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>731</v>
+      </c>
+      <c r="B350" t="s">
+        <v>289</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D350" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>732</v>
+      </c>
+      <c r="B351" t="s">
+        <v>289</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D351" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>733</v>
+      </c>
+      <c r="B352" t="s">
+        <v>289</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D352" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>734</v>
+      </c>
+      <c r="B353" t="s">
+        <v>289</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D353" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>735</v>
+      </c>
+      <c r="B354" t="s">
+        <v>289</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D354" t="s">
         <v>280</v>
       </c>
     </row>

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="10260" tabRatio="868" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="10260" tabRatio="868" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Codespace" sheetId="12" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="746">
   <si>
     <t>default_key</t>
   </si>
@@ -2245,6 +2245,36 @@
   </si>
   <si>
     <t>84n - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>online_resource_link</t>
+  </si>
+  <si>
+    <t>GMD_ONLINERESOURCE</t>
+  </si>
+  <si>
+    <t>online_resource_protocol</t>
+  </si>
+  <si>
+    <t>contacts{}.postalcode</t>
+  </si>
+  <si>
+    <t>online_resource_description</t>
+  </si>
+  <si>
+    <t>online_resource_description_en</t>
+  </si>
+  <si>
+    <t>online_resource_description_other_lang_locale</t>
+  </si>
+  <si>
+    <t>online_resource_description_locale</t>
+  </si>
+  <si>
+    <t>online_resource_description_other_lang</t>
+  </si>
+  <si>
+    <t>online_resource_description_fr</t>
   </si>
 </sst>
 </file>
@@ -3630,10 +3660,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1048576"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:XFD87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4468,6 +4498,138 @@
         <v>133</v>
       </c>
     </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>736</v>
+      </c>
+      <c r="B76" t="s">
+        <v>736</v>
+      </c>
+      <c r="C76" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>738</v>
+      </c>
+      <c r="C77" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>740</v>
+      </c>
+      <c r="B78" t="s">
+        <v>741</v>
+      </c>
+      <c r="C78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>742</v>
+      </c>
+      <c r="B79" t="s">
+        <v>743</v>
+      </c>
+      <c r="C79" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>744</v>
+      </c>
+      <c r="B80" t="s">
+        <v>745</v>
+      </c>
+      <c r="C80" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>97</v>
+      </c>
+      <c r="B83" t="s">
+        <v>98</v>
+      </c>
+      <c r="C83" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>99</v>
+      </c>
+      <c r="B84" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85" t="s">
+        <v>104</v>
+      </c>
+      <c r="C85" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>101</v>
+      </c>
+      <c r="B86" t="s">
+        <v>739</v>
+      </c>
+      <c r="C86" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>105</v>
+      </c>
+      <c r="B87" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4475,10 +4637,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5233,6 +5395,138 @@
       </c>
       <c r="C68" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>736</v>
+      </c>
+      <c r="B69" t="s">
+        <v>736</v>
+      </c>
+      <c r="C69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>738</v>
+      </c>
+      <c r="B70" t="s">
+        <v>738</v>
+      </c>
+      <c r="C70" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>740</v>
+      </c>
+      <c r="B71" t="s">
+        <v>741</v>
+      </c>
+      <c r="C71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>742</v>
+      </c>
+      <c r="B72" t="s">
+        <v>743</v>
+      </c>
+      <c r="C72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>744</v>
+      </c>
+      <c r="B73" t="s">
+        <v>745</v>
+      </c>
+      <c r="C73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>99</v>
+      </c>
+      <c r="B77" t="s">
+        <v>100</v>
+      </c>
+      <c r="C77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>101</v>
+      </c>
+      <c r="B79" t="s">
+        <v>739</v>
+      </c>
+      <c r="C79" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" t="s">
+        <v>106</v>
+      </c>
+      <c r="C80" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -5814,7 +6108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
+    <sheetView topLeftCell="A331" workbookViewId="0">
       <selection activeCell="B353" sqref="B353:D354"/>
     </sheetView>
   </sheetViews>

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="752">
   <si>
     <t>default_key</t>
   </si>
@@ -2256,9 +2256,6 @@
     <t>online_resource_protocol</t>
   </si>
   <si>
-    <t>contacts{}.postalcode</t>
-  </si>
-  <si>
     <t>online_resource_description</t>
   </si>
   <si>
@@ -2275,6 +2272,27 @@
   </si>
   <si>
     <t>online_resource_description_fr</t>
+  </si>
+  <si>
+    <t>https://geodiscover.alberta.ca/geoportal/</t>
+  </si>
+  <si>
+    <t>GeoDiscover Alberta provides enhanced details regarding Alberta's geospatial data.</t>
+  </si>
+  <si>
+    <t>GéoDécouvrez l'Alberta fournit des détails améliorés sur les données géospatiales de l'Alberta.</t>
+  </si>
+  <si>
+    <t>https://data.gov.bc.ca/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DataBC encourages and enables the strategic management and sharing of data across the government enterprise and with the public. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DataBC encourage et permet la gestion et le partage stratégiques des données dans l'ensemble de l'entreprise gouvernementale et avec le public. </t>
+  </si>
+  <si>
+    <t>contact_postal_code</t>
   </si>
 </sst>
 </file>
@@ -3663,7 +3681,7 @@
   <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:XFD87"/>
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4522,10 +4540,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>739</v>
+      </c>
+      <c r="B78" t="s">
         <v>740</v>
-      </c>
-      <c r="B78" t="s">
-        <v>741</v>
       </c>
       <c r="C78" t="s">
         <v>76</v>
@@ -4533,10 +4551,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>741</v>
+      </c>
+      <c r="B79" t="s">
         <v>742</v>
-      </c>
-      <c r="B79" t="s">
-        <v>743</v>
       </c>
       <c r="C79" t="s">
         <v>76</v>
@@ -4544,10 +4562,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>743</v>
+      </c>
+      <c r="B80" t="s">
         <v>744</v>
-      </c>
-      <c r="B80" t="s">
-        <v>745</v>
       </c>
       <c r="C80" t="s">
         <v>76</v>
@@ -4610,10 +4628,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>101</v>
+        <v>751</v>
       </c>
       <c r="B86" t="s">
-        <v>739</v>
+        <v>102</v>
       </c>
       <c r="C86" t="s">
         <v>76</v>
@@ -4640,7 +4658,7 @@
   <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5421,10 +5439,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>739</v>
+      </c>
+      <c r="B71" t="s">
         <v>740</v>
-      </c>
-      <c r="B71" t="s">
-        <v>741</v>
       </c>
       <c r="C71" t="s">
         <v>76</v>
@@ -5432,10 +5450,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>741</v>
+      </c>
+      <c r="B72" t="s">
         <v>742</v>
-      </c>
-      <c r="B72" t="s">
-        <v>743</v>
       </c>
       <c r="C72" t="s">
         <v>76</v>
@@ -5443,10 +5461,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>743</v>
+      </c>
+      <c r="B73" t="s">
         <v>744</v>
-      </c>
-      <c r="B73" t="s">
-        <v>745</v>
       </c>
       <c r="C73" t="s">
         <v>76</v>
@@ -5509,10 +5527,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>101</v>
+        <v>751</v>
       </c>
       <c r="B79" t="s">
-        <v>739</v>
+        <v>102</v>
       </c>
       <c r="C79" t="s">
         <v>76</v>
@@ -5571,10 +5589,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5894,9 +5912,50 @@
         <v>25</v>
       </c>
     </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>736</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>738</v>
+      </c>
+      <c r="B41" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>739</v>
+      </c>
+      <c r="B42" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>741</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>743</v>
+      </c>
+      <c r="B44" t="s">
+        <v>747</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B31" r:id="rId1"/>
+    <hyperlink ref="B40" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5904,10 +5963,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6097,6 +6156,46 @@
       </c>
       <c r="B23" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>736</v>
+      </c>
+      <c r="B24" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>738</v>
+      </c>
+      <c r="B25" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>739</v>
+      </c>
+      <c r="B26" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>741</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>743</v>
+      </c>
+      <c r="B28" t="s">
+        <v>750</v>
       </c>
     </row>
   </sheetData>

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="10260" tabRatio="868" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="10260" tabRatio="868" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Codespace" sheetId="12" r:id="rId1"/>
@@ -18,14 +18,15 @@
     <sheet name="Country" sheetId="9" r:id="rId4"/>
     <sheet name="Default_AB" sheetId="4" r:id="rId5"/>
     <sheet name="Default_BC" sheetId="1" r:id="rId6"/>
-    <sheet name="Format" sheetId="7" r:id="rId7"/>
-    <sheet name="FrenchTranslation" sheetId="8" r:id="rId8"/>
-    <sheet name="Keyword" sheetId="5" r:id="rId9"/>
-    <sheet name="Progress" sheetId="10" r:id="rId10"/>
-    <sheet name="Role" sheetId="11" r:id="rId11"/>
-    <sheet name="SpatialRef" sheetId="13" r:id="rId12"/>
-    <sheet name="SpatialRepresentation" sheetId="14" r:id="rId13"/>
-    <sheet name="Update" sheetId="6" r:id="rId14"/>
+    <sheet name="ESRI_AB" sheetId="15" r:id="rId7"/>
+    <sheet name="Format" sheetId="7" r:id="rId8"/>
+    <sheet name="FrenchTranslation" sheetId="8" r:id="rId9"/>
+    <sheet name="Keyword" sheetId="5" r:id="rId10"/>
+    <sheet name="Progress" sheetId="10" r:id="rId11"/>
+    <sheet name="Role" sheetId="11" r:id="rId12"/>
+    <sheet name="SpatialRef" sheetId="13" r:id="rId13"/>
+    <sheet name="SpatialRepresentation" sheetId="14" r:id="rId14"/>
+    <sheet name="Update" sheetId="6" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2417" uniqueCount="793">
   <si>
     <t>default_key</t>
   </si>
@@ -2287,6 +2288,135 @@
   </si>
   <si>
     <t>contact_postal_code</t>
+  </si>
+  <si>
+    <t>lookup_title</t>
+  </si>
+  <si>
+    <t>Access and Facility Polygons</t>
+  </si>
+  <si>
+    <t>Access and Facility Roads</t>
+  </si>
+  <si>
+    <t>Alberta Provincial Boundary - 2007</t>
+  </si>
+  <si>
+    <t>ATS v4.1 Alberta Provincial Boundary</t>
+  </si>
+  <si>
+    <t>ATS v4.1 Polygons - Legal Subdivision (LSD) with Road Allowance</t>
+  </si>
+  <si>
+    <t>ATS v4.1 Polygons - Quarter Section with Road Allowance</t>
+  </si>
+  <si>
+    <t>ATS v4.1 Polygons - Section with Road Allowance</t>
+  </si>
+  <si>
+    <t>ATS v4.1 Polygons - Township Index</t>
+  </si>
+  <si>
+    <t>Base Hydrography Point Event</t>
+  </si>
+  <si>
+    <t>Base Hydrography Point Update</t>
+  </si>
+  <si>
+    <t>Base Stream and Flow Representation</t>
+  </si>
+  <si>
+    <t>Base Stream and Flow Representation Update</t>
+  </si>
+  <si>
+    <t>Base Waterbody Polygon Arc</t>
+  </si>
+  <si>
+    <t>Base Waterbody Polygon Update</t>
+  </si>
+  <si>
+    <t>Cutlines and Trails</t>
+  </si>
+  <si>
+    <t>DND Air Weapons Range</t>
+  </si>
+  <si>
+    <t>DND Military Base</t>
+  </si>
+  <si>
+    <t>Education - Authorities District</t>
+  </si>
+  <si>
+    <t>Education - Authorities Francophone</t>
+  </si>
+  <si>
+    <t>Education - Authorities Public</t>
+  </si>
+  <si>
+    <t>Education - Authorities Separate</t>
+  </si>
+  <si>
+    <t>Facility Points</t>
+  </si>
+  <si>
+    <t>Fish and Wildlife District</t>
+  </si>
+  <si>
+    <t>Green/White Area</t>
+  </si>
+  <si>
+    <t>Green/White Area Historical</t>
+  </si>
+  <si>
+    <t>Hamlet, Locality and Townsite Point</t>
+  </si>
+  <si>
+    <t>Indian Reserve</t>
+  </si>
+  <si>
+    <t>Integrated Resource Plan - Local</t>
+  </si>
+  <si>
+    <t>Integrated Resource Plan - Subregional</t>
+  </si>
+  <si>
+    <t>Land-use Framework Planning Regions</t>
+  </si>
+  <si>
+    <t>Metis Settlement</t>
+  </si>
+  <si>
+    <t>Non-Permit Area</t>
+  </si>
+  <si>
+    <t>NTS Grid 1:20 000</t>
+  </si>
+  <si>
+    <t>NTS Grid 1:250 000</t>
+  </si>
+  <si>
+    <t>NTS Grid 1:50 000</t>
+  </si>
+  <si>
+    <t>Powerlines</t>
+  </si>
+  <si>
+    <t>Provincial Electoral Division - Current 2010</t>
+  </si>
+  <si>
+    <t>Provincial Electoral Division - Historical 2003</t>
+  </si>
+  <si>
+    <t>Railway Point Events</t>
+  </si>
+  <si>
+    <t>Railways</t>
+  </si>
+  <si>
+    <t>Road Point Events</t>
+  </si>
+  <si>
+    <t>layer_name</t>
   </si>
 </sst>
 </file>
@@ -2685,6 +2815,224 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2858,7 +3206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -3117,7 +3465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -3250,7 +3598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -3369,7 +3717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -3674,8 +4022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78:B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4652,7 +5000,7 @@
   <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+      <selection activeCell="B71" sqref="B71:B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5586,7 +5934,7 @@
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:A44"/>
+      <selection activeCell="A42" sqref="A42:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5924,7 +6272,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B42" t="s">
         <v>744</v>
@@ -5932,7 +6280,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B43" t="s">
         <v>19</v>
@@ -5940,7 +6288,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B44" t="s">
         <v>745</v>
@@ -5960,7 +6308,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A26" sqref="A26:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6170,7 +6518,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B26" t="s">
         <v>747</v>
@@ -6178,7 +6526,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
@@ -6186,7 +6534,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B28" t="s">
         <v>748</v>
@@ -6198,6 +6546,361 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>752</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>753</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>754</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>755</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>756</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>757</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>758</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>759</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>760</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>761</v>
+      </c>
+      <c r="B12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>762</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>763</v>
+      </c>
+      <c r="B14">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>764</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>765</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>766</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>767</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>768</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>769</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>770</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>771</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>772</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>773</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>774</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>775</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>776</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>777</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>778</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>779</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>780</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>781</v>
+      </c>
+      <c r="B32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>782</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>783</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>784</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>785</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>786</v>
+      </c>
+      <c r="B37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>787</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>788</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>789</v>
+      </c>
+      <c r="B40">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>790</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>791</v>
+      </c>
+      <c r="B42">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D354"/>
   <sheetViews>
@@ -11175,7 +11878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -11215,222 +11918,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>207</v>
-      </c>
-      <c r="B7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>203</v>
-      </c>
-      <c r="B9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>210</v>
-      </c>
-      <c r="B12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>211</v>
-      </c>
-      <c r="B13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>212</v>
-      </c>
-      <c r="B14" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>213</v>
-      </c>
-      <c r="B15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>214</v>
-      </c>
-      <c r="B16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>215</v>
-      </c>
-      <c r="B17" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>216</v>
-      </c>
-      <c r="B18" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>217</v>
-      </c>
-      <c r="B19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>218</v>
-      </c>
-      <c r="B20" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>219</v>
-      </c>
-      <c r="B21" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>201</v>
-      </c>
-      <c r="B22" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>220</v>
-      </c>
-      <c r="B23" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>221</v>
-      </c>
-      <c r="B24" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B25" t="s">
-        <v>213</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\LOOKUP_TABLES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\PT_Harvester\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="10260" tabRatio="868" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="10260" tabRatio="868" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Codespace" sheetId="12" r:id="rId1"/>
@@ -904,1519 +904,1519 @@
     <t>ftp</t>
   </si>
   <si>
+    <t>GDB</t>
+  </si>
+  <si>
+    <t>GEODATABASE_FILE</t>
+  </si>
+  <si>
+    <t>geojson</t>
+  </si>
+  <si>
+    <t>GeoJSON</t>
+  </si>
+  <si>
+    <t>GEORSS</t>
+  </si>
+  <si>
+    <t>GeoRSS</t>
+  </si>
+  <si>
+    <t>Gridded Data</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>HTTP</t>
+  </si>
+  <si>
+    <t>HTTPS</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>kml</t>
+  </si>
+  <si>
+    <t>KML</t>
+  </si>
+  <si>
+    <t>kmz</t>
+  </si>
+  <si>
+    <t>KMZ</t>
+  </si>
+  <si>
+    <t>LYR</t>
+  </si>
+  <si>
+    <t>Non-GIS Data</t>
+  </si>
+  <si>
+    <t>openapi-json</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>Document de soutien</t>
+  </si>
+  <si>
+    <t>Supporting Document</t>
+  </si>
+  <si>
+    <t>PlainsNorthernFoothills</t>
+  </si>
+  <si>
+    <t>REST</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>shp</t>
+  </si>
+  <si>
+    <t>Tabular Data</t>
+  </si>
+  <si>
+    <t>TIFF</t>
+  </si>
+  <si>
+    <t>txt</t>
+  </si>
+  <si>
+    <t>TXT</t>
+  </si>
+  <si>
+    <t>uri</t>
+  </si>
+  <si>
+    <t>wms</t>
+  </si>
+  <si>
+    <t>WMS</t>
+  </si>
+  <si>
+    <t>xls</t>
+  </si>
+  <si>
+    <t>XLS</t>
+  </si>
+  <si>
+    <t>xlsx</t>
+  </si>
+  <si>
+    <t>xml</t>
+  </si>
+  <si>
+    <t>XML</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>ZIP</t>
+  </si>
+  <si>
+    <t>73e vermilion - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>72e foremost - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83k iosegun lake - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>82p drumheller - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83e mount robson - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>82h lethbridge - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83c brazeau - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>74d - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>74m - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>82j - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>82p - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>83g - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>84m - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>84o - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>84p - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>base map plus ep operations regions, fish and wildlife districts, green/white area - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus ep operations regions, municipalities, green/white area - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus land-use framework planning regions, municipalities, green/white area - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus municipalities, green/white area - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus provincial electoral divisions - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus forest management units / forest management agreement holders - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus land-use framework planning regions, forest management units / forest management agreement holders, green/white area - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus land-use framework planning regions, treaty boundary - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus public land use zones - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus registered fur management areas (rfma) - provincial base map series</t>
+  </si>
+  <si>
+    <t>provincial electoral divisions - provincial base map series</t>
+  </si>
+  <si>
+    <t>72l medicine hat - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>73d wainwright - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83o lesser slave lake - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83l wapiti - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>74m fitzgerald - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>74d waterways - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>82i gleichen - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>84b peerless lake - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>84e chinchaga river - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>84k mount watt - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>73d - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>82g - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>83d - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>84j - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>84k - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>base map plus ep operations regions, green/white area - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus land-use framework planning regions, green/white - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus nts grid, green/white area - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus land-use framework planning regions, ep operations regions, municipalities, green/white area - provincial base map series</t>
+  </si>
+  <si>
+    <t>provincial ep operations regions / green and white areas - provincial base map series</t>
+  </si>
+  <si>
+    <t>provincial municipalities - provincial base map series</t>
+  </si>
+  <si>
+    <t>82o calgary - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>74e bitumount - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>82g fernie - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83g wabamun lake - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83i - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>83l - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>83n - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>83p - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>84b - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>84c - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>84e - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>73l - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>74l - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>82o - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>72e - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>base map plus land-use framework planning regions, green/white area - provincial base map series</t>
+  </si>
+  <si>
+    <t>72m oyen - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>74l fort chipewyan - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83a red deer - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83h edmonton - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83i tawatinaw - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83n winagami - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83p pelican - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>84a algar lake - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>84c peace river - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83d canoe river - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>84j vermilion chutes - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>84m bistcho lake - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>84p peace point - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>72m - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>73e - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>73m - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>82h - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>82i - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>83c - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>83k - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>83m - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>83o - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>84d - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>84f - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>84g - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>84h - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>84l - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>84n - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>base map plus green/white area - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus municipalities - provincial base map series</t>
+  </si>
+  <si>
+    <t>provincial land-use framework regions / green and white areas - provincial base map series</t>
+  </si>
+  <si>
+    <t>73l sand river - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83f edson - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83j whitecourt - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>82j kananaskis lakes - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83b rocky mountain house - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>73m winefred lake - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>82n golden - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>84f bison lake - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>83m grande prairie - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>84l zama lake - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>84i lake claire - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>84g wadlin lake - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>84h namur lake - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>84d clear hills - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>84n steen river - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>84o whitesand river - provincial access/topographic map series</t>
+  </si>
+  <si>
+    <t>72l - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>74e - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>82n - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>83a - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>83b - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>83e - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>83f - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>83h - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>83j - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>84a - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>84i - provincial resource access map series</t>
+  </si>
+  <si>
+    <t>base map plus ep operations regions, parks regions, parks districts - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus ep operations regions, parks regions and parks districts - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus forest areas of alberta - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus fish and wildlife districts, green/white area - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus fish and wildlife enforcement regions and fish and wildlife enforcement districts - provincial base map series</t>
+  </si>
+  <si>
+    <t>base map plus nts grid - provincial base map series</t>
+  </si>
+  <si>
+    <t>provincial base map - provincial base map series</t>
+  </si>
+  <si>
+    <t>Alberta Social Vulnerability Indicators (CSD)</t>
+  </si>
+  <si>
+    <t>soil correlation areas v3 kmz</t>
+  </si>
+  <si>
+    <t>soil correlation areas v3 shp</t>
+  </si>
+  <si>
+    <t>unsrrdr_lindist.gdb</t>
+  </si>
+  <si>
+    <t>unsrrsr_foresth.gdb</t>
+  </si>
+  <si>
+    <t>unsrrdr_studyarea</t>
+  </si>
+  <si>
+    <t>whirling disease decontamination zones shape file</t>
+  </si>
+  <si>
+    <t>whirling disease decontamination zones kmz</t>
+  </si>
+  <si>
+    <t>feralhorseminimumcount2019 fgdb</t>
+  </si>
+  <si>
+    <t>feralhorse2019minimumcount shp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">special hunting license draw antlered elk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">special hunting license draw antlerless moose </t>
+  </si>
+  <si>
+    <t xml:space="preserve">special hunting license draw elk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">special hunting license draw calf moose </t>
+  </si>
+  <si>
+    <t xml:space="preserve">special hunting license draw mountain goat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">special hunting license draw trophy sheep </t>
+  </si>
+  <si>
+    <t xml:space="preserve">special hunting license draw non trophy sheep </t>
+  </si>
+  <si>
+    <t>special hunting license draw antlered moose</t>
+  </si>
+  <si>
+    <t>special hunting license draw antlerless elk</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>complété</t>
+  </si>
+  <si>
+    <t>RI_593</t>
+  </si>
+  <si>
+    <t>historicalArchive</t>
+  </si>
+  <si>
+    <t>archiveHistorique</t>
+  </si>
+  <si>
+    <t>RI_594</t>
+  </si>
+  <si>
+    <t>obsolete</t>
+  </si>
+  <si>
+    <t>périmé</t>
+  </si>
+  <si>
+    <t>RI_595</t>
+  </si>
+  <si>
+    <t>enContinue</t>
+  </si>
+  <si>
+    <t>RI_596</t>
+  </si>
+  <si>
+    <t>planned</t>
+  </si>
+  <si>
+    <t>planifié</t>
+  </si>
+  <si>
+    <t>RI_597</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>requis</t>
+  </si>
+  <si>
+    <t>RI_598</t>
+  </si>
+  <si>
+    <t>underDevelopment</t>
+  </si>
+  <si>
+    <t>enProduction</t>
+  </si>
+  <si>
+    <t>RI_599</t>
+  </si>
+  <si>
+    <t>proposed</t>
+  </si>
+  <si>
+    <t>proposé</t>
+  </si>
+  <si>
+    <t>RI_600</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>In work</t>
+  </si>
+  <si>
+    <t>resourceProvider</t>
+  </si>
+  <si>
+    <t>fournisseurRessource</t>
+  </si>
+  <si>
+    <t>RI_408</t>
+  </si>
+  <si>
+    <t>custodian</t>
+  </si>
+  <si>
+    <t>conservateur</t>
+  </si>
+  <si>
+    <t>RI_409</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>propriétaire</t>
+  </si>
+  <si>
+    <t>RI_410</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>utilisateur</t>
+  </si>
+  <si>
+    <t>RI_411</t>
+  </si>
+  <si>
+    <t>distributor</t>
+  </si>
+  <si>
+    <t>distributeur</t>
+  </si>
+  <si>
+    <t>RI_412</t>
+  </si>
+  <si>
+    <t>originator</t>
+  </si>
+  <si>
+    <t>créateur</t>
+  </si>
+  <si>
+    <t>RI_413</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>RI_414</t>
+  </si>
+  <si>
+    <t>principalInvestigator</t>
+  </si>
+  <si>
+    <t>chercheurPrincipal</t>
+  </si>
+  <si>
+    <t>RI_415</t>
+  </si>
+  <si>
+    <t>processor</t>
+  </si>
+  <si>
+    <t>traiteur</t>
+  </si>
+  <si>
+    <t>RI_416</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> éditeur </t>
+  </si>
+  <si>
+    <t>RI_417</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>auteur</t>
+  </si>
+  <si>
+    <t>RI_418</t>
+  </si>
+  <si>
+    <t>collaborator</t>
+  </si>
+  <si>
+    <t>collaborateur</t>
+  </si>
+  <si>
+    <t>RI_419</t>
+  </si>
+  <si>
+    <t>editor</t>
+  </si>
+  <si>
+    <t>réviseur</t>
+  </si>
+  <si>
+    <t>RI_420</t>
+  </si>
+  <si>
+    <t>mediator</t>
+  </si>
+  <si>
+    <t>médiateur</t>
+  </si>
+  <si>
+    <t>RI_421</t>
+  </si>
+  <si>
+    <t>rightsHolder</t>
+  </si>
+  <si>
+    <t>détenteurDroits</t>
+  </si>
+  <si>
+    <t>RI_422</t>
+  </si>
+  <si>
+    <t>businessExpert</t>
+  </si>
+  <si>
+    <t>reference_codespace_value</t>
+  </si>
+  <si>
+    <t>IOGO</t>
+  </si>
+  <si>
+    <t>http://www.epsg-registry.org/</t>
+  </si>
+  <si>
+    <t>EPSG_3005 - NAD83 BC Albers</t>
+  </si>
+  <si>
+    <t>EPSG: 3005</t>
+  </si>
+  <si>
+    <t>EPSG_4326 - WGS84 - World Geodetic System 1984</t>
+  </si>
+  <si>
+    <t>EPSG: 4326</t>
+  </si>
+  <si>
+    <t>EPSG_4269 - NAD83</t>
+  </si>
+  <si>
+    <t>EPSG: 4269</t>
+  </si>
+  <si>
+    <t>EPSG_26707 - NAD27 UTM zone 7N</t>
+  </si>
+  <si>
+    <t>EPSG: 26707</t>
+  </si>
+  <si>
+    <t>N-A</t>
+  </si>
+  <si>
+    <t>EPSG: 3401</t>
+  </si>
+  <si>
+    <t>EPSG:4269</t>
+  </si>
+  <si>
+    <t>EPSG:3400</t>
+  </si>
+  <si>
+    <t>RI_640</t>
+  </si>
+  <si>
+    <t>vidéo</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>RI_639</t>
+  </si>
+  <si>
+    <t>stéréomodèle</t>
+  </si>
+  <si>
+    <t>stereoModel</t>
+  </si>
+  <si>
+    <t>RI_638</t>
+  </si>
+  <si>
+    <t>tin</t>
+  </si>
+  <si>
+    <t>ri_637</t>
+  </si>
+  <si>
+    <t>texteTable</t>
+  </si>
+  <si>
+    <t>textTable</t>
+  </si>
+  <si>
+    <t>RI_636</t>
+  </si>
+  <si>
+    <t>grille</t>
+  </si>
+  <si>
+    <t>grid</t>
+  </si>
+  <si>
+    <t>RI_635</t>
+  </si>
+  <si>
+    <t>vecteur</t>
+  </si>
+  <si>
+    <t>west of 4th meridian - historical forest inventory - phase 3 maps</t>
+  </si>
+  <si>
+    <t>82h - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>82j - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>82o - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>82p - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>83a - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>83b - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>83c - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>83e - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>83f - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>83g - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>83h - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>83i - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>83j - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>83k - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>83l - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>83m - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>83n - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>83o - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>83p - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>83b - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>83c - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>83e - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>83f - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>83g - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>83i - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>83j - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>83k - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>83l - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>83m - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>83n - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>83o - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>83p - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>west of 4th meridian - historical forest inventory - phase 2 (detailed) maps</t>
+  </si>
+  <si>
+    <t>historical alberta resource atlas series maps - administrative regions</t>
+  </si>
+  <si>
+    <t>historical alberta resource atlas series maps - agricultural processing and manufacturing</t>
+  </si>
+  <si>
+    <t>historical alberta resource atlas series maps - agricultural production</t>
+  </si>
+  <si>
+    <t>historical alberta resource atlas series maps - natural resources</t>
+  </si>
+  <si>
+    <t>historical alberta resource atlas series maps - physical features</t>
+  </si>
+  <si>
+    <t>historical alberta resource atlas series maps - population</t>
+  </si>
+  <si>
+    <t>historical alberta resource atlas series maps - service and recreational facilities</t>
+  </si>
+  <si>
+    <t>historical hydrographic survey - bathymetric maps</t>
+  </si>
+  <si>
+    <t>74d - historical forest cover series</t>
+  </si>
+  <si>
+    <t>74e - historical forest cover series</t>
+  </si>
+  <si>
+    <t>74l - historical forest cover series</t>
+  </si>
+  <si>
+    <t>74m - historical forest cover series</t>
+  </si>
+  <si>
+    <t>west of 5th meridian - historical forest inventory - phase 2 (detailed) maps</t>
+  </si>
+  <si>
+    <t>west of 6th meridian - historical forest inventory - phase 2 (detailed) maps</t>
+  </si>
+  <si>
+    <t>72e - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>72l - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>72m - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>74d - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>74e - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>74l - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>84a - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>84b - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>84c - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>84d - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>84e - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>84f - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>84g - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>84h - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>84i - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>84j - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>84m - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>84n - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>84o - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>73m - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>83b - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>83c - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>83e - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>83f - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>83g - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>83i - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>83j - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>83k - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>83l - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>83m - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>83n - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>83o - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>83p - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>west of 5th meridian - historical forest inventory - phase 3 maps</t>
+  </si>
+  <si>
+    <t>73d - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>73e - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>73l - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>73m - historical reconnaissance vegetation inventory (rvi) maps</t>
+  </si>
+  <si>
+    <t>73l - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>73m - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84a - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84b - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84c - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84d - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84e - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84f - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84g - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84h - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84i - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84j - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84k - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84l - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84m - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84n - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84o - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84p - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>82g - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>82h - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>82i - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>82j - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>82n - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>82o - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>82o - historical forest cover series</t>
+  </si>
+  <si>
+    <t>west of 6th meridian - historical forest inventory - phase 3 maps</t>
+  </si>
+  <si>
+    <t>74d - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>74e - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>74l - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>74m - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>73l - historical forest cover series</t>
+  </si>
+  <si>
+    <t>73m - historical forest cover series</t>
+  </si>
+  <si>
+    <t>83b - historical forest cover series</t>
+  </si>
+  <si>
+    <t>83c - historical forest cover series</t>
+  </si>
+  <si>
+    <t>83e - historical forest cover series</t>
+  </si>
+  <si>
+    <t>83f - historical forest cover series</t>
+  </si>
+  <si>
+    <t>83g - historical forest cover series</t>
+  </si>
+  <si>
+    <t>83i - historical forest cover series</t>
+  </si>
+  <si>
+    <t>83j - historical forest cover series</t>
+  </si>
+  <si>
+    <t>83k - historical forest cover series</t>
+  </si>
+  <si>
+    <t>83l - historical forest cover series</t>
+  </si>
+  <si>
+    <t>83m - historical forest cover series</t>
+  </si>
+  <si>
+    <t>83n - historical forest cover series</t>
+  </si>
+  <si>
+    <t>83o - historical forest cover series</t>
+  </si>
+  <si>
+    <t>83p - historical forest cover series</t>
+  </si>
+  <si>
+    <t>84a - historical forest cover series</t>
+  </si>
+  <si>
+    <t>84b - historical forest cover series</t>
+  </si>
+  <si>
+    <t>84c - historical forest cover series</t>
+  </si>
+  <si>
+    <t>84d - historical forest cover series</t>
+  </si>
+  <si>
+    <t>84e - historical forest cover series</t>
+  </si>
+  <si>
+    <t>84f - historical forest cover series</t>
+  </si>
+  <si>
+    <t>84g - historical forest cover series</t>
+  </si>
+  <si>
+    <t>84h - historical forest cover series</t>
+  </si>
+  <si>
+    <t>84i - historical forest cover series</t>
+  </si>
+  <si>
+    <t>84j - historical forest cover series</t>
+  </si>
+  <si>
+    <t>84k - historical forest cover series</t>
+  </si>
+  <si>
+    <t>84l - historical forest cover series</t>
+  </si>
+  <si>
+    <t>84m - historical forest cover series</t>
+  </si>
+  <si>
+    <t>84n - historical forest cover series</t>
+  </si>
+  <si>
+    <t>84o - historical forest cover series</t>
+  </si>
+  <si>
+    <t>84p - historical forest cover series</t>
+  </si>
+  <si>
+    <t>82o - historical forest inventory - phase 1 (broad scale) maps</t>
+  </si>
+  <si>
+    <t>84a - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>84i - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>84j - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>84k - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>84l - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>84m - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>84n - historical watershed boundary maps</t>
+  </si>
+  <si>
+    <t>online_resource_link</t>
+  </si>
+  <si>
+    <t>online_resource_protocol</t>
+  </si>
+  <si>
+    <t>online_resource_description</t>
+  </si>
+  <si>
+    <t>online_resource_description_en</t>
+  </si>
+  <si>
+    <t>online_resource_description_other_lang_locale</t>
+  </si>
+  <si>
+    <t>online_resource_description_locale</t>
+  </si>
+  <si>
+    <t>online_resource_description_other_lang</t>
+  </si>
+  <si>
+    <t>online_resource_description_fr</t>
+  </si>
+  <si>
+    <t>https://geodiscover.alberta.ca/geoportal/</t>
+  </si>
+  <si>
+    <t>GeoDiscover Alberta provides enhanced details regarding Alberta's geospatial data.</t>
+  </si>
+  <si>
+    <t>GéoDécouvrez l'Alberta fournit des détails améliorés sur les données géospatiales de l'Alberta.</t>
+  </si>
+  <si>
+    <t>https://data.gov.bc.ca/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DataBC encourages and enables the strategic management and sharing of data across the government enterprise and with the public. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DataBC encourage et permet la gestion et le partage stratégiques des données dans l'ensemble de l'entreprise gouvernementale et avec le public. </t>
+  </si>
+  <si>
+    <t>contact_postal_code</t>
+  </si>
+  <si>
+    <t>lookup_title</t>
+  </si>
+  <si>
+    <t>Access and Facility Polygons</t>
+  </si>
+  <si>
+    <t>Access and Facility Roads</t>
+  </si>
+  <si>
+    <t>Alberta Provincial Boundary - 2007</t>
+  </si>
+  <si>
+    <t>ATS v4.1 Alberta Provincial Boundary</t>
+  </si>
+  <si>
+    <t>ATS v4.1 Polygons - Legal Subdivision (LSD) with Road Allowance</t>
+  </si>
+  <si>
+    <t>ATS v4.1 Polygons - Quarter Section with Road Allowance</t>
+  </si>
+  <si>
+    <t>ATS v4.1 Polygons - Section with Road Allowance</t>
+  </si>
+  <si>
+    <t>ATS v4.1 Polygons - Township Index</t>
+  </si>
+  <si>
+    <t>Base Hydrography Point Event</t>
+  </si>
+  <si>
+    <t>Base Hydrography Point Update</t>
+  </si>
+  <si>
+    <t>Base Stream and Flow Representation</t>
+  </si>
+  <si>
+    <t>Base Stream and Flow Representation Update</t>
+  </si>
+  <si>
+    <t>Base Waterbody Polygon Arc</t>
+  </si>
+  <si>
+    <t>Base Waterbody Polygon Update</t>
+  </si>
+  <si>
+    <t>Cutlines and Trails</t>
+  </si>
+  <si>
+    <t>DND Air Weapons Range</t>
+  </si>
+  <si>
+    <t>DND Military Base</t>
+  </si>
+  <si>
+    <t>Education - Authorities District</t>
+  </si>
+  <si>
+    <t>Education - Authorities Francophone</t>
+  </si>
+  <si>
+    <t>Education - Authorities Public</t>
+  </si>
+  <si>
+    <t>Education - Authorities Separate</t>
+  </si>
+  <si>
+    <t>Facility Points</t>
+  </si>
+  <si>
+    <t>Fish and Wildlife District</t>
+  </si>
+  <si>
+    <t>Green/White Area</t>
+  </si>
+  <si>
+    <t>Green/White Area Historical</t>
+  </si>
+  <si>
+    <t>Hamlet, Locality and Townsite Point</t>
+  </si>
+  <si>
+    <t>Indian Reserve</t>
+  </si>
+  <si>
+    <t>Integrated Resource Plan - Local</t>
+  </si>
+  <si>
+    <t>Integrated Resource Plan - Subregional</t>
+  </si>
+  <si>
+    <t>Land-use Framework Planning Regions</t>
+  </si>
+  <si>
+    <t>Metis Settlement</t>
+  </si>
+  <si>
+    <t>Non-Permit Area</t>
+  </si>
+  <si>
+    <t>NTS Grid 1:20 000</t>
+  </si>
+  <si>
+    <t>NTS Grid 1:250 000</t>
+  </si>
+  <si>
+    <t>NTS Grid 1:50 000</t>
+  </si>
+  <si>
+    <t>Powerlines</t>
+  </si>
+  <si>
+    <t>Provincial Electoral Division - Current 2010</t>
+  </si>
+  <si>
+    <t>Provincial Electoral Division - Historical 2003</t>
+  </si>
+  <si>
+    <t>Railway Point Events</t>
+  </si>
+  <si>
+    <t>Railways</t>
+  </si>
+  <si>
+    <t>Road Point Events</t>
+  </si>
+  <si>
+    <t>layer_name</t>
+  </si>
+  <si>
     <t>other</t>
-  </si>
-  <si>
-    <t>GDB</t>
-  </si>
-  <si>
-    <t>GEODATABASE_FILE</t>
-  </si>
-  <si>
-    <t>geojson</t>
-  </si>
-  <si>
-    <t>GeoJSON</t>
-  </si>
-  <si>
-    <t>GEORSS</t>
-  </si>
-  <si>
-    <t>GeoRSS</t>
-  </si>
-  <si>
-    <t>Gridded Data</t>
-  </si>
-  <si>
-    <t>html</t>
-  </si>
-  <si>
-    <t>HTML</t>
-  </si>
-  <si>
-    <t>HTTP</t>
-  </si>
-  <si>
-    <t>HTTPS</t>
-  </si>
-  <si>
-    <t>JSON</t>
-  </si>
-  <si>
-    <t>kml</t>
-  </si>
-  <si>
-    <t>KML</t>
-  </si>
-  <si>
-    <t>kmz</t>
-  </si>
-  <si>
-    <t>KMZ</t>
-  </si>
-  <si>
-    <t>LYR</t>
-  </si>
-  <si>
-    <t>Non-GIS Data</t>
-  </si>
-  <si>
-    <t>openapi-json</t>
-  </si>
-  <si>
-    <t>pdf</t>
-  </si>
-  <si>
-    <t>PDF</t>
-  </si>
-  <si>
-    <t>Document de soutien</t>
-  </si>
-  <si>
-    <t>Supporting Document</t>
-  </si>
-  <si>
-    <t>PlainsNorthernFoothills</t>
-  </si>
-  <si>
-    <t>REST</t>
-  </si>
-  <si>
-    <t>Shape</t>
-  </si>
-  <si>
-    <t>shp</t>
-  </si>
-  <si>
-    <t>Tabular Data</t>
-  </si>
-  <si>
-    <t>TIFF</t>
-  </si>
-  <si>
-    <t>txt</t>
-  </si>
-  <si>
-    <t>TXT</t>
-  </si>
-  <si>
-    <t>uri</t>
-  </si>
-  <si>
-    <t>wms</t>
-  </si>
-  <si>
-    <t>WMS</t>
-  </si>
-  <si>
-    <t>xls</t>
-  </si>
-  <si>
-    <t>XLS</t>
-  </si>
-  <si>
-    <t>xlsx</t>
-  </si>
-  <si>
-    <t>xml</t>
-  </si>
-  <si>
-    <t>XML</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>ZIP</t>
-  </si>
-  <si>
-    <t>73e vermilion - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>72e foremost - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>83k iosegun lake - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>82p drumheller - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>83e mount robson - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>82h lethbridge - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>83c brazeau - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>74d - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>74m - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>82j - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>82p - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>83g - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>84m - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>84o - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>84p - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>base map plus ep operations regions, fish and wildlife districts, green/white area - provincial base map series</t>
-  </si>
-  <si>
-    <t>base map plus ep operations regions, municipalities, green/white area - provincial base map series</t>
-  </si>
-  <si>
-    <t>base map plus land-use framework planning regions, municipalities, green/white area - provincial base map series</t>
-  </si>
-  <si>
-    <t>base map plus municipalities, green/white area - provincial base map series</t>
-  </si>
-  <si>
-    <t>base map plus provincial electoral divisions - provincial base map series</t>
-  </si>
-  <si>
-    <t>base map plus forest management units / forest management agreement holders - provincial base map series</t>
-  </si>
-  <si>
-    <t>base map plus land-use framework planning regions, forest management units / forest management agreement holders, green/white area - provincial base map series</t>
-  </si>
-  <si>
-    <t>base map plus land-use framework planning regions, treaty boundary - provincial base map series</t>
-  </si>
-  <si>
-    <t>base map plus public land use zones - provincial base map series</t>
-  </si>
-  <si>
-    <t>base map plus registered fur management areas (rfma) - provincial base map series</t>
-  </si>
-  <si>
-    <t>provincial electoral divisions - provincial base map series</t>
-  </si>
-  <si>
-    <t>72l medicine hat - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>73d wainwright - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>83o lesser slave lake - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>83l wapiti - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>74m fitzgerald - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>74d waterways - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>82i gleichen - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>84b peerless lake - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>84e chinchaga river - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>84k mount watt - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>73d - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>82g - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>83d - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>84j - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>84k - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>base map plus ep operations regions, green/white area - provincial base map series</t>
-  </si>
-  <si>
-    <t>base map plus land-use framework planning regions, green/white - provincial base map series</t>
-  </si>
-  <si>
-    <t>base map plus nts grid, green/white area - provincial base map series</t>
-  </si>
-  <si>
-    <t>base map - provincial base map series</t>
-  </si>
-  <si>
-    <t>base map plus land-use framework planning regions, ep operations regions, municipalities, green/white area - provincial base map series</t>
-  </si>
-  <si>
-    <t>provincial ep operations regions / green and white areas - provincial base map series</t>
-  </si>
-  <si>
-    <t>provincial municipalities - provincial base map series</t>
-  </si>
-  <si>
-    <t>82o calgary - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>74e bitumount - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>82g fernie - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>83g wabamun lake - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>83i - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>83l - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>83n - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>83p - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>84b - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>84c - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>84e - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>73l - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>74l - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>82o - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>72e - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>base map plus land-use framework planning regions, green/white area - provincial base map series</t>
-  </si>
-  <si>
-    <t>72m oyen - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>74l fort chipewyan - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>83a red deer - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>83h edmonton - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>83i tawatinaw - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>83n winagami - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>83p pelican - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>84a algar lake - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>84c peace river - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>83d canoe river - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>84j vermilion chutes - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>84m bistcho lake - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>84p peace point - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>72m - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>73e - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>73m - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>82h - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>82i - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>83c - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>83k - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>83m - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>83o - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>84d - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>84f - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>84g - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>84h - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>84l - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>84n - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>base map plus green/white area - provincial base map series</t>
-  </si>
-  <si>
-    <t>base map plus municipalities - provincial base map series</t>
-  </si>
-  <si>
-    <t>provincial land-use framework regions / green and white areas - provincial base map series</t>
-  </si>
-  <si>
-    <t>73l sand river - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>83f edson - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>83j whitecourt - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>82j kananaskis lakes - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>83b rocky mountain house - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>73m winefred lake - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>82n golden - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>84f bison lake - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>83m grande prairie - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>84l zama lake - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>84i lake claire - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>84g wadlin lake - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>84h namur lake - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>84d clear hills - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>84n steen river - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>84o whitesand river - provincial access/topographic map series</t>
-  </si>
-  <si>
-    <t>72l - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>74e - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>82n - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>83a - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>83b - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>83e - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>83f - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>83h - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>83j - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>84a - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>84i - provincial resource access map series</t>
-  </si>
-  <si>
-    <t>base map plus ep operations regions, parks regions, parks districts - provincial base map series</t>
-  </si>
-  <si>
-    <t>base map plus ep operations regions, parks regions and parks districts - provincial base map series</t>
-  </si>
-  <si>
-    <t>base map plus forest areas of alberta - provincial base map series</t>
-  </si>
-  <si>
-    <t>base map plus fish and wildlife districts, green/white area - provincial base map series</t>
-  </si>
-  <si>
-    <t>base map plus fish and wildlife enforcement regions and fish and wildlife enforcement districts - provincial base map series</t>
-  </si>
-  <si>
-    <t>base map plus nts grid - provincial base map series</t>
-  </si>
-  <si>
-    <t>provincial base map - provincial base map series</t>
-  </si>
-  <si>
-    <t>Alberta Social Vulnerability Indicators (CSD)</t>
-  </si>
-  <si>
-    <t>soil correlation areas v3 kmz</t>
-  </si>
-  <si>
-    <t>soil correlation areas v3 shp</t>
-  </si>
-  <si>
-    <t>unsrrdr_lindist.gdb</t>
-  </si>
-  <si>
-    <t>unsrrsr_foresth.gdb</t>
-  </si>
-  <si>
-    <t>unsrrdr_studyarea</t>
-  </si>
-  <si>
-    <t>whirling disease decontamination zones shape file</t>
-  </si>
-  <si>
-    <t>whirling disease decontamination zones kmz</t>
-  </si>
-  <si>
-    <t>feralhorseminimumcount2019 fgdb</t>
-  </si>
-  <si>
-    <t>feralhorse2019minimumcount shp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">special hunting license draw antlered elk </t>
-  </si>
-  <si>
-    <t xml:space="preserve">special hunting license draw antlerless moose </t>
-  </si>
-  <si>
-    <t xml:space="preserve">special hunting license draw elk </t>
-  </si>
-  <si>
-    <t xml:space="preserve">special hunting license draw calf moose </t>
-  </si>
-  <si>
-    <t xml:space="preserve">special hunting license draw mountain goat </t>
-  </si>
-  <si>
-    <t xml:space="preserve">special hunting license draw trophy sheep </t>
-  </si>
-  <si>
-    <t xml:space="preserve">special hunting license draw non trophy sheep </t>
-  </si>
-  <si>
-    <t>special hunting license draw antlered moose</t>
-  </si>
-  <si>
-    <t>special hunting license draw antlerless elk</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>completed</t>
-  </si>
-  <si>
-    <t>complété</t>
-  </si>
-  <si>
-    <t>RI_593</t>
-  </si>
-  <si>
-    <t>historicalArchive</t>
-  </si>
-  <si>
-    <t>archiveHistorique</t>
-  </si>
-  <si>
-    <t>RI_594</t>
-  </si>
-  <si>
-    <t>obsolete</t>
-  </si>
-  <si>
-    <t>périmé</t>
-  </si>
-  <si>
-    <t>RI_595</t>
-  </si>
-  <si>
-    <t>enContinue</t>
-  </si>
-  <si>
-    <t>RI_596</t>
-  </si>
-  <si>
-    <t>planned</t>
-  </si>
-  <si>
-    <t>planifié</t>
-  </si>
-  <si>
-    <t>RI_597</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>requis</t>
-  </si>
-  <si>
-    <t>RI_598</t>
-  </si>
-  <si>
-    <t>underDevelopment</t>
-  </si>
-  <si>
-    <t>enProduction</t>
-  </si>
-  <si>
-    <t>RI_599</t>
-  </si>
-  <si>
-    <t>proposed</t>
-  </si>
-  <si>
-    <t>proposé</t>
-  </si>
-  <si>
-    <t>RI_600</t>
-  </si>
-  <si>
-    <t>complete</t>
-  </si>
-  <si>
-    <t>In work</t>
-  </si>
-  <si>
-    <t>resourceProvider</t>
-  </si>
-  <si>
-    <t>fournisseurRessource</t>
-  </si>
-  <si>
-    <t>RI_408</t>
-  </si>
-  <si>
-    <t>custodian</t>
-  </si>
-  <si>
-    <t>conservateur</t>
-  </si>
-  <si>
-    <t>RI_409</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
-    <t>propriétaire</t>
-  </si>
-  <si>
-    <t>RI_410</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>utilisateur</t>
-  </si>
-  <si>
-    <t>RI_411</t>
-  </si>
-  <si>
-    <t>distributor</t>
-  </si>
-  <si>
-    <t>distributeur</t>
-  </si>
-  <si>
-    <t>RI_412</t>
-  </si>
-  <si>
-    <t>originator</t>
-  </si>
-  <si>
-    <t>créateur</t>
-  </si>
-  <si>
-    <t>RI_413</t>
-  </si>
-  <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t>RI_414</t>
-  </si>
-  <si>
-    <t>principalInvestigator</t>
-  </si>
-  <si>
-    <t>chercheurPrincipal</t>
-  </si>
-  <si>
-    <t>RI_415</t>
-  </si>
-  <si>
-    <t>processor</t>
-  </si>
-  <si>
-    <t>traiteur</t>
-  </si>
-  <si>
-    <t>RI_416</t>
-  </si>
-  <si>
-    <t>publisher</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> éditeur </t>
-  </si>
-  <si>
-    <t>RI_417</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>auteur</t>
-  </si>
-  <si>
-    <t>RI_418</t>
-  </si>
-  <si>
-    <t>collaborator</t>
-  </si>
-  <si>
-    <t>collaborateur</t>
-  </si>
-  <si>
-    <t>RI_419</t>
-  </si>
-  <si>
-    <t>editor</t>
-  </si>
-  <si>
-    <t>réviseur</t>
-  </si>
-  <si>
-    <t>RI_420</t>
-  </si>
-  <si>
-    <t>mediator</t>
-  </si>
-  <si>
-    <t>médiateur</t>
-  </si>
-  <si>
-    <t>RI_421</t>
-  </si>
-  <si>
-    <t>rightsHolder</t>
-  </si>
-  <si>
-    <t>détenteurDroits</t>
-  </si>
-  <si>
-    <t>RI_422</t>
-  </si>
-  <si>
-    <t>businessExpert</t>
-  </si>
-  <si>
-    <t>reference_codespace_value</t>
-  </si>
-  <si>
-    <t>IOGO</t>
-  </si>
-  <si>
-    <t>http://www.epsg-registry.org/</t>
-  </si>
-  <si>
-    <t>EPSG_3005 - NAD83 BC Albers</t>
-  </si>
-  <si>
-    <t>EPSG: 3005</t>
-  </si>
-  <si>
-    <t>EPSG_4326 - WGS84 - World Geodetic System 1984</t>
-  </si>
-  <si>
-    <t>EPSG: 4326</t>
-  </si>
-  <si>
-    <t>EPSG_4269 - NAD83</t>
-  </si>
-  <si>
-    <t>EPSG: 4269</t>
-  </si>
-  <si>
-    <t>EPSG_26707 - NAD27 UTM zone 7N</t>
-  </si>
-  <si>
-    <t>EPSG: 26707</t>
-  </si>
-  <si>
-    <t>N-A</t>
-  </si>
-  <si>
-    <t>EPSG: 3401</t>
-  </si>
-  <si>
-    <t>EPSG:4269</t>
-  </si>
-  <si>
-    <t>EPSG:3400</t>
-  </si>
-  <si>
-    <t>RI_640</t>
-  </si>
-  <si>
-    <t>vidéo</t>
-  </si>
-  <si>
-    <t>video</t>
-  </si>
-  <si>
-    <t>RI_639</t>
-  </si>
-  <si>
-    <t>stéréomodèle</t>
-  </si>
-  <si>
-    <t>stereoModel</t>
-  </si>
-  <si>
-    <t>RI_638</t>
-  </si>
-  <si>
-    <t>tin</t>
-  </si>
-  <si>
-    <t>ri_637</t>
-  </si>
-  <si>
-    <t>texteTable</t>
-  </si>
-  <si>
-    <t>textTable</t>
-  </si>
-  <si>
-    <t>RI_636</t>
-  </si>
-  <si>
-    <t>grille</t>
-  </si>
-  <si>
-    <t>grid</t>
-  </si>
-  <si>
-    <t>RI_635</t>
-  </si>
-  <si>
-    <t>vecteur</t>
-  </si>
-  <si>
-    <t>west of 4th meridian - historical forest inventory - phase 3 maps</t>
-  </si>
-  <si>
-    <t>82h - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>82j - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>82o - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>82p - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>83a - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>83b - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>83c - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>83e - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>83f - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>83g - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>83h - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>83i - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>83j - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>83k - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>83l - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>83m - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>83n - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>83o - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>83p - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>83b - historical forest inventory - phase 1 (broad scale) maps</t>
-  </si>
-  <si>
-    <t>83c - historical forest inventory - phase 1 (broad scale) maps</t>
-  </si>
-  <si>
-    <t>83e - historical forest inventory - phase 1 (broad scale) maps</t>
-  </si>
-  <si>
-    <t>83f - historical forest inventory - phase 1 (broad scale) maps</t>
-  </si>
-  <si>
-    <t>83g - historical forest inventory - phase 1 (broad scale) maps</t>
-  </si>
-  <si>
-    <t>83i - historical forest inventory - phase 1 (broad scale) maps</t>
-  </si>
-  <si>
-    <t>83j - historical forest inventory - phase 1 (broad scale) maps</t>
-  </si>
-  <si>
-    <t>83k - historical forest inventory - phase 1 (broad scale) maps</t>
-  </si>
-  <si>
-    <t>83l - historical forest inventory - phase 1 (broad scale) maps</t>
-  </si>
-  <si>
-    <t>83m - historical forest inventory - phase 1 (broad scale) maps</t>
-  </si>
-  <si>
-    <t>83n - historical forest inventory - phase 1 (broad scale) maps</t>
-  </si>
-  <si>
-    <t>83o - historical forest inventory - phase 1 (broad scale) maps</t>
-  </si>
-  <si>
-    <t>83p - historical forest inventory - phase 1 (broad scale) maps</t>
-  </si>
-  <si>
-    <t>west of 4th meridian - historical forest inventory - phase 2 (detailed) maps</t>
-  </si>
-  <si>
-    <t>historical alberta resource atlas series maps - administrative regions</t>
-  </si>
-  <si>
-    <t>historical alberta resource atlas series maps - agricultural processing and manufacturing</t>
-  </si>
-  <si>
-    <t>historical alberta resource atlas series maps - agricultural production</t>
-  </si>
-  <si>
-    <t>historical alberta resource atlas series maps - natural resources</t>
-  </si>
-  <si>
-    <t>historical alberta resource atlas series maps - physical features</t>
-  </si>
-  <si>
-    <t>historical alberta resource atlas series maps - population</t>
-  </si>
-  <si>
-    <t>historical alberta resource atlas series maps - service and recreational facilities</t>
-  </si>
-  <si>
-    <t>historical hydrographic survey - bathymetric maps</t>
-  </si>
-  <si>
-    <t>74d - historical forest cover series</t>
-  </si>
-  <si>
-    <t>74e - historical forest cover series</t>
-  </si>
-  <si>
-    <t>74l - historical forest cover series</t>
-  </si>
-  <si>
-    <t>74m - historical forest cover series</t>
-  </si>
-  <si>
-    <t>west of 5th meridian - historical forest inventory - phase 2 (detailed) maps</t>
-  </si>
-  <si>
-    <t>west of 6th meridian - historical forest inventory - phase 2 (detailed) maps</t>
-  </si>
-  <si>
-    <t>72e - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>72l - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>72m - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>74d - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>74e - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>74l - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>84a - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>84b - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>84c - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>84d - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>84e - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>84f - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>84g - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>84h - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>84i - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>84j - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>84m - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>84n - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>84o - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>73m - historical watershed boundary maps</t>
-  </si>
-  <si>
-    <t>83b - historical watershed boundary maps</t>
-  </si>
-  <si>
-    <t>83c - historical watershed boundary maps</t>
-  </si>
-  <si>
-    <t>83e - historical watershed boundary maps</t>
-  </si>
-  <si>
-    <t>83f - historical watershed boundary maps</t>
-  </si>
-  <si>
-    <t>83g - historical watershed boundary maps</t>
-  </si>
-  <si>
-    <t>83i - historical watershed boundary maps</t>
-  </si>
-  <si>
-    <t>83j - historical watershed boundary maps</t>
-  </si>
-  <si>
-    <t>83k - historical watershed boundary maps</t>
-  </si>
-  <si>
-    <t>83l - historical watershed boundary maps</t>
-  </si>
-  <si>
-    <t>83m - historical watershed boundary maps</t>
-  </si>
-  <si>
-    <t>83n - historical watershed boundary maps</t>
-  </si>
-  <si>
-    <t>83o - historical watershed boundary maps</t>
-  </si>
-  <si>
-    <t>83p - historical watershed boundary maps</t>
-  </si>
-  <si>
-    <t>west of 5th meridian - historical forest inventory - phase 3 maps</t>
-  </si>
-  <si>
-    <t>73d - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>73e - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>73l - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>73m - historical reconnaissance vegetation inventory (rvi) maps</t>
-  </si>
-  <si>
-    <t>73l - historical forest inventory - phase 1 (broad scale) maps</t>
-  </si>
-  <si>
-    <t>73m - historical forest inventory - phase 1 (broad scale) maps</t>
-  </si>
-  <si>
-    <t>84a - historical forest inventory - phase 1 (broad scale) maps</t>
-  </si>
-  <si>
-    <t>84b - historical forest inventory - phase 1 (broad scale) maps</t>
-  </si>
-  <si>
-    <t>84c - historical forest inventory - phase 1 (broad scale) maps</t>
-  </si>
-  <si>
-    <t>84d - historical forest inventory - phase 1 (broad scale) maps</t>
-  </si>
-  <si>
-    <t>84e - historical forest inventory - phase 1 (broad scale) maps</t>
-  </si>
-  <si>
-    <t>84f - historical forest inventory - phase 1 (broad scale) maps</t>
-  </si>
-  <si>
-    <t>84g - historical forest inventory - phase 1 (broad scale) maps</t>
-  </si>
-  <si>
-    <t>84h - historical forest inventory - phase 1 (broad scale) maps</t>
-  </si>
-  <si>
-    <t>84i - historical forest inventory - phase 1 (broad scale) maps</t>
-  </si>
-  <si>
-    <t>84j - historical forest inventory - phase 1 (broad scale) maps</t>
-  </si>
-  <si>
-    <t>84k - historical forest inventory - phase 1 (broad scale) maps</t>
-  </si>
-  <si>
-    <t>84l - historical forest inventory - phase 1 (broad scale) maps</t>
-  </si>
-  <si>
-    <t>84m - historical forest inventory - phase 1 (broad scale) maps</t>
-  </si>
-  <si>
-    <t>84n - historical forest inventory - phase 1 (broad scale) maps</t>
-  </si>
-  <si>
-    <t>84o - historical forest inventory - phase 1 (broad scale) maps</t>
-  </si>
-  <si>
-    <t>84p - historical forest inventory - phase 1 (broad scale) maps</t>
-  </si>
-  <si>
-    <t>82g - historical watershed boundary maps</t>
-  </si>
-  <si>
-    <t>82h - historical watershed boundary maps</t>
-  </si>
-  <si>
-    <t>82i - historical watershed boundary maps</t>
-  </si>
-  <si>
-    <t>82j - historical watershed boundary maps</t>
-  </si>
-  <si>
-    <t>82n - historical watershed boundary maps</t>
-  </si>
-  <si>
-    <t>82o - historical watershed boundary maps</t>
-  </si>
-  <si>
-    <t>82o - historical forest cover series</t>
-  </si>
-  <si>
-    <t>west of 6th meridian - historical forest inventory - phase 3 maps</t>
-  </si>
-  <si>
-    <t>74d - historical watershed boundary maps</t>
-  </si>
-  <si>
-    <t>74e - historical watershed boundary maps</t>
-  </si>
-  <si>
-    <t>74l - historical watershed boundary maps</t>
-  </si>
-  <si>
-    <t>74m - historical watershed boundary maps</t>
-  </si>
-  <si>
-    <t>73l - historical forest cover series</t>
-  </si>
-  <si>
-    <t>73m - historical forest cover series</t>
-  </si>
-  <si>
-    <t>83b - historical forest cover series</t>
-  </si>
-  <si>
-    <t>83c - historical forest cover series</t>
-  </si>
-  <si>
-    <t>83e - historical forest cover series</t>
-  </si>
-  <si>
-    <t>83f - historical forest cover series</t>
-  </si>
-  <si>
-    <t>83g - historical forest cover series</t>
-  </si>
-  <si>
-    <t>83i - historical forest cover series</t>
-  </si>
-  <si>
-    <t>83j - historical forest cover series</t>
-  </si>
-  <si>
-    <t>83k - historical forest cover series</t>
-  </si>
-  <si>
-    <t>83l - historical forest cover series</t>
-  </si>
-  <si>
-    <t>83m - historical forest cover series</t>
-  </si>
-  <si>
-    <t>83n - historical forest cover series</t>
-  </si>
-  <si>
-    <t>83o - historical forest cover series</t>
-  </si>
-  <si>
-    <t>83p - historical forest cover series</t>
-  </si>
-  <si>
-    <t>84a - historical forest cover series</t>
-  </si>
-  <si>
-    <t>84b - historical forest cover series</t>
-  </si>
-  <si>
-    <t>84c - historical forest cover series</t>
-  </si>
-  <si>
-    <t>84d - historical forest cover series</t>
-  </si>
-  <si>
-    <t>84e - historical forest cover series</t>
-  </si>
-  <si>
-    <t>84f - historical forest cover series</t>
-  </si>
-  <si>
-    <t>84g - historical forest cover series</t>
-  </si>
-  <si>
-    <t>84h - historical forest cover series</t>
-  </si>
-  <si>
-    <t>84i - historical forest cover series</t>
-  </si>
-  <si>
-    <t>84j - historical forest cover series</t>
-  </si>
-  <si>
-    <t>84k - historical forest cover series</t>
-  </si>
-  <si>
-    <t>84l - historical forest cover series</t>
-  </si>
-  <si>
-    <t>84m - historical forest cover series</t>
-  </si>
-  <si>
-    <t>84n - historical forest cover series</t>
-  </si>
-  <si>
-    <t>84o - historical forest cover series</t>
-  </si>
-  <si>
-    <t>84p - historical forest cover series</t>
-  </si>
-  <si>
-    <t>82o - historical forest inventory - phase 1 (broad scale) maps</t>
-  </si>
-  <si>
-    <t>84a - historical watershed boundary maps</t>
-  </si>
-  <si>
-    <t>84i - historical watershed boundary maps</t>
-  </si>
-  <si>
-    <t>84j - historical watershed boundary maps</t>
-  </si>
-  <si>
-    <t>84k - historical watershed boundary maps</t>
-  </si>
-  <si>
-    <t>84l - historical watershed boundary maps</t>
-  </si>
-  <si>
-    <t>84m - historical watershed boundary maps</t>
-  </si>
-  <si>
-    <t>84n - historical watershed boundary maps</t>
-  </si>
-  <si>
-    <t>online_resource_link</t>
-  </si>
-  <si>
-    <t>online_resource_protocol</t>
-  </si>
-  <si>
-    <t>online_resource_description</t>
-  </si>
-  <si>
-    <t>online_resource_description_en</t>
-  </si>
-  <si>
-    <t>online_resource_description_other_lang_locale</t>
-  </si>
-  <si>
-    <t>online_resource_description_locale</t>
-  </si>
-  <si>
-    <t>online_resource_description_other_lang</t>
-  </si>
-  <si>
-    <t>online_resource_description_fr</t>
-  </si>
-  <si>
-    <t>https://geodiscover.alberta.ca/geoportal/</t>
-  </si>
-  <si>
-    <t>GeoDiscover Alberta provides enhanced details regarding Alberta's geospatial data.</t>
-  </si>
-  <si>
-    <t>GéoDécouvrez l'Alberta fournit des détails améliorés sur les données géospatiales de l'Alberta.</t>
-  </si>
-  <si>
-    <t>https://data.gov.bc.ca/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DataBC encourages and enables the strategic management and sharing of data across the government enterprise and with the public. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DataBC encourage et permet la gestion et le partage stratégiques des données dans l'ensemble de l'entreprise gouvernementale et avec le public. </t>
-  </si>
-  <si>
-    <t>contact_postal_code</t>
-  </si>
-  <si>
-    <t>lookup_title</t>
-  </si>
-  <si>
-    <t>Access and Facility Polygons</t>
-  </si>
-  <si>
-    <t>Access and Facility Roads</t>
-  </si>
-  <si>
-    <t>Alberta Provincial Boundary - 2007</t>
-  </si>
-  <si>
-    <t>ATS v4.1 Alberta Provincial Boundary</t>
-  </si>
-  <si>
-    <t>ATS v4.1 Polygons - Legal Subdivision (LSD) with Road Allowance</t>
-  </si>
-  <si>
-    <t>ATS v4.1 Polygons - Quarter Section with Road Allowance</t>
-  </si>
-  <si>
-    <t>ATS v4.1 Polygons - Section with Road Allowance</t>
-  </si>
-  <si>
-    <t>ATS v4.1 Polygons - Township Index</t>
-  </si>
-  <si>
-    <t>Base Hydrography Point Event</t>
-  </si>
-  <si>
-    <t>Base Hydrography Point Update</t>
-  </si>
-  <si>
-    <t>Base Stream and Flow Representation</t>
-  </si>
-  <si>
-    <t>Base Stream and Flow Representation Update</t>
-  </si>
-  <si>
-    <t>Base Waterbody Polygon Arc</t>
-  </si>
-  <si>
-    <t>Base Waterbody Polygon Update</t>
-  </si>
-  <si>
-    <t>Cutlines and Trails</t>
-  </si>
-  <si>
-    <t>DND Air Weapons Range</t>
-  </si>
-  <si>
-    <t>DND Military Base</t>
-  </si>
-  <si>
-    <t>Education - Authorities District</t>
-  </si>
-  <si>
-    <t>Education - Authorities Francophone</t>
-  </si>
-  <si>
-    <t>Education - Authorities Public</t>
-  </si>
-  <si>
-    <t>Education - Authorities Separate</t>
-  </si>
-  <si>
-    <t>Facility Points</t>
-  </si>
-  <si>
-    <t>Fish and Wildlife District</t>
-  </si>
-  <si>
-    <t>Green/White Area</t>
-  </si>
-  <si>
-    <t>Green/White Area Historical</t>
-  </si>
-  <si>
-    <t>Hamlet, Locality and Townsite Point</t>
-  </si>
-  <si>
-    <t>Indian Reserve</t>
-  </si>
-  <si>
-    <t>Integrated Resource Plan - Local</t>
-  </si>
-  <si>
-    <t>Integrated Resource Plan - Subregional</t>
-  </si>
-  <si>
-    <t>Land-use Framework Planning Regions</t>
-  </si>
-  <si>
-    <t>Metis Settlement</t>
-  </si>
-  <si>
-    <t>Non-Permit Area</t>
-  </si>
-  <si>
-    <t>NTS Grid 1:20 000</t>
-  </si>
-  <si>
-    <t>NTS Grid 1:250 000</t>
-  </si>
-  <si>
-    <t>NTS Grid 1:50 000</t>
-  </si>
-  <si>
-    <t>Powerlines</t>
-  </si>
-  <si>
-    <t>Provincial Electoral Division - Current 2010</t>
-  </si>
-  <si>
-    <t>Provincial Electoral Division - Historical 2003</t>
-  </si>
-  <si>
-    <t>Railway Point Events</t>
-  </si>
-  <si>
-    <t>Railways</t>
-  </si>
-  <si>
-    <t>Road Point Events</t>
-  </si>
-  <si>
-    <t>layer_name</t>
   </si>
 </sst>
 </file>
@@ -2781,15 +2781,15 @@
         <v>198</v>
       </c>
       <c r="B1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2802,7 +2802,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B4" t="s">
         <v>196</v>
@@ -3063,44 +3063,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C2" t="s">
         <v>479</v>
       </c>
-      <c r="B2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>480</v>
-      </c>
-      <c r="D2" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C3" t="s">
         <v>482</v>
       </c>
-      <c r="B3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>483</v>
-      </c>
-      <c r="D3" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C4" t="s">
         <v>485</v>
       </c>
-      <c r="B4" t="s">
-        <v>485</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>486</v>
-      </c>
-      <c r="D4" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3111,94 +3111,94 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
+        <v>487</v>
+      </c>
+      <c r="D5" t="s">
         <v>488</v>
-      </c>
-      <c r="D5" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>489</v>
+      </c>
+      <c r="B6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C6" t="s">
         <v>490</v>
       </c>
-      <c r="B6" t="s">
-        <v>490</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>491</v>
-      </c>
-      <c r="D6" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B7" t="s">
+        <v>492</v>
+      </c>
+      <c r="C7" t="s">
         <v>493</v>
       </c>
-      <c r="B7" t="s">
-        <v>493</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>494</v>
-      </c>
-      <c r="D7" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>495</v>
+      </c>
+      <c r="B8" t="s">
+        <v>495</v>
+      </c>
+      <c r="C8" t="s">
         <v>496</v>
       </c>
-      <c r="B8" t="s">
-        <v>496</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>497</v>
-      </c>
-      <c r="D8" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B9" t="s">
+        <v>498</v>
+      </c>
+      <c r="C9" t="s">
         <v>499</v>
       </c>
-      <c r="B9" t="s">
-        <v>499</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>500</v>
-      </c>
-      <c r="D9" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B10" t="s">
+        <v>478</v>
+      </c>
+      <c r="C10" t="s">
         <v>479</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>480</v>
-      </c>
-      <c r="D10" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
+        <v>487</v>
+      </c>
+      <c r="D11" t="s">
         <v>488</v>
-      </c>
-      <c r="D11" t="s">
-        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -3238,86 +3238,86 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C2" t="s">
         <v>504</v>
       </c>
-      <c r="B2" t="s">
-        <v>504</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>505</v>
-      </c>
-      <c r="D2" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C3" t="s">
         <v>507</v>
       </c>
-      <c r="B3" t="s">
-        <v>507</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>508</v>
-      </c>
-      <c r="D3" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>509</v>
+      </c>
+      <c r="B4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C4" t="s">
         <v>510</v>
       </c>
-      <c r="B4" t="s">
-        <v>510</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>511</v>
-      </c>
-      <c r="D4" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C5" t="s">
         <v>513</v>
       </c>
-      <c r="B5" t="s">
-        <v>513</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>514</v>
-      </c>
-      <c r="D5" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>515</v>
+      </c>
+      <c r="B6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C6" t="s">
         <v>516</v>
       </c>
-      <c r="B6" t="s">
-        <v>516</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>517</v>
-      </c>
-      <c r="D6" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B7" t="s">
+        <v>518</v>
+      </c>
+      <c r="C7" t="s">
         <v>519</v>
       </c>
-      <c r="B7" t="s">
-        <v>519</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>520</v>
-      </c>
-      <c r="D7" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3328,136 +3328,136 @@
         <v>165</v>
       </c>
       <c r="C8" t="s">
+        <v>521</v>
+      </c>
+      <c r="D8" t="s">
         <v>522</v>
-      </c>
-      <c r="D8" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>523</v>
+      </c>
+      <c r="B9" t="s">
+        <v>523</v>
+      </c>
+      <c r="C9" t="s">
         <v>524</v>
       </c>
-      <c r="B9" t="s">
-        <v>524</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>525</v>
-      </c>
-      <c r="D9" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>526</v>
+      </c>
+      <c r="B10" t="s">
+        <v>526</v>
+      </c>
+      <c r="C10" t="s">
         <v>527</v>
       </c>
-      <c r="B10" t="s">
-        <v>527</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>528</v>
-      </c>
-      <c r="D10" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>529</v>
+      </c>
+      <c r="B11" t="s">
+        <v>529</v>
+      </c>
+      <c r="C11" t="s">
         <v>530</v>
       </c>
-      <c r="B11" t="s">
-        <v>530</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>531</v>
-      </c>
-      <c r="D11" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>532</v>
+      </c>
+      <c r="B12" t="s">
+        <v>532</v>
+      </c>
+      <c r="C12" t="s">
         <v>533</v>
       </c>
-      <c r="B12" t="s">
-        <v>533</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>534</v>
-      </c>
-      <c r="D12" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>535</v>
+      </c>
+      <c r="B13" t="s">
+        <v>535</v>
+      </c>
+      <c r="C13" t="s">
         <v>536</v>
       </c>
-      <c r="B13" t="s">
-        <v>536</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>537</v>
-      </c>
-      <c r="D13" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>538</v>
+      </c>
+      <c r="B14" t="s">
+        <v>538</v>
+      </c>
+      <c r="C14" t="s">
         <v>539</v>
       </c>
-      <c r="B14" t="s">
-        <v>539</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>540</v>
-      </c>
-      <c r="D14" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>541</v>
+      </c>
+      <c r="B15" t="s">
+        <v>541</v>
+      </c>
+      <c r="C15" t="s">
         <v>542</v>
       </c>
-      <c r="B15" t="s">
-        <v>542</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>543</v>
-      </c>
-      <c r="D15" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>544</v>
+      </c>
+      <c r="B16" t="s">
+        <v>544</v>
+      </c>
+      <c r="C16" t="s">
         <v>545</v>
       </c>
-      <c r="B16" t="s">
-        <v>545</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>546</v>
-      </c>
-      <c r="D16" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B17" t="s">
         <v>165</v>
       </c>
       <c r="C17" t="s">
+        <v>521</v>
+      </c>
+      <c r="D17" t="s">
         <v>522</v>
-      </c>
-      <c r="D17" t="s">
-        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -3490,42 +3490,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B2" t="s">
         <v>552</v>
-      </c>
-      <c r="B2" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B3" t="s">
         <v>554</v>
-      </c>
-      <c r="B3" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B4" t="s">
         <v>556</v>
-      </c>
-      <c r="B4" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B5" t="s">
         <v>558</v>
-      </c>
-      <c r="B5" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3538,31 +3538,31 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B11" t="s">
         <v>194</v>
@@ -3581,7 +3581,7 @@
         <v>3401</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3589,7 +3589,7 @@
         <v>4326</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -3636,80 +3636,80 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -4860,10 +4860,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B76" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C76" t="s">
         <v>75</v>
@@ -4871,10 +4871,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B77" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C77" t="s">
         <v>75</v>
@@ -4882,10 +4882,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>736</v>
+      </c>
+      <c r="B78" t="s">
         <v>737</v>
-      </c>
-      <c r="B78" t="s">
-        <v>738</v>
       </c>
       <c r="C78" t="s">
         <v>75</v>
@@ -4893,10 +4893,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>738</v>
+      </c>
+      <c r="B79" t="s">
         <v>739</v>
-      </c>
-      <c r="B79" t="s">
-        <v>740</v>
       </c>
       <c r="C79" t="s">
         <v>75</v>
@@ -4904,10 +4904,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>740</v>
+      </c>
+      <c r="B80" t="s">
         <v>741</v>
-      </c>
-      <c r="B80" t="s">
-        <v>742</v>
       </c>
       <c r="C80" t="s">
         <v>75</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B86" t="s">
         <v>101</v>
@@ -4999,7 +4999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B71" sqref="B71:B73"/>
     </sheetView>
   </sheetViews>
@@ -5759,10 +5759,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B69" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C69" t="s">
         <v>75</v>
@@ -5770,10 +5770,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B70" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C70" t="s">
         <v>75</v>
@@ -5781,10 +5781,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>736</v>
+      </c>
+      <c r="B71" t="s">
         <v>737</v>
-      </c>
-      <c r="B71" t="s">
-        <v>738</v>
       </c>
       <c r="C71" t="s">
         <v>75</v>
@@ -5792,10 +5792,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>738</v>
+      </c>
+      <c r="B72" t="s">
         <v>739</v>
-      </c>
-      <c r="B72" t="s">
-        <v>740</v>
       </c>
       <c r="C72" t="s">
         <v>75</v>
@@ -5803,10 +5803,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>740</v>
+      </c>
+      <c r="B73" t="s">
         <v>741</v>
-      </c>
-      <c r="B73" t="s">
-        <v>742</v>
       </c>
       <c r="C73" t="s">
         <v>75</v>
@@ -5869,7 +5869,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B79" t="s">
         <v>101</v>
@@ -5918,7 +5918,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B2" t="s">
         <v>188</v>
@@ -6256,31 +6256,31 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B42" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B43" t="s">
         <v>19</v>
@@ -6288,10 +6288,10 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B44" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -6502,31 +6502,31 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B24" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B26" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
@@ -6534,10 +6534,10 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B28" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -6549,7 +6549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -6561,15 +6561,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B2">
         <v>17</v>
@@ -6577,7 +6577,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6585,7 +6585,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6593,7 +6593,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6601,7 +6601,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -6609,7 +6609,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -6617,7 +6617,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B8">
         <v>15</v>
@@ -6625,7 +6625,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -6633,7 +6633,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B10">
         <v>30</v>
@@ -6641,7 +6641,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -6649,7 +6649,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B12">
         <v>104</v>
@@ -6657,7 +6657,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -6665,7 +6665,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B14">
         <v>69</v>
@@ -6673,7 +6673,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B15">
         <v>7</v>
@@ -6681,7 +6681,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B16">
         <v>30</v>
@@ -6689,7 +6689,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -6697,7 +6697,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B18">
         <v>11</v>
@@ -6705,7 +6705,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -6713,7 +6713,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -6721,7 +6721,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -6729,7 +6729,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -6737,7 +6737,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -6745,7 +6745,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -6753,7 +6753,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -6761,7 +6761,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -6769,7 +6769,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -6777,7 +6777,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -6785,7 +6785,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -6793,7 +6793,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -6801,7 +6801,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -6809,7 +6809,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B32">
         <v>11</v>
@@ -6817,7 +6817,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -6825,7 +6825,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -6833,7 +6833,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -6841,7 +6841,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -6849,7 +6849,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B37">
         <v>15</v>
@@ -6857,7 +6857,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -6865,7 +6865,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -6873,7 +6873,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B40">
         <v>29</v>
@@ -6881,7 +6881,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -6889,7 +6889,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B42">
         <v>28</v>
@@ -6904,8 +6904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D354"/>
   <sheetViews>
-    <sheetView topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="B353" sqref="B353:D354"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7047,7 +7047,7 @@
         <v>287</v>
       </c>
       <c r="B10" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>278</v>
@@ -7058,7 +7058,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B11" t="s">
         <v>285</v>
@@ -7072,7 +7072,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B12" t="s">
         <v>285</v>
@@ -7086,10 +7086,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>290</v>
+      </c>
+      <c r="B13" t="s">
         <v>291</v>
-      </c>
-      <c r="B13" t="s">
-        <v>292</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>278</v>
@@ -7100,10 +7100,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B14" t="s">
         <v>293</v>
-      </c>
-      <c r="B14" t="s">
-        <v>294</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>278</v>
@@ -7114,10 +7114,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B15" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>278</v>
@@ -7128,10 +7128,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>295</v>
+      </c>
+      <c r="B16" t="s">
         <v>296</v>
-      </c>
-      <c r="B16" t="s">
-        <v>297</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>278</v>
@@ -7142,10 +7142,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>278</v>
@@ -7156,10 +7156,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B18" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>278</v>
@@ -7170,10 +7170,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B19" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>278</v>
@@ -7184,10 +7184,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>278</v>
@@ -7198,10 +7198,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>300</v>
+      </c>
+      <c r="B21" t="s">
         <v>301</v>
-      </c>
-      <c r="B21" t="s">
-        <v>302</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>274</v>
@@ -7212,10 +7212,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>274</v>
@@ -7226,10 +7226,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>302</v>
+      </c>
+      <c r="B23" t="s">
         <v>303</v>
-      </c>
-      <c r="B23" t="s">
-        <v>304</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>274</v>
@@ -7240,10 +7240,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>274</v>
@@ -7254,10 +7254,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>278</v>
@@ -7268,10 +7268,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B26" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>278</v>
@@ -7282,10 +7282,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>278</v>
@@ -7296,10 +7296,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="B28" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>278</v>
@@ -7310,24 +7310,24 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>307</v>
+      </c>
+      <c r="B29" t="s">
         <v>308</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" t="s">
         <v>310</v>
-      </c>
-      <c r="D29" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B30" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>278</v>
@@ -7338,7 +7338,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B31" t="s">
         <v>273</v>
@@ -7352,7 +7352,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B32" t="s">
         <v>277</v>
@@ -7366,7 +7366,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B33" t="s">
         <v>277</v>
@@ -7394,10 +7394,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B35" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>278</v>
@@ -7408,10 +7408,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>278</v>
@@ -7422,10 +7422,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>317</v>
+      </c>
+      <c r="B37" t="s">
         <v>318</v>
-      </c>
-      <c r="B37" t="s">
-        <v>319</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>278</v>
@@ -7436,10 +7436,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>278</v>
@@ -7450,10 +7450,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>320</v>
+      </c>
+      <c r="B39" t="s">
         <v>321</v>
-      </c>
-      <c r="B39" t="s">
-        <v>322</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>274</v>
@@ -7464,10 +7464,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B40" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>274</v>
@@ -7478,10 +7478,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>322</v>
+      </c>
+      <c r="B41" t="s">
         <v>323</v>
-      </c>
-      <c r="B41" t="s">
-        <v>324</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>278</v>
@@ -7492,10 +7492,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B42" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>278</v>
@@ -7506,10 +7506,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>325</v>
+      </c>
+      <c r="B43" t="s">
         <v>326</v>
-      </c>
-      <c r="B43" t="s">
-        <v>327</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>278</v>
@@ -7520,10 +7520,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B44" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>278</v>
@@ -7534,10 +7534,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>327</v>
+      </c>
+      <c r="B45" t="s">
         <v>328</v>
-      </c>
-      <c r="B45" t="s">
-        <v>329</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>278</v>
@@ -7548,10 +7548,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B46" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>278</v>
@@ -7562,10 +7562,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B47" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>278</v>
@@ -7576,10 +7576,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B48" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>278</v>
@@ -7590,10 +7590,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B49" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>278</v>
@@ -7604,10 +7604,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B50" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>278</v>
@@ -7618,10 +7618,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B51" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>278</v>
@@ -7632,10 +7632,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B52" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>278</v>
@@ -7646,10 +7646,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B53" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>278</v>
@@ -7660,10 +7660,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B54" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>278</v>
@@ -7674,10 +7674,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B55" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>278</v>
@@ -7688,10 +7688,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B56" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>278</v>
@@ -7702,10 +7702,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B57" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>278</v>
@@ -7716,10 +7716,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B58" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>278</v>
@@ -7730,10 +7730,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B59" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>278</v>
@@ -7744,10 +7744,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B60" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>278</v>
@@ -7758,10 +7758,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B61" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>278</v>
@@ -7772,10 +7772,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B62" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>278</v>
@@ -7786,10 +7786,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B63" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>278</v>
@@ -7800,10 +7800,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B64" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>278</v>
@@ -7814,10 +7814,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B65" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>278</v>
@@ -7828,10 +7828,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B66" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>278</v>
@@ -7842,10 +7842,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B67" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>278</v>
@@ -7856,10 +7856,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B68" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>278</v>
@@ -7870,10 +7870,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B69" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>278</v>
@@ -7884,10 +7884,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B70" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>278</v>
@@ -7898,10 +7898,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B71" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>278</v>
@@ -7912,10 +7912,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B72" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>278</v>
@@ -7926,10 +7926,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B73" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>278</v>
@@ -7940,10 +7940,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B74" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>278</v>
@@ -7954,10 +7954,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B75" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>278</v>
@@ -7968,10 +7968,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B76" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>278</v>
@@ -7982,10 +7982,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B77" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>278</v>
@@ -7996,10 +7996,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B78" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>278</v>
@@ -8010,10 +8010,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B79" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>278</v>
@@ -8024,10 +8024,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B80" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>278</v>
@@ -8038,10 +8038,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B81" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>278</v>
@@ -8052,10 +8052,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B82" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>278</v>
@@ -8066,10 +8066,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B83" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>278</v>
@@ -8080,10 +8080,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B84" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>278</v>
@@ -8094,10 +8094,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B85" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>278</v>
@@ -8108,10 +8108,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B86" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>278</v>
@@ -8122,10 +8122,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B87" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>278</v>
@@ -8136,10 +8136,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B88" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>278</v>
@@ -8150,10 +8150,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B89" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>278</v>
@@ -8164,10 +8164,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B90" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>278</v>
@@ -8178,10 +8178,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B91" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>278</v>
@@ -8192,10 +8192,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B92" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>278</v>
@@ -8206,10 +8206,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B93" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>278</v>
@@ -8220,10 +8220,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B94" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>278</v>
@@ -8234,10 +8234,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B95" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>278</v>
@@ -8248,10 +8248,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B96" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>278</v>
@@ -8262,10 +8262,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B97" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>278</v>
@@ -8276,10 +8276,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B98" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>278</v>
@@ -8290,10 +8290,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B99" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>278</v>
@@ -8304,10 +8304,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B100" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>278</v>
@@ -8318,10 +8318,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B101" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>278</v>
@@ -8332,10 +8332,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B102" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>278</v>
@@ -8346,10 +8346,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B103" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>278</v>
@@ -8360,10 +8360,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B104" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>278</v>
@@ -8374,10 +8374,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B105" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>278</v>
@@ -8388,10 +8388,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B106" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>278</v>
@@ -8402,10 +8402,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B107" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>278</v>
@@ -8416,10 +8416,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B108" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>278</v>
@@ -8430,10 +8430,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B109" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>278</v>
@@ -8444,10 +8444,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B110" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>278</v>
@@ -8458,10 +8458,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B111" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>278</v>
@@ -8472,10 +8472,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B112" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>278</v>
@@ -8486,10 +8486,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B113" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>278</v>
@@ -8500,10 +8500,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B114" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>278</v>
@@ -8514,10 +8514,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B115" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>278</v>
@@ -8528,10 +8528,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B116" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>278</v>
@@ -8542,10 +8542,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B117" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>278</v>
@@ -8556,10 +8556,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B118" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>278</v>
@@ -8570,10 +8570,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B119" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>278</v>
@@ -8584,10 +8584,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B120" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>278</v>
@@ -8598,10 +8598,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B121" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>278</v>
@@ -8612,10 +8612,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B122" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>278</v>
@@ -8626,10 +8626,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B123" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>278</v>
@@ -8640,10 +8640,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B124" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>278</v>
@@ -8654,10 +8654,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B125" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>278</v>
@@ -8668,10 +8668,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B126" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>278</v>
@@ -8682,10 +8682,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B127" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>278</v>
@@ -8696,10 +8696,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B128" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>278</v>
@@ -8710,10 +8710,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B129" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>278</v>
@@ -8724,10 +8724,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B130" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>278</v>
@@ -8738,10 +8738,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B131" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>278</v>
@@ -8752,10 +8752,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B132" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>278</v>
@@ -8766,10 +8766,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B133" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>278</v>
@@ -8780,10 +8780,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B134" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>278</v>
@@ -8794,10 +8794,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B135" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>278</v>
@@ -8808,10 +8808,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B136" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>278</v>
@@ -8822,10 +8822,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B137" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>278</v>
@@ -8836,10 +8836,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B138" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>278</v>
@@ -8850,10 +8850,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B139" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>278</v>
@@ -8864,10 +8864,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B140" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>278</v>
@@ -8878,10 +8878,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B141" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>278</v>
@@ -8892,10 +8892,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B142" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>278</v>
@@ -8906,10 +8906,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B143" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>278</v>
@@ -8920,10 +8920,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B144" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>278</v>
@@ -8934,10 +8934,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B145" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>278</v>
@@ -8948,10 +8948,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B146" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>278</v>
@@ -8962,10 +8962,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B147" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>278</v>
@@ -8976,10 +8976,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B148" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>278</v>
@@ -8990,10 +8990,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B149" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>278</v>
@@ -9004,10 +9004,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B150" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>278</v>
@@ -9018,10 +9018,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B151" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>278</v>
@@ -9032,10 +9032,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B152" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>278</v>
@@ -9046,10 +9046,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B153" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>278</v>
@@ -9060,10 +9060,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B154" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>278</v>
@@ -9074,10 +9074,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B155" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>278</v>
@@ -9088,10 +9088,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B156" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>278</v>
@@ -9102,10 +9102,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B157" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>278</v>
@@ -9116,10 +9116,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B158" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>278</v>
@@ -9130,10 +9130,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B159" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>278</v>
@@ -9144,10 +9144,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B160" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>278</v>
@@ -9158,10 +9158,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B161" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>278</v>
@@ -9172,10 +9172,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B162" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>278</v>
@@ -9186,10 +9186,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B163" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>278</v>
@@ -9200,10 +9200,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B164" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>278</v>
@@ -9214,10 +9214,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B165" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>278</v>
@@ -9228,10 +9228,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B166" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>278</v>
@@ -9242,10 +9242,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B167" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>278</v>
@@ -9256,10 +9256,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B168" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>278</v>
@@ -9270,10 +9270,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B169" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>278</v>
@@ -9284,10 +9284,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B170" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>278</v>
@@ -9298,10 +9298,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B171" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>278</v>
@@ -9312,10 +9312,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B172" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>278</v>
@@ -9326,10 +9326,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B173" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>278</v>
@@ -9340,10 +9340,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B174" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>278</v>
@@ -9354,10 +9354,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B175" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>278</v>
@@ -9368,10 +9368,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B176" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>278</v>
@@ -9382,10 +9382,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B177" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>278</v>
@@ -9396,10 +9396,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B178" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>278</v>
@@ -9410,10 +9410,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B179" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>278</v>
@@ -9424,10 +9424,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B180" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>278</v>
@@ -9438,10 +9438,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B181" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>278</v>
@@ -9452,10 +9452,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B182" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>278</v>
@@ -9466,7 +9466,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B183" t="s">
         <v>277</v>
@@ -9480,7 +9480,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B184" t="s">
         <v>285</v>
@@ -9494,7 +9494,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B185" t="s">
         <v>285</v>
@@ -9508,10 +9508,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B186" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>278</v>
@@ -9522,7 +9522,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B187" t="s">
         <v>277</v>
@@ -9536,10 +9536,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B188" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>278</v>
@@ -9550,7 +9550,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B189" t="s">
         <v>285</v>
@@ -9564,7 +9564,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B190" t="s">
         <v>277</v>
@@ -9578,10 +9578,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B191" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>278</v>
@@ -9592,10 +9592,10 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B192" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>278</v>
@@ -9606,10 +9606,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B193" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>278</v>
@@ -9620,10 +9620,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B194" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>278</v>
@@ -9634,10 +9634,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B195" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>278</v>
@@ -9648,10 +9648,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B196" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>278</v>
@@ -9662,10 +9662,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B197" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>278</v>
@@ -9676,10 +9676,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B198" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>278</v>
@@ -9690,10 +9690,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B199" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>278</v>
@@ -9704,10 +9704,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B200" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>278</v>
@@ -9718,10 +9718,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B201" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>278</v>
@@ -9732,10 +9732,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B202" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>278</v>
@@ -9746,10 +9746,10 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B203" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>278</v>
@@ -9760,10 +9760,10 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B204" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>278</v>
@@ -9774,10 +9774,10 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B205" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>278</v>
@@ -9788,10 +9788,10 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B206" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>278</v>
@@ -9802,10 +9802,10 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B207" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>278</v>
@@ -9816,10 +9816,10 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B208" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>278</v>
@@ -9830,10 +9830,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B209" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>278</v>
@@ -9844,10 +9844,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B210" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>278</v>
@@ -9858,10 +9858,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B211" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>278</v>
@@ -9872,10 +9872,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B212" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>278</v>
@@ -9886,10 +9886,10 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B213" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>278</v>
@@ -9900,10 +9900,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B214" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>278</v>
@@ -9914,10 +9914,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B215" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>278</v>
@@ -9928,10 +9928,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B216" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>278</v>
@@ -9942,10 +9942,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B217" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>278</v>
@@ -9956,10 +9956,10 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B218" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>278</v>
@@ -9970,10 +9970,10 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B219" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>278</v>
@@ -9984,10 +9984,10 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B220" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>278</v>
@@ -9998,10 +9998,10 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B221" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>278</v>
@@ -10012,10 +10012,10 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B222" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>278</v>
@@ -10026,10 +10026,10 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B223" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>278</v>
@@ -10040,10 +10040,10 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B224" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>278</v>
@@ -10054,10 +10054,10 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B225" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>278</v>
@@ -10068,10 +10068,10 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B226" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>278</v>
@@ -10082,10 +10082,10 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B227" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>278</v>
@@ -10096,10 +10096,10 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B228" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>278</v>
@@ -10110,10 +10110,10 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B229" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>278</v>
@@ -10124,10 +10124,10 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B230" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>278</v>
@@ -10138,10 +10138,10 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B231" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>278</v>
@@ -10152,10 +10152,10 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B232" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>278</v>
@@ -10166,10 +10166,10 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B233" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>278</v>
@@ -10180,10 +10180,10 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B234" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>278</v>
@@ -10194,10 +10194,10 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B235" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>278</v>
@@ -10208,10 +10208,10 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B236" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>278</v>
@@ -10222,10 +10222,10 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B237" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>278</v>
@@ -10236,10 +10236,10 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B238" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>278</v>
@@ -10250,10 +10250,10 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B239" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>278</v>
@@ -10264,10 +10264,10 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B240" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>278</v>
@@ -10278,10 +10278,10 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B241" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>278</v>
@@ -10292,10 +10292,10 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B242" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>278</v>
@@ -10306,10 +10306,10 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B243" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>278</v>
@@ -10320,10 +10320,10 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B244" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>278</v>
@@ -10334,10 +10334,10 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B245" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>278</v>
@@ -10348,10 +10348,10 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B246" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>278</v>
@@ -10362,10 +10362,10 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B247" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>278</v>
@@ -10376,10 +10376,10 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B248" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>278</v>
@@ -10390,10 +10390,10 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B249" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>278</v>
@@ -10404,10 +10404,10 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B250" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>278</v>
@@ -10418,10 +10418,10 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B251" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>278</v>
@@ -10432,10 +10432,10 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B252" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>278</v>
@@ -10446,10 +10446,10 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B253" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>278</v>
@@ -10460,10 +10460,10 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B254" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>278</v>
@@ -10474,10 +10474,10 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B255" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>278</v>
@@ -10488,10 +10488,10 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B256" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>278</v>
@@ -10502,10 +10502,10 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B257" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>278</v>
@@ -10516,10 +10516,10 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B258" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>278</v>
@@ -10530,10 +10530,10 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B259" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>278</v>
@@ -10544,10 +10544,10 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B260" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>278</v>
@@ -10558,10 +10558,10 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B261" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>278</v>
@@ -10572,10 +10572,10 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B262" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>278</v>
@@ -10586,10 +10586,10 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B263" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>278</v>
@@ -10600,10 +10600,10 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B264" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>278</v>
@@ -10614,10 +10614,10 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B265" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>278</v>
@@ -10628,10 +10628,10 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B266" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>278</v>
@@ -10642,10 +10642,10 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B267" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>278</v>
@@ -10656,10 +10656,10 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B268" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>278</v>
@@ -10670,10 +10670,10 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B269" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>278</v>
@@ -10684,10 +10684,10 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B270" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>278</v>
@@ -10698,10 +10698,10 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B271" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>278</v>
@@ -10712,10 +10712,10 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B272" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>278</v>
@@ -10726,10 +10726,10 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B273" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>278</v>
@@ -10740,10 +10740,10 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B274" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>278</v>
@@ -10754,10 +10754,10 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B275" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>278</v>
@@ -10768,10 +10768,10 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B276" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>278</v>
@@ -10782,10 +10782,10 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B277" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>278</v>
@@ -10796,10 +10796,10 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B278" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>278</v>
@@ -10810,10 +10810,10 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B279" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>278</v>
@@ -10824,10 +10824,10 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B280" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>278</v>
@@ -10838,10 +10838,10 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B281" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>278</v>
@@ -10852,10 +10852,10 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B282" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>278</v>
@@ -10866,10 +10866,10 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B283" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>278</v>
@@ -10880,10 +10880,10 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B284" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>278</v>
@@ -10894,10 +10894,10 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B285" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>278</v>
@@ -10908,10 +10908,10 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B286" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>278</v>
@@ -10922,10 +10922,10 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B287" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>278</v>
@@ -10936,10 +10936,10 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B288" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>278</v>
@@ -10950,10 +10950,10 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B289" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>278</v>
@@ -10964,10 +10964,10 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B290" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>278</v>
@@ -10978,10 +10978,10 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B291" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>278</v>
@@ -10992,10 +10992,10 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B292" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>278</v>
@@ -11006,10 +11006,10 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B293" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>278</v>
@@ -11020,10 +11020,10 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B294" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>278</v>
@@ -11034,10 +11034,10 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B295" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>278</v>
@@ -11048,10 +11048,10 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B296" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>278</v>
@@ -11062,10 +11062,10 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B297" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>278</v>
@@ -11076,10 +11076,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B298" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>278</v>
@@ -11090,10 +11090,10 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B299" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>278</v>
@@ -11104,10 +11104,10 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B300" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>278</v>
@@ -11118,10 +11118,10 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B301" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>278</v>
@@ -11132,10 +11132,10 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B302" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>278</v>
@@ -11146,10 +11146,10 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B303" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>278</v>
@@ -11160,10 +11160,10 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B304" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>278</v>
@@ -11174,10 +11174,10 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B305" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>278</v>
@@ -11188,10 +11188,10 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B306" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>278</v>
@@ -11202,10 +11202,10 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B307" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>278</v>
@@ -11216,10 +11216,10 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B308" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>278</v>
@@ -11230,10 +11230,10 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B309" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>278</v>
@@ -11244,10 +11244,10 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B310" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>278</v>
@@ -11258,10 +11258,10 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B311" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>278</v>
@@ -11272,10 +11272,10 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B312" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>278</v>
@@ -11286,10 +11286,10 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B313" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>278</v>
@@ -11300,10 +11300,10 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B314" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>278</v>
@@ -11314,10 +11314,10 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B315" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>278</v>
@@ -11328,10 +11328,10 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B316" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>278</v>
@@ -11342,10 +11342,10 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B317" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>278</v>
@@ -11356,10 +11356,10 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B318" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>278</v>
@@ -11370,10 +11370,10 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B319" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>278</v>
@@ -11384,10 +11384,10 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B320" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>278</v>
@@ -11398,10 +11398,10 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B321" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>278</v>
@@ -11412,10 +11412,10 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B322" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>278</v>
@@ -11426,10 +11426,10 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B323" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>278</v>
@@ -11440,10 +11440,10 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B324" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>278</v>
@@ -11454,10 +11454,10 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B325" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>278</v>
@@ -11468,10 +11468,10 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B326" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>278</v>
@@ -11482,10 +11482,10 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B327" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>278</v>
@@ -11496,10 +11496,10 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B328" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>278</v>
@@ -11510,10 +11510,10 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B329" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>278</v>
@@ -11524,10 +11524,10 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B330" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>278</v>
@@ -11538,10 +11538,10 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B331" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>278</v>
@@ -11552,10 +11552,10 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B332" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>278</v>
@@ -11566,10 +11566,10 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B333" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>278</v>
@@ -11580,10 +11580,10 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B334" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>278</v>
@@ -11594,10 +11594,10 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B335" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>278</v>
@@ -11608,10 +11608,10 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B336" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>278</v>
@@ -11622,10 +11622,10 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B337" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>278</v>
@@ -11636,10 +11636,10 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B338" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>278</v>
@@ -11650,10 +11650,10 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B339" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>278</v>
@@ -11664,10 +11664,10 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B340" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>278</v>
@@ -11678,10 +11678,10 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B341" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>278</v>
@@ -11692,10 +11692,10 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B342" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>278</v>
@@ -11706,10 +11706,10 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B343" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>278</v>
@@ -11720,10 +11720,10 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B344" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>278</v>
@@ -11734,10 +11734,10 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B345" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>278</v>
@@ -11748,10 +11748,10 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B346" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>278</v>
@@ -11762,10 +11762,10 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B347" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>278</v>
@@ -11776,10 +11776,10 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B348" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>278</v>
@@ -11790,10 +11790,10 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B349" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>278</v>
@@ -11804,10 +11804,10 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B350" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>278</v>
@@ -11818,10 +11818,10 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B351" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>278</v>
@@ -11832,10 +11832,10 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B352" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>278</v>
@@ -11846,10 +11846,10 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B353" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>278</v>
@@ -11860,10 +11860,10 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B354" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>278</v>
@@ -11900,10 +11900,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="10260" tabRatio="868" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="10260" tabRatio="868" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Codespace" sheetId="12" r:id="rId1"/>
@@ -24,15 +24,15 @@
     <sheet name="ESRI_AB" sheetId="15" r:id="rId10"/>
     <sheet name="Format" sheetId="7" r:id="rId11"/>
     <sheet name="Geospatial_QC" sheetId="20" r:id="rId12"/>
-    <sheet name="Feature_Spatial_QC" sheetId="23" r:id="rId13"/>
-    <sheet name="FrenchTranslation" sheetId="8" r:id="rId14"/>
-    <sheet name="Keyword" sheetId="5" r:id="rId15"/>
-    <sheet name="Progress" sheetId="10" r:id="rId16"/>
-    <sheet name="Role" sheetId="11" r:id="rId17"/>
-    <sheet name="Sector_QC" sheetId="22" r:id="rId18"/>
-    <sheet name="SpatialRef" sheetId="13" r:id="rId19"/>
-    <sheet name="SpatialRepresentation" sheetId="14" r:id="rId20"/>
-    <sheet name="Update" sheetId="6" r:id="rId21"/>
+    <sheet name="FrenchTranslation" sheetId="8" r:id="rId13"/>
+    <sheet name="Keyword" sheetId="5" r:id="rId14"/>
+    <sheet name="Progress" sheetId="10" r:id="rId15"/>
+    <sheet name="Role" sheetId="11" r:id="rId16"/>
+    <sheet name="Sector_QC" sheetId="22" r:id="rId17"/>
+    <sheet name="SpatialRef" sheetId="13" r:id="rId18"/>
+    <sheet name="SpatialRepresentation" sheetId="14" r:id="rId19"/>
+    <sheet name="Update" sheetId="6" r:id="rId20"/>
+    <sheet name="UUID_Spatial_QC" sheetId="24" r:id="rId21"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3451" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3462" uniqueCount="1013">
   <si>
     <t>default_key</t>
   </si>
@@ -2431,15 +2431,9 @@
     <t>QC</t>
   </si>
   <si>
-    <t>Licence du gouvernement ouvert - Québec (https://www.donneesquebec.ca/fr/licence/#cc-by)</t>
-  </si>
-  <si>
     <t>p-t_license_en</t>
   </si>
   <si>
-    <t>Open Government Licence - Quebec (https://www.donneesquebec.ca/fr/licence/#cc-by)</t>
-  </si>
-  <si>
     <t>An open data-sharing platform born of collaboration between cities and the Government of Quebec</t>
   </si>
   <si>
@@ -2458,9 +2452,6 @@
     <t>Government of Quebec</t>
   </si>
   <si>
-    <t>EPSG:6622</t>
-  </si>
-  <si>
     <t>notes_en</t>
   </si>
   <si>
@@ -3062,6 +3053,36 @@
   </si>
   <si>
     <t>spatial_type</t>
+  </si>
+  <si>
+    <t>Creative Commons 4.0 Attribution (CC-BY) licence – Quebec (https://www.donneesquebec.ca/fr/licence/)</t>
+  </si>
+  <si>
+    <t>Licence Creative Commons 4.0 Attribution (CC-BY) – Québec (https://www.donneesquebec.ca/fr/licence/)</t>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>17668eee-a76b-4eac-a613-c116b6b756e0</t>
+  </si>
+  <si>
+    <t>74f2472e-5bb9-4d2d-8be5-0931c96eeeff</t>
+  </si>
+  <si>
+    <t>549a1076-94da-4163-b8ce-c6c5e97627ed</t>
+  </si>
+  <si>
+    <t>fd27a366-4664-45b1-aac0-65007c80db95</t>
+  </si>
+  <si>
+    <t>73d3abac-12e2-4fac-81bd-b96007fde794</t>
+  </si>
+  <si>
+    <t>4a05016f-fa46-4b1d-94cf-ff45b4cb9391</t>
+  </si>
+  <si>
+    <t>1d7d1a92-7cba-438b-9e31-e98dedd2f0b8</t>
   </si>
 </sst>
 </file>
@@ -8828,7 +8849,7 @@
     </row>
     <row r="355" spans="1:4" s="9" customFormat="1">
       <c r="A355" s="9" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B355" t="s">
         <v>791</v>
@@ -8842,7 +8863,7 @@
     </row>
     <row r="356" spans="1:4" s="9" customFormat="1">
       <c r="A356" s="9" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B356" s="9" t="s">
         <v>283</v>
@@ -8856,7 +8877,7 @@
     </row>
     <row r="357" spans="1:4" s="9" customFormat="1">
       <c r="A357" s="9" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B357" t="s">
         <v>791</v>
@@ -8884,7 +8905,7 @@
     </row>
     <row r="359" spans="1:4" s="9" customFormat="1">
       <c r="A359" s="9" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B359" t="s">
         <v>791</v>
@@ -8898,10 +8919,10 @@
     </row>
     <row r="360" spans="1:4" s="9" customFormat="1">
       <c r="A360" s="9" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B360" s="9" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>309</v>
@@ -8912,10 +8933,10 @@
     </row>
     <row r="361" spans="1:4" s="9" customFormat="1">
       <c r="A361" s="9" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B361" s="9" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>309</v>
@@ -8926,7 +8947,7 @@
     </row>
     <row r="362" spans="1:4" s="9" customFormat="1">
       <c r="A362" s="9" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B362" t="s">
         <v>791</v>
@@ -8940,10 +8961,10 @@
     </row>
     <row r="363" spans="1:4" s="9" customFormat="1">
       <c r="A363" s="9" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B363" s="9" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>278</v>
@@ -8954,10 +8975,10 @@
     </row>
     <row r="364" spans="1:4" s="9" customFormat="1">
       <c r="A364" s="9" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B364" s="9" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>278</v>
@@ -8968,7 +8989,7 @@
     </row>
     <row r="365" spans="1:4" s="9" customFormat="1">
       <c r="A365" s="9" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B365" s="9" t="s">
         <v>285</v>
@@ -8982,7 +9003,7 @@
     </row>
     <row r="366" spans="1:4" s="9" customFormat="1">
       <c r="A366" s="9" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B366" s="9" t="s">
         <v>285</v>
@@ -8996,7 +9017,7 @@
     </row>
     <row r="367" spans="1:4" s="9" customFormat="1">
       <c r="A367" s="9" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B367" t="s">
         <v>791</v>
@@ -9024,10 +9045,10 @@
     </row>
     <row r="369" spans="1:4" s="9" customFormat="1">
       <c r="A369" s="9" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B369" s="9" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>278</v>
@@ -9038,7 +9059,7 @@
     </row>
     <row r="370" spans="1:4" s="9" customFormat="1">
       <c r="A370" s="9" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B370" t="s">
         <v>791</v>
@@ -9066,10 +9087,10 @@
     </row>
     <row r="372" spans="1:4" s="9" customFormat="1">
       <c r="A372" s="9" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>278</v>
@@ -9080,10 +9101,10 @@
     </row>
     <row r="373" spans="1:4" s="9" customFormat="1">
       <c r="A373" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B373" s="9" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>278</v>
@@ -9094,10 +9115,10 @@
     </row>
     <row r="374" spans="1:4" s="9" customFormat="1">
       <c r="A374" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B374" s="9" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>278</v>
@@ -9122,7 +9143,7 @@
     </row>
     <row r="376" spans="1:4" s="9" customFormat="1">
       <c r="A376" s="9" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B376" t="s">
         <v>791</v>
@@ -9136,10 +9157,10 @@
     </row>
     <row r="377" spans="1:4" s="9" customFormat="1">
       <c r="A377" s="9" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B377" s="9" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>278</v>
@@ -9192,7 +9213,7 @@
     </row>
     <row r="381" spans="1:4" s="9" customFormat="1">
       <c r="A381" s="9" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B381" t="s">
         <v>791</v>
@@ -9220,7 +9241,7 @@
     </row>
     <row r="383" spans="1:4" s="9" customFormat="1">
       <c r="A383" s="9" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B383" t="s">
         <v>791</v>
@@ -9234,10 +9255,10 @@
     </row>
     <row r="384" spans="1:4" s="9" customFormat="1">
       <c r="A384" s="9" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B384" s="9" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>309</v>
@@ -9248,10 +9269,10 @@
     </row>
     <row r="385" spans="1:4" s="9" customFormat="1">
       <c r="A385" s="9" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B385" s="9" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>278</v>
@@ -9276,7 +9297,7 @@
     </row>
     <row r="387" spans="1:4" s="9" customFormat="1">
       <c r="A387" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B387" s="9" t="s">
         <v>285</v>
@@ -9290,10 +9311,10 @@
     </row>
     <row r="388" spans="1:4" s="9" customFormat="1">
       <c r="A388" s="9" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B388" s="9" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>278</v>
@@ -9304,7 +9325,7 @@
     </row>
     <row r="389" spans="1:4" s="9" customFormat="1">
       <c r="A389" s="9" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B389" t="s">
         <v>791</v>
@@ -9332,7 +9353,7 @@
     </row>
     <row r="391" spans="1:4" s="9" customFormat="1">
       <c r="A391" s="9" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B391" t="s">
         <v>791</v>
@@ -9346,10 +9367,10 @@
     </row>
     <row r="392" spans="1:4" s="9" customFormat="1">
       <c r="A392" s="9" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B392" s="9" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>278</v>
@@ -9374,7 +9395,7 @@
     </row>
     <row r="394" spans="1:4" s="9" customFormat="1">
       <c r="A394" s="9" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B394" t="s">
         <v>791</v>
@@ -9388,10 +9409,10 @@
     </row>
     <row r="395" spans="1:4" s="9" customFormat="1">
       <c r="A395" s="9" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B395" s="9" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>278</v>
@@ -9402,10 +9423,10 @@
     </row>
     <row r="396" spans="1:4" s="9" customFormat="1">
       <c r="A396" s="9" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B396" s="9" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>278</v>
@@ -9416,10 +9437,10 @@
     </row>
     <row r="397" spans="1:4" s="9" customFormat="1">
       <c r="A397" s="9" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B397" s="9" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>278</v>
@@ -9430,7 +9451,7 @@
     </row>
     <row r="398" spans="1:4" s="9" customFormat="1">
       <c r="A398" s="9" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B398" t="s">
         <v>791</v>
@@ -9458,10 +9479,10 @@
     </row>
     <row r="400" spans="1:4" s="9" customFormat="1">
       <c r="A400" s="9" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B400" s="9" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>278</v>
@@ -9472,10 +9493,10 @@
     </row>
     <row r="401" spans="1:4" s="9" customFormat="1">
       <c r="A401" s="9" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B401" s="9" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>278</v>
@@ -9500,10 +9521,10 @@
     </row>
     <row r="403" spans="1:4" s="9" customFormat="1">
       <c r="A403" s="9" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B403" s="9" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>278</v>
@@ -9528,10 +9549,10 @@
     </row>
     <row r="405" spans="1:4" s="9" customFormat="1">
       <c r="A405" s="9" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B405" s="9" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>278</v>
@@ -9570,7 +9591,7 @@
     </row>
     <row r="408" spans="1:4" s="9" customFormat="1">
       <c r="A408" s="9" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B408" t="s">
         <v>791</v>
@@ -9584,7 +9605,7 @@
     </row>
     <row r="409" spans="1:4" s="9" customFormat="1">
       <c r="A409" s="9" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B409" t="s">
         <v>791</v>
@@ -9598,10 +9619,10 @@
     </row>
     <row r="410" spans="1:4" s="9" customFormat="1">
       <c r="A410" s="9" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B410" s="9" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>278</v>
@@ -9612,7 +9633,7 @@
     </row>
     <row r="411" spans="1:4" s="9" customFormat="1">
       <c r="A411" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B411" t="s">
         <v>791</v>
@@ -9626,10 +9647,10 @@
     </row>
     <row r="412" spans="1:4" s="9" customFormat="1">
       <c r="A412" s="9" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B412" s="9" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>278</v>
@@ -9640,10 +9661,10 @@
     </row>
     <row r="413" spans="1:4" s="9" customFormat="1">
       <c r="A413" s="9" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B413" s="9" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>278</v>
@@ -9654,10 +9675,10 @@
     </row>
     <row r="414" spans="1:4" s="9" customFormat="1">
       <c r="A414" s="9" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B414" s="9" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>278</v>
@@ -9668,10 +9689,10 @@
     </row>
     <row r="415" spans="1:4" s="9" customFormat="1">
       <c r="A415" s="9" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B415" s="9" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>278</v>
@@ -9682,7 +9703,7 @@
     </row>
     <row r="416" spans="1:4" s="9" customFormat="1">
       <c r="A416" s="9" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B416" t="s">
         <v>791</v>
@@ -9696,10 +9717,10 @@
     </row>
     <row r="417" spans="1:4" s="9" customFormat="1">
       <c r="A417" s="9" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B417" s="9" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>278</v>
@@ -9710,7 +9731,7 @@
     </row>
     <row r="418" spans="1:4" s="9" customFormat="1">
       <c r="A418" s="9" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B418" s="9" t="s">
         <v>316</v>
@@ -9735,7 +9756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -9749,21 +9770,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B1" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C1" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="9" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -9771,10 +9792,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="9" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -9782,7 +9803,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="9" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -9792,10 +9813,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="9" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -9803,20 +9824,20 @@
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="9" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="9" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="9" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -9824,10 +9845,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="9" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -9835,15 +9856,15 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="9" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="9" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -9851,10 +9872,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="9" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -9862,7 +9883,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="9" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -9878,18 +9899,18 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="9" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="9" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C17" t="s">
         <v>572</v>
@@ -9908,10 +9929,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="9" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C19" t="s">
         <v>575</v>
@@ -9919,10 +9940,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C20" t="s">
         <v>575</v>
@@ -9930,10 +9951,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C21" t="s">
         <v>575</v>
@@ -9946,12 +9967,12 @@
     </row>
     <row r="23" spans="1:3">
       <c r="B23" s="9" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" s="9" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -9983,10 +10004,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -10002,17 +10023,17 @@
     </row>
     <row r="30" spans="1:3">
       <c r="B30" s="9" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" s="9" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="B32" s="9" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -10022,20 +10043,20 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="B35" s="9" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="B36" s="9" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -10048,15 +10069,15 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="9" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="B39" s="9" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -10072,10 +10093,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="9" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
@@ -10083,22 +10104,22 @@
     </row>
     <row r="42" spans="1:3">
       <c r="B42" s="9" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="B43" s="9" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" s="9" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="B45" s="9" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -10108,12 +10129,12 @@
     </row>
     <row r="47" spans="1:3">
       <c r="B47" s="9" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="B48" s="9" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -10126,10 +10147,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="9" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -10139,7 +10160,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="B52" s="9" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -10154,10 +10175,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="9" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C55" t="s">
         <v>9</v>
@@ -10165,10 +10186,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="9" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="C56" t="s">
         <v>9</v>
@@ -10176,10 +10197,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="9" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
@@ -10187,15 +10208,15 @@
     </row>
     <row r="58" spans="1:3">
       <c r="B58" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="9" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C59" t="s">
         <v>575</v>
@@ -10203,10 +10224,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="9" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
@@ -10214,23 +10235,23 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="9" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="B62" s="9" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="9" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
@@ -10238,12 +10259,12 @@
     </row>
     <row r="64" spans="1:3">
       <c r="B64" s="9" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="9" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
   </sheetData>
@@ -10252,20 +10273,6 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -10307,7 +10314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -10525,7 +10532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -10700,7 +10707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -10959,1084 +10966,1084 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="82" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="95" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B1" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>895</v>
+      </c>
+      <c r="B2" t="s">
+        <v>896</v>
+      </c>
+      <c r="C2" t="s">
+        <v>897</v>
+      </c>
+      <c r="D2" t="s">
         <v>898</v>
-      </c>
-      <c r="B2" t="s">
-        <v>899</v>
-      </c>
-      <c r="C2" t="s">
-        <v>900</v>
-      </c>
-      <c r="D2" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B3" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C3" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D3" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B4" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C4" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D4" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B5" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C5" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D5" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B6" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C6" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D6" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B7" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C7" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D7" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B8" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C8" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D8" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B9" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C9" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D9" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B10" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="C10" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D10" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B11" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C11" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D11" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B12" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C12" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D12" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B13" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C13" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D13" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B14" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C14" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D14" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B15" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C15" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D15" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B16" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C16" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D16" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B17" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C17" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D17" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B18" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C18" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D18" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B19" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C19" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D19" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B20" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C20" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D20" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B21" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C21" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D21" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B22" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C22" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D22" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B23" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C23" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D23" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B24" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C24" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D24" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B25" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C25" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D25" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B26" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C26" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D26" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B27" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C27" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D27" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B28" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C28" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D28" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B29" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C29" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D29" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B30" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C30" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D30" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B31" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C31" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D31" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B32" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C32" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D32" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B33" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C33" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D33" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B34" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C34" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D34" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B35" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C35" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D35" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B36" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C36" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D36" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="B37" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C37" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D37" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B38" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C38" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D38" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B39" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C39" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D39" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="B40" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C40" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D40" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B41" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C41" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D41" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B42" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C42" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D42" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B43" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C43" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D43" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B44" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C44" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D44" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B45" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C45" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D45" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B46" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C46" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D46" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B47" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C47" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D47" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B48" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C48" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D48" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="B49" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C49" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="D49" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B50" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C50" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D50" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B51" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C51" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D51" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B52" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C52" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D52" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B53" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C53" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D53" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B54" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C54" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D54" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B55" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C55" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D55" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B56" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C56" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D56" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B57" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C57" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D57" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="B58" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C58" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D58" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B59" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C59" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D59" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B60" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C60" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D60" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="B61" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C61" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D61" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="B62" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="C62" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D62" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B63" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C63" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D63" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="B64" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C64" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="D64" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="B65" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="C65" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="D65" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B66" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="C66" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="D66" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B67" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C67" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="D67" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B68" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C68" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="D68" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B69" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="C69" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="D69" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="B70" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="C70" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="D70" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B71" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="D71" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="B72" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C72" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="D72" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="B73" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="C73" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="D73" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="B74" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C74" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="D74" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B75" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C75" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="D75" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="B76" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C76" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D76" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
   </sheetData>
@@ -12044,7 +12051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -12177,984 +12184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C87"/>
-  <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="39.42578125" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>94</v>
-      </c>
-      <c r="B46" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>100</v>
-      </c>
-      <c r="B49" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>102</v>
-      </c>
-      <c r="B50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>106</v>
-      </c>
-      <c r="B52" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>110</v>
-      </c>
-      <c r="B54" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>113</v>
-      </c>
-      <c r="B55" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56" t="s">
-        <v>23</v>
-      </c>
-      <c r="C56" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>115</v>
-      </c>
-      <c r="B57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>24</v>
-      </c>
-      <c r="B58" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>26</v>
-      </c>
-      <c r="B59" t="s">
-        <v>119</v>
-      </c>
-      <c r="C59" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>120</v>
-      </c>
-      <c r="B60" t="s">
-        <v>121</v>
-      </c>
-      <c r="C60" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>125</v>
-      </c>
-      <c r="B62" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>127</v>
-      </c>
-      <c r="B63" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>130</v>
-      </c>
-      <c r="B64" t="s">
-        <v>131</v>
-      </c>
-      <c r="C64" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B65" t="s">
-        <v>134</v>
-      </c>
-      <c r="C65" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>135</v>
-      </c>
-      <c r="B66" t="s">
-        <v>136</v>
-      </c>
-      <c r="C66" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>137</v>
-      </c>
-      <c r="B67" t="s">
-        <v>138</v>
-      </c>
-      <c r="C67" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>139</v>
-      </c>
-      <c r="B68" t="s">
-        <v>140</v>
-      </c>
-      <c r="C68" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>141</v>
-      </c>
-      <c r="B69" t="s">
-        <v>141</v>
-      </c>
-      <c r="C69" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>142</v>
-      </c>
-      <c r="B70" t="s">
-        <v>143</v>
-      </c>
-      <c r="C70" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>144</v>
-      </c>
-      <c r="B71" t="s">
-        <v>145</v>
-      </c>
-      <c r="C71" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>146</v>
-      </c>
-      <c r="B72" t="s">
-        <v>147</v>
-      </c>
-      <c r="C72" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>148</v>
-      </c>
-      <c r="B73" t="s">
-        <v>149</v>
-      </c>
-      <c r="C73" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>150</v>
-      </c>
-      <c r="B74" t="s">
-        <v>32</v>
-      </c>
-      <c r="C74" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>151</v>
-      </c>
-      <c r="B75" t="s">
-        <v>152</v>
-      </c>
-      <c r="C75" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>733</v>
-      </c>
-      <c r="B76" t="s">
-        <v>733</v>
-      </c>
-      <c r="C76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>734</v>
-      </c>
-      <c r="B77" t="s">
-        <v>734</v>
-      </c>
-      <c r="C77" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>735</v>
-      </c>
-      <c r="B78" t="s">
-        <v>736</v>
-      </c>
-      <c r="C78" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>737</v>
-      </c>
-      <c r="B79" t="s">
-        <v>738</v>
-      </c>
-      <c r="C79" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>739</v>
-      </c>
-      <c r="B80" t="s">
-        <v>740</v>
-      </c>
-      <c r="C80" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>92</v>
-      </c>
-      <c r="B81" t="s">
-        <v>93</v>
-      </c>
-      <c r="C81" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>94</v>
-      </c>
-      <c r="B82" t="s">
-        <v>95</v>
-      </c>
-      <c r="C82" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>96</v>
-      </c>
-      <c r="B83" t="s">
-        <v>97</v>
-      </c>
-      <c r="C83" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>98</v>
-      </c>
-      <c r="B84" t="s">
-        <v>99</v>
-      </c>
-      <c r="C84" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>102</v>
-      </c>
-      <c r="B85" t="s">
-        <v>103</v>
-      </c>
-      <c r="C85" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>747</v>
-      </c>
-      <c r="B86" t="s">
-        <v>101</v>
-      </c>
-      <c r="C86" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>104</v>
-      </c>
-      <c r="B87" t="s">
-        <v>105</v>
-      </c>
-      <c r="C87" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -13273,7 +12303,984 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C87"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.42578125" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>135</v>
+      </c>
+      <c r="B66" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>141</v>
+      </c>
+      <c r="B69" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>150</v>
+      </c>
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>733</v>
+      </c>
+      <c r="B76" t="s">
+        <v>733</v>
+      </c>
+      <c r="C76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>734</v>
+      </c>
+      <c r="B77" t="s">
+        <v>734</v>
+      </c>
+      <c r="C77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>735</v>
+      </c>
+      <c r="B78" t="s">
+        <v>736</v>
+      </c>
+      <c r="C78" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>737</v>
+      </c>
+      <c r="B79" t="s">
+        <v>738</v>
+      </c>
+      <c r="C79" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>739</v>
+      </c>
+      <c r="B80" t="s">
+        <v>740</v>
+      </c>
+      <c r="C80" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" t="s">
+        <v>93</v>
+      </c>
+      <c r="C81" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83" t="s">
+        <v>97</v>
+      </c>
+      <c r="C83" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>98</v>
+      </c>
+      <c r="B84" t="s">
+        <v>99</v>
+      </c>
+      <c r="C84" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>102</v>
+      </c>
+      <c r="B85" t="s">
+        <v>103</v>
+      </c>
+      <c r="C85" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>747</v>
+      </c>
+      <c r="B86" t="s">
+        <v>101</v>
+      </c>
+      <c r="C86" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>104</v>
+      </c>
+      <c r="B87" t="s">
+        <v>105</v>
+      </c>
+      <c r="C87" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -13585,7 +13592,7 @@
     </row>
     <row r="22" spans="1:4" s="9" customFormat="1">
       <c r="A22" s="9" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>236</v>
@@ -13599,7 +13606,7 @@
     </row>
     <row r="23" spans="1:4" s="9" customFormat="1">
       <c r="A23" s="9" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>233</v>
@@ -13613,7 +13620,7 @@
     </row>
     <row r="24" spans="1:4" s="9" customFormat="1">
       <c r="A24" s="9" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>225</v>
@@ -13627,7 +13634,7 @@
     </row>
     <row r="25" spans="1:4" s="10" customFormat="1">
       <c r="A25" s="10" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>236</v>
@@ -13641,7 +13648,7 @@
     </row>
     <row r="26" spans="1:4" s="9" customFormat="1">
       <c r="A26" s="9" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>233</v>
@@ -13655,7 +13662,7 @@
     </row>
     <row r="27" spans="1:4" s="10" customFormat="1">
       <c r="A27" s="10" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>230</v>
@@ -13669,7 +13676,7 @@
     </row>
     <row r="28" spans="1:4" s="10" customFormat="1">
       <c r="A28" s="10" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>230</v>
@@ -13679,6 +13686,89 @@
       </c>
       <c r="D28" s="10" t="s">
         <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="78.7109375" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B5" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B7" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B8" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -13690,7 +13780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
@@ -14589,8 +14679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14670,7 +14760,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C7" t="s">
         <v>75</v>
@@ -14692,7 +14782,7 @@
         <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C9" t="s">
         <v>75</v>
@@ -14703,7 +14793,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C10" t="s">
         <v>75</v>
@@ -14725,7 +14815,7 @@
         <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C12" t="s">
         <v>75</v>
@@ -14967,7 +15057,7 @@
         <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C34" t="s">
         <v>42</v>
@@ -15088,7 +15178,7 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C45" t="s">
         <v>75</v>
@@ -15110,7 +15200,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C47" t="s">
         <v>42</v>
@@ -15198,7 +15288,7 @@
         <v>137</v>
       </c>
       <c r="B55" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C55" t="s">
         <v>132</v>
@@ -15319,7 +15409,7 @@
         <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C66" t="s">
         <v>75</v>
@@ -15396,7 +15486,7 @@
         <v>110</v>
       </c>
       <c r="B73" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C73" t="s">
         <v>112</v>
@@ -15418,7 +15508,7 @@
         <v>45</v>
       </c>
       <c r="B75" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C75" t="s">
         <v>42</v>
@@ -15440,7 +15530,7 @@
         <v>123</v>
       </c>
       <c r="B77" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C77" t="s">
         <v>122</v>
@@ -15451,7 +15541,7 @@
         <v>120</v>
       </c>
       <c r="B78" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C78" t="s">
         <v>122</v>
@@ -15462,7 +15552,7 @@
         <v>125</v>
       </c>
       <c r="B79" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C79" t="s">
         <v>122</v>
@@ -15520,7 +15610,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B2">
         <v>-73.73</v>
@@ -15537,7 +15627,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B3">
         <v>-75.33</v>
@@ -15554,7 +15644,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B4">
         <v>-73.510000000000005</v>
@@ -15571,7 +15661,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B5">
         <v>-73.33</v>
@@ -15588,7 +15678,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B6">
         <v>-73.459999999999994</v>
@@ -15605,7 +15695,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B7">
         <v>-57</v>
@@ -15622,7 +15712,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B8">
         <v>-71.12</v>
@@ -15639,7 +15729,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B9">
         <v>-73.27</v>
@@ -15656,7 +15746,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B10">
         <v>-67.94</v>
@@ -15673,7 +15763,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B11">
         <v>-78.2</v>
@@ -15690,7 +15780,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B12">
         <v>-72.53</v>
@@ -15707,7 +15797,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B13">
         <v>-71.790000000000006</v>
@@ -15724,7 +15814,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B14">
         <v>-57</v>
@@ -16400,10 +16490,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16445,7 +16535,7 @@
     </row>
     <row r="5" spans="1:2" s="7" customFormat="1">
       <c r="A5" s="7" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>19</v>
@@ -16453,7 +16543,7 @@
     </row>
     <row r="6" spans="1:2" s="7" customFormat="1">
       <c r="A6" s="7" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>19</v>
@@ -16461,7 +16551,7 @@
     </row>
     <row r="7" spans="1:2" s="7" customFormat="1">
       <c r="A7" s="7" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>534</v>
@@ -16469,7 +16559,7 @@
     </row>
     <row r="8" spans="1:2" s="7" customFormat="1">
       <c r="A8" s="7" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>532</v>
@@ -16477,7 +16567,7 @@
     </row>
     <row r="9" spans="1:2" s="7" customFormat="1">
       <c r="A9" s="7" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>533</v>
@@ -16520,7 +16610,7 @@
         <v>44</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="7" customFormat="1">
@@ -16528,7 +16618,7 @@
         <v>736</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="7" customFormat="1">
@@ -16536,7 +16626,7 @@
         <v>740</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="7" customFormat="1">
@@ -16552,7 +16642,7 @@
         <v>733</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="7" customFormat="1">
@@ -16563,102 +16653,81 @@
         <v>298</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" s="7" customFormat="1">
       <c r="A20" s="7" t="s">
-        <v>115</v>
+        <v>800</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="7" customFormat="1">
       <c r="A21" s="7" t="s">
-        <v>802</v>
+        <v>4</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="7" customFormat="1">
       <c r="A22" s="7" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="7" customFormat="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>19</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="7" t="s">
-        <v>14</v>
+        <v>795</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>795</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="7" t="s">
-        <v>796</v>
+        <v>33</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>797</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="7" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="7" customFormat="1">
+      <c r="A27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="7" customFormat="1">
+    <row r="28" spans="1:2">
       <c r="A28" s="7" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="7" customFormat="1">
-      <c r="A29" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" s="7" customFormat="1">
-      <c r="A30" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
+    <row r="29" spans="1:2">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
     </row>
   </sheetData>
   <sortState ref="A1:B48">

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -12307,8 +12307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13780,7 +13780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
@@ -14679,8 +14679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15156,7 +15156,7 @@
         <v>115</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C43" t="s">
         <v>117</v>
@@ -15266,7 +15266,7 @@
         <v>24</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="C53" t="s">
         <v>117</v>
@@ -15277,7 +15277,7 @@
         <v>26</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="C54" t="s">
         <v>117</v>
@@ -16493,7 +16493,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -16492,8 +16492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16682,7 +16682,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -16690,7 +16690,7 @@
         <v>795</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="25" spans="1:2">

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="10260" tabRatio="868" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="10260" tabRatio="868" firstSheet="7" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Codespace" sheetId="12" r:id="rId1"/>
@@ -23,16 +23,17 @@
     <sheet name="Default_QC" sheetId="16" r:id="rId9"/>
     <sheet name="ESRI_AB" sheetId="15" r:id="rId10"/>
     <sheet name="Format" sheetId="7" r:id="rId11"/>
-    <sheet name="Geospatial_QC" sheetId="20" r:id="rId12"/>
-    <sheet name="FrenchTranslation" sheetId="8" r:id="rId13"/>
-    <sheet name="Keyword" sheetId="5" r:id="rId14"/>
-    <sheet name="Progress" sheetId="10" r:id="rId15"/>
-    <sheet name="Role" sheetId="11" r:id="rId16"/>
-    <sheet name="Sector_QC" sheetId="22" r:id="rId17"/>
-    <sheet name="SpatialRef" sheetId="13" r:id="rId18"/>
-    <sheet name="SpatialRepresentation" sheetId="14" r:id="rId19"/>
-    <sheet name="Update" sheetId="6" r:id="rId20"/>
-    <sheet name="UUID_Spatial_QC" sheetId="24" r:id="rId21"/>
+    <sheet name="Geospatial_BC" sheetId="25" r:id="rId12"/>
+    <sheet name="Geospatial_QC" sheetId="20" r:id="rId13"/>
+    <sheet name="FrenchTranslation" sheetId="8" r:id="rId14"/>
+    <sheet name="Keyword" sheetId="5" r:id="rId15"/>
+    <sheet name="Progress" sheetId="10" r:id="rId16"/>
+    <sheet name="Role" sheetId="11" r:id="rId17"/>
+    <sheet name="Sector_QC" sheetId="22" r:id="rId18"/>
+    <sheet name="SpatialRef" sheetId="13" r:id="rId19"/>
+    <sheet name="SpatialRepresentation" sheetId="14" r:id="rId20"/>
+    <sheet name="Update" sheetId="6" r:id="rId21"/>
+    <sheet name="UUID_Spatial_QC" sheetId="24" r:id="rId22"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3546" uniqueCount="1029">
   <si>
     <t>default_key</t>
   </si>
@@ -3128,6 +3129,9 @@
   </si>
   <si>
     <t>ESPG</t>
+  </si>
+  <si>
+    <t>cad5639a-437e-4cc2-adaf-62e4fccbbc30</t>
   </si>
 </sst>
 </file>
@@ -9985,10 +9989,161 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C13" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>321</v>
+      </c>
+      <c r="B14" t="s">
+        <v>321</v>
+      </c>
+      <c r="C14" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10503,7 +10658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -10545,12 +10700,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10763,12 +10918,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10938,7 +11093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -11197,7 +11352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D76"/>
   <sheetViews>
@@ -12282,7 +12437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -12444,125 +12599,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>570</v>
-      </c>
-      <c r="D2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>568</v>
-      </c>
-      <c r="B3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C3" t="s">
-        <v>567</v>
-      </c>
-      <c r="D3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>565</v>
-      </c>
-      <c r="B4" t="s">
-        <v>565</v>
-      </c>
-      <c r="C4" t="s">
-        <v>564</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>563</v>
-      </c>
-      <c r="B5" t="s">
-        <v>563</v>
-      </c>
-      <c r="C5" t="s">
-        <v>563</v>
-      </c>
-      <c r="D5" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>561</v>
-      </c>
-      <c r="B6" t="s">
-        <v>561</v>
-      </c>
-      <c r="C6" t="s">
-        <v>560</v>
-      </c>
-      <c r="D6" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>558</v>
-      </c>
-      <c r="B7" t="s">
-        <v>558</v>
-      </c>
-      <c r="C7" t="s">
-        <v>557</v>
-      </c>
-      <c r="D7" t="s">
-        <v>556</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -13545,6 +13581,125 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B4" t="s">
+        <v>565</v>
+      </c>
+      <c r="C4" t="s">
+        <v>564</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B5" t="s">
+        <v>563</v>
+      </c>
+      <c r="C5" t="s">
+        <v>563</v>
+      </c>
+      <c r="D5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>561</v>
+      </c>
+      <c r="B6" t="s">
+        <v>561</v>
+      </c>
+      <c r="C6" t="s">
+        <v>560</v>
+      </c>
+      <c r="D6" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>558</v>
+      </c>
+      <c r="B7" t="s">
+        <v>558</v>
+      </c>
+      <c r="C7" t="s">
+        <v>557</v>
+      </c>
+      <c r="D7" t="s">
+        <v>556</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13956,12 +14111,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14032,6 +14187,14 @@
       </c>
       <c r="B8" t="s">
         <v>565</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B9" t="s">
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -16473,7 +16636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="10260" tabRatio="868" firstSheet="7" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="10260" tabRatio="868" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Codespace" sheetId="12" r:id="rId1"/>
@@ -33,7 +33,8 @@
     <sheet name="SpatialRef" sheetId="13" r:id="rId19"/>
     <sheet name="SpatialRepresentation" sheetId="14" r:id="rId20"/>
     <sheet name="Update" sheetId="6" r:id="rId21"/>
-    <sheet name="UUID_Spatial_QC" sheetId="24" r:id="rId22"/>
+    <sheet name="UUID_Spatial_BC" sheetId="26" r:id="rId22"/>
+    <sheet name="UUID_Spatial_QC" sheetId="24" r:id="rId23"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3546" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3578" uniqueCount="1044">
   <si>
     <t>default_key</t>
   </si>
@@ -3132,6 +3133,51 @@
   </si>
   <si>
     <t>cad5639a-437e-4cc2-adaf-62e4fccbbc30</t>
+  </si>
+  <si>
+    <t>fda19189-6cb4-4712-992f-500acadae749</t>
+  </si>
+  <si>
+    <t>1137004b-39bc-4b52-aefc-cc9328f1384b</t>
+  </si>
+  <si>
+    <t>7e986391-c740-4d1b-9294-7576af2d2998</t>
+  </si>
+  <si>
+    <t>5712e5f8-dd01-4cdb-947c-7227b15cf1af</t>
+  </si>
+  <si>
+    <t>bad79704-3fc9-43e7-b5d4-660657199af8</t>
+  </si>
+  <si>
+    <t>c819aef2-2cb3-43ee-a41b-77debdecd81e</t>
+  </si>
+  <si>
+    <t>a5965764-a3d0-48aa-97e7-10f873cb5e78</t>
+  </si>
+  <si>
+    <t>509cbf74-7ee7-44d3-a88d-4e088ea67325</t>
+  </si>
+  <si>
+    <t>ade4f36a-1fd4-4583-8253-2b2a1bbe34ff</t>
+  </si>
+  <si>
+    <t>f7efa3ea-bf1c-4c4f-bb33-ba841aa076c0</t>
+  </si>
+  <si>
+    <t>90653877-c55a-435f-bd71-dca4fd55bb0e</t>
+  </si>
+  <si>
+    <t>8ec88f64-24b4-4301-861b-4d0d3f3e2c17</t>
+  </si>
+  <si>
+    <t>230bdb21-2cb8-478f-873a-80f30377d7b5</t>
+  </si>
+  <si>
+    <t>2db77f8b-765b-488f-9752-f1349cf6ebfc</t>
+  </si>
+  <si>
+    <t>f6d17c00-d4b9-401b-a20e-ef7e37b6d5e3</t>
   </si>
 </sst>
 </file>
@@ -3224,7 +3270,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3238,6 +3284,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3946,7 +3993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D430"/>
   <sheetViews>
-    <sheetView topLeftCell="A404" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
       <selection activeCell="B430" sqref="B430:D430"/>
     </sheetView>
   </sheetViews>
@@ -14113,10 +14160,157 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>998</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>565</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16878,7 +17072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\PT_Harvester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngariepy\Documents\GitHub\fgp-metadata-proxy\FME_files\LOOKUP_TABLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3949" uniqueCount="1201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3949" uniqueCount="1202">
   <si>
     <t>default_key</t>
   </si>
@@ -3650,12 +3650,15 @@
   </si>
   <si>
     <t>RDF</t>
+  </si>
+  <si>
+    <t>GEOJSON</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3763,8 +3766,8 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="3"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
@@ -4050,7 +4053,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
@@ -4118,7 +4121,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.7109375" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
@@ -4469,11 +4472,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="F346" sqref="F346"/>
+    <sheetView tabSelected="1" topLeftCell="A372" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B305" sqref="B305"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="151.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
@@ -8735,7 +8738,7 @@
         <v>287</v>
       </c>
       <c r="B304" t="s">
-        <v>288</v>
+        <v>1201</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>275</v>
@@ -8748,8 +8751,8 @@
       <c r="A305" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="B305" s="9" t="s">
-        <v>288</v>
+      <c r="B305" t="s">
+        <v>1201</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>275</v>
@@ -10667,7 +10670,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -10711,7 +10714,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
@@ -10886,7 +10889,7 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -11592,7 +11595,7 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" customWidth="1"/>
   </cols>
@@ -11810,7 +11813,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
@@ -11893,7 +11896,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" customWidth="1"/>
@@ -12068,7 +12071,7 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="38.85546875" customWidth="1"/>
@@ -12327,7 +12330,7 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="82" customWidth="1"/>
     <col min="2" max="2" width="95" customWidth="1"/>
@@ -13415,7 +13418,7 @@
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.42578125" customWidth="1"/>
     <col min="2" max="2" width="45.140625" customWidth="1"/>
@@ -14392,7 +14395,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="30.140625" customWidth="1"/>
@@ -14557,7 +14560,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -14676,7 +14679,7 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -15089,7 +15092,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.42578125" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
@@ -16220,7 +16223,7 @@
       <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="78.7109375" customWidth="1"/>
     <col min="2" max="2" width="43.42578125" customWidth="1"/>
@@ -16410,7 +16413,7 @@
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="44.28515625" customWidth="1"/>
@@ -17309,7 +17312,7 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="74.85546875" customWidth="1"/>
@@ -18208,7 +18211,7 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
@@ -18471,7 +18474,7 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -18506,7 +18509,7 @@
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
   </cols>
@@ -18840,7 +18843,7 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.5703125" customWidth="1"/>
   </cols>
@@ -19082,7 +19085,7 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
   </cols>

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngariepy\Documents\GitHub\fgp-metadata-proxy\FME_files\LOOKUP_TABLES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\PT_Harvester\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="10260" tabRatio="868" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="10260" tabRatio="868" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Codespace" sheetId="12" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3949" uniqueCount="1202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3949" uniqueCount="1201">
   <si>
     <t>default_key</t>
   </si>
@@ -3635,9 +3635,6 @@
   </si>
   <si>
     <t>date_added</t>
-  </si>
-  <si>
-    <t>JPG2</t>
   </si>
   <si>
     <t>gpk</t>
@@ -3658,7 +3655,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3766,8 +3763,8 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="3"/>
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
@@ -4053,7 +4050,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
@@ -4121,7 +4118,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.7109375" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
@@ -4472,11 +4469,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A372" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B305" sqref="B305"/>
+    <sheetView tabSelected="1" topLeftCell="A289" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B332" sqref="B332"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="151.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
@@ -4502,7 +4499,7 @@
         <v>1195</v>
       </c>
       <c r="F1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -8738,7 +8735,7 @@
         <v>287</v>
       </c>
       <c r="B304" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>275</v>
@@ -8752,7 +8749,7 @@
         <v>288</v>
       </c>
       <c r="B305" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>275</v>
@@ -8833,7 +8830,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="9" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B311" s="9" t="s">
         <v>824</v>
@@ -9136,7 +9133,7 @@
         <v>1194</v>
       </c>
       <c r="B332" t="s">
-        <v>1196</v>
+        <v>1053</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>275</v>
@@ -9405,7 +9402,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="9" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B351" s="9" t="s">
         <v>1050</v>
@@ -9611,7 +9608,7 @@
     </row>
     <row r="365" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="9" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B365" t="s">
         <v>784</v>
@@ -10670,7 +10667,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -10714,7 +10711,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
@@ -10889,7 +10886,7 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -11595,7 +11592,7 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" customWidth="1"/>
   </cols>
@@ -11813,7 +11810,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
@@ -11896,7 +11893,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" customWidth="1"/>
@@ -12071,7 +12068,7 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="38.85546875" customWidth="1"/>
@@ -12330,7 +12327,7 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="82" customWidth="1"/>
     <col min="2" max="2" width="95" customWidth="1"/>
@@ -13418,7 +13415,7 @@
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.42578125" customWidth="1"/>
     <col min="2" max="2" width="45.140625" customWidth="1"/>
@@ -14395,7 +14392,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="30.140625" customWidth="1"/>
@@ -14560,7 +14557,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -14679,7 +14676,7 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -15092,7 +15089,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.42578125" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
@@ -16223,7 +16220,7 @@
       <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="78.7109375" customWidth="1"/>
     <col min="2" max="2" width="43.42578125" customWidth="1"/>
@@ -16413,7 +16410,7 @@
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="44.28515625" customWidth="1"/>
@@ -17308,11 +17305,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="74.85546875" customWidth="1"/>
@@ -17983,7 +17980,7 @@
         <v>146</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C61" t="s">
         <v>132</v>
@@ -18211,7 +18208,7 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
@@ -18474,7 +18471,7 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -18509,7 +18506,7 @@
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
   </cols>
@@ -18843,7 +18840,7 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.5703125" customWidth="1"/>
   </cols>
@@ -19085,7 +19082,7 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
   </cols>

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3949" uniqueCount="1202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3949" uniqueCount="1201">
   <si>
     <t>default_key</t>
   </si>
@@ -3635,9 +3635,6 @@
   </si>
   <si>
     <t>date_added</t>
-  </si>
-  <si>
-    <t>JPG2</t>
   </si>
   <si>
     <t>gpk</t>
@@ -4472,8 +4469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A372" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B305" sqref="B305"/>
+    <sheetView tabSelected="1" topLeftCell="A312" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B332" sqref="B332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4502,7 +4499,7 @@
         <v>1195</v>
       </c>
       <c r="F1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -8738,7 +8735,7 @@
         <v>287</v>
       </c>
       <c r="B304" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>275</v>
@@ -8752,7 +8749,7 @@
         <v>288</v>
       </c>
       <c r="B305" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>275</v>
@@ -8833,7 +8830,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="9" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B311" s="9" t="s">
         <v>824</v>
@@ -9136,7 +9133,7 @@
         <v>1194</v>
       </c>
       <c r="B332" t="s">
-        <v>1196</v>
+        <v>1053</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>275</v>
@@ -9405,7 +9402,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="9" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B351" s="9" t="s">
         <v>1050</v>
@@ -9611,7 +9608,7 @@
     </row>
     <row r="365" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="9" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B365" t="s">
         <v>784</v>

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngariepy\Documents\GitHub\fgp-metadata-proxy\FME_files\LOOKUP_TABLES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\PT_Harvester\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="10260" tabRatio="868" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="10260" tabRatio="868" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Codespace" sheetId="12" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3949" uniqueCount="1201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4089" uniqueCount="1236">
   <si>
     <t>default_key</t>
   </si>
@@ -3650,12 +3650,117 @@
   </si>
   <si>
     <t>GEOJSON</t>
+  </si>
+  <si>
+    <t>1M Base Map plus EP Operations Regions, Parks Regions and Parks Districts - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>2M Base Map plus EP Operations Regions, Parks Regions, Parks Districts - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>1M Base Map plus Forest Areas of Alberta - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>2M Base Map plus Green/White Area - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>2M Base Map plus Land-use Framework Planning Regions, Treaty Boundary - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>1M Base Map - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>1M Base Map plus Municipalities - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>2M Base Map plus Land-use Framework Planning Regions, Green/White - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>2M Base Map plus EP Operations Regions, Municipalities, Green/White Area - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>1M Base Map plus Public Land Use Zones - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>2M Base Map plus EP Operations Regions, Fish and Wildlife Districts, Green/White Area - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>2M Base Map plus Fish and Wildlife District and Green Area - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>1M Base Map plus Land-use Framework Planning Regions, EP Operations Regions, Municipalities, Green/White Area - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>750K Base Map plus Municipalities - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>1M Base Map plus Fish and Wildlife Enforcement Regions and Fish and Wildlife Enforcement Districts - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>1M Base Map plus Provincial Electoral Divisions - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>2M Base Map plus NTS Grid, Green/White Area - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>2M Base Map plus EP Operations Regions, Green/White Area - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>1M Base Map plus Metis Nation Zones, Treaty Boundaries and Municipalities - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>750K Base Map plus Electoral Divisions - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>1M Base Map plus Land-use Framework Planning Regions, Municipalities, Green/White Area - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>2M Base Map plus Provincial Electoral Divisions - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>750K Base Map plus Land-use Framework Regions / Green and White Areas - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>750K Base Map - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>900K Base Map plus Registered Fur Management Areas (RFMA) - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>1M Base Map plus EP Operations Regions, Green/White Area - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>1M Base Map plus Land-use Framework Planning Regions, Treaty Boundary - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>750K Base Map plus EP Operations Regions / Green and White Areas - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>2M Base Map plus Land-use Framework Planning Regions, Municipalities, Green/White Area - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>2M Base Map plus Municipalities, Green/White Area - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>1M Base Map plus Fish and Wildlife Districts, Green/White Area - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>1M Base Map plus Land-use Framework Planning Regions, Forest Management Units / Forest Management Agreement Holders, Green/White Area - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>1M Base Map plus Land-use Framework Planning Regions, Green/White Area - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>1M Base Map plus Forest Management Units / Forest Management Agreement Holders - Provincial Base Map Series</t>
+  </si>
+  <si>
+    <t>1M Base Map plus NTS Grid - Provincial Base Map Series</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3763,8 +3868,8 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="3"/>
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
@@ -4050,7 +4155,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
@@ -4118,7 +4223,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.7109375" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
@@ -4467,15 +4572,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F434"/>
+  <dimension ref="A1:F469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A312" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B332" sqref="B332"/>
+    <sheetView tabSelected="1" topLeftCell="A427" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B469" sqref="B469:D469"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="151.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="168.42578125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
@@ -10649,6 +10754,496 @@
         <v>275</v>
       </c>
       <c r="D434" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B435" t="s">
+        <v>784</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D435" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B436" t="s">
+        <v>784</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D436" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B437" t="s">
+        <v>784</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D437" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B438" t="s">
+        <v>784</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D438" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B439" t="s">
+        <v>784</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D439" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B440" t="s">
+        <v>784</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D440" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B441" t="s">
+        <v>784</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D441" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B442" t="s">
+        <v>784</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D442" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B443" t="s">
+        <v>784</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D443" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B444" t="s">
+        <v>784</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D444" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B445" t="s">
+        <v>784</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D445" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B446" t="s">
+        <v>784</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D446" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B447" t="s">
+        <v>784</v>
+      </c>
+      <c r="C447" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D447" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B448" t="s">
+        <v>784</v>
+      </c>
+      <c r="C448" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D448" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B449" t="s">
+        <v>784</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D449" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B450" t="s">
+        <v>784</v>
+      </c>
+      <c r="C450" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D450" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B451" t="s">
+        <v>784</v>
+      </c>
+      <c r="C451" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D451" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B452" t="s">
+        <v>784</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D452" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B453" t="s">
+        <v>784</v>
+      </c>
+      <c r="C453" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D453" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B454" t="s">
+        <v>784</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D454" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B455" t="s">
+        <v>784</v>
+      </c>
+      <c r="C455" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D455" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B456" t="s">
+        <v>784</v>
+      </c>
+      <c r="C456" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D456" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B457" t="s">
+        <v>784</v>
+      </c>
+      <c r="C457" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D457" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B458" t="s">
+        <v>784</v>
+      </c>
+      <c r="C458" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D458" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B459" t="s">
+        <v>784</v>
+      </c>
+      <c r="C459" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D459" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B460" t="s">
+        <v>784</v>
+      </c>
+      <c r="C460" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D460" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B461" t="s">
+        <v>784</v>
+      </c>
+      <c r="C461" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D461" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B462" t="s">
+        <v>784</v>
+      </c>
+      <c r="C462" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D462" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B463" t="s">
+        <v>784</v>
+      </c>
+      <c r="C463" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D463" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B464" t="s">
+        <v>784</v>
+      </c>
+      <c r="C464" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D464" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B465" t="s">
+        <v>784</v>
+      </c>
+      <c r="C465" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D465" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B466" t="s">
+        <v>784</v>
+      </c>
+      <c r="C466" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D466" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B467" t="s">
+        <v>784</v>
+      </c>
+      <c r="C467" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D467" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B468" t="s">
+        <v>784</v>
+      </c>
+      <c r="C468" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D468" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B469" t="s">
+        <v>784</v>
+      </c>
+      <c r="C469" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D469" t="s">
         <v>276</v>
       </c>
     </row>
@@ -10667,7 +11262,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -10711,7 +11306,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
@@ -10882,11 +11477,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -11592,7 +12187,7 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" customWidth="1"/>
   </cols>
@@ -11810,7 +12405,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
@@ -11893,7 +12488,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" customWidth="1"/>
@@ -12068,7 +12663,7 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="38.85546875" customWidth="1"/>
@@ -12327,7 +12922,7 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="82" customWidth="1"/>
     <col min="2" max="2" width="95" customWidth="1"/>
@@ -13415,7 +14010,7 @@
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.42578125" customWidth="1"/>
     <col min="2" max="2" width="45.140625" customWidth="1"/>
@@ -14392,7 +14987,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="30.140625" customWidth="1"/>
@@ -14557,7 +15152,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -14676,7 +15271,7 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -15089,7 +15684,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.42578125" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
@@ -16220,7 +16815,7 @@
       <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="78.7109375" customWidth="1"/>
     <col min="2" max="2" width="43.42578125" customWidth="1"/>
@@ -16410,7 +17005,7 @@
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="44.28515625" customWidth="1"/>
@@ -17305,11 +17900,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="74.85546875" customWidth="1"/>
@@ -17396,7 +17991,7 @@
       <c r="A8" t="s">
         <v>89</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>90</v>
       </c>
       <c r="C8" t="s">
@@ -17407,7 +18002,7 @@
       <c r="A9" t="s">
         <v>91</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>808</v>
       </c>
       <c r="C9" t="s">
@@ -17462,7 +18057,7 @@
       <c r="A14" t="s">
         <v>96</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>97</v>
       </c>
       <c r="C14" t="s">
@@ -17473,7 +18068,7 @@
       <c r="A15" t="s">
         <v>102</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="7" t="s">
         <v>103</v>
       </c>
       <c r="C15" t="s">
@@ -17484,7 +18079,7 @@
       <c r="A16" t="s">
         <v>98</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="7" t="s">
         <v>99</v>
       </c>
       <c r="C16" t="s">
@@ -17495,7 +18090,7 @@
       <c r="A17" t="s">
         <v>104</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="7" t="s">
         <v>105</v>
       </c>
       <c r="C17" t="s">
@@ -17506,7 +18101,7 @@
       <c r="A18" t="s">
         <v>94</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="7" t="s">
         <v>95</v>
       </c>
       <c r="C18" t="s">
@@ -17517,7 +18112,7 @@
       <c r="A19" t="s">
         <v>92</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>93</v>
       </c>
       <c r="C19" t="s">
@@ -17528,7 +18123,7 @@
       <c r="A20" t="s">
         <v>740</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>101</v>
       </c>
       <c r="C20" t="s">
@@ -17980,7 +18575,7 @@
         <v>146</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C61" t="s">
         <v>132</v>
@@ -18197,6 +18792,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18208,7 +18804,7 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
@@ -18471,7 +19067,7 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -18506,7 +19102,7 @@
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
   </cols>
@@ -18840,7 +19436,7 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.5703125" customWidth="1"/>
   </cols>
@@ -19082,7 +19678,7 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
   </cols>

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="10260" tabRatio="868" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="10260" tabRatio="868" firstSheet="11" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Codespace" sheetId="12" r:id="rId1"/>
@@ -31,11 +31,13 @@
     <sheet name="Progress" sheetId="10" r:id="rId17"/>
     <sheet name="Role" sheetId="11" r:id="rId18"/>
     <sheet name="Sector_QC" sheetId="22" r:id="rId19"/>
-    <sheet name="SpatialRef" sheetId="13" r:id="rId20"/>
-    <sheet name="SpatialRepresentation" sheetId="14" r:id="rId21"/>
-    <sheet name="Update" sheetId="6" r:id="rId22"/>
-    <sheet name="UUID_Spatial_BC" sheetId="26" r:id="rId23"/>
-    <sheet name="UUID_Spatial_QC" sheetId="24" r:id="rId24"/>
+    <sheet name="Sector_ON" sheetId="28" r:id="rId20"/>
+    <sheet name="Spatial_ON" sheetId="29" r:id="rId21"/>
+    <sheet name="SpatialRef" sheetId="13" r:id="rId22"/>
+    <sheet name="SpatialRepresentation" sheetId="14" r:id="rId23"/>
+    <sheet name="Update" sheetId="6" r:id="rId24"/>
+    <sheet name="UUID_Spatial_BC" sheetId="26" r:id="rId25"/>
+    <sheet name="UUID_Spatial_QC" sheetId="24" r:id="rId26"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4089" uniqueCount="1238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4185" uniqueCount="1286">
   <si>
     <t>default_key</t>
   </si>
@@ -3763,12 +3765,156 @@
   <si>
     <t xml:space="preserve">
 **This third party metadata element was translated using an automated translation tool (Amazon Translate). To report any discrepancies, please contact us at nrcan.fgp-pgf.rncan@canada.ca.**</t>
+  </si>
+  <si>
+    <t>tags_value</t>
+  </si>
+  <si>
+    <t>Ministry of Agriculture Food and Rural Affairs</t>
+  </si>
+  <si>
+    <t>Ministry of Children Community and Social Services</t>
+  </si>
+  <si>
+    <t>Ministry of Education</t>
+  </si>
+  <si>
+    <t>Ministry of Energy Northern Development and Mines</t>
+  </si>
+  <si>
+    <t>Ministry of Environment</t>
+  </si>
+  <si>
+    <t>Ministry of Government and Consumer Services</t>
+  </si>
+  <si>
+    <t>Ministry of Health and Long Term Care</t>
+  </si>
+  <si>
+    <t>Ministry of Municipal Affairs and Housing</t>
+  </si>
+  <si>
+    <t>Ministry of Natural Resources</t>
+  </si>
+  <si>
+    <t>Ministry of Natural Resources and Forestry</t>
+  </si>
+  <si>
+    <t>Ministry of Transportation</t>
+  </si>
+  <si>
+    <t>Ministry of the Environment Conservation and Parks</t>
+  </si>
+  <si>
+    <t>Indigenous Affairs</t>
+  </si>
+  <si>
+    <t>Ministry of Indigenous Affairs</t>
+  </si>
+  <si>
+    <t>Ontario Parks</t>
+  </si>
+  <si>
+    <t>aerial photo</t>
+  </si>
+  <si>
+    <t>aerial photography</t>
+  </si>
+  <si>
+    <t>aerial photos</t>
+  </si>
+  <si>
+    <t>airborne topographic lidar</t>
+  </si>
+  <si>
+    <t>cloca lidar</t>
+  </si>
+  <si>
+    <t>dem</t>
+  </si>
+  <si>
+    <t>digital elevation model</t>
+  </si>
+  <si>
+    <t>digital raster acquisition project eastern ontario</t>
+  </si>
+  <si>
+    <t>digital raster project eastern ontario</t>
+  </si>
+  <si>
+    <t>digital surface model</t>
+  </si>
+  <si>
+    <t>digital terrain model</t>
+  </si>
+  <si>
+    <t>digital topographic data base</t>
+  </si>
+  <si>
+    <t>digitial raster project eastern ontario</t>
+  </si>
+  <si>
+    <t>gta lidar</t>
+  </si>
+  <si>
+    <t>imagery</t>
+  </si>
+  <si>
+    <t>imagery and base maps</t>
+  </si>
+  <si>
+    <t>landsat</t>
+  </si>
+  <si>
+    <t>landsat-7</t>
+  </si>
+  <si>
+    <t>lidar</t>
+  </si>
+  <si>
+    <t>lidar eastern acquisition project</t>
+  </si>
+  <si>
+    <t>omafra lidar</t>
+  </si>
+  <si>
+    <t>ontario radar digital surface model</t>
+  </si>
+  <si>
+    <t>orthoimagery</t>
+  </si>
+  <si>
+    <t>orthophoto</t>
+  </si>
+  <si>
+    <t>orthophotography</t>
+  </si>
+  <si>
+    <t>provincial digital elevation model</t>
+  </si>
+  <si>
+    <t>raster</t>
+  </si>
+  <si>
+    <t>remote sensing</t>
+  </si>
+  <si>
+    <t>satellite imagery</t>
+  </si>
+  <si>
+    <t>shuttle radar topography mission</t>
+  </si>
+  <si>
+    <t>softcopy photogrammetry</t>
+  </si>
+  <si>
+    <t>south nation lidar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3882,8 +4028,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="3"/>
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
@@ -4169,7 +4315,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
@@ -4237,7 +4383,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.7109375" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
@@ -4592,7 +4738,7 @@
       <selection activeCell="B469" sqref="B469:D469"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="168.42578125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
@@ -11276,7 +11422,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -11320,7 +11466,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
@@ -11495,7 +11641,7 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -12201,7 +12347,7 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" customWidth="1"/>
   </cols>
@@ -12419,7 +12565,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
@@ -12502,7 +12648,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" customWidth="1"/>
@@ -12677,7 +12823,7 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="38.85546875" customWidth="1"/>
@@ -12932,11 +13078,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="82" customWidth="1"/>
     <col min="2" max="2" width="95" customWidth="1"/>
@@ -14024,7 +14170,7 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.42578125" customWidth="1"/>
     <col min="2" max="2" width="45.140625" customWidth="1"/>
@@ -14995,13 +15141,435 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.140625" customWidth="1"/>
+    <col min="2" max="2" width="65.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.7109375" customWidth="1"/>
+    <col min="2" max="2" width="49.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B5" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B6" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B7" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B8" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B9" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B10" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B11" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B12" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B13" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B14" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B15" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B16" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B17" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B18" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B19" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B20" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B21" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B22" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B23" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B24" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B25" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B26" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B27" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B28" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B29" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B30" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B31" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B32" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B33" t="s">
+        <v>567</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="30.140625" customWidth="1"/>
@@ -15158,7 +15726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -15166,7 +15734,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -15277,7 +15845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -15285,7 +15853,7 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -15690,7 +16258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B139"/>
   <sheetViews>
@@ -15698,7 +16266,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.42578125" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
@@ -16821,7 +17389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -16829,7 +17397,7 @@
       <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="78.7109375" customWidth="1"/>
     <col min="2" max="2" width="43.42578125" customWidth="1"/>
@@ -17019,7 +17587,7 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="44.28515625" customWidth="1"/>
@@ -17918,7 +18486,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="74.85546875" customWidth="1"/>
@@ -18818,7 +19386,7 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
@@ -19081,7 +19649,7 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -19112,11 +19680,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
   </cols>
@@ -19447,10 +20015,10 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.5703125" customWidth="1"/>
   </cols>
@@ -19688,11 +20256,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
   </cols>

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\PT_Harvester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngariepy\Documents\GitHub\fgp-metadata-proxy\FME_files\LOOKUP_TABLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="10260" tabRatio="868" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="10260" tabRatio="868" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Codespace" sheetId="12" r:id="rId1"/>
@@ -25,17 +25,22 @@
     <sheet name="Format" sheetId="7" r:id="rId11"/>
     <sheet name="FrenchTranslation" sheetId="8" r:id="rId12"/>
     <sheet name="Geospatial_BC" sheetId="25" r:id="rId13"/>
-    <sheet name="Geospatial_QC" sheetId="20" r:id="rId14"/>
-    <sheet name="Keyword" sheetId="5" r:id="rId15"/>
-    <sheet name="License_QC" sheetId="27" r:id="rId16"/>
-    <sheet name="Progress" sheetId="10" r:id="rId17"/>
-    <sheet name="Role" sheetId="11" r:id="rId18"/>
-    <sheet name="Sector_QC" sheetId="22" r:id="rId19"/>
-    <sheet name="SpatialRef" sheetId="13" r:id="rId20"/>
-    <sheet name="SpatialRepresentation" sheetId="14" r:id="rId21"/>
-    <sheet name="Update" sheetId="6" r:id="rId22"/>
-    <sheet name="UUID_Spatial_BC" sheetId="26" r:id="rId23"/>
-    <sheet name="UUID_Spatial_QC" sheetId="24" r:id="rId24"/>
+    <sheet name="ResourceType_TBS_QC" sheetId="32" r:id="rId14"/>
+    <sheet name="QC_JSON_CONFIG" sheetId="31" r:id="rId15"/>
+    <sheet name="SubjectNTopic_TBS_QC" sheetId="30" r:id="rId16"/>
+    <sheet name="UpdateFrequency_TBS_QC" sheetId="29" r:id="rId17"/>
+    <sheet name="Geospatial_QC" sheetId="20" r:id="rId18"/>
+    <sheet name="Keyword" sheetId="5" r:id="rId19"/>
+    <sheet name="License_QC" sheetId="27" r:id="rId20"/>
+    <sheet name="Progress" sheetId="10" r:id="rId21"/>
+    <sheet name="Format_TBS_QC" sheetId="28" r:id="rId22"/>
+    <sheet name="Role" sheetId="11" r:id="rId23"/>
+    <sheet name="Sector_QC" sheetId="22" r:id="rId24"/>
+    <sheet name="SpatialRef" sheetId="13" r:id="rId25"/>
+    <sheet name="SpatialRepresentation" sheetId="14" r:id="rId26"/>
+    <sheet name="Update" sheetId="6" r:id="rId27"/>
+    <sheet name="UUID_Spatial_BC" sheetId="26" r:id="rId28"/>
+    <sheet name="UUID_Spatial_QC" sheetId="24" r:id="rId29"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -47,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4089" uniqueCount="1238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4499" uniqueCount="1361">
   <si>
     <t>default_key</t>
   </si>
@@ -2419,15 +2424,9 @@
     <t>https://www.donneesquebec.ca</t>
   </si>
   <si>
-    <t>Gouvernement du Québec</t>
-  </si>
-  <si>
     <t>p-t_entity_en</t>
   </si>
   <si>
-    <t>Government of Quebec</t>
-  </si>
-  <si>
     <t>notes_en</t>
   </si>
   <si>
@@ -2866,9 +2865,6 @@
     <t>Sherbrooke Données ouvertes</t>
   </si>
   <si>
-    <t>Ministère des affaires municipales et de l'habitation; Ville de Sherbrooke</t>
-  </si>
-  <si>
     <t>https://www.donneesquebec.ca/recherche/uploads/group/2016-01-22-204608.163487eee.jpg</t>
   </si>
   <si>
@@ -2920,88 +2916,58 @@
     <t>Ville de Blainville</t>
   </si>
   <si>
-    <t>Ministère des affaires municipales et de l'habitation; Ville de Blainville</t>
-  </si>
-  <si>
     <t>https://www.donneesquebec.ca/recherche/uploads/group/2016-09-09-173228.146610blainvillelogo.png</t>
   </si>
   <si>
     <t>Ville de Gatineau</t>
   </si>
   <si>
-    <t>Ministère des affaires municipales et de l'habitation; Ville de Gatineau</t>
-  </si>
-  <si>
     <t>https://www.donneesquebec.ca/recherche/uploads/group/2015-11-26-225403.942662logogatineau.png</t>
   </si>
   <si>
     <t>Ville de Laval</t>
   </si>
   <si>
-    <t>Ministère des affaires municipales et de l'habitation; Ville de Laval</t>
-  </si>
-  <si>
     <t>https://www.donneesquebec.ca/recherche/uploads/group/2015-11-06-164644.548746LogoLaval4coul708x250.png</t>
   </si>
   <si>
     <t>Ville de Longueuil</t>
   </si>
   <si>
-    <t>Ministère des affaires municipales et de l'habitation; Ville de Longueuil</t>
-  </si>
-  <si>
     <t>https://www.donneesquebec.ca/recherche/uploads/group/2016-09-19-183314.655491signaturelongueuil.png</t>
   </si>
   <si>
     <t>Ville de Montréal</t>
   </si>
   <si>
-    <t>Ministère des affaires municipales et de l'habitation; Ville de Montréal</t>
-  </si>
-  <si>
     <t>https://www.donneesquebec.ca/recherche/uploads/group/2015-11-06-201234.743539JPGnrb.jpg</t>
   </si>
   <si>
     <t>Ville de Québec</t>
   </si>
   <si>
-    <t>Ministère des affaires municipales et de l'habitation; Ville de Québec</t>
-  </si>
-  <si>
     <t>https://www.donneesquebec.ca/recherche/uploads/group/2016-01-20-170317.684107ville-de-quebec.gif</t>
   </si>
   <si>
     <t>Ville de Repentigny</t>
   </si>
   <si>
-    <t>Ministère des affaires municipales et de l'habitation; Ville de Repentigny</t>
-  </si>
-  <si>
     <t>https://www.donneesquebec.ca/recherche/uploads/group/2017-06-12-144723.719198repentigny.jpg</t>
   </si>
   <si>
     <t>Ville de Rimouski</t>
   </si>
   <si>
-    <t>Ministère des affaires municipales et de l'habitation; Ville de Rimouski</t>
-  </si>
-  <si>
     <t>https://www.donneesquebec.ca/recherche/uploads/group/2017-01-18-142444.7190672016-07-13-184455.476627LOGORIMOUSKi2015MEDIAS.png</t>
   </si>
   <si>
     <t>Ville de Rouyn-Noranda</t>
   </si>
   <si>
-    <t>Ministère des affaires municipales et de l'habitation; Ville de Rouyn-Noranda</t>
-  </si>
-  <si>
     <t>https://www.donneesquebec.ca/recherche/uploads/group/2018-08-21-201615.5858542018-05-17-143945.861839Logoville159x77px.png</t>
   </si>
   <si>
     <t>Ville de Shawinigan</t>
-  </si>
-  <si>
-    <t>Ministère des affaires municipales et de l'habitation; Ville de Shawinigan</t>
   </si>
   <si>
     <t>https://www.donneesquebec.ca/recherche/uploads/group/2017-02-22-193228.838156Logo-Shawinigan-slogan-couleurs.png</t>
@@ -3763,6 +3729,414 @@
   <si>
     <t xml:space="preserve">
 **This third party metadata element was translated using an automated translation tool (Amazon Translate). To report any discrepancies, please contact us at nrcan.fgp-pgf.rncan@canada.ca.**</t>
+  </si>
+  <si>
+    <t>Gouvernement et municipalités du Québec</t>
+  </si>
+  <si>
+    <t>Government  and municipalities of Quebec</t>
+  </si>
+  <si>
+    <t>jurisdiction</t>
+  </si>
+  <si>
+    <t>provincial</t>
+  </si>
+  <si>
+    <t>municipal</t>
+  </si>
+  <si>
+    <t>tbs_license_id</t>
+  </si>
+  <si>
+    <t>qc-cc-by</t>
+  </si>
+  <si>
+    <t>tbs_imso_approval</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>tbs_ready_to_publish</t>
+  </si>
+  <si>
+    <t>tbs_locale</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>tbs_hierarchy_level</t>
+  </si>
+  <si>
+    <t>dataset; jeuDonnées</t>
+  </si>
+  <si>
+    <t>tbs_owner_org_id</t>
+  </si>
+  <si>
+    <t>a20ae82f-4e76-4b64-a340-3d825b3293aa</t>
+  </si>
+  <si>
+    <t>tbs_collection</t>
+  </si>
+  <si>
+    <t>federated</t>
+  </si>
+  <si>
+    <t>tbs_responsible_role</t>
+  </si>
+  <si>
+    <t>tbs_restriction</t>
+  </si>
+  <si>
+    <t>unrestricted</t>
+  </si>
+  <si>
+    <t>tbs_type</t>
+  </si>
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>tbs_state</t>
+  </si>
+  <si>
+    <t>tbs_resource_language</t>
+  </si>
+  <si>
+    <t>["fr"]</t>
+  </si>
+  <si>
+    <t>Ville de Montréal;Bixi-Montréal</t>
+  </si>
+  <si>
+    <t>https://www.donneesquebec.ca/recherche/uploads/group/2016-07-21-180224.983358bixi.jpg</t>
+  </si>
+  <si>
+    <t>Ville de Montréal;Bureau du taxi de Montréal</t>
+  </si>
+  <si>
+    <t>https://www.donneesquebec.ca/recherche/uploads/group/2017-09-28-152113.5675162017-08-04-131142.186526BUREAU-TAXI-MTLLOGO.png</t>
+  </si>
+  <si>
+    <t>Ville de Sherbrooke;Commercer Sherbrooke</t>
+  </si>
+  <si>
+    <t>https://www.donneesquebec.ca/recherche/uploads/group/2016-01-20-170345.498265commerce-sherbrooke.jpg</t>
+  </si>
+  <si>
+    <t>Ville de Sherbrooke;Destination Sherbrooke</t>
+  </si>
+  <si>
+    <t>https://www.donneesquebec.ca/recherche/uploads/group/2016-01-20-170405.464522destination-sherbrooke.jpg</t>
+  </si>
+  <si>
+    <t>https://www.donneesquebec.ca/recherche/uploads/group/2016-01-20-170443.257114sherbrooke-donnees-ouvertes.png</t>
+  </si>
+  <si>
+    <t>Ville de Sherbrooke;Sherbrooke Données ouvertes</t>
+  </si>
+  <si>
+    <t>Ville de Sherbrooke;Données géomatiques</t>
+  </si>
+  <si>
+    <t>https://www.donneesquebec.ca/recherche/uploads/group/2017-03-03-200704.567960stl.png</t>
+  </si>
+  <si>
+    <t>Ville de Laval;Société de transport de Laval</t>
+  </si>
+  <si>
+    <t>Ville de Montréal;Société de transport de Montréal</t>
+  </si>
+  <si>
+    <t>https://www.donneesquebec.ca/recherche/uploads/group/2016-06-08-130336.662220stm.png</t>
+  </si>
+  <si>
+    <t>Ville de Sherbrooke;Société de transport de Sherbrooke</t>
+  </si>
+  <si>
+    <t>https://www.donneesquebec.ca/recherche/uploads/group/2016-01-20-170518.770337sts.jpg</t>
+  </si>
+  <si>
+    <t>Ville de Montréal;Société des célébrations du 375e anniversaire de Montréal</t>
+  </si>
+  <si>
+    <t>https://www.donneesquebec.ca/recherche/uploads/group/2017-05-02-184235.716081Vive-375.jpg</t>
+  </si>
+  <si>
+    <t>Ville de Montréal;Stationnement de Montréal</t>
+  </si>
+  <si>
+    <t>https://www.donneesquebec.ca/recherche/uploads/group/2016-07-21-180254.315407stationmtl.jpg</t>
+  </si>
+  <si>
+    <t>Ville de Sherbrooke;ZAP Sherbrooke</t>
+  </si>
+  <si>
+    <t>https://www.donneesquebec.ca/recherche/uploads/group/2016-01-20-170628.661786zap-sherbrooke.jpg</t>
+  </si>
+  <si>
+    <t>Ville de Québec;Le Réseau de transport de la Capitale</t>
+  </si>
+  <si>
+    <t>https://www.donneesquebec.ca/recherche/uploads/group/2017-03-03-200751.103639rtc.png</t>
+  </si>
+  <si>
+    <t>Ville de Sherbrooke;SociéTIC</t>
+  </si>
+  <si>
+    <t>https://www.donneesquebec.ca/recherche/uploads/group/2016-01-20-170503.027734societic1.png</t>
+  </si>
+  <si>
+    <t>https://www.donneesquebec.ca/recherche/uploads/group/2019-11-12-221144.122290ARTMlogoCMYKdenominationcourt.jpg</t>
+  </si>
+  <si>
+    <t>Autorité régionale de transport métropolitain</t>
+  </si>
+  <si>
+    <t>https://www.donneesquebec.ca/recherche/uploads/group/2020-02-27-153756.924870Logo-AMP.JPG</t>
+  </si>
+  <si>
+    <t>https://www.donneesquebec.ca/recherche/uploads/group/2019-07-23-141357.556001donneesqclogoCNESST.png</t>
+  </si>
+  <si>
+    <t>https://www.donneesquebec.ca/recherche/uploads/group/2019-10-10-174307.787532exo-logo-01noir.png</t>
+  </si>
+  <si>
+    <t>https://www.donneesquebec.ca/recherche/uploads/group/2016-09-22-203340.603724MBAM-logo-h-3.png</t>
+  </si>
+  <si>
+    <t>https://www.donneesquebec.ca/recherche/uploads/group/2016-02-12-203913.576283logo-mac.png</t>
+  </si>
+  <si>
+    <t>https://www.donneesquebec.ca/recherche/uploads/group/2016-09-28-175916.600598MUSEESC.PNG</t>
+  </si>
+  <si>
+    <t>https://www.donneesquebec.ca/recherche/uploads/group/2016-02-12-204013.520758MNBAQlogomention.jpg</t>
+  </si>
+  <si>
+    <t>https://www.donneesquebec.ca/recherche/uploads/group/2020-01-30-144454.813376logosepaqhorizR85-G186-B71typonoir.png</t>
+  </si>
+  <si>
+    <t>https://www.donneesquebec.ca/recherche/uploads/group/2016-02-12-204100.396070grand-theatre.png</t>
+  </si>
+  <si>
+    <t>gtfs</t>
+  </si>
+  <si>
+    <t>TBS_value</t>
+  </si>
+  <si>
+    <t>QC_value</t>
+  </si>
+  <si>
+    <t>P3Y</t>
+  </si>
+  <si>
+    <t>P1W</t>
+  </si>
+  <si>
+    <t>P3M</t>
+  </si>
+  <si>
+    <t>P4Y</t>
+  </si>
+  <si>
+    <t>P2Y</t>
+  </si>
+  <si>
+    <t>P1D</t>
+  </si>
+  <si>
+    <t>not_planned</t>
+  </si>
+  <si>
+    <t>P1Y</t>
+  </si>
+  <si>
+    <t>as_needed</t>
+  </si>
+  <si>
+    <t>P1M</t>
+  </si>
+  <si>
+    <t>P6M</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>agriculture-alimentation</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>law</t>
+  </si>
+  <si>
+    <t>loi-justice-securite-publique</t>
+  </si>
+  <si>
+    <t>society_and_culture</t>
+  </si>
+  <si>
+    <t>infrastructures</t>
+  </si>
+  <si>
+    <t>government_and_politics</t>
+  </si>
+  <si>
+    <t>gouvernement-finances</t>
+  </si>
+  <si>
+    <t>education_and_training</t>
+  </si>
+  <si>
+    <t>education-recherche</t>
+  </si>
+  <si>
+    <t>politiques-sociales</t>
+  </si>
+  <si>
+    <t>nature_and_environment</t>
+  </si>
+  <si>
+    <t>environnement-ressources-naturelles-energie</t>
+  </si>
+  <si>
+    <t>economics_and_industry</t>
+  </si>
+  <si>
+    <t>economie-entreprises</t>
+  </si>
+  <si>
+    <t>tourisme-sports-loisirs</t>
+  </si>
+  <si>
+    <t>societe-culture</t>
+  </si>
+  <si>
+    <t>health_and_safety</t>
+  </si>
+  <si>
+    <t>sante</t>
+  </si>
+  <si>
+    <t>TBS_subject</t>
+  </si>
+  <si>
+    <t>TBS_topic</t>
+  </si>
+  <si>
+    <t>ROOT</t>
+  </si>
+  <si>
+    <t>RESOURCES</t>
+  </si>
+  <si>
+    <t>resources{}.format_tbs</t>
+  </si>
+  <si>
+    <t>format_tbs</t>
+  </si>
+  <si>
+    <t>resources{}.res_type_tbs</t>
+  </si>
+  <si>
+    <t>res_type_tbs</t>
+  </si>
+  <si>
+    <t>name_en</t>
+  </si>
+  <si>
+    <t>name_fr</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>keywords_en</t>
+  </si>
+  <si>
+    <t>keywords_fr</t>
+  </si>
+  <si>
+    <t>nom_organisation_en</t>
+  </si>
+  <si>
+    <t>nom_organisation_fr</t>
+  </si>
+  <si>
+    <t>prov_portal_last_modified</t>
+  </si>
+  <si>
+    <t>metadata_modified</t>
+  </si>
+  <si>
+    <t>contacts{0}.email</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>source_metadata_date_created</t>
+  </si>
+  <si>
+    <t>ROOT;RESOURCES</t>
+  </si>
+  <si>
+    <t>update_frequency_tbs</t>
+  </si>
+  <si>
+    <t>position_name_en</t>
+  </si>
+  <si>
+    <t>position_name_fr</t>
+  </si>
+  <si>
+    <t>locale</t>
+  </si>
+  <si>
+    <t>org_name</t>
+  </si>
+  <si>
+    <t>description_en</t>
+  </si>
+  <si>
+    <t>description_fr</t>
+  </si>
+  <si>
+    <t>SECTION</t>
+  </si>
+  <si>
+    <t>TBS_ATTRIBUTES</t>
+  </si>
+  <si>
+    <t>guide</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>donnees</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>web_service</t>
+  </si>
+  <si>
+    <t>cartes</t>
   </si>
 </sst>
 </file>
@@ -4218,7 +4592,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="B6" t="s">
         <v>193</v>
@@ -4615,15 +4989,15 @@
         <v>267</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>1193</v>
+        <v>1180</v>
       </c>
       <c r="F1" t="s">
-        <v>1196</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B2" t="s">
         <v>783</v>
@@ -8039,7 +8413,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B246" s="9" t="s">
         <v>279</v>
@@ -8473,7 +8847,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B277" t="s">
         <v>783</v>
@@ -8515,7 +8889,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="9" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B280" t="s">
         <v>783</v>
@@ -8529,7 +8903,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B281" t="s">
         <v>783</v>
@@ -8543,10 +8917,10 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="9" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>305</v>
@@ -8557,10 +8931,10 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>305</v>
@@ -8571,7 +8945,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B284" t="s">
         <v>783</v>
@@ -8585,7 +8959,7 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="9" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B285" t="s">
         <v>783</v>
@@ -8599,10 +8973,10 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="9" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>274</v>
@@ -8613,10 +8987,10 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="9" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>274</v>
@@ -8641,10 +9015,10 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>274</v>
@@ -8711,7 +9085,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="9" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B294" s="9" t="s">
         <v>281</v>
@@ -8739,7 +9113,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="9" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B296" s="9" t="s">
         <v>281</v>
@@ -8767,7 +9141,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="9" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B298" t="s">
         <v>783</v>
@@ -8795,7 +9169,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="9" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B300" t="s">
         <v>783</v>
@@ -8854,7 +9228,7 @@
         <v>286</v>
       </c>
       <c r="B304" t="s">
-        <v>1198</v>
+        <v>1185</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>274</v>
@@ -8868,7 +9242,7 @@
         <v>287</v>
       </c>
       <c r="B305" t="s">
-        <v>1198</v>
+        <v>1185</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>274</v>
@@ -8893,10 +9267,10 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="9" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B307" s="9" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>274</v>
@@ -8907,10 +9281,10 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="9" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>274</v>
@@ -8921,10 +9295,10 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="9" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>274</v>
@@ -8935,10 +9309,10 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>274</v>
@@ -8949,10 +9323,10 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="9" t="s">
-        <v>1194</v>
+        <v>1181</v>
       </c>
       <c r="B311" s="9" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>274</v>
@@ -8963,10 +9337,10 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="9" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B312" s="9" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>274</v>
@@ -8983,10 +9357,10 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="9" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B313" s="9" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>274</v>
@@ -8997,10 +9371,10 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B314" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>274</v>
@@ -9011,10 +9385,10 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="9" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>274</v>
@@ -9039,7 +9413,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="9" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B317" t="s">
         <v>783</v>
@@ -9235,7 +9609,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="9" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B331" t="s">
         <v>783</v>
@@ -9249,10 +9623,10 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="9" t="s">
-        <v>1192</v>
+        <v>1179</v>
       </c>
       <c r="B332" t="s">
-        <v>1051</v>
+        <v>1038</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>274</v>
@@ -9269,10 +9643,10 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="9" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B333" s="9" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>274</v>
@@ -9311,10 +9685,10 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1004</v>
+        <v>991</v>
       </c>
       <c r="B336" t="s">
-        <v>1004</v>
+        <v>991</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>274</v>
@@ -9409,7 +9783,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="9" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B343" t="s">
         <v>783</v>
@@ -9451,7 +9825,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="9" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B346" t="s">
         <v>783</v>
@@ -9465,7 +9839,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="B347" s="9" t="s">
         <v>273</v>
@@ -9493,10 +9867,10 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="9" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B349" s="9" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>305</v>
@@ -9507,10 +9881,10 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="9" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B350" s="9" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>274</v>
@@ -9521,10 +9895,10 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="9" t="s">
-        <v>1195</v>
+        <v>1182</v>
       </c>
       <c r="B351" s="9" t="s">
-        <v>1048</v>
+        <v>1035</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>274</v>
@@ -9597,7 +9971,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="9" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B356" s="9" t="s">
         <v>281</v>
@@ -9625,10 +9999,10 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="9" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B358" s="9" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>274</v>
@@ -9712,7 +10086,7 @@
     </row>
     <row r="364" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="9" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B364" t="s">
         <v>783</v>
@@ -9727,7 +10101,7 @@
     </row>
     <row r="365" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="9" t="s">
-        <v>1197</v>
+        <v>1184</v>
       </c>
       <c r="B365" t="s">
         <v>783</v>
@@ -9777,7 +10151,7 @@
     </row>
     <row r="368" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="9" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B368" t="s">
         <v>783</v>
@@ -9792,10 +10166,10 @@
     </row>
     <row r="369" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B369" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>274</v>
@@ -9807,10 +10181,10 @@
     </row>
     <row r="370" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="9" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B370" s="9" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>274</v>
@@ -9882,7 +10256,7 @@
     </row>
     <row r="375" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="9" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B375" t="s">
         <v>783</v>
@@ -9897,7 +10271,7 @@
     </row>
     <row r="376" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="9" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B376" t="s">
         <v>783</v>
@@ -10077,10 +10451,10 @@
     </row>
     <row r="388" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A388" s="9" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B388" s="9" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>274</v>
@@ -10092,10 +10466,10 @@
     </row>
     <row r="389" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A389" s="9" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B389" s="9" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>274</v>
@@ -10107,10 +10481,10 @@
     </row>
     <row r="390" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="9" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B390" s="9" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>274</v>
@@ -10122,10 +10496,10 @@
     </row>
     <row r="391" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="9" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B391" s="9" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>274</v>
@@ -10152,7 +10526,7 @@
     </row>
     <row r="393" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B393" s="9" t="s">
         <v>312</v>
@@ -10182,7 +10556,7 @@
     </row>
     <row r="395" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="9" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B395" t="s">
         <v>783</v>
@@ -10287,7 +10661,7 @@
     </row>
     <row r="402" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1005</v>
+        <v>992</v>
       </c>
       <c r="B402" t="s">
         <v>783</v>
@@ -10302,10 +10676,10 @@
     </row>
     <row r="403" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A403" s="9" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B403" s="9" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>274</v>
@@ -10407,10 +10781,10 @@
     </row>
     <row r="410" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A410" s="9" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B410" s="9" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>274</v>
@@ -10497,10 +10871,10 @@
     </row>
     <row r="416" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A416" s="9" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B416" s="9" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>274</v>
@@ -10557,10 +10931,10 @@
     </row>
     <row r="420" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A420" s="9" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B420" s="9" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>274</v>
@@ -10661,7 +11035,7 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1015</v>
+        <v>1002</v>
       </c>
       <c r="B427" t="s">
         <v>783</v>
@@ -10675,7 +11049,7 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1016</v>
+        <v>1003</v>
       </c>
       <c r="B428" t="s">
         <v>783</v>
@@ -10689,7 +11063,7 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="B429" t="s">
         <v>783</v>
@@ -10703,7 +11077,7 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1018</v>
+        <v>1005</v>
       </c>
       <c r="B430" t="s">
         <v>783</v>
@@ -10717,7 +11091,7 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="B431" t="s">
         <v>783</v>
@@ -10731,7 +11105,7 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="B432" t="s">
         <v>273</v>
@@ -10745,7 +11119,7 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="B433" t="s">
         <v>299</v>
@@ -10759,7 +11133,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="B434" s="9" t="s">
         <v>281</v>
@@ -10773,7 +11147,7 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1199</v>
+        <v>1186</v>
       </c>
       <c r="B435" t="s">
         <v>783</v>
@@ -10787,7 +11161,7 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1200</v>
+        <v>1187</v>
       </c>
       <c r="B436" t="s">
         <v>783</v>
@@ -10801,7 +11175,7 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1201</v>
+        <v>1188</v>
       </c>
       <c r="B437" t="s">
         <v>783</v>
@@ -10815,7 +11189,7 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1202</v>
+        <v>1189</v>
       </c>
       <c r="B438" t="s">
         <v>783</v>
@@ -10829,7 +11203,7 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1203</v>
+        <v>1190</v>
       </c>
       <c r="B439" t="s">
         <v>783</v>
@@ -10843,7 +11217,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1204</v>
+        <v>1191</v>
       </c>
       <c r="B440" t="s">
         <v>783</v>
@@ -10857,7 +11231,7 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1205</v>
+        <v>1192</v>
       </c>
       <c r="B441" t="s">
         <v>783</v>
@@ -10871,7 +11245,7 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1206</v>
+        <v>1193</v>
       </c>
       <c r="B442" t="s">
         <v>783</v>
@@ -10885,7 +11259,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1207</v>
+        <v>1194</v>
       </c>
       <c r="B443" t="s">
         <v>783</v>
@@ -10899,7 +11273,7 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1208</v>
+        <v>1195</v>
       </c>
       <c r="B444" t="s">
         <v>783</v>
@@ -10913,7 +11287,7 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1209</v>
+        <v>1196</v>
       </c>
       <c r="B445" t="s">
         <v>783</v>
@@ -10927,7 +11301,7 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1210</v>
+        <v>1197</v>
       </c>
       <c r="B446" t="s">
         <v>783</v>
@@ -10941,7 +11315,7 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>1211</v>
+        <v>1198</v>
       </c>
       <c r="B447" t="s">
         <v>783</v>
@@ -10955,7 +11329,7 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>1212</v>
+        <v>1199</v>
       </c>
       <c r="B448" t="s">
         <v>783</v>
@@ -10969,7 +11343,7 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>1213</v>
+        <v>1200</v>
       </c>
       <c r="B449" t="s">
         <v>783</v>
@@ -10983,7 +11357,7 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1214</v>
+        <v>1201</v>
       </c>
       <c r="B450" t="s">
         <v>783</v>
@@ -10997,7 +11371,7 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>1215</v>
+        <v>1202</v>
       </c>
       <c r="B451" t="s">
         <v>783</v>
@@ -11011,7 +11385,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>1216</v>
+        <v>1203</v>
       </c>
       <c r="B452" t="s">
         <v>783</v>
@@ -11025,7 +11399,7 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
       <c r="B453" t="s">
         <v>783</v>
@@ -11039,7 +11413,7 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1218</v>
+        <v>1205</v>
       </c>
       <c r="B454" t="s">
         <v>783</v>
@@ -11053,7 +11427,7 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1219</v>
+        <v>1206</v>
       </c>
       <c r="B455" t="s">
         <v>783</v>
@@ -11067,7 +11441,7 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1220</v>
+        <v>1207</v>
       </c>
       <c r="B456" t="s">
         <v>783</v>
@@ -11081,7 +11455,7 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>1221</v>
+        <v>1208</v>
       </c>
       <c r="B457" t="s">
         <v>783</v>
@@ -11095,7 +11469,7 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1222</v>
+        <v>1209</v>
       </c>
       <c r="B458" t="s">
         <v>783</v>
@@ -11109,7 +11483,7 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>1223</v>
+        <v>1210</v>
       </c>
       <c r="B459" t="s">
         <v>783</v>
@@ -11123,7 +11497,7 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1224</v>
+        <v>1211</v>
       </c>
       <c r="B460" t="s">
         <v>783</v>
@@ -11137,7 +11511,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>1225</v>
+        <v>1212</v>
       </c>
       <c r="B461" t="s">
         <v>783</v>
@@ -11151,7 +11525,7 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1226</v>
+        <v>1213</v>
       </c>
       <c r="B462" t="s">
         <v>783</v>
@@ -11165,7 +11539,7 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>1227</v>
+        <v>1214</v>
       </c>
       <c r="B463" t="s">
         <v>783</v>
@@ -11179,7 +11553,7 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1228</v>
+        <v>1215</v>
       </c>
       <c r="B464" t="s">
         <v>783</v>
@@ -11193,7 +11567,7 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1229</v>
+        <v>1216</v>
       </c>
       <c r="B465" t="s">
         <v>783</v>
@@ -11207,7 +11581,7 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>1230</v>
+        <v>1217</v>
       </c>
       <c r="B466" t="s">
         <v>783</v>
@@ -11221,7 +11595,7 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>1231</v>
+        <v>1218</v>
       </c>
       <c r="B467" t="s">
         <v>783</v>
@@ -11235,7 +11609,7 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>1232</v>
+        <v>1219</v>
       </c>
       <c r="B468" t="s">
         <v>783</v>
@@ -11249,7 +11623,7 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>1233</v>
+        <v>1220</v>
       </c>
       <c r="B469" t="s">
         <v>783</v>
@@ -11329,29 +11703,29 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>989</v>
+        <v>976</v>
       </c>
       <c r="B1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C1" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B2" t="s">
         <v>276</v>
       </c>
       <c r="C2" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B3" t="s">
         <v>282</v>
@@ -11359,18 +11733,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B4" t="s">
         <v>286</v>
       </c>
       <c r="C4" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B5" t="s">
         <v>291</v>
@@ -11378,29 +11752,29 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B6" t="s">
         <v>296</v>
       </c>
       <c r="C6" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B7" t="s">
         <v>298</v>
       </c>
       <c r="C7" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B8" t="s">
         <v>783</v>
@@ -11408,7 +11782,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B9" t="s">
         <v>303</v>
@@ -11416,29 +11790,29 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B10" t="s">
         <v>310</v>
       </c>
       <c r="C10" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B11" t="s">
         <v>313</v>
       </c>
       <c r="C11" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B12" t="s">
         <v>316</v>
@@ -11446,29 +11820,29 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B13" t="s">
         <v>318</v>
       </c>
       <c r="C13" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B14" t="s">
         <v>320</v>
       </c>
       <c r="C14" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B15" t="s">
         <v>321</v>
@@ -11476,7 +11850,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B16" t="s">
         <v>323</v>
@@ -11489,10 +11863,893 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B3" t="s">
+        <v>791</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>794</v>
+      </c>
+      <c r="B14" t="s">
+        <v>794</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>790</v>
+      </c>
+      <c r="B27" t="s">
+        <v>790</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B41" t="s">
+        <v>856</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="58" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>859</v>
+      </c>
+      <c r="B2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>860</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>861</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>862</v>
+      </c>
+      <c r="B9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>863</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>864</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>865</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11505,206 +12762,206 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>989</v>
+        <v>976</v>
       </c>
       <c r="B1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C1" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C2" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C3" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>277</v>
       </c>
       <c r="C5" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C6" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C7" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C10" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C11" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C12" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C13" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>1052</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C16" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>282</v>
       </c>
       <c r="C17" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C18" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>283</v>
@@ -11712,138 +12969,138 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>284</v>
       </c>
       <c r="C23" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>287</v>
       </c>
       <c r="C24" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C25" t="s">
-        <v>1053</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C26" t="s">
-        <v>1053</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C27" t="s">
-        <v>1053</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C28" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>1049</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>567</v>
       </c>
       <c r="C32" t="s">
-        <v>1053</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C33" t="s">
-        <v>1053</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C34" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>292</v>
@@ -11851,31 +13108,31 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>1051</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>295</v>
@@ -11883,80 +13140,80 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>297</v>
       </c>
       <c r="C40" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>299</v>
       </c>
       <c r="C41" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>300</v>
       </c>
       <c r="C43" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>1048</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>783</v>
@@ -11964,7 +13221,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>304</v>
@@ -11972,31 +13229,31 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>308</v>
@@ -12004,174 +13261,180 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>273</v>
       </c>
       <c r="C57" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C58" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C59" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>888</v>
+      <c r="A67" s="9" t="s">
+        <v>889</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>888</v>
+      <c r="A68" s="9" t="s">
+        <v>889</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>317</v>
       </c>
+      <c r="C69" t="s">
+        <v>1041</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>845</v>
+        <v>843</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>319</v>
       </c>
       <c r="C71" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C72" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>322</v>
@@ -12179,7 +13442,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>324</v>
@@ -12193,7 +13456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -12407,1611 +13670,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B1" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B2" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B3" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B4" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B5" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B6" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B7" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B8" t="s">
-        <v>888</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>474</v>
-      </c>
-      <c r="B2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C2" t="s">
-        <v>475</v>
-      </c>
-      <c r="D2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>477</v>
-      </c>
-      <c r="B3" t="s">
-        <v>477</v>
-      </c>
-      <c r="C3" t="s">
-        <v>478</v>
-      </c>
-      <c r="D3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>480</v>
-      </c>
-      <c r="B4" t="s">
-        <v>480</v>
-      </c>
-      <c r="C4" t="s">
-        <v>481</v>
-      </c>
-      <c r="D4" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>483</v>
-      </c>
-      <c r="D5" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>485</v>
-      </c>
-      <c r="B6" t="s">
-        <v>485</v>
-      </c>
-      <c r="C6" t="s">
-        <v>486</v>
-      </c>
-      <c r="D6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>488</v>
-      </c>
-      <c r="B7" t="s">
-        <v>488</v>
-      </c>
-      <c r="C7" t="s">
-        <v>489</v>
-      </c>
-      <c r="D7" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>491</v>
-      </c>
-      <c r="B8" t="s">
-        <v>491</v>
-      </c>
-      <c r="C8" t="s">
-        <v>492</v>
-      </c>
-      <c r="D8" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>494</v>
-      </c>
-      <c r="B9" t="s">
-        <v>494</v>
-      </c>
-      <c r="C9" t="s">
-        <v>495</v>
-      </c>
-      <c r="D9" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>497</v>
-      </c>
-      <c r="B10" t="s">
-        <v>474</v>
-      </c>
-      <c r="C10" t="s">
-        <v>475</v>
-      </c>
-      <c r="D10" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>498</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>483</v>
-      </c>
-      <c r="D11" t="s">
-        <v>484</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>499</v>
-      </c>
-      <c r="B2" t="s">
-        <v>499</v>
-      </c>
-      <c r="C2" t="s">
-        <v>500</v>
-      </c>
-      <c r="D2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>502</v>
-      </c>
-      <c r="B3" t="s">
-        <v>502</v>
-      </c>
-      <c r="C3" t="s">
-        <v>503</v>
-      </c>
-      <c r="D3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>505</v>
-      </c>
-      <c r="B4" t="s">
-        <v>505</v>
-      </c>
-      <c r="C4" t="s">
-        <v>506</v>
-      </c>
-      <c r="D4" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>508</v>
-      </c>
-      <c r="B5" t="s">
-        <v>508</v>
-      </c>
-      <c r="C5" t="s">
-        <v>509</v>
-      </c>
-      <c r="D5" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>511</v>
-      </c>
-      <c r="B6" t="s">
-        <v>511</v>
-      </c>
-      <c r="C6" t="s">
-        <v>512</v>
-      </c>
-      <c r="D6" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>514</v>
-      </c>
-      <c r="B7" t="s">
-        <v>514</v>
-      </c>
-      <c r="C7" t="s">
-        <v>515</v>
-      </c>
-      <c r="D7" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" t="s">
-        <v>517</v>
-      </c>
-      <c r="D8" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>519</v>
-      </c>
-      <c r="B9" t="s">
-        <v>519</v>
-      </c>
-      <c r="C9" t="s">
-        <v>520</v>
-      </c>
-      <c r="D9" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>522</v>
-      </c>
-      <c r="B10" t="s">
-        <v>522</v>
-      </c>
-      <c r="C10" t="s">
-        <v>523</v>
-      </c>
-      <c r="D10" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>525</v>
-      </c>
-      <c r="B11" t="s">
-        <v>525</v>
-      </c>
-      <c r="C11" t="s">
-        <v>526</v>
-      </c>
-      <c r="D11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>528</v>
-      </c>
-      <c r="B12" t="s">
-        <v>528</v>
-      </c>
-      <c r="C12" t="s">
-        <v>529</v>
-      </c>
-      <c r="D12" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>531</v>
-      </c>
-      <c r="B13" t="s">
-        <v>531</v>
-      </c>
-      <c r="C13" t="s">
-        <v>532</v>
-      </c>
-      <c r="D13" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>534</v>
-      </c>
-      <c r="B14" t="s">
-        <v>534</v>
-      </c>
-      <c r="C14" t="s">
-        <v>535</v>
-      </c>
-      <c r="D14" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>537</v>
-      </c>
-      <c r="B15" t="s">
-        <v>537</v>
-      </c>
-      <c r="C15" t="s">
-        <v>538</v>
-      </c>
-      <c r="D15" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>540</v>
-      </c>
-      <c r="B16" t="s">
-        <v>540</v>
-      </c>
-      <c r="C16" t="s">
-        <v>541</v>
-      </c>
-      <c r="D16" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>543</v>
-      </c>
-      <c r="B17" t="s">
-        <v>164</v>
-      </c>
-      <c r="C17" t="s">
-        <v>517</v>
-      </c>
-      <c r="D17" t="s">
-        <v>518</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D76"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="82" customWidth="1"/>
-    <col min="2" max="2" width="95" customWidth="1"/>
-    <col min="3" max="3" width="68.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>990</v>
-      </c>
-      <c r="B1" t="s">
-        <v>991</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>885</v>
-      </c>
-      <c r="B2" t="s">
-        <v>886</v>
-      </c>
-      <c r="C2" t="s">
-        <v>887</v>
-      </c>
-      <c r="D2" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>890</v>
-      </c>
-      <c r="B3" t="s">
-        <v>890</v>
-      </c>
-      <c r="C3" t="s">
-        <v>859</v>
-      </c>
-      <c r="D3" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>897</v>
-      </c>
-      <c r="B4" t="s">
-        <v>897</v>
-      </c>
-      <c r="C4" t="s">
-        <v>859</v>
-      </c>
-      <c r="D4" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B5" t="s">
-        <v>899</v>
-      </c>
-      <c r="C5" t="s">
-        <v>859</v>
-      </c>
-      <c r="D5" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>901</v>
-      </c>
-      <c r="B6" t="s">
-        <v>901</v>
-      </c>
-      <c r="C6" t="s">
-        <v>859</v>
-      </c>
-      <c r="D6" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>905</v>
-      </c>
-      <c r="B7" t="s">
-        <v>905</v>
-      </c>
-      <c r="C7" t="s">
-        <v>859</v>
-      </c>
-      <c r="D7" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>906</v>
-      </c>
-      <c r="B8" t="s">
-        <v>906</v>
-      </c>
-      <c r="C8" t="s">
-        <v>859</v>
-      </c>
-      <c r="D8" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>907</v>
-      </c>
-      <c r="B9" t="s">
-        <v>908</v>
-      </c>
-      <c r="C9" t="s">
-        <v>859</v>
-      </c>
-      <c r="D9" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>912</v>
-      </c>
-      <c r="B10" t="s">
-        <v>912</v>
-      </c>
-      <c r="C10" t="s">
-        <v>859</v>
-      </c>
-      <c r="D10" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>913</v>
-      </c>
-      <c r="B11" t="s">
-        <v>913</v>
-      </c>
-      <c r="C11" t="s">
-        <v>859</v>
-      </c>
-      <c r="D11" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>914</v>
-      </c>
-      <c r="B12" t="s">
-        <v>914</v>
-      </c>
-      <c r="C12" t="s">
-        <v>859</v>
-      </c>
-      <c r="D12" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>915</v>
-      </c>
-      <c r="B13" t="s">
-        <v>915</v>
-      </c>
-      <c r="C13" t="s">
-        <v>859</v>
-      </c>
-      <c r="D13" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>916</v>
-      </c>
-      <c r="B14" t="s">
-        <v>916</v>
-      </c>
-      <c r="C14" t="s">
-        <v>859</v>
-      </c>
-      <c r="D14" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>917</v>
-      </c>
-      <c r="B15" t="s">
-        <v>917</v>
-      </c>
-      <c r="C15" t="s">
-        <v>859</v>
-      </c>
-      <c r="D15" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>918</v>
-      </c>
-      <c r="B16" t="s">
-        <v>918</v>
-      </c>
-      <c r="C16" t="s">
-        <v>859</v>
-      </c>
-      <c r="D16" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>919</v>
-      </c>
-      <c r="B17" t="s">
-        <v>919</v>
-      </c>
-      <c r="C17" t="s">
-        <v>859</v>
-      </c>
-      <c r="D17" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>920</v>
-      </c>
-      <c r="B18" t="s">
-        <v>920</v>
-      </c>
-      <c r="C18" t="s">
-        <v>859</v>
-      </c>
-      <c r="D18" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>921</v>
-      </c>
-      <c r="B19" t="s">
-        <v>921</v>
-      </c>
-      <c r="C19" t="s">
-        <v>859</v>
-      </c>
-      <c r="D19" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>922</v>
-      </c>
-      <c r="B20" t="s">
-        <v>922</v>
-      </c>
-      <c r="C20" t="s">
-        <v>859</v>
-      </c>
-      <c r="D20" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>923</v>
-      </c>
-      <c r="B21" t="s">
-        <v>923</v>
-      </c>
-      <c r="C21" t="s">
-        <v>859</v>
-      </c>
-      <c r="D21" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>956</v>
-      </c>
-      <c r="B22" t="s">
-        <v>957</v>
-      </c>
-      <c r="C22" t="s">
-        <v>958</v>
-      </c>
-      <c r="D22" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>959</v>
-      </c>
-      <c r="B23" t="s">
-        <v>960</v>
-      </c>
-      <c r="C23" t="s">
-        <v>961</v>
-      </c>
-      <c r="D23" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>962</v>
-      </c>
-      <c r="B24" t="s">
-        <v>963</v>
-      </c>
-      <c r="C24" t="s">
-        <v>964</v>
-      </c>
-      <c r="D24" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>965</v>
-      </c>
-      <c r="B25" t="s">
-        <v>966</v>
-      </c>
-      <c r="C25" t="s">
-        <v>967</v>
-      </c>
-      <c r="D25" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>968</v>
-      </c>
-      <c r="B26" t="s">
-        <v>969</v>
-      </c>
-      <c r="C26" t="s">
-        <v>970</v>
-      </c>
-      <c r="D26" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>971</v>
-      </c>
-      <c r="B27" t="s">
-        <v>972</v>
-      </c>
-      <c r="C27" t="s">
-        <v>973</v>
-      </c>
-      <c r="D27" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>974</v>
-      </c>
-      <c r="B28" t="s">
-        <v>975</v>
-      </c>
-      <c r="C28" t="s">
-        <v>976</v>
-      </c>
-      <c r="D28" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>977</v>
-      </c>
-      <c r="B29" t="s">
-        <v>978</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>979</v>
-      </c>
-      <c r="D29" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>980</v>
-      </c>
-      <c r="B30" t="s">
-        <v>981</v>
-      </c>
-      <c r="C30" t="s">
-        <v>982</v>
-      </c>
-      <c r="D30" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>983</v>
-      </c>
-      <c r="B31" t="s">
-        <v>984</v>
-      </c>
-      <c r="C31" t="s">
-        <v>985</v>
-      </c>
-      <c r="D31" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>938</v>
-      </c>
-      <c r="B32" t="s">
-        <v>939</v>
-      </c>
-      <c r="C32" t="s">
-        <v>940</v>
-      </c>
-      <c r="D32" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>986</v>
-      </c>
-      <c r="B33" t="s">
-        <v>939</v>
-      </c>
-      <c r="C33" t="s">
-        <v>940</v>
-      </c>
-      <c r="D33" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>987</v>
-      </c>
-      <c r="B34" t="s">
-        <v>939</v>
-      </c>
-      <c r="C34" t="s">
-        <v>940</v>
-      </c>
-      <c r="D34" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>924</v>
-      </c>
-      <c r="B35" t="s">
-        <v>924</v>
-      </c>
-      <c r="C35" t="s">
-        <v>859</v>
-      </c>
-      <c r="D35" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>925</v>
-      </c>
-      <c r="B36" t="s">
-        <v>925</v>
-      </c>
-      <c r="C36" t="s">
-        <v>859</v>
-      </c>
-      <c r="D36" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>926</v>
-      </c>
-      <c r="B37" t="s">
-        <v>926</v>
-      </c>
-      <c r="C37" t="s">
-        <v>859</v>
-      </c>
-      <c r="D37" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>927</v>
-      </c>
-      <c r="B38" t="s">
-        <v>927</v>
-      </c>
-      <c r="C38" t="s">
-        <v>859</v>
-      </c>
-      <c r="D38" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>928</v>
-      </c>
-      <c r="B39" t="s">
-        <v>928</v>
-      </c>
-      <c r="C39" t="s">
-        <v>859</v>
-      </c>
-      <c r="D39" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>929</v>
-      </c>
-      <c r="B40" t="s">
-        <v>929</v>
-      </c>
-      <c r="C40" t="s">
-        <v>859</v>
-      </c>
-      <c r="D40" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>889</v>
-      </c>
-      <c r="B41" t="s">
-        <v>886</v>
-      </c>
-      <c r="C41" t="s">
-        <v>887</v>
-      </c>
-      <c r="D41" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>892</v>
-      </c>
-      <c r="B42" t="s">
-        <v>886</v>
-      </c>
-      <c r="C42" t="s">
-        <v>887</v>
-      </c>
-      <c r="D42" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>893</v>
-      </c>
-      <c r="B43" t="s">
-        <v>886</v>
-      </c>
-      <c r="C43" t="s">
-        <v>887</v>
-      </c>
-      <c r="D43" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>894</v>
-      </c>
-      <c r="B44" t="s">
-        <v>886</v>
-      </c>
-      <c r="C44" t="s">
-        <v>887</v>
-      </c>
-      <c r="D44" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>895</v>
-      </c>
-      <c r="B45" t="s">
-        <v>886</v>
-      </c>
-      <c r="C45" t="s">
-        <v>887</v>
-      </c>
-      <c r="D45" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>896</v>
-      </c>
-      <c r="B46" t="s">
-        <v>886</v>
-      </c>
-      <c r="C46" t="s">
-        <v>887</v>
-      </c>
-      <c r="D46" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>900</v>
-      </c>
-      <c r="B47" t="s">
-        <v>886</v>
-      </c>
-      <c r="C47" t="s">
-        <v>887</v>
-      </c>
-      <c r="D47" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>902</v>
-      </c>
-      <c r="B48" t="s">
-        <v>886</v>
-      </c>
-      <c r="C48" t="s">
-        <v>887</v>
-      </c>
-      <c r="D48" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>903</v>
-      </c>
-      <c r="B49" t="s">
-        <v>886</v>
-      </c>
-      <c r="C49" t="s">
-        <v>887</v>
-      </c>
-      <c r="D49" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>904</v>
-      </c>
-      <c r="B50" t="s">
-        <v>886</v>
-      </c>
-      <c r="C50" t="s">
-        <v>887</v>
-      </c>
-      <c r="D50" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>909</v>
-      </c>
-      <c r="B51" t="s">
-        <v>886</v>
-      </c>
-      <c r="C51" t="s">
-        <v>887</v>
-      </c>
-      <c r="D51" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>910</v>
-      </c>
-      <c r="B52" t="s">
-        <v>886</v>
-      </c>
-      <c r="C52" t="s">
-        <v>887</v>
-      </c>
-      <c r="D52" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>911</v>
-      </c>
-      <c r="B53" t="s">
-        <v>886</v>
-      </c>
-      <c r="C53" t="s">
-        <v>887</v>
-      </c>
-      <c r="D53" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>930</v>
-      </c>
-      <c r="B54" t="s">
-        <v>886</v>
-      </c>
-      <c r="C54" t="s">
-        <v>887</v>
-      </c>
-      <c r="D54" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>931</v>
-      </c>
-      <c r="B55" t="s">
-        <v>886</v>
-      </c>
-      <c r="C55" t="s">
-        <v>887</v>
-      </c>
-      <c r="D55" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>932</v>
-      </c>
-      <c r="B56" t="s">
-        <v>886</v>
-      </c>
-      <c r="C56" t="s">
-        <v>887</v>
-      </c>
-      <c r="D56" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>933</v>
-      </c>
-      <c r="B57" t="s">
-        <v>886</v>
-      </c>
-      <c r="C57" t="s">
-        <v>887</v>
-      </c>
-      <c r="D57" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>944</v>
-      </c>
-      <c r="B58" t="s">
-        <v>886</v>
-      </c>
-      <c r="C58" t="s">
-        <v>887</v>
-      </c>
-      <c r="D58" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>945</v>
-      </c>
-      <c r="B59" t="s">
-        <v>886</v>
-      </c>
-      <c r="C59" t="s">
-        <v>887</v>
-      </c>
-      <c r="D59" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>946</v>
-      </c>
-      <c r="B60" t="s">
-        <v>886</v>
-      </c>
-      <c r="C60" t="s">
-        <v>887</v>
-      </c>
-      <c r="D60" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>947</v>
-      </c>
-      <c r="B61" t="s">
-        <v>886</v>
-      </c>
-      <c r="C61" t="s">
-        <v>887</v>
-      </c>
-      <c r="D61" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>948</v>
-      </c>
-      <c r="B62" t="s">
-        <v>886</v>
-      </c>
-      <c r="C62" t="s">
-        <v>887</v>
-      </c>
-      <c r="D62" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>949</v>
-      </c>
-      <c r="B63" t="s">
-        <v>886</v>
-      </c>
-      <c r="C63" t="s">
-        <v>887</v>
-      </c>
-      <c r="D63" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>950</v>
-      </c>
-      <c r="B64" t="s">
-        <v>886</v>
-      </c>
-      <c r="C64" t="s">
-        <v>887</v>
-      </c>
-      <c r="D64" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>952</v>
-      </c>
-      <c r="B65" t="s">
-        <v>886</v>
-      </c>
-      <c r="C65" t="s">
-        <v>887</v>
-      </c>
-      <c r="D65" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>953</v>
-      </c>
-      <c r="B66" t="s">
-        <v>886</v>
-      </c>
-      <c r="C66" t="s">
-        <v>887</v>
-      </c>
-      <c r="D66" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>988</v>
-      </c>
-      <c r="B67" t="s">
-        <v>886</v>
-      </c>
-      <c r="C67" t="s">
-        <v>887</v>
-      </c>
-      <c r="D67" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>934</v>
-      </c>
-      <c r="B68" t="s">
-        <v>934</v>
-      </c>
-      <c r="C68" t="s">
-        <v>859</v>
-      </c>
-      <c r="D68" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>935</v>
-      </c>
-      <c r="B69" t="s">
-        <v>935</v>
-      </c>
-      <c r="C69" t="s">
-        <v>859</v>
-      </c>
-      <c r="D69" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>936</v>
-      </c>
-      <c r="B70" t="s">
-        <v>936</v>
-      </c>
-      <c r="C70" t="s">
-        <v>859</v>
-      </c>
-      <c r="D70" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>937</v>
-      </c>
-      <c r="B71" t="s">
-        <v>937</v>
-      </c>
-      <c r="C71" t="s">
-        <v>859</v>
-      </c>
-      <c r="D71" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>941</v>
-      </c>
-      <c r="B72" t="s">
-        <v>941</v>
-      </c>
-      <c r="C72" t="s">
-        <v>859</v>
-      </c>
-      <c r="D72" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>942</v>
-      </c>
-      <c r="B73" t="s">
-        <v>943</v>
-      </c>
-      <c r="C73" t="s">
-        <v>859</v>
-      </c>
-      <c r="D73" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>951</v>
-      </c>
-      <c r="B74" t="s">
-        <v>951</v>
-      </c>
-      <c r="C74" t="s">
-        <v>859</v>
-      </c>
-      <c r="D74" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>954</v>
-      </c>
-      <c r="B75" t="s">
-        <v>954</v>
-      </c>
-      <c r="C75" t="s">
-        <v>859</v>
-      </c>
-      <c r="D75" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>955</v>
-      </c>
-      <c r="B76" t="s">
-        <v>955</v>
-      </c>
-      <c r="C76" t="s">
-        <v>859</v>
-      </c>
-      <c r="D76" t="s">
-        <v>891</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A3:D76">
-    <sortCondition ref="B1"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14165,7 +13823,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
@@ -14994,6 +14652,2222 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B2" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B3" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B4" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B5" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B6" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B7" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B8" t="s">
+        <v>886</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>483</v>
+      </c>
+      <c r="D5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>485</v>
+      </c>
+      <c r="B6" t="s">
+        <v>485</v>
+      </c>
+      <c r="C6" t="s">
+        <v>486</v>
+      </c>
+      <c r="D6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>488</v>
+      </c>
+      <c r="B7" t="s">
+        <v>488</v>
+      </c>
+      <c r="C7" t="s">
+        <v>489</v>
+      </c>
+      <c r="D7" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>491</v>
+      </c>
+      <c r="B8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C8" t="s">
+        <v>492</v>
+      </c>
+      <c r="D8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>494</v>
+      </c>
+      <c r="B9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C9" t="s">
+        <v>495</v>
+      </c>
+      <c r="D9" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>497</v>
+      </c>
+      <c r="B10" t="s">
+        <v>474</v>
+      </c>
+      <c r="C10" t="s">
+        <v>475</v>
+      </c>
+      <c r="D10" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>498</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>483</v>
+      </c>
+      <c r="D11" t="s">
+        <v>484</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B2" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>809</v>
+      </c>
+      <c r="B3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>810</v>
+      </c>
+      <c r="B5" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>845</v>
+      </c>
+      <c r="B6" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>811</v>
+      </c>
+      <c r="B7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>812</v>
+      </c>
+      <c r="B8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>813</v>
+      </c>
+      <c r="B9" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>866</v>
+      </c>
+      <c r="B10" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>814</v>
+      </c>
+      <c r="B11" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>815</v>
+      </c>
+      <c r="B12" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>816</v>
+      </c>
+      <c r="B13" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>846</v>
+      </c>
+      <c r="B14" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>819</v>
+      </c>
+      <c r="B15" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>821</v>
+      </c>
+      <c r="B16" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B17" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>292</v>
+      </c>
+      <c r="B18" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>825</v>
+      </c>
+      <c r="B19" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>826</v>
+      </c>
+      <c r="B20" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>295</v>
+      </c>
+      <c r="B21" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>829</v>
+      </c>
+      <c r="B22" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>830</v>
+      </c>
+      <c r="B23" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>304</v>
+      </c>
+      <c r="B25" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>832</v>
+      </c>
+      <c r="B26" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>833</v>
+      </c>
+      <c r="B27" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>835</v>
+      </c>
+      <c r="B28" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>851</v>
+      </c>
+      <c r="B29" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>853</v>
+      </c>
+      <c r="B30" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>838</v>
+      </c>
+      <c r="B31" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>837</v>
+      </c>
+      <c r="B32" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>839</v>
+      </c>
+      <c r="B33" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>854</v>
+      </c>
+      <c r="B34" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>855</v>
+      </c>
+      <c r="B35" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>840</v>
+      </c>
+      <c r="B36" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>314</v>
+      </c>
+      <c r="B37" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>319</v>
+      </c>
+      <c r="B39" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>844</v>
+      </c>
+      <c r="B40" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>322</v>
+      </c>
+      <c r="B41" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>324</v>
+      </c>
+      <c r="B42" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>783</v>
+      </c>
+      <c r="B43" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B44" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>842</v>
+      </c>
+      <c r="B45" t="s">
+        <v>842</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>505</v>
+      </c>
+      <c r="B4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C4" t="s">
+        <v>506</v>
+      </c>
+      <c r="D4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C5" t="s">
+        <v>509</v>
+      </c>
+      <c r="D5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>511</v>
+      </c>
+      <c r="B6" t="s">
+        <v>511</v>
+      </c>
+      <c r="C6" t="s">
+        <v>512</v>
+      </c>
+      <c r="D6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>514</v>
+      </c>
+      <c r="B7" t="s">
+        <v>514</v>
+      </c>
+      <c r="C7" t="s">
+        <v>515</v>
+      </c>
+      <c r="D7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" t="s">
+        <v>517</v>
+      </c>
+      <c r="D8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>519</v>
+      </c>
+      <c r="B9" t="s">
+        <v>519</v>
+      </c>
+      <c r="C9" t="s">
+        <v>520</v>
+      </c>
+      <c r="D9" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>522</v>
+      </c>
+      <c r="B10" t="s">
+        <v>522</v>
+      </c>
+      <c r="C10" t="s">
+        <v>523</v>
+      </c>
+      <c r="D10" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>525</v>
+      </c>
+      <c r="B11" t="s">
+        <v>525</v>
+      </c>
+      <c r="C11" t="s">
+        <v>526</v>
+      </c>
+      <c r="D11" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>528</v>
+      </c>
+      <c r="B12" t="s">
+        <v>528</v>
+      </c>
+      <c r="C12" t="s">
+        <v>529</v>
+      </c>
+      <c r="D12" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>531</v>
+      </c>
+      <c r="B13" t="s">
+        <v>531</v>
+      </c>
+      <c r="C13" t="s">
+        <v>532</v>
+      </c>
+      <c r="D13" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>534</v>
+      </c>
+      <c r="B14" t="s">
+        <v>534</v>
+      </c>
+      <c r="C14" t="s">
+        <v>535</v>
+      </c>
+      <c r="D14" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>537</v>
+      </c>
+      <c r="B15" t="s">
+        <v>537</v>
+      </c>
+      <c r="C15" t="s">
+        <v>538</v>
+      </c>
+      <c r="D15" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>540</v>
+      </c>
+      <c r="B16" t="s">
+        <v>540</v>
+      </c>
+      <c r="C16" t="s">
+        <v>541</v>
+      </c>
+      <c r="D16" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>543</v>
+      </c>
+      <c r="B17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" t="s">
+        <v>517</v>
+      </c>
+      <c r="D17" t="s">
+        <v>518</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E76"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82" customWidth="1"/>
+    <col min="2" max="2" width="95" customWidth="1"/>
+    <col min="3" max="3" width="68.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>976</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>883</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D2" t="s">
+        <v>889</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>888</v>
+      </c>
+      <c r="B3" t="s">
+        <v>888</v>
+      </c>
+      <c r="C3" t="s">
+        <v>857</v>
+      </c>
+      <c r="D3" t="s">
+        <v>889</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>895</v>
+      </c>
+      <c r="B4" t="s">
+        <v>895</v>
+      </c>
+      <c r="C4" t="s">
+        <v>857</v>
+      </c>
+      <c r="D4" t="s">
+        <v>889</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>896</v>
+      </c>
+      <c r="B5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C5" t="s">
+        <v>857</v>
+      </c>
+      <c r="D5" t="s">
+        <v>889</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>899</v>
+      </c>
+      <c r="B6" t="s">
+        <v>899</v>
+      </c>
+      <c r="C6" t="s">
+        <v>857</v>
+      </c>
+      <c r="D6" t="s">
+        <v>889</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>903</v>
+      </c>
+      <c r="B7" t="s">
+        <v>903</v>
+      </c>
+      <c r="C7" t="s">
+        <v>857</v>
+      </c>
+      <c r="D7" t="s">
+        <v>889</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>904</v>
+      </c>
+      <c r="B8" t="s">
+        <v>904</v>
+      </c>
+      <c r="C8" t="s">
+        <v>857</v>
+      </c>
+      <c r="D8" t="s">
+        <v>889</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>905</v>
+      </c>
+      <c r="B9" t="s">
+        <v>906</v>
+      </c>
+      <c r="C9" t="s">
+        <v>857</v>
+      </c>
+      <c r="D9" t="s">
+        <v>889</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>910</v>
+      </c>
+      <c r="B10" t="s">
+        <v>910</v>
+      </c>
+      <c r="C10" t="s">
+        <v>857</v>
+      </c>
+      <c r="D10" t="s">
+        <v>889</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>911</v>
+      </c>
+      <c r="B11" t="s">
+        <v>911</v>
+      </c>
+      <c r="C11" t="s">
+        <v>857</v>
+      </c>
+      <c r="D11" t="s">
+        <v>889</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>912</v>
+      </c>
+      <c r="B12" t="s">
+        <v>912</v>
+      </c>
+      <c r="C12" t="s">
+        <v>857</v>
+      </c>
+      <c r="D12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>913</v>
+      </c>
+      <c r="B13" t="s">
+        <v>913</v>
+      </c>
+      <c r="C13" t="s">
+        <v>857</v>
+      </c>
+      <c r="D13" t="s">
+        <v>889</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>914</v>
+      </c>
+      <c r="B14" t="s">
+        <v>914</v>
+      </c>
+      <c r="C14" t="s">
+        <v>857</v>
+      </c>
+      <c r="D14" t="s">
+        <v>889</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>915</v>
+      </c>
+      <c r="B15" t="s">
+        <v>915</v>
+      </c>
+      <c r="C15" t="s">
+        <v>857</v>
+      </c>
+      <c r="D15" t="s">
+        <v>889</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>916</v>
+      </c>
+      <c r="B16" t="s">
+        <v>916</v>
+      </c>
+      <c r="C16" t="s">
+        <v>857</v>
+      </c>
+      <c r="D16" t="s">
+        <v>889</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>917</v>
+      </c>
+      <c r="B17" t="s">
+        <v>917</v>
+      </c>
+      <c r="C17" t="s">
+        <v>857</v>
+      </c>
+      <c r="D17" t="s">
+        <v>889</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>918</v>
+      </c>
+      <c r="B18" t="s">
+        <v>918</v>
+      </c>
+      <c r="C18" t="s">
+        <v>857</v>
+      </c>
+      <c r="D18" t="s">
+        <v>889</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>919</v>
+      </c>
+      <c r="B19" t="s">
+        <v>919</v>
+      </c>
+      <c r="C19" t="s">
+        <v>857</v>
+      </c>
+      <c r="D19" t="s">
+        <v>889</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>920</v>
+      </c>
+      <c r="B20" t="s">
+        <v>920</v>
+      </c>
+      <c r="C20" t="s">
+        <v>857</v>
+      </c>
+      <c r="D20" t="s">
+        <v>889</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>921</v>
+      </c>
+      <c r="B21" t="s">
+        <v>921</v>
+      </c>
+      <c r="C21" t="s">
+        <v>857</v>
+      </c>
+      <c r="D21" t="s">
+        <v>889</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>953</v>
+      </c>
+      <c r="B22" t="s">
+        <v>953</v>
+      </c>
+      <c r="C22" t="s">
+        <v>954</v>
+      </c>
+      <c r="D22" t="s">
+        <v>889</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>955</v>
+      </c>
+      <c r="B23" t="s">
+        <v>955</v>
+      </c>
+      <c r="C23" t="s">
+        <v>956</v>
+      </c>
+      <c r="D23" t="s">
+        <v>889</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>957</v>
+      </c>
+      <c r="B24" t="s">
+        <v>957</v>
+      </c>
+      <c r="C24" t="s">
+        <v>958</v>
+      </c>
+      <c r="D24" t="s">
+        <v>889</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>959</v>
+      </c>
+      <c r="B25" t="s">
+        <v>959</v>
+      </c>
+      <c r="C25" t="s">
+        <v>960</v>
+      </c>
+      <c r="D25" t="s">
+        <v>889</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>961</v>
+      </c>
+      <c r="B26" t="s">
+        <v>961</v>
+      </c>
+      <c r="C26" t="s">
+        <v>962</v>
+      </c>
+      <c r="D26" t="s">
+        <v>889</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>963</v>
+      </c>
+      <c r="B27" t="s">
+        <v>963</v>
+      </c>
+      <c r="C27" t="s">
+        <v>964</v>
+      </c>
+      <c r="D27" t="s">
+        <v>889</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>965</v>
+      </c>
+      <c r="B28" t="s">
+        <v>965</v>
+      </c>
+      <c r="C28" t="s">
+        <v>966</v>
+      </c>
+      <c r="D28" t="s">
+        <v>889</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>967</v>
+      </c>
+      <c r="B29" t="s">
+        <v>967</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>968</v>
+      </c>
+      <c r="D29" t="s">
+        <v>889</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>969</v>
+      </c>
+      <c r="B30" t="s">
+        <v>969</v>
+      </c>
+      <c r="C30" t="s">
+        <v>970</v>
+      </c>
+      <c r="D30" t="s">
+        <v>889</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>971</v>
+      </c>
+      <c r="B31" t="s">
+        <v>971</v>
+      </c>
+      <c r="C31" t="s">
+        <v>972</v>
+      </c>
+      <c r="D31" t="s">
+        <v>889</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>936</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D32" t="s">
+        <v>889</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>973</v>
+      </c>
+      <c r="B33" t="s">
+        <v>973</v>
+      </c>
+      <c r="C33" t="s">
+        <v>937</v>
+      </c>
+      <c r="D33" t="s">
+        <v>889</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>974</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C34" t="s">
+        <v>937</v>
+      </c>
+      <c r="D34" t="s">
+        <v>889</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>922</v>
+      </c>
+      <c r="B35" t="s">
+        <v>922</v>
+      </c>
+      <c r="C35" t="s">
+        <v>857</v>
+      </c>
+      <c r="D35" t="s">
+        <v>889</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>923</v>
+      </c>
+      <c r="B36" t="s">
+        <v>923</v>
+      </c>
+      <c r="C36" t="s">
+        <v>857</v>
+      </c>
+      <c r="D36" t="s">
+        <v>889</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>924</v>
+      </c>
+      <c r="B37" t="s">
+        <v>924</v>
+      </c>
+      <c r="C37" t="s">
+        <v>857</v>
+      </c>
+      <c r="D37" t="s">
+        <v>889</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>925</v>
+      </c>
+      <c r="B38" t="s">
+        <v>925</v>
+      </c>
+      <c r="C38" t="s">
+        <v>857</v>
+      </c>
+      <c r="D38" t="s">
+        <v>889</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>926</v>
+      </c>
+      <c r="B39" t="s">
+        <v>926</v>
+      </c>
+      <c r="C39" t="s">
+        <v>857</v>
+      </c>
+      <c r="D39" t="s">
+        <v>889</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>927</v>
+      </c>
+      <c r="B40" t="s">
+        <v>927</v>
+      </c>
+      <c r="C40" t="s">
+        <v>857</v>
+      </c>
+      <c r="D40" t="s">
+        <v>889</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>887</v>
+      </c>
+      <c r="B41" t="s">
+        <v>887</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D41" t="s">
+        <v>889</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>890</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D42" t="s">
+        <v>889</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>891</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D43" t="s">
+        <v>889</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>892</v>
+      </c>
+      <c r="B44" t="s">
+        <v>884</v>
+      </c>
+      <c r="C44" t="s">
+        <v>885</v>
+      </c>
+      <c r="D44" t="s">
+        <v>886</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>893</v>
+      </c>
+      <c r="B45" t="s">
+        <v>884</v>
+      </c>
+      <c r="C45" t="s">
+        <v>885</v>
+      </c>
+      <c r="D45" t="s">
+        <v>886</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>894</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D46" t="s">
+        <v>889</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>898</v>
+      </c>
+      <c r="B47" t="s">
+        <v>898</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D47" t="s">
+        <v>889</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>900</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D48" t="s">
+        <v>889</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>901</v>
+      </c>
+      <c r="B49" t="s">
+        <v>884</v>
+      </c>
+      <c r="C49" t="s">
+        <v>885</v>
+      </c>
+      <c r="D49" t="s">
+        <v>886</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>902</v>
+      </c>
+      <c r="B50" t="s">
+        <v>902</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D50" t="s">
+        <v>889</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>907</v>
+      </c>
+      <c r="B51" t="s">
+        <v>884</v>
+      </c>
+      <c r="C51" t="s">
+        <v>885</v>
+      </c>
+      <c r="D51" t="s">
+        <v>886</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>908</v>
+      </c>
+      <c r="B52" t="s">
+        <v>908</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D52" t="s">
+        <v>889</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>909</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D53" t="s">
+        <v>889</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>928</v>
+      </c>
+      <c r="B54" t="s">
+        <v>928</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D54" t="s">
+        <v>889</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>929</v>
+      </c>
+      <c r="B55" t="s">
+        <v>884</v>
+      </c>
+      <c r="C55" t="s">
+        <v>885</v>
+      </c>
+      <c r="D55" t="s">
+        <v>886</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>930</v>
+      </c>
+      <c r="B56" t="s">
+        <v>930</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D56" t="s">
+        <v>889</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>931</v>
+      </c>
+      <c r="B57" t="s">
+        <v>931</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D57" t="s">
+        <v>889</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>941</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D58" t="s">
+        <v>889</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>942</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D59" t="s">
+        <v>889</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>943</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D60" t="s">
+        <v>889</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>944</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D61" t="s">
+        <v>889</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>945</v>
+      </c>
+      <c r="B62" t="s">
+        <v>945</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D62" t="s">
+        <v>889</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>946</v>
+      </c>
+      <c r="B63" t="s">
+        <v>884</v>
+      </c>
+      <c r="C63" t="s">
+        <v>885</v>
+      </c>
+      <c r="D63" t="s">
+        <v>886</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>947</v>
+      </c>
+      <c r="B64" t="s">
+        <v>947</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D64" t="s">
+        <v>889</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>949</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D65" t="s">
+        <v>889</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>950</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D66" t="s">
+        <v>889</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>975</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D67" t="s">
+        <v>889</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>932</v>
+      </c>
+      <c r="B68" t="s">
+        <v>932</v>
+      </c>
+      <c r="C68" t="s">
+        <v>857</v>
+      </c>
+      <c r="D68" t="s">
+        <v>889</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>933</v>
+      </c>
+      <c r="B69" t="s">
+        <v>933</v>
+      </c>
+      <c r="C69" t="s">
+        <v>857</v>
+      </c>
+      <c r="D69" t="s">
+        <v>889</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>934</v>
+      </c>
+      <c r="B70" t="s">
+        <v>934</v>
+      </c>
+      <c r="C70" t="s">
+        <v>857</v>
+      </c>
+      <c r="D70" t="s">
+        <v>889</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>935</v>
+      </c>
+      <c r="B71" t="s">
+        <v>935</v>
+      </c>
+      <c r="C71" t="s">
+        <v>857</v>
+      </c>
+      <c r="D71" t="s">
+        <v>889</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>938</v>
+      </c>
+      <c r="B72" t="s">
+        <v>938</v>
+      </c>
+      <c r="C72" t="s">
+        <v>857</v>
+      </c>
+      <c r="D72" t="s">
+        <v>889</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>939</v>
+      </c>
+      <c r="B73" t="s">
+        <v>940</v>
+      </c>
+      <c r="C73" t="s">
+        <v>857</v>
+      </c>
+      <c r="D73" t="s">
+        <v>889</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>948</v>
+      </c>
+      <c r="B74" t="s">
+        <v>948</v>
+      </c>
+      <c r="C74" t="s">
+        <v>857</v>
+      </c>
+      <c r="D74" t="s">
+        <v>889</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>951</v>
+      </c>
+      <c r="B75" t="s">
+        <v>951</v>
+      </c>
+      <c r="C75" t="s">
+        <v>857</v>
+      </c>
+      <c r="D75" t="s">
+        <v>889</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>952</v>
+      </c>
+      <c r="B76" t="s">
+        <v>952</v>
+      </c>
+      <c r="C76" t="s">
+        <v>857</v>
+      </c>
+      <c r="D76" t="s">
+        <v>889</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A3:D76">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="C42" r:id="rId1"/>
+    <hyperlink ref="C67" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -15021,7 +16895,7 @@
         <v>546</v>
       </c>
       <c r="B2" t="s">
-        <v>1007</v>
+        <v>994</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -15029,7 +16903,7 @@
         <v>547</v>
       </c>
       <c r="B3" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -15045,7 +16919,7 @@
         <v>550</v>
       </c>
       <c r="B5" t="s">
-        <v>1009</v>
+        <v>996</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -15053,7 +16927,7 @@
         <v>551</v>
       </c>
       <c r="B6" t="s">
-        <v>1007</v>
+        <v>994</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -15069,7 +16943,7 @@
         <v>552</v>
       </c>
       <c r="B8" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -15077,7 +16951,7 @@
         <v>548</v>
       </c>
       <c r="B9" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -15109,7 +16983,7 @@
         <v>3401</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -15117,20 +16991,20 @@
         <v>4326</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>1002</v>
+        <v>989</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>1003</v>
+        <v>990</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>1011</v>
+        <v>998</v>
       </c>
       <c r="B16" t="s">
         <v>553</v>
@@ -15138,10 +17012,10 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>1013</v>
+        <v>1000</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>1014</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -15158,7 +17032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -15227,7 +17101,7 @@
         <v>563</v>
       </c>
       <c r="D4" t="s">
-        <v>1006</v>
+        <v>993</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -15277,7 +17151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -15589,7 +17463,7 @@
     </row>
     <row r="22" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>232</v>
@@ -15603,7 +17477,7 @@
     </row>
     <row r="23" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>229</v>
@@ -15617,7 +17491,7 @@
     </row>
     <row r="24" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>221</v>
@@ -15631,7 +17505,7 @@
     </row>
     <row r="25" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>232</v>
@@ -15645,7 +17519,7 @@
     </row>
     <row r="26" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>229</v>
@@ -15659,7 +17533,7 @@
     </row>
     <row r="27" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>226</v>
@@ -15673,7 +17547,7 @@
     </row>
     <row r="28" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>226</v>
@@ -15690,7 +17564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B139"/>
   <sheetViews>
@@ -15706,7 +17580,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
@@ -15714,7 +17588,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>564</v>
@@ -15722,7 +17596,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>564</v>
@@ -15730,7 +17604,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1027</v>
+        <v>1014</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>564</v>
@@ -15738,7 +17612,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1028</v>
+        <v>1015</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>564</v>
@@ -15746,7 +17620,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>9</v>
@@ -15754,7 +17628,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>564</v>
@@ -15762,7 +17636,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>564</v>
@@ -15770,7 +17644,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>564</v>
@@ -15778,7 +17652,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1033</v>
+        <v>1020</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>564</v>
@@ -15786,7 +17660,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1034</v>
+        <v>1021</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>564</v>
@@ -15794,7 +17668,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>564</v>
@@ -15802,7 +17676,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1036</v>
+        <v>1023</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>564</v>
@@ -15810,7 +17684,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1037</v>
+        <v>1024</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>564</v>
@@ -15818,7 +17692,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>564</v>
@@ -15826,7 +17700,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1039</v>
+        <v>1026</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>564</v>
@@ -15834,7 +17708,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1069</v>
+        <v>1056</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>9</v>
@@ -15842,7 +17716,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1070</v>
+        <v>1057</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>9</v>
@@ -15850,7 +17724,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1071</v>
+        <v>1058</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>9</v>
@@ -15858,7 +17732,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1072</v>
+        <v>1059</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>9</v>
@@ -15866,7 +17740,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>9</v>
@@ -15874,7 +17748,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1074</v>
+        <v>1061</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>9</v>
@@ -15882,7 +17756,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1075</v>
+        <v>1062</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>9</v>
@@ -15890,7 +17764,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1076</v>
+        <v>1063</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>9</v>
@@ -15898,7 +17772,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1077</v>
+        <v>1064</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>9</v>
@@ -15906,7 +17780,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>9</v>
@@ -15914,7 +17788,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>9</v>
@@ -15922,7 +17796,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1080</v>
+        <v>1067</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>9</v>
@@ -15930,7 +17804,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1081</v>
+        <v>1068</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>9</v>
@@ -15938,7 +17812,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1082</v>
+        <v>1069</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>9</v>
@@ -15946,7 +17820,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1083</v>
+        <v>1070</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>9</v>
@@ -15954,7 +17828,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1084</v>
+        <v>1071</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>9</v>
@@ -15962,7 +17836,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1085</v>
+        <v>1072</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>9</v>
@@ -15970,7 +17844,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1086</v>
+        <v>1073</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>567</v>
@@ -15978,7 +17852,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1087</v>
+        <v>1074</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>9</v>
@@ -15986,7 +17860,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1088</v>
+        <v>1075</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>9</v>
@@ -15994,7 +17868,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1089</v>
+        <v>1076</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>9</v>
@@ -16002,7 +17876,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1090</v>
+        <v>1077</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>9</v>
@@ -16010,7 +17884,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1091</v>
+        <v>1078</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>9</v>
@@ -16018,7 +17892,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1092</v>
+        <v>1079</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>9</v>
@@ -16026,7 +17900,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1093</v>
+        <v>1080</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>9</v>
@@ -16034,7 +17908,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1094</v>
+        <v>1081</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>9</v>
@@ -16042,7 +17916,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1095</v>
+        <v>1082</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>9</v>
@@ -16050,7 +17924,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1096</v>
+        <v>1083</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>9</v>
@@ -16058,7 +17932,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1097</v>
+        <v>1084</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>9</v>
@@ -16066,7 +17940,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1098</v>
+        <v>1085</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>9</v>
@@ -16074,7 +17948,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1099</v>
+        <v>1086</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>9</v>
@@ -16082,7 +17956,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1100</v>
+        <v>1087</v>
       </c>
       <c r="B48" s="13" t="s">
         <v>9</v>
@@ -16090,7 +17964,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1101</v>
+        <v>1088</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>9</v>
@@ -16098,7 +17972,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1102</v>
+        <v>1089</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>9</v>
@@ -16106,7 +17980,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>9</v>
@@ -16114,7 +17988,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1104</v>
+        <v>1091</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>9</v>
@@ -16122,7 +17996,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1105</v>
+        <v>1092</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>9</v>
@@ -16130,7 +18004,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1106</v>
+        <v>1093</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>9</v>
@@ -16138,7 +18012,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1107</v>
+        <v>1094</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>9</v>
@@ -16146,7 +18020,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1108</v>
+        <v>1095</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>9</v>
@@ -16154,7 +18028,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1109</v>
+        <v>1096</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>9</v>
@@ -16162,7 +18036,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1110</v>
+        <v>1097</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>9</v>
@@ -16170,7 +18044,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1111</v>
+        <v>1098</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>9</v>
@@ -16178,7 +18052,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1112</v>
+        <v>1099</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>9</v>
@@ -16186,7 +18060,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1113</v>
+        <v>1100</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>9</v>
@@ -16194,7 +18068,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1114</v>
+        <v>1101</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>9</v>
@@ -16202,7 +18076,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1115</v>
+        <v>1102</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>9</v>
@@ -16210,7 +18084,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1116</v>
+        <v>1103</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>9</v>
@@ -16218,7 +18092,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1117</v>
+        <v>1104</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>9</v>
@@ -16226,7 +18100,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1118</v>
+        <v>1105</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>9</v>
@@ -16234,7 +18108,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1119</v>
+        <v>1106</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>9</v>
@@ -16242,7 +18116,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1120</v>
+        <v>1107</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>9</v>
@@ -16250,7 +18124,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1121</v>
+        <v>1108</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>9</v>
@@ -16258,7 +18132,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1122</v>
+        <v>1109</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>9</v>
@@ -16266,7 +18140,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1123</v>
+        <v>1110</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>9</v>
@@ -16274,7 +18148,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1124</v>
+        <v>1111</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>9</v>
@@ -16282,7 +18156,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1125</v>
+        <v>1112</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>9</v>
@@ -16290,7 +18164,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1126</v>
+        <v>1113</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>9</v>
@@ -16298,7 +18172,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1127</v>
+        <v>1114</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>9</v>
@@ -16306,7 +18180,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1128</v>
+        <v>1115</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>9</v>
@@ -16314,7 +18188,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1129</v>
+        <v>1116</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>9</v>
@@ -16322,7 +18196,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1130</v>
+        <v>1117</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>9</v>
@@ -16330,7 +18204,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1131</v>
+        <v>1118</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>9</v>
@@ -16338,7 +18212,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1132</v>
+        <v>1119</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>9</v>
@@ -16346,7 +18220,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1133</v>
+        <v>1120</v>
       </c>
       <c r="B81" s="13" t="s">
         <v>9</v>
@@ -16354,7 +18228,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1134</v>
+        <v>1121</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>564</v>
@@ -16362,7 +18236,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1135</v>
+        <v>1122</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>9</v>
@@ -16370,7 +18244,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1136</v>
+        <v>1123</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>9</v>
@@ -16378,7 +18252,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1137</v>
+        <v>1124</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>9</v>
@@ -16386,7 +18260,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1138</v>
+        <v>1125</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>9</v>
@@ -16394,7 +18268,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1139</v>
+        <v>1126</v>
       </c>
       <c r="B87" s="13" t="s">
         <v>9</v>
@@ -16402,7 +18276,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1140</v>
+        <v>1127</v>
       </c>
       <c r="B88" s="13" t="s">
         <v>9</v>
@@ -16410,7 +18284,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1141</v>
+        <v>1128</v>
       </c>
       <c r="B89" s="13" t="s">
         <v>9</v>
@@ -16418,7 +18292,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1142</v>
+        <v>1129</v>
       </c>
       <c r="B90" s="13" t="s">
         <v>9</v>
@@ -16426,7 +18300,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1143</v>
+        <v>1130</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>9</v>
@@ -16434,7 +18308,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1144</v>
+        <v>1131</v>
       </c>
       <c r="B92" s="13" t="s">
         <v>9</v>
@@ -16442,7 +18316,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1145</v>
+        <v>1132</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>9</v>
@@ -16450,7 +18324,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1146</v>
+        <v>1133</v>
       </c>
       <c r="B94" s="13" t="s">
         <v>9</v>
@@ -16458,7 +18332,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1147</v>
+        <v>1134</v>
       </c>
       <c r="B95" s="13" t="s">
         <v>9</v>
@@ -16466,7 +18340,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1148</v>
+        <v>1135</v>
       </c>
       <c r="B96" s="13" t="s">
         <v>9</v>
@@ -16474,7 +18348,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1149</v>
+        <v>1136</v>
       </c>
       <c r="B97" s="13" t="s">
         <v>9</v>
@@ -16482,7 +18356,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1150</v>
+        <v>1137</v>
       </c>
       <c r="B98" s="13" t="s">
         <v>9</v>
@@ -16490,7 +18364,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1151</v>
+        <v>1138</v>
       </c>
       <c r="B99" s="13" t="s">
         <v>9</v>
@@ -16498,7 +18372,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1152</v>
+        <v>1139</v>
       </c>
       <c r="B100" s="13" t="s">
         <v>9</v>
@@ -16506,7 +18380,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1153</v>
+        <v>1140</v>
       </c>
       <c r="B101" s="13" t="s">
         <v>9</v>
@@ -16514,7 +18388,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1154</v>
+        <v>1141</v>
       </c>
       <c r="B102" s="13" t="s">
         <v>9</v>
@@ -16522,7 +18396,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1155</v>
+        <v>1142</v>
       </c>
       <c r="B103" s="13" t="s">
         <v>9</v>
@@ -16530,7 +18404,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1156</v>
+        <v>1143</v>
       </c>
       <c r="B104" s="13" t="s">
         <v>9</v>
@@ -16538,7 +18412,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1157</v>
+        <v>1144</v>
       </c>
       <c r="B105" s="13" t="s">
         <v>9</v>
@@ -16546,7 +18420,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1158</v>
+        <v>1145</v>
       </c>
       <c r="B106" s="13" t="s">
         <v>9</v>
@@ -16554,7 +18428,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1159</v>
+        <v>1146</v>
       </c>
       <c r="B107" s="13" t="s">
         <v>9</v>
@@ -16562,7 +18436,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1160</v>
+        <v>1147</v>
       </c>
       <c r="B108" s="13" t="s">
         <v>9</v>
@@ -16570,7 +18444,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1161</v>
+        <v>1148</v>
       </c>
       <c r="B109" s="13" t="s">
         <v>9</v>
@@ -16578,7 +18452,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1162</v>
+        <v>1149</v>
       </c>
       <c r="B110" s="13" t="s">
         <v>9</v>
@@ -16586,7 +18460,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1163</v>
+        <v>1150</v>
       </c>
       <c r="B111" s="13" t="s">
         <v>9</v>
@@ -16594,7 +18468,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1164</v>
+        <v>1151</v>
       </c>
       <c r="B112" s="13" t="s">
         <v>9</v>
@@ -16602,7 +18476,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1165</v>
+        <v>1152</v>
       </c>
       <c r="B113" s="13" t="s">
         <v>9</v>
@@ -16610,7 +18484,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1166</v>
+        <v>1153</v>
       </c>
       <c r="B114" s="13" t="s">
         <v>9</v>
@@ -16618,7 +18492,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1167</v>
+        <v>1154</v>
       </c>
       <c r="B115" s="13" t="s">
         <v>9</v>
@@ -16626,7 +18500,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1168</v>
+        <v>1155</v>
       </c>
       <c r="B116" s="13" t="s">
         <v>9</v>
@@ -16634,7 +18508,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1169</v>
+        <v>1156</v>
       </c>
       <c r="B117" s="13" t="s">
         <v>9</v>
@@ -16642,7 +18516,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1170</v>
+        <v>1157</v>
       </c>
       <c r="B118" s="13" t="s">
         <v>9</v>
@@ -16650,7 +18524,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1171</v>
+        <v>1158</v>
       </c>
       <c r="B119" s="13" t="s">
         <v>9</v>
@@ -16658,7 +18532,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1172</v>
+        <v>1159</v>
       </c>
       <c r="B120" s="13" t="s">
         <v>9</v>
@@ -16666,7 +18540,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1173</v>
+        <v>1160</v>
       </c>
       <c r="B121" s="13" t="s">
         <v>9</v>
@@ -16674,7 +18548,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1174</v>
+        <v>1161</v>
       </c>
       <c r="B122" s="13" t="s">
         <v>9</v>
@@ -16682,7 +18556,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1175</v>
+        <v>1162</v>
       </c>
       <c r="B123" s="13" t="s">
         <v>9</v>
@@ -16690,7 +18564,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1176</v>
+        <v>1163</v>
       </c>
       <c r="B124" s="13" t="s">
         <v>9</v>
@@ -16698,7 +18572,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1177</v>
+        <v>1164</v>
       </c>
       <c r="B125" s="13" t="s">
         <v>9</v>
@@ -16706,7 +18580,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1178</v>
+        <v>1165</v>
       </c>
       <c r="B126" s="13" t="s">
         <v>9</v>
@@ -16714,7 +18588,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1179</v>
+        <v>1166</v>
       </c>
       <c r="B127" s="13" t="s">
         <v>9</v>
@@ -16722,7 +18596,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1180</v>
+        <v>1167</v>
       </c>
       <c r="B128" s="13" t="s">
         <v>9</v>
@@ -16730,7 +18604,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="B129" s="13" t="s">
         <v>9</v>
@@ -16738,7 +18612,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1182</v>
+        <v>1169</v>
       </c>
       <c r="B130" s="13" t="s">
         <v>9</v>
@@ -16746,7 +18620,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1183</v>
+        <v>1170</v>
       </c>
       <c r="B131" s="13" t="s">
         <v>9</v>
@@ -16754,7 +18628,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1184</v>
+        <v>1171</v>
       </c>
       <c r="B132" s="13" t="s">
         <v>9</v>
@@ -16762,7 +18636,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1185</v>
+        <v>1172</v>
       </c>
       <c r="B133" s="13" t="s">
         <v>564</v>
@@ -16770,7 +18644,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1186</v>
+        <v>1173</v>
       </c>
       <c r="B134" s="13" t="s">
         <v>9</v>
@@ -16778,7 +18652,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>1187</v>
+        <v>1174</v>
       </c>
       <c r="B135" s="13" t="s">
         <v>9</v>
@@ -16786,7 +18660,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1188</v>
+        <v>1175</v>
       </c>
       <c r="B136" s="13" t="s">
         <v>9</v>
@@ -16794,7 +18668,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1189</v>
+        <v>1176</v>
       </c>
       <c r="B137" s="13" t="s">
         <v>9</v>
@@ -16802,7 +18676,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1190</v>
+        <v>1177</v>
       </c>
       <c r="B138" s="13" t="s">
         <v>9</v>
@@ -16810,7 +18684,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>1191</v>
+        <v>1178</v>
       </c>
       <c r="B139" s="13" t="s">
         <v>9</v>
@@ -16821,7 +18695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -16837,7 +18711,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
@@ -16845,7 +18719,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1055</v>
+        <v>1042</v>
       </c>
       <c r="B2" t="s">
         <v>564</v>
@@ -16853,7 +18727,7 @@
     </row>
     <row r="3" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>1064</v>
+        <v>1051</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>564</v>
@@ -16861,7 +18735,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1001</v>
+        <v>988</v>
       </c>
       <c r="B4" t="s">
         <v>564</v>
@@ -16869,7 +18743,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
       <c r="B5" t="s">
         <v>567</v>
@@ -16877,7 +18751,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1059</v>
+        <v>1046</v>
       </c>
       <c r="B6" t="s">
         <v>564</v>
@@ -16885,7 +18759,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1060</v>
+        <v>1047</v>
       </c>
       <c r="B7" t="s">
         <v>567</v>
@@ -16893,7 +18767,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1000</v>
+        <v>987</v>
       </c>
       <c r="B8" t="s">
         <v>567</v>
@@ -16901,7 +18775,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>997</v>
+        <v>984</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -16909,7 +18783,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1057</v>
+        <v>1044</v>
       </c>
       <c r="B10" t="s">
         <v>567</v>
@@ -16917,7 +18791,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="B11" t="s">
         <v>567</v>
@@ -16925,7 +18799,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1063</v>
+        <v>1050</v>
       </c>
       <c r="B12" t="s">
         <v>567</v>
@@ -16933,7 +18807,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>999</v>
+        <v>986</v>
       </c>
       <c r="B13" t="s">
         <v>567</v>
@@ -16941,7 +18815,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>996</v>
+        <v>983</v>
       </c>
       <c r="B14" t="s">
         <v>564</v>
@@ -16949,7 +18823,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>1061</v>
+        <v>1048</v>
       </c>
       <c r="B15" t="s">
         <v>564</v>
@@ -16957,7 +18831,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1058</v>
+        <v>1045</v>
       </c>
       <c r="B16" t="s">
         <v>564</v>
@@ -16965,7 +18839,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="B17" t="s">
         <v>567</v>
@@ -16973,7 +18847,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1066</v>
+        <v>1053</v>
       </c>
       <c r="B18" t="s">
         <v>564</v>
@@ -16981,7 +18855,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1067</v>
+        <v>1054</v>
       </c>
       <c r="B19" t="s">
         <v>564</v>
@@ -16989,7 +18863,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1065</v>
+        <v>1052</v>
       </c>
       <c r="B20" t="s">
         <v>564</v>
@@ -16997,7 +18871,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="B21" t="s">
         <v>567</v>
@@ -17159,7 +19033,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
@@ -17948,7 +19822,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
@@ -17995,7 +19869,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C7" t="s">
         <v>74</v>
@@ -18017,7 +19891,7 @@
         <v>90</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C9" t="s">
         <v>74</v>
@@ -18028,7 +19902,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C10" t="s">
         <v>74</v>
@@ -18050,7 +19924,7 @@
         <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C12" t="s">
         <v>74</v>
@@ -18292,7 +20166,7 @@
         <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -18413,7 +20287,7 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C45" t="s">
         <v>74</v>
@@ -18523,7 +20397,7 @@
         <v>136</v>
       </c>
       <c r="B55" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C55" t="s">
         <v>131</v>
@@ -18644,7 +20518,7 @@
         <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C66" t="s">
         <v>74</v>
@@ -18721,7 +20595,7 @@
         <v>109</v>
       </c>
       <c r="B73" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C73" t="s">
         <v>111</v>
@@ -18743,7 +20617,7 @@
         <v>44</v>
       </c>
       <c r="B75" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C75" t="s">
         <v>41</v>
@@ -18765,7 +20639,7 @@
         <v>122</v>
       </c>
       <c r="B77" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C77" t="s">
         <v>121</v>
@@ -18776,7 +20650,7 @@
         <v>119</v>
       </c>
       <c r="B78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C78" t="s">
         <v>121</v>
@@ -18787,7 +20661,7 @@
         <v>124</v>
       </c>
       <c r="B79" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C79" t="s">
         <v>121</v>
@@ -18846,7 +20720,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B2">
         <v>-73.73</v>
@@ -18863,7 +20737,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B3">
         <v>-75.33</v>
@@ -18880,7 +20754,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B4">
         <v>-73.510000000000005</v>
@@ -18897,7 +20771,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B5">
         <v>-73.33</v>
@@ -18914,7 +20788,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B6">
         <v>-73.459999999999994</v>
@@ -18931,7 +20805,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B7">
         <v>-57</v>
@@ -18948,7 +20822,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B8">
         <v>-71.12</v>
@@ -18965,7 +20839,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B9">
         <v>-73.27</v>
@@ -18982,7 +20856,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B10">
         <v>-67.94</v>
@@ -18999,7 +20873,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B11">
         <v>-78.2</v>
@@ -19016,7 +20890,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B12">
         <v>-72.53</v>
@@ -19033,7 +20907,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B13">
         <v>-71.790000000000006</v>
@@ -19050,7 +20924,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B14">
         <v>-57</v>
@@ -19270,7 +21144,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>1236</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -19596,7 +21470,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>1236</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -19686,15 +21560,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -19726,12 +21601,12 @@
         <v>28</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>1237</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>19</v>
@@ -19739,7 +21614,7 @@
     </row>
     <row r="6" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>19</v>
@@ -19747,7 +21622,7 @@
     </row>
     <row r="7" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>530</v>
@@ -19755,7 +21630,7 @@
     </row>
     <row r="8" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>528</v>
@@ -19763,7 +21638,7 @@
     </row>
     <row r="9" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>529</v>
@@ -19806,7 +21681,7 @@
         <v>43</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -19851,10 +21726,10 @@
     </row>
     <row r="20" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>792</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -19862,7 +21737,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>790</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -19878,7 +21753,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>994</v>
+        <v>981</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -19886,7 +21761,7 @@
         <v>786</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -19922,8 +21797,100 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
+      <c r="A29" s="7" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B36" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1251</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A1:B48">

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\PT_Harvester\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\PT_Harvester\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="21" activeTab="29"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Codespace" sheetId="12" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4864" uniqueCount="1440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4944" uniqueCount="1440">
   <si>
     <t>default_key</t>
   </si>
@@ -4383,7 +4383,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4884,7 +4884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>28</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>30</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>6</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>1368</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>43</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="270" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>728</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>732</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>725</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>1372</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>2</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>4</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>12</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>14</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>24</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>1377</v>
       </c>
@@ -18504,8 +18504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C80" sqref="C1:C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19403,7 +19403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -21278,10 +21278,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21290,644 +21290,884 @@
     <col min="2" max="2" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>1221</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>61</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>62</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>65</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>66</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>67</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>68</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>69</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>70</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>71</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>72</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>76</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>77</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>79</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>81</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>82</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
         <v>84</v>
       </c>
       <c r="B40" s="20" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>86</v>
       </c>
       <c r="B41" s="20" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>88</v>
       </c>
       <c r="B42" s="20" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>90</v>
       </c>
       <c r="B43" s="20" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B44" s="20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>105</v>
       </c>
       <c r="B45" s="20" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>30</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>109</v>
       </c>
       <c r="B47" s="20" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>112</v>
       </c>
       <c r="B48" s="20" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B49" s="20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>114</v>
       </c>
       <c r="B50" s="20" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B51" s="20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B52" s="20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>119</v>
       </c>
       <c r="B53" s="20" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>122</v>
       </c>
       <c r="B54" s="20" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>124</v>
       </c>
       <c r="B55" s="20" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>126</v>
       </c>
       <c r="B56" s="20" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
         <v>129</v>
       </c>
       <c r="B57" s="20" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
         <v>132</v>
       </c>
       <c r="B58" s="20" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
         <v>134</v>
       </c>
       <c r="B59" s="20" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
         <v>136</v>
       </c>
       <c r="B60" s="20" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
         <v>138</v>
       </c>
       <c r="B61" s="20" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
         <v>140</v>
       </c>
       <c r="B62" s="20" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
         <v>141</v>
       </c>
       <c r="B63" s="20" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
         <v>143</v>
       </c>
       <c r="B64" s="20" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
         <v>145</v>
       </c>
       <c r="B65" s="20" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
         <v>147</v>
       </c>
       <c r="B66" s="20" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
         <v>149</v>
       </c>
       <c r="B67" s="20" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B68" s="20" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
         <v>725</v>
       </c>
       <c r="B69" s="20" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
         <v>726</v>
       </c>
       <c r="B70" s="20" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
         <v>727</v>
       </c>
       <c r="B71" s="20" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="20" t="s">
         <v>729</v>
       </c>
       <c r="B72" s="20" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
         <v>731</v>
       </c>
       <c r="B73" s="20" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="20" t="s">
         <v>91</v>
       </c>
       <c r="B74" s="20" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
         <v>93</v>
       </c>
       <c r="B75" s="20" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
         <v>95</v>
       </c>
       <c r="B76" s="20" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
         <v>97</v>
       </c>
       <c r="B77" s="20" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="s">
         <v>101</v>
       </c>
       <c r="B78" s="20" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
         <v>739</v>
       </c>
       <c r="B79" s="20" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
         <v>103</v>
       </c>
       <c r="B80" s="20" t="s">
         <v>104</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="16" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="Codespace" sheetId="12" r:id="rId1"/>
@@ -38,13 +38,14 @@
     <sheet name="Sector_ON" sheetId="35" r:id="rId24"/>
     <sheet name="Sector_QC" sheetId="22" r:id="rId25"/>
     <sheet name="Spatial_ON" sheetId="36" r:id="rId26"/>
-    <sheet name="SpatialRef" sheetId="13" r:id="rId27"/>
-    <sheet name="SpatialRepresentation" sheetId="14" r:id="rId28"/>
-    <sheet name="SubjectNTopic_TBS_QC" sheetId="30" r:id="rId29"/>
-    <sheet name="Update" sheetId="6" r:id="rId30"/>
-    <sheet name="UpdateFrequency_TBS_QC" sheetId="29" r:id="rId31"/>
-    <sheet name="UUID_Spatial_BC" sheetId="26" r:id="rId32"/>
-    <sheet name="UUID_Spatial_QC" sheetId="24" r:id="rId33"/>
+    <sheet name="SpatialRep_API_ON" sheetId="37" r:id="rId27"/>
+    <sheet name="SpatialRef" sheetId="13" r:id="rId28"/>
+    <sheet name="SpatialRepresentation" sheetId="14" r:id="rId29"/>
+    <sheet name="SubjectNTopic_TBS_QC" sheetId="30" r:id="rId30"/>
+    <sheet name="Update" sheetId="6" r:id="rId31"/>
+    <sheet name="UpdateFrequency_TBS_QC" sheetId="29" r:id="rId32"/>
+    <sheet name="UUID_Spatial_BC" sheetId="26" r:id="rId33"/>
+    <sheet name="UUID_Spatial_QC" sheetId="24" r:id="rId34"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4944" uniqueCount="1440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5044" uniqueCount="1483">
   <si>
     <t>default_key</t>
   </si>
@@ -4191,9 +4192,6 @@
     <t>Licence du gouvernement ouvert - Ontario (https://www.ontario.ca/fr/page/licence-du-gouvernement-ouvert-ontario)</t>
   </si>
   <si>
-    <t>updateList{0}.resource_update_cycle</t>
-  </si>
-  <si>
     <t>tags_value</t>
   </si>
   <si>
@@ -4378,6 +4376,138 @@
   </si>
   <si>
     <t>south nation lidar</t>
+  </si>
+  <si>
+    <t>as_required</t>
+  </si>
+  <si>
+    <t>yearly</t>
+  </si>
+  <si>
+    <t>periodically</t>
+  </si>
+  <si>
+    <t>historical</t>
+  </si>
+  <si>
+    <t>f4112442-bdc8-45d2-be3c-12efae72fb27</t>
+  </si>
+  <si>
+    <t>3ca4505b-091c-4b04-89e8-c316ffaa0d9e</t>
+  </si>
+  <si>
+    <t>8ba078b2-ca9b-44c1-b5db-9674d85421f9</t>
+  </si>
+  <si>
+    <t>7ca6d449-3d69-462f-a04d-773fb2bca16b</t>
+  </si>
+  <si>
+    <t>d540922b-2136-4616-b1f0-cc228389ede1</t>
+  </si>
+  <si>
+    <t>b575c16e-becc-445a-8263-ffbc72d33c20</t>
+  </si>
+  <si>
+    <t>7da4ce6d-4c7a-4eee-8206-3062c4e750f3</t>
+  </si>
+  <si>
+    <t>88591622-4001-456a-adfb-cfa34dbc9004</t>
+  </si>
+  <si>
+    <t>da278386-f1d2-4b27-b57e-8d44080f775a</t>
+  </si>
+  <si>
+    <t>9485d74f-7711-41f2-b8fc-3822417de022</t>
+  </si>
+  <si>
+    <t>423655e0-2bb8-4dc2-a1ec-6d7b25915d18</t>
+  </si>
+  <si>
+    <t>17bfc1bb-4849-4615-83a4-f7bd1dd21fd2</t>
+  </si>
+  <si>
+    <t>967a942d-9397-4e7c-8f42-77fc422c0a37</t>
+  </si>
+  <si>
+    <t>67ccebe5-01ab-4a06-a615-0c825595f9cb</t>
+  </si>
+  <si>
+    <t>26744b3c-f395-46d2-be83-7bee36d45419</t>
+  </si>
+  <si>
+    <t>9a98fb7a-6002-431c-9855-1180a256cc4f</t>
+  </si>
+  <si>
+    <t>d12f5685-8ed9-486e-97de-7a0ab72ef56d</t>
+  </si>
+  <si>
+    <t>f54738c0-7639-411c-b38b-a579dbc1353e</t>
+  </si>
+  <si>
+    <t>6bb1b2cd-930f-4123-9f03-34ff8c4dab5c</t>
+  </si>
+  <si>
+    <t>15f7d1f5-cc1e-4da7-8462-126449a1bcab</t>
+  </si>
+  <si>
+    <t>5afdfa9f-51eb-4dbf-8918-f897bbd528d7</t>
+  </si>
+  <si>
+    <t>d9f565a0-22df-4433-ae10-b27c7f20e6f3</t>
+  </si>
+  <si>
+    <t>7f6b999a-da82-456a-8c17-49525637651f</t>
+  </si>
+  <si>
+    <t>ef3d9059-abfb-4524-ae5a-2877c6767d99</t>
+  </si>
+  <si>
+    <t>280ffa98-e7a0-4a5f-b36f-14a8052a8c17</t>
+  </si>
+  <si>
+    <t>c2d166db-5d9a-40c7-8c96-bd3524054440</t>
+  </si>
+  <si>
+    <t>849b516b-e355-48e9-89f0-9190598814c9</t>
+  </si>
+  <si>
+    <t>e5776de7-7e2f-40de-a577-2c80b619928b</t>
+  </si>
+  <si>
+    <t>3658fe5c-29dd-429a-835a-3411ad3005fe</t>
+  </si>
+  <si>
+    <t>86c96a6b-9b02-463b-8b12-b90d53c39c1f</t>
+  </si>
+  <si>
+    <t>ef0c4387-38ce-4adc-b761-f0506b82564e</t>
+  </si>
+  <si>
+    <t>0a38cc68-c82d-4125-bbe8-2ad73c2cb7f7</t>
+  </si>
+  <si>
+    <t>c8719fa7-f09c-46fa-a928-f13dd3b613e5</t>
+  </si>
+  <si>
+    <t>f56a60bc-0235-4596-bc4c-e279868a9277</t>
+  </si>
+  <si>
+    <t>a6e17b31-817b-408e-87cf-4cab5b6eb9f2</t>
+  </si>
+  <si>
+    <t>3ddd1967-a5a1-47b2-b3b9-554495581ea2</t>
+  </si>
+  <si>
+    <t>a763088c-018d-48b7-bf47-3027a8c725b8</t>
+  </si>
+  <si>
+    <t>2c7a9bf7-5ffd-475c-a10f-db8df3cc76ef</t>
+  </si>
+  <si>
+    <t>852767c1-d6be-424b-b53e-48276e0d0db5</t>
+  </si>
+  <si>
+    <t>b7d9e240-6576-4ddc-b4cb-1c19e2116cf1</t>
   </si>
 </sst>
 </file>
@@ -4441,7 +4571,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4451,6 +4581,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4470,7 +4606,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4505,6 +4641,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4858,8 +4997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4892,7 +5031,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>1341</v>
       </c>
@@ -4908,7 +5047,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>1364</v>
       </c>
@@ -4924,7 +5063,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>800</v>
       </c>
@@ -5131,12 +5270,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>25</v>
-      </c>
+      <c r="A34" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5845,8 +5979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F470"/>
   <sheetViews>
-    <sheetView topLeftCell="B199" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C470" sqref="C470"/>
+    <sheetView topLeftCell="A286" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A338" sqref="A338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16145,7 +16279,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>75</v>
@@ -16154,273 +16288,273 @@
         <v>1342</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>1388</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>1389</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>1392</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>1393</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>1395</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="C16" s="25" t="s">
         <v>1396</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>1397</v>
-      </c>
       <c r="D16" s="24" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>1399</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>1400</v>
-      </c>
       <c r="C18" s="25" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>1404</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>1405</v>
-      </c>
       <c r="C22" s="25" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
   </sheetData>
@@ -17776,7 +17910,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>8</v>
@@ -17784,7 +17918,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>567</v>
@@ -17792,7 +17926,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>567</v>
@@ -17800,7 +17934,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>567</v>
@@ -17808,7 +17942,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>567</v>
@@ -17816,7 +17950,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>567</v>
@@ -17824,7 +17958,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>567</v>
@@ -17832,7 +17966,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>567</v>
@@ -17840,7 +17974,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>567</v>
@@ -17848,7 +17982,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>567</v>
@@ -17856,7 +17990,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>567</v>
@@ -17864,7 +17998,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>567</v>
@@ -17872,7 +18006,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>567</v>
@@ -17880,7 +18014,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>567</v>
@@ -17888,7 +18022,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>567</v>
@@ -17896,7 +18030,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>567</v>
@@ -17904,7 +18038,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>567</v>
@@ -17912,7 +18046,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>567</v>
@@ -17920,7 +18054,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>567</v>
@@ -17928,7 +18062,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>567</v>
@@ -17936,7 +18070,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>567</v>
@@ -17944,7 +18078,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>567</v>
@@ -17952,7 +18086,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>567</v>
@@ -17960,7 +18094,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>567</v>
@@ -17968,7 +18102,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B25" s="27" t="s">
         <v>567</v>
@@ -17976,7 +18110,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B26" s="27" t="s">
         <v>567</v>
@@ -17984,7 +18118,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B27" s="27" t="s">
         <v>567</v>
@@ -17992,7 +18126,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>567</v>
@@ -18000,7 +18134,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B29" s="27" t="s">
         <v>567</v>
@@ -18008,7 +18142,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B30" s="27" t="s">
         <v>567</v>
@@ -18016,7 +18150,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B31" s="27" t="s">
         <v>567</v>
@@ -18024,7 +18158,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B32" s="27" t="s">
         <v>567</v>
@@ -18032,7 +18166,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>567</v>
@@ -18044,6 +18178,353 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42" customWidth="1"/>
+    <col min="2" max="2" width="53.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B27" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>564</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -18208,7 +18689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -18320,179 +18801,6 @@
       </c>
       <c r="D7" t="s">
         <v>555</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="58" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B11" t="s">
-        <v>214</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B12" t="s">
-        <v>213</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1306</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B14" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1304</v>
       </c>
     </row>
   </sheetData>
@@ -19401,10 +19709,183 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="58" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19807,12 +20288,83 @@
         <v>228</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>261</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -19955,7 +20507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B139"/>
   <sheetViews>
@@ -21086,7 +21638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -21280,8 +21832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C80"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21867,7 +22419,7 @@
         <v>119</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>154</v>
+        <v>796</v>
       </c>
       <c r="C53" s="27" t="s">
         <v>121</v>
@@ -21878,7 +22430,7 @@
         <v>122</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>155</v>
+        <v>795</v>
       </c>
       <c r="C54" s="27" t="s">
         <v>121</v>
@@ -21889,7 +22441,7 @@
         <v>124</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>156</v>
+        <v>797</v>
       </c>
       <c r="C55" s="27" t="s">
         <v>121</v>

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\PT_Harvester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngariepy\Documents\GitHub\fgp-metadata-proxy\FME_files\LOOKUP_TABLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="16" activeTab="26"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Codespace" sheetId="12" r:id="rId1"/>
@@ -3739,9 +3739,6 @@
     <t>Gouvernement et municipalités du Québec</t>
   </si>
   <si>
-    <t>Government  and municipalities of Quebec</t>
-  </si>
-  <si>
     <t>jurisdiction</t>
   </si>
   <si>
@@ -4508,12 +4505,15 @@
   </si>
   <si>
     <t>b7d9e240-6576-4ddc-b4cb-1c19e2116cf1</t>
+  </si>
+  <si>
+    <t>Quebec Government and Municipalities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4646,8 +4646,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="3"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
@@ -4933,7 +4933,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
@@ -5001,7 +5001,7 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" customWidth="1"/>
@@ -5028,15 +5028,15 @@
         <v>28</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5049,10 +5049,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>1364</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5073,7 +5073,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>518</v>
@@ -5108,12 +5108,12 @@
         <v>6</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>168</v>
@@ -5140,7 +5140,7 @@
         <v>728</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -5148,7 +5148,7 @@
         <v>732</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -5164,7 +5164,7 @@
         <v>725</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -5177,7 +5177,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>25</v>
@@ -5188,7 +5188,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -5196,7 +5196,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -5212,7 +5212,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -5220,7 +5220,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -5281,11 +5281,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
@@ -5447,8 +5447,8 @@
       <c r="A20" s="7" t="s">
         <v>790</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>1226</v>
+      <c r="B20" t="s">
+        <v>1482</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -5517,63 +5517,63 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>1230</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>1232</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B31" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>1235</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B33" t="s">
         <v>1237</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B34" t="s">
         <v>1239</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B35" t="s">
         <v>1241</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B36" t="s">
         <v>518</v>
@@ -5581,34 +5581,34 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B37" t="s">
         <v>1244</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B38" t="s">
         <v>1246</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B39" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B40" t="s">
         <v>1250</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1251</v>
       </c>
     </row>
   </sheetData>
@@ -5628,7 +5628,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.7109375" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
@@ -5983,7 +5983,7 @@
       <selection activeCell="A338" sqref="A338"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="168.42578125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
@@ -12654,7 +12654,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B470" t="s">
         <v>324</v>
@@ -12683,17 +12683,17 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -12818,7 +12818,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B17" t="s">
         <v>783</v>
@@ -13059,7 +13059,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -13103,7 +13103,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
@@ -13278,7 +13278,7 @@
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -13990,7 +13990,7 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" customWidth="1"/>
   </cols>
@@ -14208,7 +14208,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
@@ -14291,7 +14291,7 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.42578125" customWidth="1"/>
     <col min="2" max="2" width="45.140625" customWidth="1"/>
@@ -15268,7 +15268,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" customWidth="1"/>
@@ -15443,7 +15443,7 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="2" width="43.28515625" customWidth="1"/>
@@ -15452,101 +15452,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B1" t="s">
         <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B3" t="s">
         <v>791</v>
       </c>
       <c r="C3" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B4" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C4" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B5" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C5" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B6" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C6" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B9" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C9" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -15557,7 +15557,7 @@
         <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -15568,7 +15568,7 @@
         <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -15579,7 +15579,7 @@
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -15590,7 +15590,7 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -15601,29 +15601,29 @@
         <v>794</v>
       </c>
       <c r="C14" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B15" t="s">
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B16" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C16" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -15634,95 +15634,95 @@
         <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B18" t="s">
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C19" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C20" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B21" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C21" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B22" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C22" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B23" t="s">
         <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C24" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B25" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C25" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -15733,7 +15733,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -15744,194 +15744,194 @@
         <v>790</v>
       </c>
       <c r="C27" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B28" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C28" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B29" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C29" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B30" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C30" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C31" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B32" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C32" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B33" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C33" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B34" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C34" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B35" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C35" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B36" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C36" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B37" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C37" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C38" t="s">
         <v>1325</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B39" t="s">
         <v>133</v>
       </c>
       <c r="C39" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B40" t="s">
         <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B41" t="s">
         <v>856</v>
       </c>
       <c r="C41" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B42" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C42" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B43" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C43" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B44" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C44" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
   </sheetData>
@@ -15947,46 +15947,46 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B2" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B3" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B4" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B5" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -15994,7 +15994,7 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
   </sheetData>
@@ -16010,7 +16010,7 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="38.85546875" customWidth="1"/>
@@ -16269,7 +16269,7 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.85546875" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
@@ -16279,282 +16279,282 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>75</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>1387</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>1388</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>1391</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>1392</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>1394</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="C16" s="25" t="s">
         <v>1395</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>1396</v>
-      </c>
       <c r="D16" s="24" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>1398</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>1399</v>
-      </c>
       <c r="C18" s="25" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>1403</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>1404</v>
-      </c>
       <c r="C22" s="25" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
   </sheetData>
@@ -16577,11 +16577,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="82" customWidth="1"/>
     <col min="2" max="2" width="95" customWidth="1"/>
@@ -16604,7 +16604,7 @@
         <v>976</v>
       </c>
       <c r="E1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -16612,16 +16612,16 @@
         <v>883</v>
       </c>
       <c r="B2" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C2" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D2" t="s">
         <v>889</v>
       </c>
       <c r="E2" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -16638,7 +16638,7 @@
         <v>889</v>
       </c>
       <c r="E3" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -16655,7 +16655,7 @@
         <v>889</v>
       </c>
       <c r="E4" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -16672,7 +16672,7 @@
         <v>889</v>
       </c>
       <c r="E5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -16689,7 +16689,7 @@
         <v>889</v>
       </c>
       <c r="E6" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -16706,7 +16706,7 @@
         <v>889</v>
       </c>
       <c r="E7" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -16723,7 +16723,7 @@
         <v>889</v>
       </c>
       <c r="E8" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -16740,7 +16740,7 @@
         <v>889</v>
       </c>
       <c r="E9" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -16757,7 +16757,7 @@
         <v>889</v>
       </c>
       <c r="E10" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -16774,7 +16774,7 @@
         <v>889</v>
       </c>
       <c r="E11" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -16791,7 +16791,7 @@
         <v>889</v>
       </c>
       <c r="E12" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -16808,7 +16808,7 @@
         <v>889</v>
       </c>
       <c r="E13" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -16825,7 +16825,7 @@
         <v>889</v>
       </c>
       <c r="E14" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -16842,7 +16842,7 @@
         <v>889</v>
       </c>
       <c r="E15" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -16859,7 +16859,7 @@
         <v>889</v>
       </c>
       <c r="E16" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -16876,7 +16876,7 @@
         <v>889</v>
       </c>
       <c r="E17" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -16893,7 +16893,7 @@
         <v>889</v>
       </c>
       <c r="E18" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -16910,7 +16910,7 @@
         <v>889</v>
       </c>
       <c r="E19" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -16927,7 +16927,7 @@
         <v>889</v>
       </c>
       <c r="E20" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -16944,7 +16944,7 @@
         <v>889</v>
       </c>
       <c r="E21" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -16961,7 +16961,7 @@
         <v>889</v>
       </c>
       <c r="E22" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -16978,7 +16978,7 @@
         <v>889</v>
       </c>
       <c r="E23" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -16995,7 +16995,7 @@
         <v>889</v>
       </c>
       <c r="E24" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -17012,7 +17012,7 @@
         <v>889</v>
       </c>
       <c r="E25" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -17029,7 +17029,7 @@
         <v>889</v>
       </c>
       <c r="E26" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -17046,7 +17046,7 @@
         <v>889</v>
       </c>
       <c r="E27" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -17063,7 +17063,7 @@
         <v>889</v>
       </c>
       <c r="E28" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -17080,7 +17080,7 @@
         <v>889</v>
       </c>
       <c r="E29" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -17097,7 +17097,7 @@
         <v>889</v>
       </c>
       <c r="E30" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -17114,7 +17114,7 @@
         <v>889</v>
       </c>
       <c r="E31" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -17122,16 +17122,16 @@
         <v>936</v>
       </c>
       <c r="B32" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C32" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D32" t="s">
         <v>889</v>
       </c>
       <c r="E32" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -17148,7 +17148,7 @@
         <v>889</v>
       </c>
       <c r="E33" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -17156,7 +17156,7 @@
         <v>974</v>
       </c>
       <c r="B34" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C34" t="s">
         <v>937</v>
@@ -17165,7 +17165,7 @@
         <v>889</v>
       </c>
       <c r="E34" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -17182,7 +17182,7 @@
         <v>889</v>
       </c>
       <c r="E35" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -17199,7 +17199,7 @@
         <v>889</v>
       </c>
       <c r="E36" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -17216,7 +17216,7 @@
         <v>889</v>
       </c>
       <c r="E37" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -17233,7 +17233,7 @@
         <v>889</v>
       </c>
       <c r="E38" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -17250,7 +17250,7 @@
         <v>889</v>
       </c>
       <c r="E39" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -17267,7 +17267,7 @@
         <v>889</v>
       </c>
       <c r="E40" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -17278,13 +17278,13 @@
         <v>887</v>
       </c>
       <c r="C41" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D41" t="s">
         <v>889</v>
       </c>
       <c r="E41" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -17292,16 +17292,16 @@
         <v>890</v>
       </c>
       <c r="B42" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>1252</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>1253</v>
       </c>
       <c r="D42" t="s">
         <v>889</v>
       </c>
       <c r="E42" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -17309,16 +17309,16 @@
         <v>891</v>
       </c>
       <c r="B43" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C43" t="s">
         <v>1254</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1255</v>
       </c>
       <c r="D43" t="s">
         <v>889</v>
       </c>
       <c r="E43" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -17335,7 +17335,7 @@
         <v>886</v>
       </c>
       <c r="E44" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -17352,7 +17352,7 @@
         <v>886</v>
       </c>
       <c r="E45" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -17360,16 +17360,16 @@
         <v>894</v>
       </c>
       <c r="B46" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C46" t="s">
         <v>1256</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1257</v>
       </c>
       <c r="D46" t="s">
         <v>889</v>
       </c>
       <c r="E46" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -17380,13 +17380,13 @@
         <v>898</v>
       </c>
       <c r="C47" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D47" t="s">
         <v>889</v>
       </c>
       <c r="E47" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -17394,16 +17394,16 @@
         <v>900</v>
       </c>
       <c r="B48" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C48" t="s">
         <v>1258</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1259</v>
       </c>
       <c r="D48" t="s">
         <v>889</v>
       </c>
       <c r="E48" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -17420,7 +17420,7 @@
         <v>886</v>
       </c>
       <c r="E49" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -17431,13 +17431,13 @@
         <v>902</v>
       </c>
       <c r="C50" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D50" t="s">
         <v>889</v>
       </c>
       <c r="E50" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -17454,7 +17454,7 @@
         <v>886</v>
       </c>
       <c r="E51" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -17465,13 +17465,13 @@
         <v>908</v>
       </c>
       <c r="C52" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D52" t="s">
         <v>889</v>
       </c>
       <c r="E52" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -17479,16 +17479,16 @@
         <v>909</v>
       </c>
       <c r="B53" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C53" t="s">
         <v>1275</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1276</v>
       </c>
       <c r="D53" t="s">
         <v>889</v>
       </c>
       <c r="E53" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -17499,13 +17499,13 @@
         <v>928</v>
       </c>
       <c r="C54" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D54" t="s">
         <v>889</v>
       </c>
       <c r="E54" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -17522,7 +17522,7 @@
         <v>886</v>
       </c>
       <c r="E55" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -17533,13 +17533,13 @@
         <v>930</v>
       </c>
       <c r="C56" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D56" t="s">
         <v>889</v>
       </c>
       <c r="E56" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -17550,13 +17550,13 @@
         <v>931</v>
       </c>
       <c r="C57" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D57" t="s">
         <v>889</v>
       </c>
       <c r="E57" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -17564,16 +17564,16 @@
         <v>941</v>
       </c>
       <c r="B58" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C58" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D58" t="s">
         <v>889</v>
       </c>
       <c r="E58" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -17581,16 +17581,16 @@
         <v>942</v>
       </c>
       <c r="B59" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C59" t="s">
         <v>1265</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1266</v>
       </c>
       <c r="D59" t="s">
         <v>889</v>
       </c>
       <c r="E59" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -17598,16 +17598,16 @@
         <v>943</v>
       </c>
       <c r="B60" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C60" t="s">
         <v>1267</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1268</v>
       </c>
       <c r="D60" t="s">
         <v>889</v>
       </c>
       <c r="E60" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -17615,16 +17615,16 @@
         <v>944</v>
       </c>
       <c r="B61" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C61" t="s">
         <v>1269</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1270</v>
       </c>
       <c r="D61" t="s">
         <v>889</v>
       </c>
       <c r="E61" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -17635,13 +17635,13 @@
         <v>945</v>
       </c>
       <c r="C62" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D62" t="s">
         <v>889</v>
       </c>
       <c r="E62" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -17658,7 +17658,7 @@
         <v>886</v>
       </c>
       <c r="E63" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -17669,13 +17669,13 @@
         <v>947</v>
       </c>
       <c r="C64" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D64" t="s">
         <v>889</v>
       </c>
       <c r="E64" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -17683,16 +17683,16 @@
         <v>949</v>
       </c>
       <c r="B65" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C65" t="s">
         <v>1277</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1278</v>
       </c>
       <c r="D65" t="s">
         <v>889</v>
       </c>
       <c r="E65" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -17700,16 +17700,16 @@
         <v>950</v>
       </c>
       <c r="B66" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C66" t="s">
         <v>1271</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1272</v>
       </c>
       <c r="D66" t="s">
         <v>889</v>
       </c>
       <c r="E66" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -17717,16 +17717,16 @@
         <v>975</v>
       </c>
       <c r="B67" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>1273</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>1274</v>
       </c>
       <c r="D67" t="s">
         <v>889</v>
       </c>
       <c r="E67" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -17743,7 +17743,7 @@
         <v>889</v>
       </c>
       <c r="E68" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -17760,7 +17760,7 @@
         <v>889</v>
       </c>
       <c r="E69" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -17777,7 +17777,7 @@
         <v>889</v>
       </c>
       <c r="E70" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -17794,7 +17794,7 @@
         <v>889</v>
       </c>
       <c r="E71" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -17811,7 +17811,7 @@
         <v>889</v>
       </c>
       <c r="E72" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -17828,7 +17828,7 @@
         <v>889</v>
       </c>
       <c r="E73" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -17845,7 +17845,7 @@
         <v>889</v>
       </c>
       <c r="E74" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -17862,7 +17862,7 @@
         <v>889</v>
       </c>
       <c r="E75" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -17879,7 +17879,7 @@
         <v>889</v>
       </c>
       <c r="E76" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
   </sheetData>
@@ -17902,7 +17902,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.42578125" customWidth="1"/>
     <col min="2" max="2" width="47.28515625" customWidth="1"/>
@@ -17910,7 +17910,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>8</v>
@@ -17918,7 +17918,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>567</v>
@@ -17926,7 +17926,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>567</v>
@@ -17934,7 +17934,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>567</v>
@@ -17942,7 +17942,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>567</v>
@@ -17950,7 +17950,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>567</v>
@@ -17958,7 +17958,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>567</v>
@@ -17966,7 +17966,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>567</v>
@@ -17974,7 +17974,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>567</v>
@@ -17982,7 +17982,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>567</v>
@@ -17990,7 +17990,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>567</v>
@@ -17998,7 +17998,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>567</v>
@@ -18006,7 +18006,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>567</v>
@@ -18014,7 +18014,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>567</v>
@@ -18022,7 +18022,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>567</v>
@@ -18030,7 +18030,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>567</v>
@@ -18038,7 +18038,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>567</v>
@@ -18046,7 +18046,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>567</v>
@@ -18054,7 +18054,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>567</v>
@@ -18062,7 +18062,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>567</v>
@@ -18070,7 +18070,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>567</v>
@@ -18078,7 +18078,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>567</v>
@@ -18086,7 +18086,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>567</v>
@@ -18094,7 +18094,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>567</v>
@@ -18102,7 +18102,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B25" s="27" t="s">
         <v>567</v>
@@ -18110,7 +18110,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B26" s="27" t="s">
         <v>567</v>
@@ -18118,7 +18118,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B27" s="27" t="s">
         <v>567</v>
@@ -18126,7 +18126,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>567</v>
@@ -18134,7 +18134,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B29" s="27" t="s">
         <v>567</v>
@@ -18142,7 +18142,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B30" s="27" t="s">
         <v>567</v>
@@ -18150,7 +18150,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B31" s="27" t="s">
         <v>567</v>
@@ -18158,7 +18158,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B32" s="27" t="s">
         <v>567</v>
@@ -18166,7 +18166,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>567</v>
@@ -18181,11 +18181,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
     <col min="2" max="2" width="53.5703125" customWidth="1"/>
@@ -18201,7 +18201,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B2" t="s">
         <v>564</v>
@@ -18209,7 +18209,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>564</v>
@@ -18217,7 +18217,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>564</v>
@@ -18225,7 +18225,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>564</v>
@@ -18233,7 +18233,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>564</v>
@@ -18241,7 +18241,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>564</v>
@@ -18249,7 +18249,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -18257,7 +18257,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>9</v>
@@ -18265,7 +18265,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>9</v>
@@ -18273,7 +18273,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>9</v>
@@ -18281,7 +18281,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>9</v>
@@ -18289,7 +18289,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>9</v>
@@ -18297,7 +18297,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>564</v>
@@ -18305,7 +18305,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>9</v>
@@ -18313,7 +18313,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>564</v>
@@ -18321,7 +18321,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>9</v>
@@ -18329,7 +18329,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>9</v>
@@ -18337,7 +18337,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>9</v>
@@ -18345,7 +18345,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>9</v>
@@ -18353,7 +18353,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>9</v>
@@ -18361,7 +18361,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>9</v>
@@ -18369,7 +18369,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>564</v>
@@ -18377,7 +18377,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>564</v>
@@ -18385,7 +18385,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B25" s="27" t="s">
         <v>9</v>
@@ -18393,7 +18393,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B26" s="27" t="s">
         <v>9</v>
@@ -18401,7 +18401,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B27" t="s">
         <v>567</v>
@@ -18409,7 +18409,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>564</v>
@@ -18417,7 +18417,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B29" s="27" t="s">
         <v>564</v>
@@ -18425,7 +18425,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B30" s="27" t="s">
         <v>9</v>
@@ -18433,7 +18433,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B31" s="27" t="s">
         <v>567</v>
@@ -18441,7 +18441,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B32" s="27" t="s">
         <v>567</v>
@@ -18449,7 +18449,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>9</v>
@@ -18457,7 +18457,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B34" s="27" t="s">
         <v>9</v>
@@ -18465,7 +18465,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B35" s="27" t="s">
         <v>9</v>
@@ -18473,7 +18473,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B36" s="27" t="s">
         <v>9</v>
@@ -18481,7 +18481,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B37" s="27" t="s">
         <v>9</v>
@@ -18489,7 +18489,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B38" s="27" t="s">
         <v>9</v>
@@ -18497,7 +18497,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B39" s="27" t="s">
         <v>9</v>
@@ -18505,7 +18505,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B40" s="27" t="s">
         <v>9</v>
@@ -18513,7 +18513,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B41" s="27" t="s">
         <v>564</v>
@@ -18532,7 +18532,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="30.140625" customWidth="1"/>
@@ -18697,7 +18697,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -18816,7 +18816,7 @@
       <selection activeCell="C80" sqref="C1:C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="44.28515625" customWidth="1"/>
@@ -19715,7 +19715,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
     <col min="3" max="3" width="58" customWidth="1"/>
@@ -19723,13 +19723,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C1" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -19740,139 +19740,139 @@
         <v>213</v>
       </c>
       <c r="C2" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B3" t="s">
         <v>206</v>
       </c>
       <c r="C3" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B4" t="s">
         <v>213</v>
       </c>
       <c r="C4" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B5" t="s">
         <v>213</v>
       </c>
       <c r="C5" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B6" t="s">
         <v>203</v>
       </c>
       <c r="C6" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B7" t="s">
         <v>199</v>
       </c>
       <c r="C7" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B8" t="s">
         <v>213</v>
       </c>
       <c r="C8" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B9" t="s">
         <v>213</v>
       </c>
       <c r="C9" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B10" t="s">
         <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B11" t="s">
         <v>214</v>
       </c>
       <c r="C11" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B12" t="s">
         <v>213</v>
       </c>
       <c r="C12" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B13" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C13" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B14" t="s">
         <v>205</v>
       </c>
       <c r="C14" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
   </sheetData>
@@ -19888,7 +19888,7 @@
       <selection activeCell="B33" sqref="B33:D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -20290,7 +20290,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B29" s="28" t="s">
         <v>226</v>
@@ -20318,7 +20318,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B31" s="30" t="s">
         <v>221</v>
@@ -20332,7 +20332,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>226</v>
@@ -20346,7 +20346,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>25</v>
@@ -20372,14 +20372,14 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -20395,7 +20395,7 @@
         <v>860</v>
       </c>
       <c r="B3" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -20403,7 +20403,7 @@
         <v>245</v>
       </c>
       <c r="B4" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -20411,7 +20411,7 @@
         <v>226</v>
       </c>
       <c r="B5" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -20427,7 +20427,7 @@
         <v>861</v>
       </c>
       <c r="B7" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -20435,7 +20435,7 @@
         <v>250</v>
       </c>
       <c r="B8" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -20451,7 +20451,7 @@
         <v>236</v>
       </c>
       <c r="B10" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -20459,7 +20459,7 @@
         <v>863</v>
       </c>
       <c r="B11" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -20467,7 +20467,7 @@
         <v>864</v>
       </c>
       <c r="B12" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -20475,7 +20475,7 @@
         <v>253</v>
       </c>
       <c r="B13" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -20483,7 +20483,7 @@
         <v>262</v>
       </c>
       <c r="B14" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -20491,7 +20491,7 @@
         <v>865</v>
       </c>
       <c r="B15" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -20515,7 +20515,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.42578125" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
@@ -21646,7 +21646,7 @@
       <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="78.7109375" customWidth="1"/>
     <col min="2" max="2" width="43.42578125" customWidth="1"/>
@@ -21836,7 +21836,7 @@
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
@@ -22735,7 +22735,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="74.85546875" customWidth="1"/>
@@ -23635,7 +23635,7 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
@@ -23898,7 +23898,7 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -23933,7 +23933,7 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
   </cols>
@@ -24267,7 +24267,7 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.5703125" customWidth="1"/>
   </cols>

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="16" activeTab="26"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="20" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="Codespace" sheetId="12" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5044" uniqueCount="1483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5052" uniqueCount="1485">
   <si>
     <t>default_key</t>
   </si>
@@ -4508,6 +4508,12 @@
   </si>
   <si>
     <t>b7d9e240-6576-4ddc-b4cb-1c19e2116cf1</t>
+  </si>
+  <si>
+    <t>application/msaccess</t>
+  </si>
+  <si>
+    <t>current</t>
   </si>
 </sst>
 </file>
@@ -5977,10 +5983,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F470"/>
+  <dimension ref="A1:F471"/>
   <sheetViews>
-    <sheetView topLeftCell="A286" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A338" sqref="A338"/>
+    <sheetView topLeftCell="A432" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E461" sqref="E461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12663,6 +12669,20 @@
         <v>274</v>
       </c>
       <c r="D470" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B471" s="27" t="s">
+        <v>783</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D471" s="27" t="s">
         <v>275</v>
       </c>
     </row>
@@ -18181,7 +18201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
@@ -19882,10 +19902,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20356,6 +20376,20 @@
       </c>
       <c r="D33" s="27" t="s">
         <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="20" activeTab="30"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="16" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="Codespace" sheetId="12" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5052" uniqueCount="1485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5044" uniqueCount="1483">
   <si>
     <t>default_key</t>
   </si>
@@ -4508,12 +4508,6 @@
   </si>
   <si>
     <t>b7d9e240-6576-4ddc-b4cb-1c19e2116cf1</t>
-  </si>
-  <si>
-    <t>application/msaccess</t>
-  </si>
-  <si>
-    <t>current</t>
   </si>
 </sst>
 </file>
@@ -5983,10 +5977,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F471"/>
+  <dimension ref="A1:F470"/>
   <sheetViews>
-    <sheetView topLeftCell="A432" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E461" sqref="E461"/>
+    <sheetView topLeftCell="A286" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A338" sqref="A338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12669,20 +12663,6 @@
         <v>274</v>
       </c>
       <c r="D470" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A471" t="s">
-        <v>1483</v>
-      </c>
-      <c r="B471" s="27" t="s">
-        <v>783</v>
-      </c>
-      <c r="C471" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D471" s="27" t="s">
         <v>275</v>
       </c>
     </row>
@@ -18201,7 +18181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
@@ -19902,10 +19882,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20376,20 +20356,6 @@
       </c>
       <c r="D33" s="27" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>1484</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngariepy\Documents\GitHub\fgp-metadata-proxy\FME_files\LOOKUP_TABLES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\PT_Harvester\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="20" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="Codespace" sheetId="12" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5044" uniqueCount="1483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5052" uniqueCount="1485">
   <si>
     <t>default_key</t>
   </si>
@@ -3739,6 +3739,9 @@
     <t>Gouvernement et municipalités du Québec</t>
   </si>
   <si>
+    <t>Government  and municipalities of Quebec</t>
+  </si>
+  <si>
     <t>jurisdiction</t>
   </si>
   <si>
@@ -4507,13 +4510,16 @@
     <t>b7d9e240-6576-4ddc-b4cb-1c19e2116cf1</t>
   </si>
   <si>
-    <t>Quebec Government and Municipalities</t>
+    <t>application/msaccess</t>
+  </si>
+  <si>
+    <t>current</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4646,8 +4652,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="3"/>
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
@@ -4933,7 +4939,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
@@ -5001,7 +5007,7 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" customWidth="1"/>
@@ -5028,15 +5034,15 @@
         <v>28</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5049,10 +5055,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5073,7 +5079,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>518</v>
@@ -5108,12 +5114,12 @@
         <v>6</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>168</v>
@@ -5140,7 +5146,7 @@
         <v>728</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -5148,7 +5154,7 @@
         <v>732</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -5164,7 +5170,7 @@
         <v>725</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -5177,7 +5183,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>25</v>
@@ -5188,7 +5194,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -5196,7 +5202,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -5212,7 +5218,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -5220,7 +5226,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -5281,11 +5287,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
@@ -5447,8 +5453,8 @@
       <c r="A20" s="7" t="s">
         <v>790</v>
       </c>
-      <c r="B20" t="s">
-        <v>1482</v>
+      <c r="B20" s="7" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -5517,63 +5523,63 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B31" t="s">
         <v>1233</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B33" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B34" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B35" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B36" t="s">
         <v>518</v>
@@ -5581,34 +5587,34 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B37" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B38" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B39" t="s">
         <v>1248</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B40" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
   </sheetData>
@@ -5628,7 +5634,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.7109375" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
@@ -5977,13 +5983,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F470"/>
+  <dimension ref="A1:F471"/>
   <sheetViews>
-    <sheetView topLeftCell="A286" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A338" sqref="A338"/>
+    <sheetView topLeftCell="A432" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E461" sqref="E461"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="168.42578125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
@@ -12654,7 +12660,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B470" t="s">
         <v>324</v>
@@ -12663,6 +12669,20 @@
         <v>274</v>
       </c>
       <c r="D470" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B471" s="27" t="s">
+        <v>783</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D471" s="27" t="s">
         <v>275</v>
       </c>
     </row>
@@ -12683,17 +12703,17 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1" t="s">
         <v>1291</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -12818,7 +12838,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B17" t="s">
         <v>783</v>
@@ -13059,7 +13079,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -13103,7 +13123,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
@@ -13278,7 +13298,7 @@
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -13990,7 +14010,7 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" customWidth="1"/>
   </cols>
@@ -14208,7 +14228,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
@@ -14291,7 +14311,7 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.42578125" customWidth="1"/>
     <col min="2" max="2" width="45.140625" customWidth="1"/>
@@ -15268,7 +15288,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" customWidth="1"/>
@@ -15443,7 +15463,7 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="2" width="43.28515625" customWidth="1"/>
@@ -15452,101 +15472,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B1" t="s">
         <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B3" t="s">
         <v>791</v>
       </c>
       <c r="C3" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B4" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="C4" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B5" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C5" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B6" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C6" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B9" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="C9" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -15557,7 +15577,7 @@
         <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -15568,7 +15588,7 @@
         <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -15579,7 +15599,7 @@
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -15590,7 +15610,7 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -15601,29 +15621,29 @@
         <v>794</v>
       </c>
       <c r="C14" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B15" t="s">
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B16" t="s">
         <v>1341</v>
       </c>
-      <c r="B16" t="s">
-        <v>1340</v>
-      </c>
       <c r="C16" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -15634,95 +15654,95 @@
         <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B18" t="s">
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="C19" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="C20" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B21" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="C21" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B22" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C22" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B23" t="s">
         <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="C24" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B25" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C25" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -15733,7 +15753,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -15744,194 +15764,194 @@
         <v>790</v>
       </c>
       <c r="C27" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B28" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="C28" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B29" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="C29" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B30" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="C30" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C31" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B32" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="C32" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B33" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C33" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B34" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="C34" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B35" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="C35" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B36" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="C36" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B37" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="C37" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B38" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="C38" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B39" t="s">
         <v>133</v>
       </c>
       <c r="C39" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B40" t="s">
         <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B41" t="s">
         <v>856</v>
       </c>
       <c r="C41" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B42" t="s">
         <v>1330</v>
       </c>
-      <c r="B42" t="s">
-        <v>1329</v>
-      </c>
       <c r="C42" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B43" t="s">
         <v>1328</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>1327</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B44" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="C44" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
   </sheetData>
@@ -15947,46 +15967,46 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1" t="s">
         <v>1291</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B2" t="s">
         <v>1359</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B3" t="s">
         <v>1357</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B4" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B5" t="s">
         <v>1354</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -15994,7 +16014,7 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
   </sheetData>
@@ -16010,7 +16030,7 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="38.85546875" customWidth="1"/>
@@ -16269,7 +16289,7 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.85546875" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
@@ -16279,282 +16299,282 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>75</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="C16" s="25" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>1395</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>1396</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>1379</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>1395</v>
-      </c>
       <c r="D17" s="24" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
   </sheetData>
@@ -16577,11 +16597,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="82" customWidth="1"/>
     <col min="2" max="2" width="95" customWidth="1"/>
@@ -16604,7 +16624,7 @@
         <v>976</v>
       </c>
       <c r="E1" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -16612,16 +16632,16 @@
         <v>883</v>
       </c>
       <c r="B2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C2" t="s">
         <v>1279</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1278</v>
       </c>
       <c r="D2" t="s">
         <v>889</v>
       </c>
       <c r="E2" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -16638,7 +16658,7 @@
         <v>889</v>
       </c>
       <c r="E3" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -16655,7 +16675,7 @@
         <v>889</v>
       </c>
       <c r="E4" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -16672,7 +16692,7 @@
         <v>889</v>
       </c>
       <c r="E5" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -16689,7 +16709,7 @@
         <v>889</v>
       </c>
       <c r="E6" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -16706,7 +16726,7 @@
         <v>889</v>
       </c>
       <c r="E7" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -16723,7 +16743,7 @@
         <v>889</v>
       </c>
       <c r="E8" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -16740,7 +16760,7 @@
         <v>889</v>
       </c>
       <c r="E9" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -16757,7 +16777,7 @@
         <v>889</v>
       </c>
       <c r="E10" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -16774,7 +16794,7 @@
         <v>889</v>
       </c>
       <c r="E11" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -16791,7 +16811,7 @@
         <v>889</v>
       </c>
       <c r="E12" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -16808,7 +16828,7 @@
         <v>889</v>
       </c>
       <c r="E13" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -16825,7 +16845,7 @@
         <v>889</v>
       </c>
       <c r="E14" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -16842,7 +16862,7 @@
         <v>889</v>
       </c>
       <c r="E15" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -16859,7 +16879,7 @@
         <v>889</v>
       </c>
       <c r="E16" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -16876,7 +16896,7 @@
         <v>889</v>
       </c>
       <c r="E17" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -16893,7 +16913,7 @@
         <v>889</v>
       </c>
       <c r="E18" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -16910,7 +16930,7 @@
         <v>889</v>
       </c>
       <c r="E19" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -16927,7 +16947,7 @@
         <v>889</v>
       </c>
       <c r="E20" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -16944,7 +16964,7 @@
         <v>889</v>
       </c>
       <c r="E21" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -16961,7 +16981,7 @@
         <v>889</v>
       </c>
       <c r="E22" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -16978,7 +16998,7 @@
         <v>889</v>
       </c>
       <c r="E23" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -16995,7 +17015,7 @@
         <v>889</v>
       </c>
       <c r="E24" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -17012,7 +17032,7 @@
         <v>889</v>
       </c>
       <c r="E25" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -17029,7 +17049,7 @@
         <v>889</v>
       </c>
       <c r="E26" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -17046,7 +17066,7 @@
         <v>889</v>
       </c>
       <c r="E27" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -17063,7 +17083,7 @@
         <v>889</v>
       </c>
       <c r="E28" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -17080,7 +17100,7 @@
         <v>889</v>
       </c>
       <c r="E29" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -17097,7 +17117,7 @@
         <v>889</v>
       </c>
       <c r="E30" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -17114,7 +17134,7 @@
         <v>889</v>
       </c>
       <c r="E31" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -17122,16 +17142,16 @@
         <v>936</v>
       </c>
       <c r="B32" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C32" t="s">
         <v>1260</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1259</v>
       </c>
       <c r="D32" t="s">
         <v>889</v>
       </c>
       <c r="E32" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -17148,7 +17168,7 @@
         <v>889</v>
       </c>
       <c r="E33" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -17156,7 +17176,7 @@
         <v>974</v>
       </c>
       <c r="B34" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="C34" t="s">
         <v>937</v>
@@ -17165,7 +17185,7 @@
         <v>889</v>
       </c>
       <c r="E34" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -17182,7 +17202,7 @@
         <v>889</v>
       </c>
       <c r="E35" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -17199,7 +17219,7 @@
         <v>889</v>
       </c>
       <c r="E36" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -17216,7 +17236,7 @@
         <v>889</v>
       </c>
       <c r="E37" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -17233,7 +17253,7 @@
         <v>889</v>
       </c>
       <c r="E38" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -17250,7 +17270,7 @@
         <v>889</v>
       </c>
       <c r="E39" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -17267,7 +17287,7 @@
         <v>889</v>
       </c>
       <c r="E40" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -17278,13 +17298,13 @@
         <v>887</v>
       </c>
       <c r="C41" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D41" t="s">
         <v>889</v>
       </c>
       <c r="E41" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -17292,16 +17312,16 @@
         <v>890</v>
       </c>
       <c r="B42" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="D42" t="s">
         <v>889</v>
       </c>
       <c r="E42" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -17309,16 +17329,16 @@
         <v>891</v>
       </c>
       <c r="B43" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="C43" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D43" t="s">
         <v>889</v>
       </c>
       <c r="E43" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -17335,7 +17355,7 @@
         <v>886</v>
       </c>
       <c r="E44" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -17352,7 +17372,7 @@
         <v>886</v>
       </c>
       <c r="E45" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -17360,16 +17380,16 @@
         <v>894</v>
       </c>
       <c r="B46" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C46" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D46" t="s">
         <v>889</v>
       </c>
       <c r="E46" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -17380,13 +17400,13 @@
         <v>898</v>
       </c>
       <c r="C47" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D47" t="s">
         <v>889</v>
       </c>
       <c r="E47" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -17394,16 +17414,16 @@
         <v>900</v>
       </c>
       <c r="B48" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="C48" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D48" t="s">
         <v>889</v>
       </c>
       <c r="E48" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -17420,7 +17440,7 @@
         <v>886</v>
       </c>
       <c r="E49" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -17431,13 +17451,13 @@
         <v>902</v>
       </c>
       <c r="C50" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="D50" t="s">
         <v>889</v>
       </c>
       <c r="E50" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -17454,7 +17474,7 @@
         <v>886</v>
       </c>
       <c r="E51" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -17465,13 +17485,13 @@
         <v>908</v>
       </c>
       <c r="C52" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="D52" t="s">
         <v>889</v>
       </c>
       <c r="E52" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -17479,16 +17499,16 @@
         <v>909</v>
       </c>
       <c r="B53" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="C53" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="D53" t="s">
         <v>889</v>
       </c>
       <c r="E53" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -17499,13 +17519,13 @@
         <v>928</v>
       </c>
       <c r="C54" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D54" t="s">
         <v>889</v>
       </c>
       <c r="E54" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -17522,7 +17542,7 @@
         <v>886</v>
       </c>
       <c r="E55" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -17533,13 +17553,13 @@
         <v>930</v>
       </c>
       <c r="C56" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="D56" t="s">
         <v>889</v>
       </c>
       <c r="E56" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -17550,13 +17570,13 @@
         <v>931</v>
       </c>
       <c r="C57" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="D57" t="s">
         <v>889</v>
       </c>
       <c r="E57" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -17564,16 +17584,16 @@
         <v>941</v>
       </c>
       <c r="B58" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C58" t="s">
         <v>1263</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1262</v>
       </c>
       <c r="D58" t="s">
         <v>889</v>
       </c>
       <c r="E58" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -17581,16 +17601,16 @@
         <v>942</v>
       </c>
       <c r="B59" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="C59" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="D59" t="s">
         <v>889</v>
       </c>
       <c r="E59" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -17598,16 +17618,16 @@
         <v>943</v>
       </c>
       <c r="B60" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="C60" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D60" t="s">
         <v>889</v>
       </c>
       <c r="E60" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -17615,16 +17635,16 @@
         <v>944</v>
       </c>
       <c r="B61" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="C61" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D61" t="s">
         <v>889</v>
       </c>
       <c r="E61" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -17635,13 +17655,13 @@
         <v>945</v>
       </c>
       <c r="C62" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D62" t="s">
         <v>889</v>
       </c>
       <c r="E62" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -17658,7 +17678,7 @@
         <v>886</v>
       </c>
       <c r="E63" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -17669,13 +17689,13 @@
         <v>947</v>
       </c>
       <c r="C64" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D64" t="s">
         <v>889</v>
       </c>
       <c r="E64" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -17683,16 +17703,16 @@
         <v>949</v>
       </c>
       <c r="B65" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="C65" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D65" t="s">
         <v>889</v>
       </c>
       <c r="E65" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -17700,16 +17720,16 @@
         <v>950</v>
       </c>
       <c r="B66" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="C66" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D66" t="s">
         <v>889</v>
       </c>
       <c r="E66" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -17717,16 +17737,16 @@
         <v>975</v>
       </c>
       <c r="B67" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D67" t="s">
         <v>889</v>
       </c>
       <c r="E67" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -17743,7 +17763,7 @@
         <v>889</v>
       </c>
       <c r="E68" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -17760,7 +17780,7 @@
         <v>889</v>
       </c>
       <c r="E69" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -17777,7 +17797,7 @@
         <v>889</v>
       </c>
       <c r="E70" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -17794,7 +17814,7 @@
         <v>889</v>
       </c>
       <c r="E71" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -17811,7 +17831,7 @@
         <v>889</v>
       </c>
       <c r="E72" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -17828,7 +17848,7 @@
         <v>889</v>
       </c>
       <c r="E73" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -17845,7 +17865,7 @@
         <v>889</v>
       </c>
       <c r="E74" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -17862,7 +17882,7 @@
         <v>889</v>
       </c>
       <c r="E75" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -17879,7 +17899,7 @@
         <v>889</v>
       </c>
       <c r="E76" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
   </sheetData>
@@ -17902,7 +17922,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.42578125" customWidth="1"/>
     <col min="2" max="2" width="47.28515625" customWidth="1"/>
@@ -17910,7 +17930,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>8</v>
@@ -17918,7 +17938,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>567</v>
@@ -17926,7 +17946,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>567</v>
@@ -17934,7 +17954,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>567</v>
@@ -17942,7 +17962,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>567</v>
@@ -17950,7 +17970,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>567</v>
@@ -17958,7 +17978,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>567</v>
@@ -17966,7 +17986,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>567</v>
@@ -17974,7 +17994,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>567</v>
@@ -17982,7 +18002,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>567</v>
@@ -17990,7 +18010,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>567</v>
@@ -17998,7 +18018,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>567</v>
@@ -18006,7 +18026,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>567</v>
@@ -18014,7 +18034,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>567</v>
@@ -18022,7 +18042,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>567</v>
@@ -18030,7 +18050,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>567</v>
@@ -18038,7 +18058,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>567</v>
@@ -18046,7 +18066,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>567</v>
@@ -18054,7 +18074,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>567</v>
@@ -18062,7 +18082,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>567</v>
@@ -18070,7 +18090,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>567</v>
@@ -18078,7 +18098,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>567</v>
@@ -18086,7 +18106,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>567</v>
@@ -18094,7 +18114,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>567</v>
@@ -18102,7 +18122,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B25" s="27" t="s">
         <v>567</v>
@@ -18110,7 +18130,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B26" s="27" t="s">
         <v>567</v>
@@ -18118,7 +18138,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B27" s="27" t="s">
         <v>567</v>
@@ -18126,7 +18146,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>567</v>
@@ -18134,7 +18154,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="B29" s="27" t="s">
         <v>567</v>
@@ -18142,7 +18162,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B30" s="27" t="s">
         <v>567</v>
@@ -18150,7 +18170,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B31" s="27" t="s">
         <v>567</v>
@@ -18158,7 +18178,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B32" s="27" t="s">
         <v>567</v>
@@ -18166,7 +18186,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>567</v>
@@ -18185,7 +18205,7 @@
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
     <col min="2" max="2" width="53.5703125" customWidth="1"/>
@@ -18201,7 +18221,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B2" t="s">
         <v>564</v>
@@ -18209,7 +18229,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>564</v>
@@ -18217,7 +18237,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>564</v>
@@ -18225,7 +18245,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>564</v>
@@ -18233,7 +18253,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>564</v>
@@ -18241,7 +18261,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>564</v>
@@ -18249,7 +18269,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -18257,7 +18277,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>9</v>
@@ -18265,7 +18285,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>9</v>
@@ -18273,7 +18293,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>9</v>
@@ -18281,7 +18301,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>9</v>
@@ -18289,7 +18309,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>9</v>
@@ -18297,7 +18317,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>564</v>
@@ -18305,7 +18325,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>9</v>
@@ -18313,7 +18333,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>564</v>
@@ -18321,7 +18341,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>9</v>
@@ -18329,7 +18349,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>9</v>
@@ -18337,7 +18357,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>9</v>
@@ -18345,7 +18365,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>9</v>
@@ -18353,7 +18373,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>9</v>
@@ -18361,7 +18381,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>9</v>
@@ -18369,7 +18389,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>564</v>
@@ -18377,7 +18397,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>564</v>
@@ -18385,7 +18405,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B25" s="27" t="s">
         <v>9</v>
@@ -18393,7 +18413,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B26" s="27" t="s">
         <v>9</v>
@@ -18401,7 +18421,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B27" t="s">
         <v>567</v>
@@ -18409,7 +18429,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>564</v>
@@ -18417,7 +18437,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B29" s="27" t="s">
         <v>564</v>
@@ -18425,7 +18445,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B30" s="27" t="s">
         <v>9</v>
@@ -18433,7 +18453,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B31" s="27" t="s">
         <v>567</v>
@@ -18441,7 +18461,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B32" s="27" t="s">
         <v>567</v>
@@ -18449,7 +18469,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>9</v>
@@ -18457,7 +18477,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B34" s="27" t="s">
         <v>9</v>
@@ -18465,7 +18485,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B35" s="27" t="s">
         <v>9</v>
@@ -18473,7 +18493,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B36" s="27" t="s">
         <v>9</v>
@@ -18481,7 +18501,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B37" s="27" t="s">
         <v>9</v>
@@ -18489,7 +18509,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B38" s="27" t="s">
         <v>9</v>
@@ -18497,7 +18517,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B39" s="27" t="s">
         <v>9</v>
@@ -18505,7 +18525,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B40" s="27" t="s">
         <v>9</v>
@@ -18513,7 +18533,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B41" s="27" t="s">
         <v>564</v>
@@ -18532,7 +18552,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="30.140625" customWidth="1"/>
@@ -18697,7 +18717,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -18816,7 +18836,7 @@
       <selection activeCell="C80" sqref="C1:C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="44.28515625" customWidth="1"/>
@@ -19715,7 +19735,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
     <col min="3" max="3" width="58" customWidth="1"/>
@@ -19723,13 +19743,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C1" t="s">
         <v>1324</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -19740,139 +19760,139 @@
         <v>213</v>
       </c>
       <c r="C2" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B3" t="s">
         <v>206</v>
       </c>
       <c r="C3" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B4" t="s">
         <v>213</v>
       </c>
       <c r="C4" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B5" t="s">
         <v>213</v>
       </c>
       <c r="C5" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B6" t="s">
         <v>203</v>
       </c>
       <c r="C6" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B7" t="s">
         <v>199</v>
       </c>
       <c r="C7" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="B8" t="s">
         <v>213</v>
       </c>
       <c r="C8" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="B9" t="s">
         <v>213</v>
       </c>
       <c r="C9" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B10" t="s">
         <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B11" t="s">
         <v>214</v>
       </c>
       <c r="C11" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B12" t="s">
         <v>213</v>
       </c>
       <c r="C12" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B13" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="C13" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B14" t="s">
         <v>205</v>
       </c>
       <c r="C14" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
   </sheetData>
@@ -19882,13 +19902,13 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -20290,7 +20310,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B29" s="28" t="s">
         <v>226</v>
@@ -20318,7 +20338,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B31" s="30" t="s">
         <v>221</v>
@@ -20332,7 +20352,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>226</v>
@@ -20346,7 +20366,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>25</v>
@@ -20356,6 +20376,20 @@
       </c>
       <c r="D33" s="27" t="s">
         <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -20372,14 +20406,14 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1" t="s">
         <v>1291</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -20395,7 +20429,7 @@
         <v>860</v>
       </c>
       <c r="B3" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -20403,7 +20437,7 @@
         <v>245</v>
       </c>
       <c r="B4" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -20411,7 +20445,7 @@
         <v>226</v>
       </c>
       <c r="B5" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -20427,7 +20461,7 @@
         <v>861</v>
       </c>
       <c r="B7" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -20435,7 +20469,7 @@
         <v>250</v>
       </c>
       <c r="B8" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -20451,7 +20485,7 @@
         <v>236</v>
       </c>
       <c r="B10" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -20459,7 +20493,7 @@
         <v>863</v>
       </c>
       <c r="B11" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -20467,7 +20501,7 @@
         <v>864</v>
       </c>
       <c r="B12" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -20475,7 +20509,7 @@
         <v>253</v>
       </c>
       <c r="B13" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -20483,7 +20517,7 @@
         <v>262</v>
       </c>
       <c r="B14" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -20491,7 +20525,7 @@
         <v>865</v>
       </c>
       <c r="B15" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -20515,7 +20549,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.42578125" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
@@ -21646,7 +21680,7 @@
       <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="78.7109375" customWidth="1"/>
     <col min="2" max="2" width="43.42578125" customWidth="1"/>
@@ -21836,7 +21870,7 @@
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
@@ -22735,7 +22769,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="74.85546875" customWidth="1"/>
@@ -23635,7 +23669,7 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
@@ -23898,7 +23932,7 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -23933,7 +23967,7 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
   </cols>
@@ -24267,7 +24301,7 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.5703125" customWidth="1"/>
   </cols>

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\PT_Harvester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngariepy\Documents\GitHub\fgp-metadata-proxy\FME_files\LOOKUP_TABLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="20" activeTab="30"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Codespace" sheetId="12" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5052" uniqueCount="1485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5044" uniqueCount="1483">
   <si>
     <t>default_key</t>
   </si>
@@ -3739,9 +3739,6 @@
     <t>Gouvernement et municipalités du Québec</t>
   </si>
   <si>
-    <t>Government  and municipalities of Quebec</t>
-  </si>
-  <si>
     <t>jurisdiction</t>
   </si>
   <si>
@@ -4510,16 +4507,13 @@
     <t>b7d9e240-6576-4ddc-b4cb-1c19e2116cf1</t>
   </si>
   <si>
-    <t>application/msaccess</t>
-  </si>
-  <si>
-    <t>current</t>
+    <t>Quebec Government and Municipalities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4652,8 +4646,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="3"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
@@ -4939,7 +4933,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
@@ -5007,7 +5001,7 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" customWidth="1"/>
@@ -5034,15 +5028,15 @@
         <v>28</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5055,10 +5049,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>1364</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5079,7 +5073,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>518</v>
@@ -5114,12 +5108,12 @@
         <v>6</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>168</v>
@@ -5146,7 +5140,7 @@
         <v>728</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -5154,7 +5148,7 @@
         <v>732</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -5170,7 +5164,7 @@
         <v>725</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -5183,7 +5177,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>25</v>
@@ -5194,7 +5188,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -5202,7 +5196,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -5218,7 +5212,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -5226,7 +5220,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -5287,11 +5281,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
@@ -5453,8 +5447,8 @@
       <c r="A20" s="7" t="s">
         <v>790</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>1226</v>
+      <c r="B20" t="s">
+        <v>1482</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -5523,63 +5517,63 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>1230</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>1232</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B31" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>1235</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B33" t="s">
         <v>1237</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B34" t="s">
         <v>1239</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B35" t="s">
         <v>1241</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B36" t="s">
         <v>518</v>
@@ -5587,34 +5581,34 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B37" t="s">
         <v>1244</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B38" t="s">
         <v>1246</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B39" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B40" t="s">
         <v>1250</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1251</v>
       </c>
     </row>
   </sheetData>
@@ -5634,7 +5628,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.7109375" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
@@ -5983,13 +5977,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F471"/>
+  <dimension ref="A1:F470"/>
   <sheetViews>
-    <sheetView topLeftCell="A432" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E461" sqref="E461"/>
+    <sheetView topLeftCell="A286" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A338" sqref="A338"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="168.42578125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
@@ -12660,7 +12654,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B470" t="s">
         <v>324</v>
@@ -12669,20 +12663,6 @@
         <v>274</v>
       </c>
       <c r="D470" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A471" t="s">
-        <v>1483</v>
-      </c>
-      <c r="B471" s="27" t="s">
-        <v>783</v>
-      </c>
-      <c r="C471" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D471" s="27" t="s">
         <v>275</v>
       </c>
     </row>
@@ -12703,17 +12683,17 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -12838,7 +12818,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B17" t="s">
         <v>783</v>
@@ -13079,7 +13059,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -13123,7 +13103,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
@@ -13298,7 +13278,7 @@
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -14010,7 +13990,7 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" customWidth="1"/>
   </cols>
@@ -14228,7 +14208,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
@@ -14311,7 +14291,7 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.42578125" customWidth="1"/>
     <col min="2" max="2" width="45.140625" customWidth="1"/>
@@ -15288,7 +15268,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" customWidth="1"/>
@@ -15463,7 +15443,7 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="2" width="43.28515625" customWidth="1"/>
@@ -15472,101 +15452,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B1" t="s">
         <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B3" t="s">
         <v>791</v>
       </c>
       <c r="C3" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B4" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C4" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B5" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C5" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B6" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C6" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B9" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C9" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -15577,7 +15557,7 @@
         <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -15588,7 +15568,7 @@
         <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -15599,7 +15579,7 @@
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -15610,7 +15590,7 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -15621,29 +15601,29 @@
         <v>794</v>
       </c>
       <c r="C14" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B15" t="s">
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B16" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C16" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -15654,95 +15634,95 @@
         <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B18" t="s">
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C19" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C20" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B21" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C21" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B22" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C22" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B23" t="s">
         <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C24" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B25" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C25" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -15753,7 +15733,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -15764,194 +15744,194 @@
         <v>790</v>
       </c>
       <c r="C27" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B28" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C28" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B29" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C29" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B30" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C30" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C31" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B32" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C32" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B33" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C33" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B34" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C34" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B35" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C35" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B36" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C36" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B37" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C37" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C38" t="s">
         <v>1325</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B39" t="s">
         <v>133</v>
       </c>
       <c r="C39" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B40" t="s">
         <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B41" t="s">
         <v>856</v>
       </c>
       <c r="C41" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B42" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C42" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B43" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C43" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B44" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C44" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
   </sheetData>
@@ -15967,46 +15947,46 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B2" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B3" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B4" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B5" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -16014,7 +15994,7 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
   </sheetData>
@@ -16030,7 +16010,7 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="38.85546875" customWidth="1"/>
@@ -16289,7 +16269,7 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.85546875" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
@@ -16299,282 +16279,282 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>75</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>1387</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>1388</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>1391</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>1392</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>1394</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="C16" s="25" t="s">
         <v>1395</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>1396</v>
-      </c>
       <c r="D16" s="24" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>1398</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>1399</v>
-      </c>
       <c r="C18" s="25" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>1403</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>1404</v>
-      </c>
       <c r="C22" s="25" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
   </sheetData>
@@ -16597,11 +16577,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="82" customWidth="1"/>
     <col min="2" max="2" width="95" customWidth="1"/>
@@ -16624,7 +16604,7 @@
         <v>976</v>
       </c>
       <c r="E1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -16632,16 +16612,16 @@
         <v>883</v>
       </c>
       <c r="B2" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C2" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D2" t="s">
         <v>889</v>
       </c>
       <c r="E2" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -16658,7 +16638,7 @@
         <v>889</v>
       </c>
       <c r="E3" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -16675,7 +16655,7 @@
         <v>889</v>
       </c>
       <c r="E4" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -16692,7 +16672,7 @@
         <v>889</v>
       </c>
       <c r="E5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -16709,7 +16689,7 @@
         <v>889</v>
       </c>
       <c r="E6" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -16726,7 +16706,7 @@
         <v>889</v>
       </c>
       <c r="E7" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -16743,7 +16723,7 @@
         <v>889</v>
       </c>
       <c r="E8" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -16760,7 +16740,7 @@
         <v>889</v>
       </c>
       <c r="E9" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -16777,7 +16757,7 @@
         <v>889</v>
       </c>
       <c r="E10" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -16794,7 +16774,7 @@
         <v>889</v>
       </c>
       <c r="E11" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -16811,7 +16791,7 @@
         <v>889</v>
       </c>
       <c r="E12" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -16828,7 +16808,7 @@
         <v>889</v>
       </c>
       <c r="E13" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -16845,7 +16825,7 @@
         <v>889</v>
       </c>
       <c r="E14" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -16862,7 +16842,7 @@
         <v>889</v>
       </c>
       <c r="E15" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -16879,7 +16859,7 @@
         <v>889</v>
       </c>
       <c r="E16" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -16896,7 +16876,7 @@
         <v>889</v>
       </c>
       <c r="E17" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -16913,7 +16893,7 @@
         <v>889</v>
       </c>
       <c r="E18" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -16930,7 +16910,7 @@
         <v>889</v>
       </c>
       <c r="E19" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -16947,7 +16927,7 @@
         <v>889</v>
       </c>
       <c r="E20" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -16964,7 +16944,7 @@
         <v>889</v>
       </c>
       <c r="E21" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -16981,7 +16961,7 @@
         <v>889</v>
       </c>
       <c r="E22" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -16998,7 +16978,7 @@
         <v>889</v>
       </c>
       <c r="E23" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -17015,7 +16995,7 @@
         <v>889</v>
       </c>
       <c r="E24" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -17032,7 +17012,7 @@
         <v>889</v>
       </c>
       <c r="E25" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -17049,7 +17029,7 @@
         <v>889</v>
       </c>
       <c r="E26" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -17066,7 +17046,7 @@
         <v>889</v>
       </c>
       <c r="E27" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -17083,7 +17063,7 @@
         <v>889</v>
       </c>
       <c r="E28" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -17100,7 +17080,7 @@
         <v>889</v>
       </c>
       <c r="E29" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -17117,7 +17097,7 @@
         <v>889</v>
       </c>
       <c r="E30" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -17134,7 +17114,7 @@
         <v>889</v>
       </c>
       <c r="E31" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -17142,16 +17122,16 @@
         <v>936</v>
       </c>
       <c r="B32" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C32" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D32" t="s">
         <v>889</v>
       </c>
       <c r="E32" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -17168,7 +17148,7 @@
         <v>889</v>
       </c>
       <c r="E33" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -17176,7 +17156,7 @@
         <v>974</v>
       </c>
       <c r="B34" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C34" t="s">
         <v>937</v>
@@ -17185,7 +17165,7 @@
         <v>889</v>
       </c>
       <c r="E34" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -17202,7 +17182,7 @@
         <v>889</v>
       </c>
       <c r="E35" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -17219,7 +17199,7 @@
         <v>889</v>
       </c>
       <c r="E36" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -17236,7 +17216,7 @@
         <v>889</v>
       </c>
       <c r="E37" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -17253,7 +17233,7 @@
         <v>889</v>
       </c>
       <c r="E38" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -17270,7 +17250,7 @@
         <v>889</v>
       </c>
       <c r="E39" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -17287,7 +17267,7 @@
         <v>889</v>
       </c>
       <c r="E40" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -17298,13 +17278,13 @@
         <v>887</v>
       </c>
       <c r="C41" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D41" t="s">
         <v>889</v>
       </c>
       <c r="E41" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -17312,16 +17292,16 @@
         <v>890</v>
       </c>
       <c r="B42" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>1252</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>1253</v>
       </c>
       <c r="D42" t="s">
         <v>889</v>
       </c>
       <c r="E42" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -17329,16 +17309,16 @@
         <v>891</v>
       </c>
       <c r="B43" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C43" t="s">
         <v>1254</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1255</v>
       </c>
       <c r="D43" t="s">
         <v>889</v>
       </c>
       <c r="E43" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -17355,7 +17335,7 @@
         <v>886</v>
       </c>
       <c r="E44" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -17372,7 +17352,7 @@
         <v>886</v>
       </c>
       <c r="E45" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -17380,16 +17360,16 @@
         <v>894</v>
       </c>
       <c r="B46" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C46" t="s">
         <v>1256</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1257</v>
       </c>
       <c r="D46" t="s">
         <v>889</v>
       </c>
       <c r="E46" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -17400,13 +17380,13 @@
         <v>898</v>
       </c>
       <c r="C47" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D47" t="s">
         <v>889</v>
       </c>
       <c r="E47" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -17414,16 +17394,16 @@
         <v>900</v>
       </c>
       <c r="B48" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C48" t="s">
         <v>1258</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1259</v>
       </c>
       <c r="D48" t="s">
         <v>889</v>
       </c>
       <c r="E48" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -17440,7 +17420,7 @@
         <v>886</v>
       </c>
       <c r="E49" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -17451,13 +17431,13 @@
         <v>902</v>
       </c>
       <c r="C50" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D50" t="s">
         <v>889</v>
       </c>
       <c r="E50" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -17474,7 +17454,7 @@
         <v>886</v>
       </c>
       <c r="E51" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -17485,13 +17465,13 @@
         <v>908</v>
       </c>
       <c r="C52" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D52" t="s">
         <v>889</v>
       </c>
       <c r="E52" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -17499,16 +17479,16 @@
         <v>909</v>
       </c>
       <c r="B53" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C53" t="s">
         <v>1275</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1276</v>
       </c>
       <c r="D53" t="s">
         <v>889</v>
       </c>
       <c r="E53" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -17519,13 +17499,13 @@
         <v>928</v>
       </c>
       <c r="C54" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D54" t="s">
         <v>889</v>
       </c>
       <c r="E54" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -17542,7 +17522,7 @@
         <v>886</v>
       </c>
       <c r="E55" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -17553,13 +17533,13 @@
         <v>930</v>
       </c>
       <c r="C56" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D56" t="s">
         <v>889</v>
       </c>
       <c r="E56" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -17570,13 +17550,13 @@
         <v>931</v>
       </c>
       <c r="C57" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D57" t="s">
         <v>889</v>
       </c>
       <c r="E57" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -17584,16 +17564,16 @@
         <v>941</v>
       </c>
       <c r="B58" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C58" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D58" t="s">
         <v>889</v>
       </c>
       <c r="E58" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -17601,16 +17581,16 @@
         <v>942</v>
       </c>
       <c r="B59" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C59" t="s">
         <v>1265</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1266</v>
       </c>
       <c r="D59" t="s">
         <v>889</v>
       </c>
       <c r="E59" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -17618,16 +17598,16 @@
         <v>943</v>
       </c>
       <c r="B60" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C60" t="s">
         <v>1267</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1268</v>
       </c>
       <c r="D60" t="s">
         <v>889</v>
       </c>
       <c r="E60" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -17635,16 +17615,16 @@
         <v>944</v>
       </c>
       <c r="B61" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C61" t="s">
         <v>1269</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1270</v>
       </c>
       <c r="D61" t="s">
         <v>889</v>
       </c>
       <c r="E61" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -17655,13 +17635,13 @@
         <v>945</v>
       </c>
       <c r="C62" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D62" t="s">
         <v>889</v>
       </c>
       <c r="E62" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -17678,7 +17658,7 @@
         <v>886</v>
       </c>
       <c r="E63" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -17689,13 +17669,13 @@
         <v>947</v>
       </c>
       <c r="C64" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D64" t="s">
         <v>889</v>
       </c>
       <c r="E64" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -17703,16 +17683,16 @@
         <v>949</v>
       </c>
       <c r="B65" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C65" t="s">
         <v>1277</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1278</v>
       </c>
       <c r="D65" t="s">
         <v>889</v>
       </c>
       <c r="E65" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -17720,16 +17700,16 @@
         <v>950</v>
       </c>
       <c r="B66" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C66" t="s">
         <v>1271</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1272</v>
       </c>
       <c r="D66" t="s">
         <v>889</v>
       </c>
       <c r="E66" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -17737,16 +17717,16 @@
         <v>975</v>
       </c>
       <c r="B67" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>1273</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>1274</v>
       </c>
       <c r="D67" t="s">
         <v>889</v>
       </c>
       <c r="E67" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -17763,7 +17743,7 @@
         <v>889</v>
       </c>
       <c r="E68" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -17780,7 +17760,7 @@
         <v>889</v>
       </c>
       <c r="E69" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -17797,7 +17777,7 @@
         <v>889</v>
       </c>
       <c r="E70" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -17814,7 +17794,7 @@
         <v>889</v>
       </c>
       <c r="E71" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -17831,7 +17811,7 @@
         <v>889</v>
       </c>
       <c r="E72" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -17848,7 +17828,7 @@
         <v>889</v>
       </c>
       <c r="E73" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -17865,7 +17845,7 @@
         <v>889</v>
       </c>
       <c r="E74" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -17882,7 +17862,7 @@
         <v>889</v>
       </c>
       <c r="E75" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -17899,7 +17879,7 @@
         <v>889</v>
       </c>
       <c r="E76" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
   </sheetData>
@@ -17922,7 +17902,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.42578125" customWidth="1"/>
     <col min="2" max="2" width="47.28515625" customWidth="1"/>
@@ -17930,7 +17910,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>8</v>
@@ -17938,7 +17918,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>567</v>
@@ -17946,7 +17926,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>567</v>
@@ -17954,7 +17934,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>567</v>
@@ -17962,7 +17942,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>567</v>
@@ -17970,7 +17950,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>567</v>
@@ -17978,7 +17958,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>567</v>
@@ -17986,7 +17966,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>567</v>
@@ -17994,7 +17974,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>567</v>
@@ -18002,7 +17982,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>567</v>
@@ -18010,7 +17990,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>567</v>
@@ -18018,7 +17998,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>567</v>
@@ -18026,7 +18006,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>567</v>
@@ -18034,7 +18014,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>567</v>
@@ -18042,7 +18022,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>567</v>
@@ -18050,7 +18030,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>567</v>
@@ -18058,7 +18038,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>567</v>
@@ -18066,7 +18046,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>567</v>
@@ -18074,7 +18054,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>567</v>
@@ -18082,7 +18062,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>567</v>
@@ -18090,7 +18070,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>567</v>
@@ -18098,7 +18078,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>567</v>
@@ -18106,7 +18086,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>567</v>
@@ -18114,7 +18094,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>567</v>
@@ -18122,7 +18102,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B25" s="27" t="s">
         <v>567</v>
@@ -18130,7 +18110,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B26" s="27" t="s">
         <v>567</v>
@@ -18138,7 +18118,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B27" s="27" t="s">
         <v>567</v>
@@ -18146,7 +18126,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>567</v>
@@ -18154,7 +18134,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B29" s="27" t="s">
         <v>567</v>
@@ -18162,7 +18142,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B30" s="27" t="s">
         <v>567</v>
@@ -18170,7 +18150,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B31" s="27" t="s">
         <v>567</v>
@@ -18178,7 +18158,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B32" s="27" t="s">
         <v>567</v>
@@ -18186,7 +18166,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>567</v>
@@ -18205,7 +18185,7 @@
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
     <col min="2" max="2" width="53.5703125" customWidth="1"/>
@@ -18221,7 +18201,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B2" t="s">
         <v>564</v>
@@ -18229,7 +18209,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>564</v>
@@ -18237,7 +18217,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>564</v>
@@ -18245,7 +18225,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>564</v>
@@ -18253,7 +18233,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>564</v>
@@ -18261,7 +18241,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>564</v>
@@ -18269,7 +18249,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -18277,7 +18257,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>9</v>
@@ -18285,7 +18265,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>9</v>
@@ -18293,7 +18273,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>9</v>
@@ -18301,7 +18281,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>9</v>
@@ -18309,7 +18289,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>9</v>
@@ -18317,7 +18297,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>564</v>
@@ -18325,7 +18305,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>9</v>
@@ -18333,7 +18313,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>564</v>
@@ -18341,7 +18321,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>9</v>
@@ -18349,7 +18329,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>9</v>
@@ -18357,7 +18337,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>9</v>
@@ -18365,7 +18345,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>9</v>
@@ -18373,7 +18353,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>9</v>
@@ -18381,7 +18361,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>9</v>
@@ -18389,7 +18369,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>564</v>
@@ -18397,7 +18377,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>564</v>
@@ -18405,7 +18385,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B25" s="27" t="s">
         <v>9</v>
@@ -18413,7 +18393,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B26" s="27" t="s">
         <v>9</v>
@@ -18421,7 +18401,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B27" t="s">
         <v>567</v>
@@ -18429,7 +18409,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>564</v>
@@ -18437,7 +18417,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B29" s="27" t="s">
         <v>564</v>
@@ -18445,7 +18425,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B30" s="27" t="s">
         <v>9</v>
@@ -18453,7 +18433,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B31" s="27" t="s">
         <v>567</v>
@@ -18461,7 +18441,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B32" s="27" t="s">
         <v>567</v>
@@ -18469,7 +18449,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>9</v>
@@ -18477,7 +18457,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B34" s="27" t="s">
         <v>9</v>
@@ -18485,7 +18465,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B35" s="27" t="s">
         <v>9</v>
@@ -18493,7 +18473,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B36" s="27" t="s">
         <v>9</v>
@@ -18501,7 +18481,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B37" s="27" t="s">
         <v>9</v>
@@ -18509,7 +18489,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B38" s="27" t="s">
         <v>9</v>
@@ -18517,7 +18497,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B39" s="27" t="s">
         <v>9</v>
@@ -18525,7 +18505,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B40" s="27" t="s">
         <v>9</v>
@@ -18533,7 +18513,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B41" s="27" t="s">
         <v>564</v>
@@ -18552,7 +18532,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="30.140625" customWidth="1"/>
@@ -18717,7 +18697,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -18836,7 +18816,7 @@
       <selection activeCell="C80" sqref="C1:C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="44.28515625" customWidth="1"/>
@@ -19735,7 +19715,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
     <col min="3" max="3" width="58" customWidth="1"/>
@@ -19743,13 +19723,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C1" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -19760,139 +19740,139 @@
         <v>213</v>
       </c>
       <c r="C2" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B3" t="s">
         <v>206</v>
       </c>
       <c r="C3" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B4" t="s">
         <v>213</v>
       </c>
       <c r="C4" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B5" t="s">
         <v>213</v>
       </c>
       <c r="C5" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B6" t="s">
         <v>203</v>
       </c>
       <c r="C6" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B7" t="s">
         <v>199</v>
       </c>
       <c r="C7" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B8" t="s">
         <v>213</v>
       </c>
       <c r="C8" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B9" t="s">
         <v>213</v>
       </c>
       <c r="C9" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B10" t="s">
         <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B11" t="s">
         <v>214</v>
       </c>
       <c r="C11" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B12" t="s">
         <v>213</v>
       </c>
       <c r="C12" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B13" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C13" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B14" t="s">
         <v>205</v>
       </c>
       <c r="C14" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
   </sheetData>
@@ -19902,13 +19882,13 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -20310,7 +20290,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B29" s="28" t="s">
         <v>226</v>
@@ -20338,7 +20318,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B31" s="30" t="s">
         <v>221</v>
@@ -20352,7 +20332,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>226</v>
@@ -20366,7 +20346,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>25</v>
@@ -20376,20 +20356,6 @@
       </c>
       <c r="D33" s="27" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>1484</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -20406,14 +20372,14 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -20429,7 +20395,7 @@
         <v>860</v>
       </c>
       <c r="B3" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -20437,7 +20403,7 @@
         <v>245</v>
       </c>
       <c r="B4" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -20445,7 +20411,7 @@
         <v>226</v>
       </c>
       <c r="B5" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -20461,7 +20427,7 @@
         <v>861</v>
       </c>
       <c r="B7" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -20469,7 +20435,7 @@
         <v>250</v>
       </c>
       <c r="B8" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -20485,7 +20451,7 @@
         <v>236</v>
       </c>
       <c r="B10" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -20493,7 +20459,7 @@
         <v>863</v>
       </c>
       <c r="B11" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -20501,7 +20467,7 @@
         <v>864</v>
       </c>
       <c r="B12" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -20509,7 +20475,7 @@
         <v>253</v>
       </c>
       <c r="B13" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -20517,7 +20483,7 @@
         <v>262</v>
       </c>
       <c r="B14" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -20525,7 +20491,7 @@
         <v>865</v>
       </c>
       <c r="B15" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -20549,7 +20515,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.42578125" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
@@ -21680,7 +21646,7 @@
       <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="78.7109375" customWidth="1"/>
     <col min="2" max="2" width="43.42578125" customWidth="1"/>
@@ -21870,7 +21836,7 @@
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
@@ -22769,7 +22735,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="74.85546875" customWidth="1"/>
@@ -23669,7 +23635,7 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
@@ -23932,7 +23898,7 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -23967,7 +23933,7 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
   </cols>
@@ -24301,7 +24267,7 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.5703125" customWidth="1"/>
   </cols>

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngariepy\Documents\GitHub\fgp-metadata-proxy\FME_files\LOOKUP_TABLES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robennet\Documents\GitHub\fgp-metadata-proxy\FME_files\LOOKUP_TABLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Codespace" sheetId="12" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5044" uniqueCount="1483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5052" uniqueCount="1485">
   <si>
     <t>default_key</t>
   </si>
@@ -4508,6 +4508,12 @@
   </si>
   <si>
     <t>Quebec Government and Municipalities</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">application/msaccess </t>
   </si>
 </sst>
 </file>
@@ -4646,8 +4652,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="3"/>
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
@@ -4933,7 +4939,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
@@ -5001,7 +5007,7 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" customWidth="1"/>
@@ -5281,11 +5287,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
@@ -5628,7 +5634,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.7109375" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
@@ -5977,13 +5983,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F470"/>
+  <dimension ref="A1:F471"/>
   <sheetViews>
-    <sheetView topLeftCell="A286" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A338" sqref="A338"/>
+    <sheetView tabSelected="1" topLeftCell="A439" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B471" sqref="B471:D471"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="168.42578125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
@@ -12663,6 +12669,20 @@
         <v>274</v>
       </c>
       <c r="D470" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B471" s="27" t="s">
+        <v>783</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D471" s="27" t="s">
         <v>275</v>
       </c>
     </row>
@@ -12683,7 +12703,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -13059,7 +13079,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -13103,7 +13123,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
@@ -13278,7 +13298,7 @@
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -13990,7 +14010,7 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" customWidth="1"/>
   </cols>
@@ -14208,7 +14228,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
@@ -14291,7 +14311,7 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.42578125" customWidth="1"/>
     <col min="2" max="2" width="45.140625" customWidth="1"/>
@@ -15268,7 +15288,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" customWidth="1"/>
@@ -15443,7 +15463,7 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="2" width="43.28515625" customWidth="1"/>
@@ -15947,7 +15967,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -16010,7 +16030,7 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="38.85546875" customWidth="1"/>
@@ -16269,7 +16289,7 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.85546875" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
@@ -16581,7 +16601,7 @@
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="82" customWidth="1"/>
     <col min="2" max="2" width="95" customWidth="1"/>
@@ -17902,7 +17922,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.42578125" customWidth="1"/>
     <col min="2" max="2" width="47.28515625" customWidth="1"/>
@@ -18185,7 +18205,7 @@
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
     <col min="2" max="2" width="53.5703125" customWidth="1"/>
@@ -18532,7 +18552,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="30.140625" customWidth="1"/>
@@ -18697,7 +18717,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -18816,7 +18836,7 @@
       <selection activeCell="C80" sqref="C1:C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="44.28515625" customWidth="1"/>
@@ -19715,7 +19735,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
     <col min="3" max="3" width="58" customWidth="1"/>
@@ -19882,13 +19902,13 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:D33"/>
+      <selection activeCell="B34" sqref="B34:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -20356,6 +20376,20 @@
       </c>
       <c r="D33" s="27" t="s">
         <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -20372,7 +20406,7 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -20515,7 +20549,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.42578125" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
@@ -21646,7 +21680,7 @@
       <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="78.7109375" customWidth="1"/>
     <col min="2" max="2" width="43.42578125" customWidth="1"/>
@@ -21836,7 +21870,7 @@
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
@@ -22735,7 +22769,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="74.85546875" customWidth="1"/>
@@ -23635,7 +23669,7 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
@@ -23898,7 +23932,7 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -23933,7 +23967,7 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
   </cols>
@@ -24267,7 +24301,7 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.5703125" customWidth="1"/>
   </cols>

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robennet\Documents\GitHub\fgp-metadata-proxy\FME_files\LOOKUP_TABLES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\PT_Harvester\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="17" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Codespace" sheetId="12" r:id="rId1"/>
@@ -46,6 +46,7 @@
     <sheet name="UpdateFrequency_TBS_QC" sheetId="29" r:id="rId32"/>
     <sheet name="UUID_Spatial_BC" sheetId="26" r:id="rId33"/>
     <sheet name="UUID_Spatial_QC" sheetId="24" r:id="rId34"/>
+    <sheet name="WMS_URL_QC" sheetId="38" r:id="rId35"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5052" uniqueCount="1485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5257" uniqueCount="1678">
   <si>
     <t>default_key</t>
   </si>
@@ -4514,12 +4515,594 @@
   </si>
   <si>
     <t xml:space="preserve">application/msaccess </t>
+  </si>
+  <si>
+    <t>http://carte.ville.quebec.qc.ca/arcgis/services/DonneesOuverte/VilledeQuebec/MapServer/WMSServer?service=WMS&amp;request=GetCapabilities&amp;layers=1&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>0d9de0d6-9873-4a8c-adc7-0e94d51b3fa0</t>
+  </si>
+  <si>
+    <t>http://cartopublic.affmunqc.net/geoserver/ZI/ows?SERVICE=WMS&amp;request=GetCapabilities&amp;layers=ZonesInon_PPAT&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>236dea45-f960-4d28-b36e-b89d01aecf44</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/apis/wss/inondation2020.fcgi?service=wms&amp;query=GetCapabilities&amp;layers=MSP&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/adnInternetV2.fcgi?service=wms&amp;version=1.3.0&amp;request=getcapabilities&amp;layers=ADN_INTERNET_SECURITE_PUBLIQUE_V2&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>31a13f95-e506-43ff-9e4b-219d900409ae</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/igo_gouvouvert.fcgi?request=getcapabilities&amp;service=wms&amp;version=1.3.0&amp;layers=CASERNE&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>39bdcc75-dbaf-424d-9dbd-265c282f14f5</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/igo_gouvouvert.fcgi?request=getcapabilities&amp;service=wms&amp;version=1.3.0&amp;layers=MSP/Securite%20civile/Historiques/GrandeMaree2010&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>b35078ae-f1a6-4f9a-a9d2-b00244ae1e84</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/igo_gouvouvert.fcgi?request=getcapabilities&amp;service=wms&amp;version=1.3.0&amp;layers=MCC_V_SITE_PATRIMONIAL_DECLARE_S&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>16b5e6bf-3fb6-4d4d-a87d-c79b7bfe8d9d</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/igo_gouvouvert.fcgi?request=getcapabilities&amp;service=wms&amp;version=1.3.0&amp;layers=vg_observation_v_inondation_embacle_wmst&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>6a052cb5-42e6-4735-8626-02f62f1294d0</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/igo_gouvouvert.fcgi?request=getcapabilities&amp;service=wms&amp;version=1.3.0&amp;layers=MSP_DESSERTE_MUN_911&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>55e8333f-f679-48e2-abfe-944fc9022ae7</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/igo_gouvouvert.fcgi?request=getcapabilities&amp;service=wms&amp;version=1.3.0&amp;layers=MCC_V_SITE_PATRIMONIAL_NATIONAL_S&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>c3d54554-6f25-4117-a573-cf21dcdc9644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://geoegl.msp.gouv.qc.ca/ws/igo_gouvouvert.fcgi?request=getcapabilities&amp;service=wms&amp;version=1.3.0&amp;layers=MCC_V_IP_CITE_P&amp;legend_format=image/png&amp;feature_info_type=text/plain
+</t>
+  </si>
+  <si>
+    <t>a4209cea-3aeb-4e64-8dab-2e2ae19dafe9</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/igo_gouvouvert.fcgi?request=getcapabilities&amp;service=wms&amp;version=1.3.0&amp;layers=MSP/Securite%20civile/Historiques/LacMegantic&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>e319097a-0d0a-4a73-aa55-a35cd0ec9735</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/igo_gouvouvert.fcgi?request=getcapabilities&amp;service=wms&amp;version=1.3.0&amp;layers=VILLE_DE_QUEBEC_CANOPE_S&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>34ca1a49-a020-4f60-986b-69fb4cfa852a</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/igo_gouvouvert.fcgi?request=getcapabilities&amp;service=wms&amp;version=1.3.0&amp;layers=MCC_V_SITE_PATRIMONIAL_CITE_P&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>34085f6d-106a-41af-a29b-53ed6947c249</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/igo_gouvouvert.fcgi?request=getcapabilities&amp;service=wms&amp;version=1.3.0&amp;layers=MSP/Securite%20civile/Historiques/Inondation2017&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>cbc3a496-cc0f-4930-bc91-b351373110f6</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/igo_gouvouvert.fcgi?request=getcapabilities&amp;service=wms&amp;version=1.3.0&amp;layers=msp_echelle_limnimetrique&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>112cc734-a6e7-4dbf-81bf-f26876741744</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/igo_gouvouvert.fcgi?request=getcapabilities&amp;service=wms&amp;version=1.3.0&amp;layers=vg_observation_v_autre_wmst&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>2d485e34-356c-4d66-99e9-9baf1eade1a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://geoegl.msp.gouv.qc.ca/ws/igo_gouvouvert.fcgi?request=getcapabilities&amp;service=wms&amp;version=1.3.0&amp;layers=MSP_ORG_SAUVETAGE_GEO_P&amp;legend_format=image/png&amp;feature_info_type=text/plain
+</t>
+  </si>
+  <si>
+    <t>583b35e2-e513-429b-82c3-d268e66b859d</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/igo_gouvouvert.fcgi?request=getcapabilities&amp;service=wms&amp;version=1.3.0&amp;layers=MSP_DIRECTION_REG_COG_S&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>80a9b8e6-6426-44df-bffa-4f02065b81e3</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/igo_gouvouvert.fcgi?request=getcapabilities&amp;service=wms&amp;version=1.3.0&amp;layers=MSP_DIRECTION_REG_COG_P&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>5a02125e-f002-4452-bd60-4de2314ea5b2</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/igo_gouvouvert.fcgi?request=getcapabilities&amp;service=wms&amp;version=1.3.0&amp;layers=MSP_ASC_INDEX_DGLOBE_SELECT_S&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://geoegl.msp.gouv.qc.ca/ws/igo_gouvouvert.fcgi?request=getcapabilities&amp;service=wms&amp;version=1.3.0&amp;layers=MEGANTIC_AEROPHOTO&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>df99bb67-317c-435b-8f9a-50de5fa9729a</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/inondation2019.fcgi?request=getcapabilities&amp;service=wms&amp;layers=INONDATION2019&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>0b399378-eff8-4cea-97b8-b307c9b2398a</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/mffpecofor.fcgi?request=getcapabilities&amp;service=wms&amp;layers=nord_nord_veg&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>2df11367-cc4a-402b-bf40-baa0b677d1c1</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/mffpecofor.fcgi?request=getcapabilities&amp;service=wms&amp;layers=pentes&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>adb57bd6-40bb-48b3-b7cc-ccadac7d4176</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/mffpecofor.fcgi?request=getcapabilities&amp;service=wms&amp;layers=non_forestiers_annuels&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>1dad27d7-5111-49bb-8809-a8d3e86ad9ce</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/mffpecofor.fcgi?request=getcapabilities&amp;service=wms&amp;layers=ca_pertu_autre&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>41b6f76b-3682-48a5-bf2b-68e7438281bd</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/mffpecofor.fcgi?request=getcapabilities&amp;service=wms&amp;layers=ca_interv_fores&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>a232475f-ec3d-476a-8725-d0c12367b3f0</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/mffpecofor.fcgi?request=getcapabilities&amp;service=wms&amp;layers=produits_ecoforestiers&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>baad3bb6-5879-4e34-a4a6-a43212706cb7</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/mffpecofor.fcgi?request=getcapabilities&amp;service=wms&amp;layers=volumes_forestiers&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>18f26f05-e2a2-4066-8f7f-4ee0db894bdf</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/mffpecofor.fcgi?request=getcapabilities&amp;service=wms&amp;layers=sond_pet5&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/mffpecofor.fcgi?request=getcapabilities&amp;service=wms&amp;layers=mosaiques_forestieres&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>fbdec18f-c749-4f79-9d83-a2a839380d09</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/mffpecofor.fcgi?request=getcapabilities&amp;service=wms&amp;layers=MFFP-DIF&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>f1dd4c82-abe6-4fdb-9ba7-584043432de5</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/mffpecofor.fcgi?request=getcapabilities&amp;service=wms&amp;layers=nord_photo_oblique&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>9d8f219c-4df0-4481-926f-8a2a532ca003</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/mffpecofor.fcgi?request=getcapabilities&amp;service=wms&amp;layers=ca_feux&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>571439a0-b6c1-44a5-a7bd-99b754156a7a</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/mffpecofor.fcgi?request=getcapabilities&amp;service=wms&amp;layers=nord_dep_sur&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>6ec9e3a5-e83b-4938-9a8f-30691297d2a3</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/mffpecofor.fcgi?request=getcapabilities&amp;service=wms&amp;layers=classi_eco_terri&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>5c23ae26-9234-440a-8052-2b64dda605af</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/mffpecofor.fcgi?request=getcapabilities&amp;service=wms&amp;layers=sond_pet4&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>385e5609-ab31-4585-aa5f-5bfa2a14c857</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/mffpecofor.fcgi?request=getcapabilities&amp;service=wms&amp;layers=sond_pet3&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>c6d8ea75-05e7-44cc-a359-356f6e79351e</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/mffpecofor.fcgi?request=getcapabilities&amp;service=wms&amp;layers=sond_pet2&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>5e5d2750-d129-4952-b9fc-f824c5e480b4</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/mffpecofor.fcgi?request=getcapabilities&amp;service=wms&amp;layers=lidar&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/radarsat.fcgi?service=wms&amp;version=1.3.0&amp;request=getcapabilities&amp;layers=RADARSAT&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>37d944eb-335b-40fe-8d80-835ff77bc5cb</t>
+  </si>
+  <si>
+    <t>https://infogeo.education.gouv.qc.ca/arcgis/services/DonneesOuvertes/SW_MEES/MapServer/WMSServer?request=GetCapabilities&amp;service=WMS&amp;layers=1,2,3,4,5,6,7,8&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>2d3b5cf8-b347-49c7-ad3b-bd6a9c15e443</t>
+  </si>
+  <si>
+    <t>https://infogeo.education.gouv.qc.ca/arcgis/services/DonneesOuvertes/SW_MEES/MapServer/WMSServer?request=GetCapabilities&amp;service=WMS&amp;layers=9,10,11,12,13,14,15,16,17,18,19,20,21&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>8dc04c10-708e-4afa-813e-acb96c3101a1</t>
+  </si>
+  <si>
+    <t>https://servicesmatriciels.mern.gouv.qc.ca/erdas-iws/ogc/wms/Cartes_Images?service=WMS&amp;REQUEST=GetCapabilities&amp;layers=BDTQ-20K&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>d3812df2-6988-409d-a626-ccbc58a59431</t>
+  </si>
+  <si>
+    <t>https://servicesmatriciels.mern.gouv.qc.ca/erdas-iws/ogc/wms/Cartes_Images?service=WMS&amp;REQUEST=GetCapabilities&amp;layers=BDAT-100K&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>1f2065a4-314f-4740-b091-43ac9e9e7019</t>
+  </si>
+  <si>
+    <t>https://servicesmatriciels.mern.gouv.qc.ca/erdas-iws/ogc/wms/Cartes_Images?service=WMS&amp;REQUEST=GetCapabilities&amp;layers=BDGA-1M_Carte_Generale_Couleur_Estompage&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>50ea1add-c7d3-4425-a695-e49618cf7ffe</t>
+  </si>
+  <si>
+    <t>https://servicesmatriciels.mern.gouv.qc.ca/erdas-iws/ogc/wms/Elevation?SERVICE=WMS&amp;REQUEST=GetCapabilities&amp;layers=Regional_MNT-HC_MNT-HC-REGIONAL&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>67026550-762c-4c4b-8296-a8a709e1d850</t>
+  </si>
+  <si>
+    <t>https://servicesmatriciels.mern.gouv.qc.ca/erdas-iws/ogc/wms/Elevation?SERVICE=WMS&amp;REQUEST=GetCapabilities&amp;layers=Regional_MNA3D-Quebec-2M_Relief&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>855433d7-899d-40cc-bd89-a1253f5f6e0d</t>
+  </si>
+  <si>
+    <t>https://servicesvecto2-atlas.mrnf.gouv.qc.ca/IDS_CSTF_UA_WMS/service.svc/get?request=GetCapabilities&amp;service=WMS&amp;layers=Unite_d_amenagement_20K&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>fecb8382-19c7-4c73-87a5-2e2a3621a345</t>
+  </si>
+  <si>
+    <t>https://servicesvectoriels.atlas.gouv.qc.ca/IDS_INDEX_INVENTAIRE_ECOFORESTIER_HISTORIQUE_WMS/service.svc/get?request=GetCapabilities&amp;service=WMS&amp;layers=Index_Inventaire_Ecoforestier_Historique&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>98e6ddb5-e933-4145-aa76-6db89e9372cf</t>
+  </si>
+  <si>
+    <t>https://servicesvectoriels.atlas.gouv.qc.ca/IDS_INVENTAIRE_ECOFORESTIER_WMS/service.svc/get?request=GetCapabilities&amp;service=WMS&amp;layers=Index_Inventaire_Ecoforestier_Continue&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>7dcb80a6-eb36-47fd-88d7-5f61562cc48a</t>
+  </si>
+  <si>
+    <t>https://servicesvectoriels.atlas.gouv.qc.ca/IDS_SGM_WMS/service.svc/get?request=getcapabilities&amp;service=wms&amp;layers=Rapports_travaux&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>0fd31a5f-2ede-4ded-b0a0-5f9de5f9d001</t>
+  </si>
+  <si>
+    <t>https://servicesvectoriels.atlas.gouv.qc.ca/IDS_SGM_WMS/service.svc/get?request=getcapabilities&amp;service=wms&amp;layers=Travaux_geoscientifiques&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>2f367972-7a55-47f9-aaa6-6d3939b7136f</t>
+  </si>
+  <si>
+    <t>https://servicesvectoriels.atlas.gouv.qc.ca/IDS_SGM_WMS/service.svc/get?request=getcapabilities&amp;service=wms&amp;layers=SGM:Dem_sondages&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>04e19eaa-1e18-428e-9118-7ba11e85bf1b</t>
+  </si>
+  <si>
+    <t>https://servicesvectoriels.atlas.gouv.qc.ca/IDS_SGM_WMS/service.svc/get?request=getcapabilities&amp;service=wms&amp;layers=Granulats&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>1e602430-4f03-48a3-a249-104779fccac6</t>
+  </si>
+  <si>
+    <t>https://servicesvectoriels.atlas.gouv.qc.ca/IDS_SGM_WMS/service.svc/get?request=getcapabilities&amp;service=wms&amp;layers=Potentiel_mineral&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>385fc451-3e3d-4e61-80e1-80df8a033be7</t>
+  </si>
+  <si>
+    <t>https://servicesvectoriels.atlas.gouv.qc.ca/IDS_SGM_WMS/service.svc/get?request=getcapabilities&amp;service=wms&amp;layers=Indices_gites_mines_carrieres&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>0d4f0d20-f775-4b89-a363-48bb4c99c17c</t>
+  </si>
+  <si>
+    <t>https://servicesvectoriels.atlas.gouv.qc.ca/IDS_SGM_WMS/service.svc/get?request=getcapabilities&amp;service=wms&amp;layers=Anomalies électromagnétiques&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>3b7fb055-02da-46f7-83df-783f8d26c3a4</t>
+  </si>
+  <si>
+    <t>https://servicesvectoriels.atlas.gouv.qc.ca/IDS_SGM_WMS/service.svc/get?request=getcapabilities&amp;service=wms&amp;layers=Geologie_socle&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>26151c46-4216-4815-9726-b252b040c01d</t>
+  </si>
+  <si>
+    <t>https://servicesvectoriels.atlas.gouv.qc.ca/IDS_SGM_WMS/service.svc/get?request=getcapabilities&amp;service=wms&amp;layers=SGM:Dem_geologie_quaternaire&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>dca37671-50bf-456f-86d7-96a2eb455985</t>
+  </si>
+  <si>
+    <t>https://servicesvectoriels.atlas.gouv.qc.ca/IDS_SGM_WMS/service.svc/get?request=getcapabilities&amp;service=wms&amp;layers=Geochronologie&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>6cc7468b-c687-4eca-a3ae-cdd1e63d90b4</t>
+  </si>
+  <si>
+    <t>https://servicesvectoriels.atlas.gouv.qc.ca/IDS_SGM_WMS/service.svc/get?request=getcapabilities&amp;service=wms&amp;layers=SGM:Dem_geochimie&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>963a87c9-3206-4221-b932-2ec5a0bee0e4</t>
+  </si>
+  <si>
+    <t>https://servicesvectoriels.atlas.gouv.qc.ca/IDS_SGM_WMS/service.svc/get?request=getcapabilities&amp;service=wms&amp;layers=Activites_minieres&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>f08604dc-f3ae-4150-bcaf-e6be5174e21b</t>
+  </si>
+  <si>
+    <t>https://servicesvectoriels.atlas.gouv.qc.ca/IDS_SGM_WMS/service.svc/get?request=getcapabilities&amp;service=wms&amp;layers=Milieux_tourbeux&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>https://ws.mapserver.transports.gouv.qc.ca/swtq?service=wms&amp;request=getcapabilities&amp;layers=pes_v_limtn_charg&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>1dc7fe7f-4eb4-4d9b-a254-e48771bf49b7</t>
+  </si>
+  <si>
+    <t>https://ws.mapserver.transports.gouv.qc.ca/swtq?service=wms&amp;request=getcapabilities&amp;layers=conditions_routieres&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>0e94f067-713a-4d3e-9f84-5d940ca65a04</t>
+  </si>
+  <si>
+    <t>https://ws.mapserver.transports.gouv.qc.ca/swtq?service=wms&amp;request=getcapabilities&amp;layers=repere_km&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>c2c4f386-a736-4eaa-b5b6-28c3a8f75466</t>
+  </si>
+  <si>
+    <t>https://ws.mapserver.transports.gouv.qc.ca/swtq?service=wms&amp;request=getcapabilities&amp;layers=reseau_chfer_qc&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>1211010d-9ba0-422a-9910-a8dab0aef0f0</t>
+  </si>
+  <si>
+    <t>https://ws.mapserver.transports.gouv.qc.ca/swtq?service=wms&amp;request=getcapabilities&amp;layers=aq_camion&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>caf5ceb9-a059-40f5-baa8-35170ec2a3f4</t>
+  </si>
+  <si>
+    <t>https://ws.mapserver.transports.gouv.qc.ca/swtq?service=wms&amp;request=getcapabilities&amp;layers=sortie_aut&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>d5fc0e71-a4a9-4c68-bf31-151c7eb5bd6b</t>
+  </si>
+  <si>
+    <t>https://ws.mapserver.transports.gouv.qc.ca/swtq?service=wms&amp;request=getcapabilities&amp;layers=liaison_maritime&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>06b37043-e3d8-46e5-8ffc-759bcc8ccecf</t>
+  </si>
+  <si>
+    <t>https://ws.mapserver.transports.gouv.qc.ca/swtq?service=wms&amp;request=getcapabilities&amp;layers=aeroport&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>6500aeee-1bf0-4b3a-9116-aefefc9f706b</t>
+  </si>
+  <si>
+    <t>https://ws.mapserver.transports.gouv.qc.ca/swtq?service=wms&amp;request=getcapabilities&amp;layers=parc_routier&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>75b512a3-864a-424c-838c-2bd37523219a</t>
+  </si>
+  <si>
+    <t>https://ws.mapserver.transports.gouv.qc.ca/swtq?service=wms&amp;request=getcapabilities&amp;layers=site_inv_geotech_p&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>ac642959-170f-44da-856a-b3014ae5855b</t>
+  </si>
+  <si>
+    <t>https://ws.mapserver.transports.gouv.qc.ca/swtq?service=wms&amp;request=getcapabilities&amp;layers=iit_v_drang_condu_permn_ligne&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>dcf460ae-c27f-4721-bec4-6e4467a5a3b6</t>
+  </si>
+  <si>
+    <t>https://ws.mapserver.transports.gouv.qc.ca/swtq?service=wms&amp;request=getcapabilities&amp;layers=port_installation&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>ea44f51b-2866-4641-9ee7-8b05ebc1b124</t>
+  </si>
+  <si>
+    <t>https://ws.mapserver.transports.gouv.qc.ca/swtq?service=wms&amp;request=getcapabilities&amp;layers=aeroport_piste&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>e6c7f203-3673-485f-83de-f72d9c46b988</t>
+  </si>
+  <si>
+    <t>https://ws.mapserver.transports.gouv.qc.ca/swtq?service=wms&amp;request=getcapabilities&amp;layers=zpegt&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>c77c495a-2a4c-447e-9184-25722289007f</t>
+  </si>
+  <si>
+    <t>https://ws.mapserver.transports.gouv.qc.ca/swtq?service=wms&amp;request=getcapabilities&amp;layers=circulation_routier&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>1f3b874d-f881-4a6c-86ac-cfba856dfafc</t>
+  </si>
+  <si>
+    <t>https://ws.mapserver.transports.gouv.qc.ca/swtq?service=wms&amp;request=getcapabilities&amp;layers=lieuhabite&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>028d9f45-17ee-44d2-995f-035ef7184633</t>
+  </si>
+  <si>
+    <t>https://ws.mapserver.transports.gouv.qc.ca/swtq?service=wms&amp;request=getcapabilities&amp;layers=zones_degel&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>3921b608-712e-4980-a7eb-a8699bb7fd5c</t>
+  </si>
+  <si>
+    <t>https://ws.mapserver.transports.gouv.qc.ca/swtq?service=wms&amp;request=getcapabilities&amp;layers=bgr_v_dirct_genrl_geomt_act&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>8939044a-c0cd-4c98-9060-a77c8b43b0f2</t>
+  </si>
+  <si>
+    <t>https://ws.mapserver.transports.gouv.qc.ca/swtq?service=wms&amp;request=getcapabilities&amp;layers=chantiers_mtmdet&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>0cf9d269-f861-424d-9e70-0c9634302302</t>
+  </si>
+  <si>
+    <t>https://ws.mapserver.transports.gouv.qc.ca/swtq?service=wms&amp;request=getcapabilities&amp;layers=telephone_urg&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>c937deb0-a089-4035-88f1-06b36bfd42c5</t>
+  </si>
+  <si>
+    <t>https://ws.mapserver.transports.gouv.qc.ca/swtq?service=wms&amp;request=getcapabilities&amp;layers=bgr_v_sous_route_res_sup_act&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>0a41958d-ba62-4b5e-b19f-488290ead247</t>
+  </si>
+  <si>
+    <t>https://ws.mapserver.transports.gouv.qc.ca/swtq?service=wms&amp;request=getcapabilities&amp;layers=etablissement_mtq&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>3daf57a7-2284-4c41-8bd8-332d8a35700a</t>
+  </si>
+  <si>
+    <t>https://ws.mapserver.transports.gouv.qc.ca/swtq?service=wms&amp;request=getcapabilities&amp;layers=convi_velo_glv&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>8f8766ba-47da-4043-804d-629c445da97d</t>
+  </si>
+  <si>
+    <t>https://ws.mapserver.transports.gouv.qc.ca/swtq?service=wms&amp;request=getcapabilities&amp;layers=radars_photos&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>d7941cb1-69a8-4e8e-a117-6c0fd12c2037</t>
+  </si>
+  <si>
+    <t>https://ws.mapserver.transports.gouv.qc.ca/swtq?service=wms&amp;request=getcapabilities&amp;layers=stations_meteoroutieres&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>6d65a6ad-af47-4b70-a31f-7b4a14078245</t>
+  </si>
+  <si>
+    <t>https://ws.mapserver.transports.gouv.qc.ca/swtq?service=wms&amp;request=getcapabilities&amp;layers=evenements&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>988dcd41-592c-4f80-9ac2-28d77bbad991</t>
+  </si>
+  <si>
+    <t>https://ws.mapserver.transports.gouv.qc.ca/swtq?service=wms&amp;request=getcapabilities&amp;layers=gsq_v_desc_strct_tri&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>205457ea-986f-4eb4-a003-b7d35719e670</t>
+  </si>
+  <si>
+    <t>https://ws.mapserver.transports.gouv.qc.ca/swtq?service=wms&amp;request=getcapabilities&amp;layers=villagerelais&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>3ac8ddff-fe0a-4a7a-8393-d5938e8f35e5</t>
+  </si>
+  <si>
+    <t>https://www.servicesgeo.enviroweb.gouv.qc.ca/donnees/services/Public/Themes_publics/MapServer/WMSServer?service=wms&amp;request=GetCapabilities&amp;layers=Limites%20des%20feuillets%20cartographiques%20des%20zones%20inondables&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>0206674f-c06b-4664-b36f-414a0cbb224f</t>
+  </si>
+  <si>
+    <t>https://www.servicesgeo.enviroweb.gouv.qc.ca/donnees/services/Public/ZIS_Annexe2_arrete_30dec2019/MapServer/WMSServer?service=wms&amp;request=GetCapabilities&amp;layers=1&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>20dfdb56-8619-42a2-bac4-42259a5fc38b</t>
+  </si>
+  <si>
+    <t>https://www.servicesgeo.enviroweb.gouv.qc.ca/donnees/services/Public/ZIS_Annexe2_modifiee/MapServer/WMSServer?service=wms&amp;request=GetCapabilities&amp;layers=1&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>fef0a7a8-07ee-43d5-93d7-979d12dfcff3</t>
+  </si>
+  <si>
+    <t>https://www.servicesgeo.enviroweb.gouv.qc.ca/donnees/services/Public/ZIS_Annexe_2/MapServer/WMSServer?service=wms&amp;request=GetCapabilities&amp;layers=0&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>Index de métadonnées de planification, suivis et contrôles historiques</t>
+  </si>
+  <si>
+    <t>Service Web d’imagerie pour inondations 2017 et 2019 (WMS)</t>
+  </si>
+  <si>
+    <t>https://servicesmatriciels.mern.gouv.qc.ca/erdas-iws/ogc/wms/Imagerie_MERN?service=WMS&amp;request=GetCapabilities&amp;version=1.3.0&amp;layers=Evenements-Securite-Civile&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>f3e2f105-c464-4d95-89a8-6f851a5c4f7f</t>
+  </si>
+  <si>
+    <t>CC0-1.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4612,7 +5195,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4650,6 +5233,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5985,7 +6571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A439" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A439" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B471" sqref="B471:D471"/>
     </sheetView>
   </sheetViews>
@@ -14222,10 +14808,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14295,6 +14881,14 @@
         <v>1034</v>
       </c>
       <c r="B8" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>886</v>
       </c>
     </row>
@@ -21674,10 +22268,10 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21854,10 +22448,847 @@
         <v>567</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A1:B25">
     <sortCondition ref="A1"/>
   </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C100"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B50" sqref="B2:B50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="54.140625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="180.5703125" style="31" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>986</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>985</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>988</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="27" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="27" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="27" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="27" t="s">
+        <v>987</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="27" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="27" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="27" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="27" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="27" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="27" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="27" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="27" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="27" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="27" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="27" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="27" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="27" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="27" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="27" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="27" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="27" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="27" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="27" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="27" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="27" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="27" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C66" s="31" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="27" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="27" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C68" s="31" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="27" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="27" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="27" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C71" s="31" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="27" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C72" s="31" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="27" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C73" s="31" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="27" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C74" s="31" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="27" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C75" s="31" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="27" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C76" s="31" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="27" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C77" s="31" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="27" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C78" s="31" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="27" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="27" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="27" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="27" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C82" s="31" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="27" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C83" s="31" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="27" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C84" s="31" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="27" t="s">
+        <v>984</v>
+      </c>
+      <c r="C85" s="31" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="27" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C86" s="31" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="27" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C87" s="31" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="27" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C88" s="31" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="27" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C89" s="31" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="27" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C90" s="31" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="27" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C91" s="31" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="27" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C92" s="31" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="27" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C93" s="31" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="27" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C94" s="31" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="27" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C95" s="31" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="27" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C96" s="31" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="27" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C97" s="31" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="27" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C98" s="31" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="27" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C99" s="31" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="27" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C100" s="31" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:C100">
+    <sortCondition ref="C1"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="C24" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22765,7 +24196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\PT_Harvester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngariepy\Documents\GitHub\fgp-metadata-proxy\FME_files\LOOKUP_TABLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="17" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Codespace" sheetId="12" r:id="rId1"/>
@@ -3729,14 +3729,6 @@
     <t>abstract_other_lang_warning_en</t>
   </si>
   <si>
-    <t xml:space="preserve">
-** Cet élément de métadonnées provenant d’une tierce partie a été traduit à l'aide d'un outil de traduction automatisée (Amazon Translate). Pour signaler toute anomalie, veuillez communiquer avec nous à nrcan.fgp-pgf.rncan@canada.ca **</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-**This third party metadata element was translated using an automated translation tool (Amazon Translate). To report any discrepancies, please contact us at nrcan.fgp-pgf.rncan@canada.ca.**</t>
-  </si>
-  <si>
     <t>Gouvernement et municipalités du Québec</t>
   </si>
   <si>
@@ -4143,9 +4135,6 @@
   </si>
   <si>
     <t>RAD Boundaries (ZIP)</t>
-  </si>
-  <si>
-    <t>** Cet élément de métadonnées provenant d’une tierce partie a été traduit à l'aide d'un outil de traduction automatisée (Amazon Translate). Pour signaler toute anomalie, veuillez communiquer avec nous à nrcan.fgp-pgf.rncan@canada.ca **</t>
   </si>
   <si>
     <t>lio@ontario.ca</t>
@@ -5097,12 +5086,23 @@
   </si>
   <si>
     <t>CC0-1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+** Cet élément de métadonnées provenant d’une tierce partie a été traduit à l'aide d'un outil de traduction automatisée (Amazon Translate).**</t>
+  </si>
+  <si>
+    <t>** Cet élément de métadonnées provenant d’une tierce partie a été traduit à l'aide d'un outil de traduction automatisée (Amazon Translate).**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+**This third party metadata element was translated using an automated translation tool (Amazon Translate).**</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5238,8 +5238,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="3"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
@@ -5525,7 +5525,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
@@ -5589,11 +5589,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" customWidth="1"/>
@@ -5615,20 +5615,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>1361</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5641,10 +5641,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5665,7 +5665,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>518</v>
@@ -5700,12 +5700,12 @@
         <v>6</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>168</v>
@@ -5732,7 +5732,7 @@
         <v>728</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -5740,7 +5740,7 @@
         <v>732</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -5756,7 +5756,7 @@
         <v>725</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -5769,7 +5769,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>25</v>
@@ -5780,7 +5780,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -5788,7 +5788,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -5804,7 +5804,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -5812,7 +5812,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -5873,11 +5873,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
@@ -5907,12 +5907,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>1224</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6040,7 +6040,7 @@
         <v>790</v>
       </c>
       <c r="B20" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6048,7 +6048,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6109,63 +6109,63 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B31" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B33" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B34" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B35" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B36" t="s">
         <v>518</v>
@@ -6173,34 +6173,34 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B37" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B38" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B39" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B40" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
   </sheetData>
@@ -6220,7 +6220,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.7109375" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
@@ -6575,7 +6575,7 @@
       <selection activeCell="B471" sqref="B471:D471"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="168.42578125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
@@ -13246,7 +13246,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="B470" t="s">
         <v>324</v>
@@ -13260,7 +13260,7 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="B471" s="27" t="s">
         <v>783</v>
@@ -13289,17 +13289,17 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -13424,7 +13424,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B17" t="s">
         <v>783</v>
@@ -13665,7 +13665,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -13709,7 +13709,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
@@ -13884,7 +13884,7 @@
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -14596,7 +14596,7 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" customWidth="1"/>
   </cols>
@@ -14810,11 +14810,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
@@ -14886,7 +14886,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>886</v>
@@ -14905,7 +14905,7 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.42578125" customWidth="1"/>
     <col min="2" max="2" width="45.140625" customWidth="1"/>
@@ -15882,7 +15882,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" customWidth="1"/>
@@ -16057,7 +16057,7 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="2" width="43.28515625" customWidth="1"/>
@@ -16066,101 +16066,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="B1" t="s">
         <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="B3" t="s">
         <v>791</v>
       </c>
       <c r="C3" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="B4" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="C4" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="B5" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="C5" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B6" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C6" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="B9" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C9" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -16171,7 +16171,7 @@
         <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -16182,7 +16182,7 @@
         <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -16193,7 +16193,7 @@
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -16204,7 +16204,7 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -16215,29 +16215,29 @@
         <v>794</v>
       </c>
       <c r="C14" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="B15" t="s">
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="B16" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="C16" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -16248,95 +16248,95 @@
         <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="B18" t="s">
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C19" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C20" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B21" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C21" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B22" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C22" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="B23" t="s">
         <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C24" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B25" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C25" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -16347,7 +16347,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -16358,194 +16358,194 @@
         <v>790</v>
       </c>
       <c r="C27" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="B28" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="C28" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="B29" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="C29" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B30" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C30" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C31" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B32" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C32" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B33" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C33" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B34" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C34" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="B35" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="C35" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="B36" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C36" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C37" t="s">
         <v>1323</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="B38" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="C38" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B39" t="s">
         <v>133</v>
       </c>
       <c r="C39" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="B40" t="s">
         <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="B41" t="s">
         <v>856</v>
       </c>
       <c r="C41" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B42" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="C42" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="B43" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C43" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B44" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
   </sheetData>
@@ -16561,46 +16561,46 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="B2" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="B3" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="B4" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="B5" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -16608,7 +16608,7 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
   </sheetData>
@@ -16624,7 +16624,7 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="38.85546875" customWidth="1"/>
@@ -16883,7 +16883,7 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.85546875" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
@@ -16893,282 +16893,282 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>75</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="C18" s="25" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>1395</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
     </row>
   </sheetData>
@@ -17195,7 +17195,7 @@
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="82" customWidth="1"/>
     <col min="2" max="2" width="95" customWidth="1"/>
@@ -17218,7 +17218,7 @@
         <v>976</v>
       </c>
       <c r="E1" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -17226,16 +17226,16 @@
         <v>883</v>
       </c>
       <c r="B2" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C2" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="D2" t="s">
         <v>889</v>
       </c>
       <c r="E2" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -17252,7 +17252,7 @@
         <v>889</v>
       </c>
       <c r="E3" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -17269,7 +17269,7 @@
         <v>889</v>
       </c>
       <c r="E4" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -17286,7 +17286,7 @@
         <v>889</v>
       </c>
       <c r="E5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -17303,7 +17303,7 @@
         <v>889</v>
       </c>
       <c r="E6" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -17320,7 +17320,7 @@
         <v>889</v>
       </c>
       <c r="E7" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -17337,7 +17337,7 @@
         <v>889</v>
       </c>
       <c r="E8" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -17354,7 +17354,7 @@
         <v>889</v>
       </c>
       <c r="E9" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -17371,7 +17371,7 @@
         <v>889</v>
       </c>
       <c r="E10" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -17388,7 +17388,7 @@
         <v>889</v>
       </c>
       <c r="E11" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -17405,7 +17405,7 @@
         <v>889</v>
       </c>
       <c r="E12" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -17422,7 +17422,7 @@
         <v>889</v>
       </c>
       <c r="E13" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -17439,7 +17439,7 @@
         <v>889</v>
       </c>
       <c r="E14" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -17456,7 +17456,7 @@
         <v>889</v>
       </c>
       <c r="E15" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -17473,7 +17473,7 @@
         <v>889</v>
       </c>
       <c r="E16" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -17490,7 +17490,7 @@
         <v>889</v>
       </c>
       <c r="E17" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -17507,7 +17507,7 @@
         <v>889</v>
       </c>
       <c r="E18" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -17524,7 +17524,7 @@
         <v>889</v>
       </c>
       <c r="E19" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -17541,7 +17541,7 @@
         <v>889</v>
       </c>
       <c r="E20" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -17558,7 +17558,7 @@
         <v>889</v>
       </c>
       <c r="E21" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -17575,7 +17575,7 @@
         <v>889</v>
       </c>
       <c r="E22" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -17592,7 +17592,7 @@
         <v>889</v>
       </c>
       <c r="E23" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -17609,7 +17609,7 @@
         <v>889</v>
       </c>
       <c r="E24" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -17626,7 +17626,7 @@
         <v>889</v>
       </c>
       <c r="E25" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -17643,7 +17643,7 @@
         <v>889</v>
       </c>
       <c r="E26" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -17660,7 +17660,7 @@
         <v>889</v>
       </c>
       <c r="E27" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -17677,7 +17677,7 @@
         <v>889</v>
       </c>
       <c r="E28" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -17694,7 +17694,7 @@
         <v>889</v>
       </c>
       <c r="E29" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -17711,7 +17711,7 @@
         <v>889</v>
       </c>
       <c r="E30" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -17728,7 +17728,7 @@
         <v>889</v>
       </c>
       <c r="E31" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -17736,16 +17736,16 @@
         <v>936</v>
       </c>
       <c r="B32" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="C32" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D32" t="s">
         <v>889</v>
       </c>
       <c r="E32" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -17762,7 +17762,7 @@
         <v>889</v>
       </c>
       <c r="E33" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -17770,7 +17770,7 @@
         <v>974</v>
       </c>
       <c r="B34" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C34" t="s">
         <v>937</v>
@@ -17779,7 +17779,7 @@
         <v>889</v>
       </c>
       <c r="E34" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -17796,7 +17796,7 @@
         <v>889</v>
       </c>
       <c r="E35" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -17813,7 +17813,7 @@
         <v>889</v>
       </c>
       <c r="E36" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -17830,7 +17830,7 @@
         <v>889</v>
       </c>
       <c r="E37" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -17847,7 +17847,7 @@
         <v>889</v>
       </c>
       <c r="E38" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -17864,7 +17864,7 @@
         <v>889</v>
       </c>
       <c r="E39" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -17881,7 +17881,7 @@
         <v>889</v>
       </c>
       <c r="E40" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -17892,13 +17892,13 @@
         <v>887</v>
       </c>
       <c r="C41" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D41" t="s">
         <v>889</v>
       </c>
       <c r="E41" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -17906,16 +17906,16 @@
         <v>890</v>
       </c>
       <c r="B42" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D42" t="s">
         <v>889</v>
       </c>
       <c r="E42" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -17923,16 +17923,16 @@
         <v>891</v>
       </c>
       <c r="B43" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C43" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="D43" t="s">
         <v>889</v>
       </c>
       <c r="E43" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -17949,7 +17949,7 @@
         <v>886</v>
       </c>
       <c r="E44" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -17966,7 +17966,7 @@
         <v>886</v>
       </c>
       <c r="E45" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -17974,16 +17974,16 @@
         <v>894</v>
       </c>
       <c r="B46" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C46" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="D46" t="s">
         <v>889</v>
       </c>
       <c r="E46" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -17994,13 +17994,13 @@
         <v>898</v>
       </c>
       <c r="C47" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="D47" t="s">
         <v>889</v>
       </c>
       <c r="E47" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -18008,16 +18008,16 @@
         <v>900</v>
       </c>
       <c r="B48" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="C48" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D48" t="s">
         <v>889</v>
       </c>
       <c r="E48" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -18034,7 +18034,7 @@
         <v>886</v>
       </c>
       <c r="E49" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -18045,13 +18045,13 @@
         <v>902</v>
       </c>
       <c r="C50" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="D50" t="s">
         <v>889</v>
       </c>
       <c r="E50" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -18068,7 +18068,7 @@
         <v>886</v>
       </c>
       <c r="E51" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -18079,13 +18079,13 @@
         <v>908</v>
       </c>
       <c r="C52" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="D52" t="s">
         <v>889</v>
       </c>
       <c r="E52" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -18093,16 +18093,16 @@
         <v>909</v>
       </c>
       <c r="B53" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C53" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="D53" t="s">
         <v>889</v>
       </c>
       <c r="E53" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -18113,13 +18113,13 @@
         <v>928</v>
       </c>
       <c r="C54" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="D54" t="s">
         <v>889</v>
       </c>
       <c r="E54" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -18136,7 +18136,7 @@
         <v>886</v>
       </c>
       <c r="E55" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -18147,13 +18147,13 @@
         <v>930</v>
       </c>
       <c r="C56" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="D56" t="s">
         <v>889</v>
       </c>
       <c r="E56" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -18164,13 +18164,13 @@
         <v>931</v>
       </c>
       <c r="C57" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="D57" t="s">
         <v>889</v>
       </c>
       <c r="E57" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -18178,16 +18178,16 @@
         <v>941</v>
       </c>
       <c r="B58" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C58" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="D58" t="s">
         <v>889</v>
       </c>
       <c r="E58" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -18195,16 +18195,16 @@
         <v>942</v>
       </c>
       <c r="B59" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="C59" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="D59" t="s">
         <v>889</v>
       </c>
       <c r="E59" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -18212,16 +18212,16 @@
         <v>943</v>
       </c>
       <c r="B60" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C60" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="D60" t="s">
         <v>889</v>
       </c>
       <c r="E60" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -18229,16 +18229,16 @@
         <v>944</v>
       </c>
       <c r="B61" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C61" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="D61" t="s">
         <v>889</v>
       </c>
       <c r="E61" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -18249,13 +18249,13 @@
         <v>945</v>
       </c>
       <c r="C62" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="D62" t="s">
         <v>889</v>
       </c>
       <c r="E62" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -18272,7 +18272,7 @@
         <v>886</v>
       </c>
       <c r="E63" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -18283,13 +18283,13 @@
         <v>947</v>
       </c>
       <c r="C64" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="D64" t="s">
         <v>889</v>
       </c>
       <c r="E64" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -18297,16 +18297,16 @@
         <v>949</v>
       </c>
       <c r="B65" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C65" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="D65" t="s">
         <v>889</v>
       </c>
       <c r="E65" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -18314,16 +18314,16 @@
         <v>950</v>
       </c>
       <c r="B66" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C66" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="D66" t="s">
         <v>889</v>
       </c>
       <c r="E66" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -18331,16 +18331,16 @@
         <v>975</v>
       </c>
       <c r="B67" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="D67" t="s">
         <v>889</v>
       </c>
       <c r="E67" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -18357,7 +18357,7 @@
         <v>889</v>
       </c>
       <c r="E68" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -18374,7 +18374,7 @@
         <v>889</v>
       </c>
       <c r="E69" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -18391,7 +18391,7 @@
         <v>889</v>
       </c>
       <c r="E70" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -18408,7 +18408,7 @@
         <v>889</v>
       </c>
       <c r="E71" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -18425,7 +18425,7 @@
         <v>889</v>
       </c>
       <c r="E72" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -18442,7 +18442,7 @@
         <v>889</v>
       </c>
       <c r="E73" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -18459,7 +18459,7 @@
         <v>889</v>
       </c>
       <c r="E74" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -18476,7 +18476,7 @@
         <v>889</v>
       </c>
       <c r="E75" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -18493,7 +18493,7 @@
         <v>889</v>
       </c>
       <c r="E76" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
   </sheetData>
@@ -18516,7 +18516,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.42578125" customWidth="1"/>
     <col min="2" max="2" width="47.28515625" customWidth="1"/>
@@ -18524,7 +18524,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>8</v>
@@ -18532,7 +18532,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>567</v>
@@ -18540,7 +18540,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>567</v>
@@ -18548,7 +18548,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>567</v>
@@ -18556,7 +18556,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>567</v>
@@ -18564,7 +18564,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>567</v>
@@ -18572,7 +18572,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>567</v>
@@ -18580,7 +18580,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>567</v>
@@ -18588,7 +18588,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>567</v>
@@ -18596,7 +18596,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>567</v>
@@ -18604,7 +18604,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>567</v>
@@ -18612,7 +18612,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>567</v>
@@ -18620,7 +18620,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>567</v>
@@ -18628,7 +18628,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>567</v>
@@ -18636,7 +18636,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>567</v>
@@ -18644,7 +18644,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>567</v>
@@ -18652,7 +18652,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>567</v>
@@ -18660,7 +18660,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>567</v>
@@ -18668,7 +18668,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>567</v>
@@ -18676,7 +18676,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>567</v>
@@ -18684,7 +18684,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>567</v>
@@ -18692,7 +18692,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>567</v>
@@ -18700,7 +18700,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>567</v>
@@ -18708,7 +18708,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>567</v>
@@ -18716,7 +18716,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="B25" s="27" t="s">
         <v>567</v>
@@ -18724,7 +18724,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="B26" s="27" t="s">
         <v>567</v>
@@ -18732,7 +18732,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="B27" s="27" t="s">
         <v>567</v>
@@ -18740,7 +18740,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>567</v>
@@ -18748,7 +18748,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="B29" s="27" t="s">
         <v>567</v>
@@ -18756,7 +18756,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="B30" s="27" t="s">
         <v>567</v>
@@ -18764,7 +18764,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="B31" s="27" t="s">
         <v>567</v>
@@ -18772,7 +18772,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="B32" s="27" t="s">
         <v>567</v>
@@ -18780,7 +18780,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>567</v>
@@ -18799,7 +18799,7 @@
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
     <col min="2" max="2" width="53.5703125" customWidth="1"/>
@@ -18815,7 +18815,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="B2" t="s">
         <v>564</v>
@@ -18823,7 +18823,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>564</v>
@@ -18831,7 +18831,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>564</v>
@@ -18839,7 +18839,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>564</v>
@@ -18847,7 +18847,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>564</v>
@@ -18855,7 +18855,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>564</v>
@@ -18863,7 +18863,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -18871,7 +18871,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>9</v>
@@ -18879,7 +18879,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>9</v>
@@ -18887,7 +18887,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>9</v>
@@ -18895,7 +18895,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>9</v>
@@ -18903,7 +18903,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>9</v>
@@ -18911,7 +18911,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>564</v>
@@ -18919,7 +18919,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>9</v>
@@ -18927,7 +18927,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>564</v>
@@ -18935,7 +18935,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>9</v>
@@ -18943,7 +18943,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>9</v>
@@ -18951,7 +18951,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>9</v>
@@ -18959,7 +18959,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>9</v>
@@ -18967,7 +18967,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>9</v>
@@ -18975,7 +18975,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>9</v>
@@ -18983,7 +18983,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>564</v>
@@ -18991,7 +18991,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>564</v>
@@ -18999,7 +18999,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="B25" s="27" t="s">
         <v>9</v>
@@ -19007,7 +19007,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="B26" s="27" t="s">
         <v>9</v>
@@ -19015,7 +19015,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B27" t="s">
         <v>567</v>
@@ -19023,7 +19023,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>564</v>
@@ -19031,7 +19031,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="B29" s="27" t="s">
         <v>564</v>
@@ -19039,7 +19039,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="B30" s="27" t="s">
         <v>9</v>
@@ -19047,7 +19047,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="B31" s="27" t="s">
         <v>567</v>
@@ -19055,7 +19055,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="B32" s="27" t="s">
         <v>567</v>
@@ -19063,7 +19063,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>9</v>
@@ -19071,7 +19071,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="B34" s="27" t="s">
         <v>9</v>
@@ -19079,7 +19079,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="B35" s="27" t="s">
         <v>9</v>
@@ -19087,7 +19087,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="B36" s="27" t="s">
         <v>9</v>
@@ -19095,7 +19095,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="B37" s="27" t="s">
         <v>9</v>
@@ -19103,7 +19103,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="B38" s="27" t="s">
         <v>9</v>
@@ -19111,7 +19111,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="B39" s="27" t="s">
         <v>9</v>
@@ -19119,7 +19119,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="B40" s="27" t="s">
         <v>9</v>
@@ -19127,7 +19127,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="B41" s="27" t="s">
         <v>564</v>
@@ -19146,7 +19146,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="30.140625" customWidth="1"/>
@@ -19311,7 +19311,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -19430,7 +19430,7 @@
       <selection activeCell="C80" sqref="C1:C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="44.28515625" customWidth="1"/>
@@ -20329,7 +20329,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
     <col min="3" max="3" width="58" customWidth="1"/>
@@ -20337,13 +20337,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B1" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="C1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -20354,139 +20354,139 @@
         <v>213</v>
       </c>
       <c r="C2" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B3" t="s">
         <v>206</v>
       </c>
       <c r="C3" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B4" t="s">
         <v>213</v>
       </c>
       <c r="C4" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="B5" t="s">
         <v>213</v>
       </c>
       <c r="C5" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B6" t="s">
         <v>203</v>
       </c>
       <c r="C6" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B7" t="s">
         <v>199</v>
       </c>
       <c r="C7" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="B8" t="s">
         <v>213</v>
       </c>
       <c r="C8" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="B9" t="s">
         <v>213</v>
       </c>
       <c r="C9" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="B10" t="s">
         <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="B11" t="s">
         <v>214</v>
       </c>
       <c r="C11" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B12" t="s">
         <v>213</v>
       </c>
       <c r="C12" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B13" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="C13" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="B14" t="s">
         <v>205</v>
       </c>
       <c r="C14" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
   </sheetData>
@@ -20502,7 +20502,7 @@
       <selection activeCell="B34" sqref="B34:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -20904,7 +20904,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="B29" s="28" t="s">
         <v>226</v>
@@ -20932,7 +20932,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="B31" s="30" t="s">
         <v>221</v>
@@ -20946,7 +20946,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>226</v>
@@ -20960,7 +20960,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>25</v>
@@ -20974,7 +20974,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="B34" s="27" t="s">
         <v>232</v>
@@ -21000,14 +21000,14 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -21023,7 +21023,7 @@
         <v>860</v>
       </c>
       <c r="B3" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -21031,7 +21031,7 @@
         <v>245</v>
       </c>
       <c r="B4" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -21039,7 +21039,7 @@
         <v>226</v>
       </c>
       <c r="B5" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -21055,7 +21055,7 @@
         <v>861</v>
       </c>
       <c r="B7" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -21063,7 +21063,7 @@
         <v>250</v>
       </c>
       <c r="B8" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -21079,7 +21079,7 @@
         <v>236</v>
       </c>
       <c r="B10" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -21087,7 +21087,7 @@
         <v>863</v>
       </c>
       <c r="B11" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -21095,7 +21095,7 @@
         <v>864</v>
       </c>
       <c r="B12" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -21103,7 +21103,7 @@
         <v>253</v>
       </c>
       <c r="B13" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -21111,7 +21111,7 @@
         <v>262</v>
       </c>
       <c r="B14" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -21119,7 +21119,7 @@
         <v>865</v>
       </c>
       <c r="B15" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -21143,7 +21143,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.42578125" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
@@ -22274,7 +22274,7 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="78.7109375" customWidth="1"/>
     <col min="2" max="2" width="43.42578125" customWidth="1"/>
@@ -22450,7 +22450,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -22472,7 +22472,7 @@
       <selection activeCell="B50" sqref="B2:B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="54.140625" style="27" customWidth="1"/>
     <col min="3" max="3" width="180.5703125" style="31" customWidth="1"/>
@@ -22484,10 +22484,10 @@
         <v>37</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -22495,7 +22495,7 @@
         <v>986</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -22503,23 +22503,23 @@
         <v>985</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -22527,199 +22527,199 @@
         <v>988</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -22727,95 +22727,95 @@
         <v>1011</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -22823,335 +22823,335 @@
         <v>987</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="27" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" s="27" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="27" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" s="27" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="27" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="27" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="27" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="27" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="27" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="27" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="27" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="27" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="27" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="27" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="27" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="27" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="27" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="27" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="27" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="27" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="27" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="27" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="C76" s="31" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="27" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="C77" s="31" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="27" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="27" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="27" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="27" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="27" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="C82" s="31" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="27" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="27" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -23159,127 +23159,127 @@
         <v>984</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="27" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="27" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="27" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="27" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="27" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="27" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="27" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="27" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="27" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="C96" s="31" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="27" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="C97" s="31" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="27" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="C98" s="31" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="27" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="27" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="C100" s="31" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
     </row>
   </sheetData>
@@ -23301,7 +23301,7 @@
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
@@ -24200,7 +24200,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="74.85546875" customWidth="1"/>
@@ -25100,7 +25100,7 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
@@ -25363,7 +25363,7 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -25394,13 +25394,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="80.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -25547,12 +25548,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>1223</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -25728,13 +25729,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="55.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -25873,12 +25875,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>1223</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngariepy\Documents\GitHub\fgp-metadata-proxy\FME_files\LOOKUP_TABLES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\PT_Harvester\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="17" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Codespace" sheetId="12" r:id="rId1"/>
@@ -3729,6 +3729,14 @@
     <t>abstract_other_lang_warning_en</t>
   </si>
   <si>
+    <t xml:space="preserve">
+** Cet élément de métadonnées provenant d’une tierce partie a été traduit à l'aide d'un outil de traduction automatisée (Amazon Translate). Pour signaler toute anomalie, veuillez communiquer avec nous à nrcan.fgp-pgf.rncan@canada.ca **</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+**This third party metadata element was translated using an automated translation tool (Amazon Translate). To report any discrepancies, please contact us at nrcan.fgp-pgf.rncan@canada.ca.**</t>
+  </si>
+  <si>
     <t>Gouvernement et municipalités du Québec</t>
   </si>
   <si>
@@ -4135,6 +4143,9 @@
   </si>
   <si>
     <t>RAD Boundaries (ZIP)</t>
+  </si>
+  <si>
+    <t>** Cet élément de métadonnées provenant d’une tierce partie a été traduit à l'aide d'un outil de traduction automatisée (Amazon Translate). Pour signaler toute anomalie, veuillez communiquer avec nous à nrcan.fgp-pgf.rncan@canada.ca **</t>
   </si>
   <si>
     <t>lio@ontario.ca</t>
@@ -5086,23 +5097,12 @@
   </si>
   <si>
     <t>CC0-1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-** Cet élément de métadonnées provenant d’une tierce partie a été traduit à l'aide d'un outil de traduction automatisée (Amazon Translate).**</t>
-  </si>
-  <si>
-    <t>** Cet élément de métadonnées provenant d’une tierce partie a été traduit à l'aide d'un outil de traduction automatisée (Amazon Translate).**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-**This third party metadata element was translated using an automated translation tool (Amazon Translate).**</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5238,8 +5238,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="3"/>
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
@@ -5525,7 +5525,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
@@ -5589,11 +5589,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:G17"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" customWidth="1"/>
@@ -5615,20 +5615,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>1676</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5641,10 +5641,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>1360</v>
+        <v>1363</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5665,7 +5665,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>518</v>
@@ -5700,12 +5700,12 @@
         <v>6</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>168</v>
@@ -5732,7 +5732,7 @@
         <v>728</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -5740,7 +5740,7 @@
         <v>732</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>1366</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -5756,7 +5756,7 @@
         <v>725</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>1367</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -5769,7 +5769,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>25</v>
@@ -5780,7 +5780,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -5788,7 +5788,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>1370</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -5804,7 +5804,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>1371</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -5812,7 +5812,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -5873,11 +5873,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
@@ -5907,12 +5907,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>1677</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6040,7 +6040,7 @@
         <v>790</v>
       </c>
       <c r="B20" t="s">
-        <v>1479</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6048,7 +6048,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6109,63 +6109,63 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="B31" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="B33" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="B34" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="B35" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="B36" t="s">
         <v>518</v>
@@ -6173,34 +6173,34 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="B37" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="B38" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="B39" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="B40" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
     </row>
   </sheetData>
@@ -6220,7 +6220,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.7109375" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
@@ -6575,7 +6575,7 @@
       <selection activeCell="B471" sqref="B471:D471"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="168.42578125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
@@ -13246,7 +13246,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="B470" t="s">
         <v>324</v>
@@ -13260,7 +13260,7 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="B471" s="27" t="s">
         <v>783</v>
@@ -13289,17 +13289,17 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="B1" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -13424,7 +13424,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="B17" t="s">
         <v>783</v>
@@ -13665,7 +13665,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -13709,7 +13709,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
@@ -13884,7 +13884,7 @@
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -14596,7 +14596,7 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" customWidth="1"/>
   </cols>
@@ -14810,11 +14810,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
@@ -14886,7 +14886,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>1674</v>
+        <v>1677</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>886</v>
@@ -14905,7 +14905,7 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.42578125" customWidth="1"/>
     <col min="2" max="2" width="45.140625" customWidth="1"/>
@@ -15882,7 +15882,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" customWidth="1"/>
@@ -16057,7 +16057,7 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="2" width="43.28515625" customWidth="1"/>
@@ -16066,101 +16066,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="B1" t="s">
         <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="B3" t="s">
         <v>791</v>
       </c>
       <c r="C3" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="B4" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="C4" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="B5" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="C5" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="B6" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="C6" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="B9" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="C9" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -16171,7 +16171,7 @@
         <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -16182,7 +16182,7 @@
         <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -16193,7 +16193,7 @@
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -16204,7 +16204,7 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -16215,29 +16215,29 @@
         <v>794</v>
       </c>
       <c r="C14" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="B15" t="s">
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="B16" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="C16" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -16248,95 +16248,95 @@
         <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="B18" t="s">
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="C19" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="C20" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="B21" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C21" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="B22" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C22" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="B23" t="s">
         <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="C24" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="B25" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="C25" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -16347,7 +16347,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -16358,194 +16358,194 @@
         <v>790</v>
       </c>
       <c r="C27" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="B28" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="C28" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="B29" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="C29" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="B30" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="C30" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="C31" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="B32" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="C32" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="B33" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="C33" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="B34" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="C34" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="B35" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="C35" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="B36" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="C36" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="B37" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="C37" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="B38" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="C38" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="B39" t="s">
         <v>133</v>
       </c>
       <c r="C39" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="B40" t="s">
         <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="B41" t="s">
         <v>856</v>
       </c>
       <c r="C41" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="B42" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="C42" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C43" t="s">
         <v>1326</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="B44" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="C44" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
   </sheetData>
@@ -16561,46 +16561,46 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="B1" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="B2" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="B3" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="B4" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="B5" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -16608,7 +16608,7 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
     </row>
   </sheetData>
@@ -16624,7 +16624,7 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="38.85546875" customWidth="1"/>
@@ -16883,7 +16883,7 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.85546875" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
@@ -16893,282 +16893,282 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>75</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>1389</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>1386</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="B18" s="26" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>1395</v>
       </c>
-      <c r="C18" s="25" t="s">
-        <v>1392</v>
-      </c>
       <c r="D18" s="26" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
     </row>
   </sheetData>
@@ -17195,7 +17195,7 @@
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="82" customWidth="1"/>
     <col min="2" max="2" width="95" customWidth="1"/>
@@ -17218,7 +17218,7 @@
         <v>976</v>
       </c>
       <c r="E1" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -17226,16 +17226,16 @@
         <v>883</v>
       </c>
       <c r="B2" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="C2" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="D2" t="s">
         <v>889</v>
       </c>
       <c r="E2" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -17252,7 +17252,7 @@
         <v>889</v>
       </c>
       <c r="E3" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -17269,7 +17269,7 @@
         <v>889</v>
       </c>
       <c r="E4" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -17286,7 +17286,7 @@
         <v>889</v>
       </c>
       <c r="E5" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -17303,7 +17303,7 @@
         <v>889</v>
       </c>
       <c r="E6" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -17320,7 +17320,7 @@
         <v>889</v>
       </c>
       <c r="E7" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -17337,7 +17337,7 @@
         <v>889</v>
       </c>
       <c r="E8" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -17354,7 +17354,7 @@
         <v>889</v>
       </c>
       <c r="E9" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -17371,7 +17371,7 @@
         <v>889</v>
       </c>
       <c r="E10" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -17388,7 +17388,7 @@
         <v>889</v>
       </c>
       <c r="E11" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -17405,7 +17405,7 @@
         <v>889</v>
       </c>
       <c r="E12" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -17422,7 +17422,7 @@
         <v>889</v>
       </c>
       <c r="E13" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -17439,7 +17439,7 @@
         <v>889</v>
       </c>
       <c r="E14" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -17456,7 +17456,7 @@
         <v>889</v>
       </c>
       <c r="E15" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -17473,7 +17473,7 @@
         <v>889</v>
       </c>
       <c r="E16" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -17490,7 +17490,7 @@
         <v>889</v>
       </c>
       <c r="E17" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -17507,7 +17507,7 @@
         <v>889</v>
       </c>
       <c r="E18" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -17524,7 +17524,7 @@
         <v>889</v>
       </c>
       <c r="E19" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -17541,7 +17541,7 @@
         <v>889</v>
       </c>
       <c r="E20" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -17558,7 +17558,7 @@
         <v>889</v>
       </c>
       <c r="E21" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -17575,7 +17575,7 @@
         <v>889</v>
       </c>
       <c r="E22" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -17592,7 +17592,7 @@
         <v>889</v>
       </c>
       <c r="E23" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -17609,7 +17609,7 @@
         <v>889</v>
       </c>
       <c r="E24" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -17626,7 +17626,7 @@
         <v>889</v>
       </c>
       <c r="E25" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -17643,7 +17643,7 @@
         <v>889</v>
       </c>
       <c r="E26" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -17660,7 +17660,7 @@
         <v>889</v>
       </c>
       <c r="E27" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -17677,7 +17677,7 @@
         <v>889</v>
       </c>
       <c r="E28" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -17694,7 +17694,7 @@
         <v>889</v>
       </c>
       <c r="E29" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -17711,7 +17711,7 @@
         <v>889</v>
       </c>
       <c r="E30" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -17728,7 +17728,7 @@
         <v>889</v>
       </c>
       <c r="E31" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -17736,16 +17736,16 @@
         <v>936</v>
       </c>
       <c r="B32" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="C32" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="D32" t="s">
         <v>889</v>
       </c>
       <c r="E32" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -17762,7 +17762,7 @@
         <v>889</v>
       </c>
       <c r="E33" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -17770,7 +17770,7 @@
         <v>974</v>
       </c>
       <c r="B34" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="C34" t="s">
         <v>937</v>
@@ -17779,7 +17779,7 @@
         <v>889</v>
       </c>
       <c r="E34" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -17796,7 +17796,7 @@
         <v>889</v>
       </c>
       <c r="E35" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -17813,7 +17813,7 @@
         <v>889</v>
       </c>
       <c r="E36" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -17830,7 +17830,7 @@
         <v>889</v>
       </c>
       <c r="E37" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -17847,7 +17847,7 @@
         <v>889</v>
       </c>
       <c r="E38" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -17864,7 +17864,7 @@
         <v>889</v>
       </c>
       <c r="E39" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -17881,7 +17881,7 @@
         <v>889</v>
       </c>
       <c r="E40" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -17892,13 +17892,13 @@
         <v>887</v>
       </c>
       <c r="C41" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="D41" t="s">
         <v>889</v>
       </c>
       <c r="E41" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -17906,16 +17906,16 @@
         <v>890</v>
       </c>
       <c r="B42" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="D42" t="s">
         <v>889</v>
       </c>
       <c r="E42" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -17923,16 +17923,16 @@
         <v>891</v>
       </c>
       <c r="B43" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="C43" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="D43" t="s">
         <v>889</v>
       </c>
       <c r="E43" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -17949,7 +17949,7 @@
         <v>886</v>
       </c>
       <c r="E44" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -17966,7 +17966,7 @@
         <v>886</v>
       </c>
       <c r="E45" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -17974,16 +17974,16 @@
         <v>894</v>
       </c>
       <c r="B46" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="C46" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="D46" t="s">
         <v>889</v>
       </c>
       <c r="E46" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -17994,13 +17994,13 @@
         <v>898</v>
       </c>
       <c r="C47" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="D47" t="s">
         <v>889</v>
       </c>
       <c r="E47" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -18008,16 +18008,16 @@
         <v>900</v>
       </c>
       <c r="B48" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="C48" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="D48" t="s">
         <v>889</v>
       </c>
       <c r="E48" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -18034,7 +18034,7 @@
         <v>886</v>
       </c>
       <c r="E49" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -18045,13 +18045,13 @@
         <v>902</v>
       </c>
       <c r="C50" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="D50" t="s">
         <v>889</v>
       </c>
       <c r="E50" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -18068,7 +18068,7 @@
         <v>886</v>
       </c>
       <c r="E51" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -18079,13 +18079,13 @@
         <v>908</v>
       </c>
       <c r="C52" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="D52" t="s">
         <v>889</v>
       </c>
       <c r="E52" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -18093,16 +18093,16 @@
         <v>909</v>
       </c>
       <c r="B53" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="C53" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="D53" t="s">
         <v>889</v>
       </c>
       <c r="E53" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -18113,13 +18113,13 @@
         <v>928</v>
       </c>
       <c r="C54" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="D54" t="s">
         <v>889</v>
       </c>
       <c r="E54" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -18136,7 +18136,7 @@
         <v>886</v>
       </c>
       <c r="E55" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -18147,13 +18147,13 @@
         <v>930</v>
       </c>
       <c r="C56" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="D56" t="s">
         <v>889</v>
       </c>
       <c r="E56" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -18164,13 +18164,13 @@
         <v>931</v>
       </c>
       <c r="C57" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="D57" t="s">
         <v>889</v>
       </c>
       <c r="E57" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -18178,16 +18178,16 @@
         <v>941</v>
       </c>
       <c r="B58" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="C58" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="D58" t="s">
         <v>889</v>
       </c>
       <c r="E58" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -18195,16 +18195,16 @@
         <v>942</v>
       </c>
       <c r="B59" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="C59" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="D59" t="s">
         <v>889</v>
       </c>
       <c r="E59" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -18212,16 +18212,16 @@
         <v>943</v>
       </c>
       <c r="B60" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="C60" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="D60" t="s">
         <v>889</v>
       </c>
       <c r="E60" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -18229,16 +18229,16 @@
         <v>944</v>
       </c>
       <c r="B61" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="C61" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="D61" t="s">
         <v>889</v>
       </c>
       <c r="E61" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -18249,13 +18249,13 @@
         <v>945</v>
       </c>
       <c r="C62" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="D62" t="s">
         <v>889</v>
       </c>
       <c r="E62" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -18272,7 +18272,7 @@
         <v>886</v>
       </c>
       <c r="E63" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -18283,13 +18283,13 @@
         <v>947</v>
       </c>
       <c r="C64" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="D64" t="s">
         <v>889</v>
       </c>
       <c r="E64" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -18297,16 +18297,16 @@
         <v>949</v>
       </c>
       <c r="B65" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="C65" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="D65" t="s">
         <v>889</v>
       </c>
       <c r="E65" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -18314,16 +18314,16 @@
         <v>950</v>
       </c>
       <c r="B66" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="C66" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="D66" t="s">
         <v>889</v>
       </c>
       <c r="E66" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -18331,16 +18331,16 @@
         <v>975</v>
       </c>
       <c r="B67" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="D67" t="s">
         <v>889</v>
       </c>
       <c r="E67" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -18357,7 +18357,7 @@
         <v>889</v>
       </c>
       <c r="E68" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -18374,7 +18374,7 @@
         <v>889</v>
       </c>
       <c r="E69" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -18391,7 +18391,7 @@
         <v>889</v>
       </c>
       <c r="E70" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -18408,7 +18408,7 @@
         <v>889</v>
       </c>
       <c r="E71" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -18425,7 +18425,7 @@
         <v>889</v>
       </c>
       <c r="E72" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -18442,7 +18442,7 @@
         <v>889</v>
       </c>
       <c r="E73" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -18459,7 +18459,7 @@
         <v>889</v>
       </c>
       <c r="E74" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -18476,7 +18476,7 @@
         <v>889</v>
       </c>
       <c r="E75" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -18493,7 +18493,7 @@
         <v>889</v>
       </c>
       <c r="E76" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
   </sheetData>
@@ -18516,7 +18516,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.42578125" customWidth="1"/>
     <col min="2" max="2" width="47.28515625" customWidth="1"/>
@@ -18524,7 +18524,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>8</v>
@@ -18532,7 +18532,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>567</v>
@@ -18540,7 +18540,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>567</v>
@@ -18548,7 +18548,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>567</v>
@@ -18556,7 +18556,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>567</v>
@@ -18564,7 +18564,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>567</v>
@@ -18572,7 +18572,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>567</v>
@@ -18580,7 +18580,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>567</v>
@@ -18588,7 +18588,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>567</v>
@@ -18596,7 +18596,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>567</v>
@@ -18604,7 +18604,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>567</v>
@@ -18612,7 +18612,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>567</v>
@@ -18620,7 +18620,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>567</v>
@@ -18628,7 +18628,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>567</v>
@@ -18636,7 +18636,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>567</v>
@@ -18644,7 +18644,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>567</v>
@@ -18652,7 +18652,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>567</v>
@@ -18660,7 +18660,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>1419</v>
+        <v>1422</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>567</v>
@@ -18668,7 +18668,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
-        <v>1420</v>
+        <v>1423</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>567</v>
@@ -18676,7 +18676,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>567</v>
@@ -18684,7 +18684,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>567</v>
@@ -18692,7 +18692,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>1423</v>
+        <v>1426</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>567</v>
@@ -18700,7 +18700,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>567</v>
@@ -18708,7 +18708,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>567</v>
@@ -18716,7 +18716,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="B25" s="27" t="s">
         <v>567</v>
@@ -18724,7 +18724,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="B26" s="27" t="s">
         <v>567</v>
@@ -18732,7 +18732,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="B27" s="27" t="s">
         <v>567</v>
@@ -18740,7 +18740,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>567</v>
@@ -18748,7 +18748,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="B29" s="27" t="s">
         <v>567</v>
@@ -18756,7 +18756,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="B30" s="27" t="s">
         <v>567</v>
@@ -18764,7 +18764,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="B31" s="27" t="s">
         <v>567</v>
@@ -18772,7 +18772,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="B32" s="27" t="s">
         <v>567</v>
@@ -18780,7 +18780,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>567</v>
@@ -18799,7 +18799,7 @@
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
     <col min="2" max="2" width="53.5703125" customWidth="1"/>
@@ -18815,7 +18815,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="B2" t="s">
         <v>564</v>
@@ -18823,7 +18823,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>564</v>
@@ -18831,7 +18831,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>564</v>
@@ -18839,7 +18839,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>564</v>
@@ -18847,7 +18847,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>564</v>
@@ -18855,7 +18855,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>564</v>
@@ -18863,7 +18863,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -18871,7 +18871,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>9</v>
@@ -18879,7 +18879,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>9</v>
@@ -18887,7 +18887,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>9</v>
@@ -18895,7 +18895,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>9</v>
@@ -18903,7 +18903,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>9</v>
@@ -18911,7 +18911,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>564</v>
@@ -18919,7 +18919,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>9</v>
@@ -18927,7 +18927,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>564</v>
@@ -18935,7 +18935,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>9</v>
@@ -18943,7 +18943,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>9</v>
@@ -18951,7 +18951,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>9</v>
@@ -18959,7 +18959,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>9</v>
@@ -18967,7 +18967,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>9</v>
@@ -18975,7 +18975,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>9</v>
@@ -18983,7 +18983,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>564</v>
@@ -18991,7 +18991,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>564</v>
@@ -18999,7 +18999,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="B25" s="27" t="s">
         <v>9</v>
@@ -19007,7 +19007,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="B26" s="27" t="s">
         <v>9</v>
@@ -19015,7 +19015,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="B27" t="s">
         <v>567</v>
@@ -19023,7 +19023,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1465</v>
+        <v>1468</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>564</v>
@@ -19031,7 +19031,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="B29" s="27" t="s">
         <v>564</v>
@@ -19039,7 +19039,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
       <c r="B30" s="27" t="s">
         <v>9</v>
@@ -19047,7 +19047,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="B31" s="27" t="s">
         <v>567</v>
@@ -19055,7 +19055,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="B32" s="27" t="s">
         <v>567</v>
@@ -19063,7 +19063,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>9</v>
@@ -19071,7 +19071,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="B34" s="27" t="s">
         <v>9</v>
@@ -19079,7 +19079,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="B35" s="27" t="s">
         <v>9</v>
@@ -19087,7 +19087,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="B36" s="27" t="s">
         <v>9</v>
@@ -19095,7 +19095,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1474</v>
+        <v>1477</v>
       </c>
       <c r="B37" s="27" t="s">
         <v>9</v>
@@ -19103,7 +19103,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="B38" s="27" t="s">
         <v>9</v>
@@ -19111,7 +19111,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="B39" s="27" t="s">
         <v>9</v>
@@ -19119,7 +19119,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="B40" s="27" t="s">
         <v>9</v>
@@ -19127,7 +19127,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="B41" s="27" t="s">
         <v>564</v>
@@ -19146,7 +19146,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="30.140625" customWidth="1"/>
@@ -19311,7 +19311,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -19430,7 +19430,7 @@
       <selection activeCell="C80" sqref="C1:C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="44.28515625" customWidth="1"/>
@@ -20329,7 +20329,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
     <col min="3" max="3" width="58" customWidth="1"/>
@@ -20337,13 +20337,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="B1" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="C1" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -20354,139 +20354,139 @@
         <v>213</v>
       </c>
       <c r="C2" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="B3" t="s">
         <v>206</v>
       </c>
       <c r="C3" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="B4" t="s">
         <v>213</v>
       </c>
       <c r="C4" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="B5" t="s">
         <v>213</v>
       </c>
       <c r="C5" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="B6" t="s">
         <v>203</v>
       </c>
       <c r="C6" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="B7" t="s">
         <v>199</v>
       </c>
       <c r="C7" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="B8" t="s">
         <v>213</v>
       </c>
       <c r="C8" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="B9" t="s">
         <v>213</v>
       </c>
       <c r="C9" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="B10" t="s">
         <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B11" t="s">
         <v>214</v>
       </c>
       <c r="C11" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="B12" t="s">
         <v>213</v>
       </c>
       <c r="C12" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="B13" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="C13" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="B14" t="s">
         <v>205</v>
       </c>
       <c r="C14" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
   </sheetData>
@@ -20502,7 +20502,7 @@
       <selection activeCell="B34" sqref="B34:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -20904,7 +20904,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="B29" s="28" t="s">
         <v>226</v>
@@ -20932,7 +20932,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="B31" s="30" t="s">
         <v>221</v>
@@ -20946,7 +20946,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>226</v>
@@ -20960,7 +20960,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>25</v>
@@ -20974,7 +20974,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="B34" s="27" t="s">
         <v>232</v>
@@ -21000,14 +21000,14 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="B1" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -21023,7 +21023,7 @@
         <v>860</v>
       </c>
       <c r="B3" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -21031,7 +21031,7 @@
         <v>245</v>
       </c>
       <c r="B4" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -21039,7 +21039,7 @@
         <v>226</v>
       </c>
       <c r="B5" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -21055,7 +21055,7 @@
         <v>861</v>
       </c>
       <c r="B7" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -21063,7 +21063,7 @@
         <v>250</v>
       </c>
       <c r="B8" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -21079,7 +21079,7 @@
         <v>236</v>
       </c>
       <c r="B10" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -21087,7 +21087,7 @@
         <v>863</v>
       </c>
       <c r="B11" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -21095,7 +21095,7 @@
         <v>864</v>
       </c>
       <c r="B12" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -21103,7 +21103,7 @@
         <v>253</v>
       </c>
       <c r="B13" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -21111,7 +21111,7 @@
         <v>262</v>
       </c>
       <c r="B14" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -21119,7 +21119,7 @@
         <v>865</v>
       </c>
       <c r="B15" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -21143,7 +21143,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.42578125" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
@@ -22274,7 +22274,7 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="78.7109375" customWidth="1"/>
     <col min="2" max="2" width="43.42578125" customWidth="1"/>
@@ -22450,7 +22450,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>1673</v>
+        <v>1676</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -22472,7 +22472,7 @@
       <selection activeCell="B50" sqref="B2:B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="54.140625" style="27" customWidth="1"/>
     <col min="3" max="3" width="180.5703125" style="31" customWidth="1"/>
@@ -22484,10 +22484,10 @@
         <v>37</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -22495,7 +22495,7 @@
         <v>986</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>1522</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -22503,23 +22503,23 @@
         <v>985</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -22527,199 +22527,199 @@
         <v>988</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>1488</v>
+        <v>1491</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>1489</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>1500</v>
+        <v>1503</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>1501</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>1499</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>1491</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>1509</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>1519</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>1516</v>
+        <v>1519</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>1517</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>1515</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>1495</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
-        <v>1523</v>
+        <v>1526</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>1524</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>1534</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
-        <v>1531</v>
+        <v>1534</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>1532</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>1551</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>1558</v>
+        <v>1561</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>1559</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
-        <v>1542</v>
+        <v>1545</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -22727,95 +22727,95 @@
         <v>1011</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>1541</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>1530</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>1526</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>1545</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
-        <v>1535</v>
+        <v>1538</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>1536</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
-        <v>1552</v>
+        <v>1555</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>1553</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>1540</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -22823,335 +22823,335 @@
         <v>987</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>1560</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
-        <v>1561</v>
+        <v>1564</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>1564</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
-        <v>1567</v>
+        <v>1570</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>1568</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>1570</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
-        <v>1565</v>
+        <v>1568</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>1566</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="27" t="s">
-        <v>1573</v>
+        <v>1576</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>1574</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
-        <v>1571</v>
+        <v>1574</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>1572</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" s="27" t="s">
-        <v>1671</v>
+        <v>1674</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>1672</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>1576</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="27" t="s">
-        <v>1577</v>
+        <v>1580</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>1578</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" s="27" t="s">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>1578</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="27" t="s">
-        <v>1579</v>
+        <v>1582</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>1580</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
-        <v>1603</v>
+        <v>1606</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>1604</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="27" t="s">
-        <v>1593</v>
+        <v>1596</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>1594</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="27" t="s">
-        <v>1599</v>
+        <v>1602</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>1600</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="27" t="s">
-        <v>1595</v>
+        <v>1598</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>1596</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="27" t="s">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>1588</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="27" t="s">
-        <v>1591</v>
+        <v>1594</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>1592</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="27" t="s">
-        <v>1605</v>
+        <v>1608</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>1606</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="27" t="s">
-        <v>1589</v>
+        <v>1592</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="27" t="s">
-        <v>1601</v>
+        <v>1604</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>1602</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="27" t="s">
-        <v>1597</v>
+        <v>1600</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>1598</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="27" t="s">
-        <v>1585</v>
+        <v>1588</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
-        <v>1583</v>
+        <v>1586</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="27" t="s">
-        <v>1620</v>
+        <v>1623</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>1621</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="27" t="s">
-        <v>1630</v>
+        <v>1633</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>1631</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
-        <v>1614</v>
+        <v>1617</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>1615</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="27" t="s">
-        <v>1640</v>
+        <v>1643</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>1641</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="27" t="s">
-        <v>1646</v>
+        <v>1649</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>1647</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="27" t="s">
-        <v>1642</v>
+        <v>1645</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>1643</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="27" t="s">
-        <v>1634</v>
+        <v>1637</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>1635</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="27" t="s">
-        <v>1608</v>
+        <v>1611</v>
       </c>
       <c r="C76" s="31" t="s">
-        <v>1609</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="27" t="s">
-        <v>1650</v>
+        <v>1653</v>
       </c>
       <c r="C77" s="31" t="s">
-        <v>1651</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="27" t="s">
-        <v>1648</v>
+        <v>1651</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>1649</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="27" t="s">
-        <v>1656</v>
+        <v>1659</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>1657</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="27" t="s">
-        <v>1658</v>
+        <v>1661</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>1659</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="27" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="27" t="s">
-        <v>1618</v>
+        <v>1621</v>
       </c>
       <c r="C82" s="31" t="s">
-        <v>1619</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="27" t="s">
-        <v>1636</v>
+        <v>1639</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>1637</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="27" t="s">
-        <v>1622</v>
+        <v>1625</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>1623</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -23159,127 +23159,127 @@
         <v>984</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="27" t="s">
-        <v>1628</v>
+        <v>1631</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>1629</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="27" t="s">
-        <v>1652</v>
+        <v>1655</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>1653</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="27" t="s">
-        <v>1610</v>
+        <v>1613</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>1611</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
-        <v>1612</v>
+        <v>1615</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>1613</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="27" t="s">
-        <v>1624</v>
+        <v>1627</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="27" t="s">
-        <v>1616</v>
+        <v>1619</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>1617</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
-        <v>1654</v>
+        <v>1657</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>1655</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="27" t="s">
-        <v>1644</v>
+        <v>1647</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>1645</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="27" t="s">
-        <v>1660</v>
+        <v>1663</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>1661</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="27" t="s">
-        <v>1638</v>
+        <v>1641</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>1639</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="27" t="s">
-        <v>1632</v>
+        <v>1635</v>
       </c>
       <c r="C96" s="31" t="s">
-        <v>1633</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="27" t="s">
-        <v>1662</v>
+        <v>1665</v>
       </c>
       <c r="C97" s="31" t="s">
-        <v>1663</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="27" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="C98" s="31" t="s">
-        <v>1669</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="27" t="s">
-        <v>1664</v>
+        <v>1667</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>1665</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="27" t="s">
-        <v>1666</v>
+        <v>1669</v>
       </c>
       <c r="C100" s="31" t="s">
-        <v>1667</v>
+        <v>1670</v>
       </c>
     </row>
   </sheetData>
@@ -23301,7 +23301,7 @@
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
@@ -24200,7 +24200,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="74.85546875" customWidth="1"/>
@@ -25100,7 +25100,7 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
@@ -25363,7 +25363,7 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -25394,14 +25394,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
-    <col min="2" max="2" width="80.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -25548,12 +25547,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>1675</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -25729,14 +25728,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.5703125" customWidth="1"/>
-    <col min="2" max="2" width="55.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -25875,12 +25873,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>1675</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -9,44 +9,46 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="30" activeTab="36"/>
   </bookViews>
   <sheets>
-    <sheet name="Codespace" sheetId="12" r:id="rId1"/>
-    <sheet name="Config_AB" sheetId="2" r:id="rId2"/>
-    <sheet name="Config_BC" sheetId="3" r:id="rId3"/>
-    <sheet name="Config_ON" sheetId="33" r:id="rId4"/>
-    <sheet name="Config_QC" sheetId="17" r:id="rId5"/>
-    <sheet name="Coord_QC" sheetId="19" r:id="rId6"/>
-    <sheet name="Country" sheetId="9" r:id="rId7"/>
-    <sheet name="Default_AB" sheetId="4" r:id="rId8"/>
-    <sheet name="Default_BC" sheetId="1" r:id="rId9"/>
-    <sheet name="Default_ON" sheetId="34" r:id="rId10"/>
-    <sheet name="Default_QC" sheetId="16" r:id="rId11"/>
-    <sheet name="ESRI_AB" sheetId="15" r:id="rId12"/>
-    <sheet name="Format" sheetId="7" r:id="rId13"/>
-    <sheet name="Format_TBS_QC" sheetId="28" r:id="rId14"/>
-    <sheet name="FrenchTranslation" sheetId="8" r:id="rId15"/>
-    <sheet name="Geospatial_BC" sheetId="25" r:id="rId16"/>
-    <sheet name="Geospatial_QC" sheetId="20" r:id="rId17"/>
-    <sheet name="Keyword" sheetId="5" r:id="rId18"/>
-    <sheet name="License_QC" sheetId="27" r:id="rId19"/>
-    <sheet name="Progress" sheetId="10" r:id="rId20"/>
-    <sheet name="QC_JSON_CONFIG" sheetId="31" r:id="rId21"/>
-    <sheet name="ResourceType_TBS_QC" sheetId="32" r:id="rId22"/>
-    <sheet name="Role" sheetId="11" r:id="rId23"/>
-    <sheet name="Sector_ON" sheetId="35" r:id="rId24"/>
-    <sheet name="Sector_QC" sheetId="22" r:id="rId25"/>
-    <sheet name="Spatial_ON" sheetId="36" r:id="rId26"/>
-    <sheet name="SpatialRep_API_ON" sheetId="37" r:id="rId27"/>
-    <sheet name="SpatialRef" sheetId="13" r:id="rId28"/>
-    <sheet name="SpatialRepresentation" sheetId="14" r:id="rId29"/>
-    <sheet name="SubjectNTopic_TBS_QC" sheetId="30" r:id="rId30"/>
-    <sheet name="Update" sheetId="6" r:id="rId31"/>
-    <sheet name="UpdateFrequency_TBS_QC" sheetId="29" r:id="rId32"/>
-    <sheet name="UUID_Spatial_BC" sheetId="26" r:id="rId33"/>
-    <sheet name="UUID_Spatial_QC" sheetId="24" r:id="rId34"/>
-    <sheet name="WMS_URL_QC" sheetId="38" r:id="rId35"/>
+    <sheet name="PyCSW_config" sheetId="40" r:id="rId1"/>
+    <sheet name="Codespace" sheetId="12" r:id="rId2"/>
+    <sheet name="Config_AB" sheetId="2" r:id="rId3"/>
+    <sheet name="Config_BC" sheetId="3" r:id="rId4"/>
+    <sheet name="Config_ON" sheetId="33" r:id="rId5"/>
+    <sheet name="Config_QC" sheetId="17" r:id="rId6"/>
+    <sheet name="Coord_QC" sheetId="19" r:id="rId7"/>
+    <sheet name="Country" sheetId="9" r:id="rId8"/>
+    <sheet name="Default_AB" sheetId="4" r:id="rId9"/>
+    <sheet name="Default_BC" sheetId="1" r:id="rId10"/>
+    <sheet name="Default_ON" sheetId="34" r:id="rId11"/>
+    <sheet name="Default_QC" sheetId="16" r:id="rId12"/>
+    <sheet name="ESRI_AB" sheetId="15" r:id="rId13"/>
+    <sheet name="Format" sheetId="7" r:id="rId14"/>
+    <sheet name="Format_TBS_QC" sheetId="28" r:id="rId15"/>
+    <sheet name="FrenchTranslation" sheetId="8" r:id="rId16"/>
+    <sheet name="Geospatial_BC" sheetId="25" r:id="rId17"/>
+    <sheet name="Geospatial_QC" sheetId="20" r:id="rId18"/>
+    <sheet name="Keyword" sheetId="5" r:id="rId19"/>
+    <sheet name="License_QC" sheetId="27" r:id="rId20"/>
+    <sheet name="Progress" sheetId="10" r:id="rId21"/>
+    <sheet name="QC_JSON_CONFIG" sheetId="31" r:id="rId22"/>
+    <sheet name="ResourceType_TBS_QC" sheetId="32" r:id="rId23"/>
+    <sheet name="Role" sheetId="11" r:id="rId24"/>
+    <sheet name="Sector_ON" sheetId="35" r:id="rId25"/>
+    <sheet name="Sector_QC" sheetId="22" r:id="rId26"/>
+    <sheet name="Spatial_ON" sheetId="36" r:id="rId27"/>
+    <sheet name="SpatialRep_API_ON" sheetId="37" r:id="rId28"/>
+    <sheet name="SpatialRef" sheetId="13" r:id="rId29"/>
+    <sheet name="SpatialRepresentation" sheetId="14" r:id="rId30"/>
+    <sheet name="SubjectNTopic_TBS_QC" sheetId="30" r:id="rId31"/>
+    <sheet name="Update" sheetId="6" r:id="rId32"/>
+    <sheet name="UpdateFrequency_TBS_QC" sheetId="29" r:id="rId33"/>
+    <sheet name="UUID_Spatial_BC" sheetId="26" r:id="rId34"/>
+    <sheet name="UUID_Spatial_QC" sheetId="24" r:id="rId35"/>
+    <sheet name="WMS_URL_QC" sheetId="38" r:id="rId36"/>
+    <sheet name="QC_MAP_RES_REMOVE" sheetId="39" r:id="rId37"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5257" uniqueCount="1678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5372" uniqueCount="1695">
   <si>
     <t>default_key</t>
   </si>
@@ -5097,6 +5099,57 @@
   <si>
     <t xml:space="preserve">
 **This third party metadata element was translated using an automated translation tool (Amazon Translate).**</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/igo_gouvouvert.fcgi?request=getcapabilities&amp;service=wms&amp;version=1.3.0&amp;layers=MCC_V_IP_CITE_P&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/igo_gouvouvert.fcgi?request=getcapabilities&amp;service=wms&amp;version=1.3.0&amp;layers=MSP_ORG_SAUVETAGE_GEO_P&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>url_fmeserver</t>
+  </si>
+  <si>
+    <t>url_desktop</t>
+  </si>
+  <si>
+    <t>http://ec2amaz-2hiajuv/pycsw?</t>
+  </si>
+  <si>
+    <t>https://pycsw-bc.ddr-dev.cgp-pgc.ca/pycsw?</t>
+  </si>
+  <si>
+    <t>https://pycsw.ddr-dev.cgp-pgc.ca/pycsw?</t>
+  </si>
+  <si>
+    <t>http://pycsw-6ee5e20/pycsw?</t>
+  </si>
+  <si>
+    <t>https://cartes.rouyn-noranda.ca/server/rest/services/Donnees_ouvertes/Limite_municipale/MapServer/0</t>
+  </si>
+  <si>
+    <t>https://cartes.rouyn-noranda.ca/server/rest/services/Donnees_ouvertes/Milieux_humides/MapServer/0</t>
+  </si>
+  <si>
+    <t>https://servicescarto.mern.gouv.qc.ca/pes/rest/services/Territoire/AdressesQuebec_Geocodage/GeocodeServer</t>
+  </si>
+  <si>
+    <t>https://www.servicesgeo.enviroweb.gouv.qc.ca/donnees/rest/services/Public/Themes_publics/MapServer/83</t>
+  </si>
+  <si>
+    <t>https://www.servicesgeo.enviroweb.gouv.qc.ca/donnees/rest/services/Public/ZIS_Annexe2_arrete_30dec2019/MapServer</t>
+  </si>
+  <si>
+    <t>https://carte.ville.quebec.qc.ca/arcgis/services/DonneesOuverte/VilledeQuebec/MapServer/WMSServer?service=WMS&amp;request=GetCapabilities&amp;layers=1&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>https://cartopublic.affmunqc.net/geoserver/ZI/ows?SERVICE=WMS&amp;request=GetCapabilities&amp;layers=ZonesInon_PPAT&amp;legend_format=image/png&amp;feature_info_type=text/plain</t>
+  </si>
+  <si>
+    <t>https://geoegl.msp.gouv.qc.ca/ws/igo_gouvouvert.fcgi?request=getcapabilities&amp;service=wms&amp;version=1.3.0&amp;layers=MEGANTIC_AEROPHOTO&amp;legend_format=image/png&amp;feature_info_type=text/plain"</t>
   </si>
 </sst>
 </file>
@@ -5519,65 +5572,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>194</v>
+        <v>1680</v>
       </c>
       <c r="B1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1681</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>544</v>
+        <v>785</v>
       </c>
       <c r="B2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1683</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1686</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>545</v>
-      </c>
-      <c r="B4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3400</v>
-      </c>
-      <c r="B5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B6" t="s">
-        <v>193</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>1684</v>
       </c>
     </row>
   </sheetData>
@@ -5586,6 +5634,249 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="55.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>725</v>
+      </c>
+      <c r="B24" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>726</v>
+      </c>
+      <c r="B25" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>728</v>
+      </c>
+      <c r="B26" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>730</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>732</v>
+      </c>
+      <c r="B28" t="s">
+        <v>738</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B34"/>
   <sheetViews>
@@ -5869,11 +6160,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -6212,7 +6503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B42"/>
   <sheetViews>
@@ -6567,7 +6858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F471"/>
   <sheetViews>
@@ -13281,7 +13572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
@@ -13659,7 +13950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -13701,7 +13992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -13876,7 +14167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C74"/>
   <sheetViews>
@@ -14588,7 +14879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -14806,7 +15097,75 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3400</v>
+      </c>
+      <c r="B5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -14897,984 +15256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C87"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.42578125" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>103</v>
-      </c>
-      <c r="B51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>105</v>
-      </c>
-      <c r="B52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53" t="s">
-        <v>108</v>
-      </c>
-      <c r="C53" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>109</v>
-      </c>
-      <c r="B54" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>112</v>
-      </c>
-      <c r="B55" t="s">
-        <v>113</v>
-      </c>
-      <c r="C55" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56" t="s">
-        <v>23</v>
-      </c>
-      <c r="C56" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>114</v>
-      </c>
-      <c r="B57" t="s">
-        <v>115</v>
-      </c>
-      <c r="C57" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>24</v>
-      </c>
-      <c r="B58" t="s">
-        <v>117</v>
-      </c>
-      <c r="C58" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>26</v>
-      </c>
-      <c r="B59" t="s">
-        <v>118</v>
-      </c>
-      <c r="C59" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>119</v>
-      </c>
-      <c r="B60" t="s">
-        <v>120</v>
-      </c>
-      <c r="C60" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>122</v>
-      </c>
-      <c r="B61" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>124</v>
-      </c>
-      <c r="B62" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>126</v>
-      </c>
-      <c r="B63" t="s">
-        <v>127</v>
-      </c>
-      <c r="C63" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>129</v>
-      </c>
-      <c r="B64" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>132</v>
-      </c>
-      <c r="B65" t="s">
-        <v>133</v>
-      </c>
-      <c r="C65" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>134</v>
-      </c>
-      <c r="B66" t="s">
-        <v>135</v>
-      </c>
-      <c r="C66" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>136</v>
-      </c>
-      <c r="B67" t="s">
-        <v>137</v>
-      </c>
-      <c r="C67" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>138</v>
-      </c>
-      <c r="B68" t="s">
-        <v>139</v>
-      </c>
-      <c r="C68" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>140</v>
-      </c>
-      <c r="B69" t="s">
-        <v>140</v>
-      </c>
-      <c r="C69" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>141</v>
-      </c>
-      <c r="B70" t="s">
-        <v>142</v>
-      </c>
-      <c r="C70" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>143</v>
-      </c>
-      <c r="B71" t="s">
-        <v>144</v>
-      </c>
-      <c r="C71" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>145</v>
-      </c>
-      <c r="B72" t="s">
-        <v>146</v>
-      </c>
-      <c r="C72" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>147</v>
-      </c>
-      <c r="B73" t="s">
-        <v>148</v>
-      </c>
-      <c r="C73" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>149</v>
-      </c>
-      <c r="B74" t="s">
-        <v>31</v>
-      </c>
-      <c r="C74" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>150</v>
-      </c>
-      <c r="B75" t="s">
-        <v>151</v>
-      </c>
-      <c r="C75" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>725</v>
-      </c>
-      <c r="B76" t="s">
-        <v>725</v>
-      </c>
-      <c r="C76" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>726</v>
-      </c>
-      <c r="B77" t="s">
-        <v>726</v>
-      </c>
-      <c r="C77" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>727</v>
-      </c>
-      <c r="B78" t="s">
-        <v>728</v>
-      </c>
-      <c r="C78" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>729</v>
-      </c>
-      <c r="B79" t="s">
-        <v>730</v>
-      </c>
-      <c r="C79" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>731</v>
-      </c>
-      <c r="B80" t="s">
-        <v>732</v>
-      </c>
-      <c r="C80" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>91</v>
-      </c>
-      <c r="B81" t="s">
-        <v>92</v>
-      </c>
-      <c r="C81" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>93</v>
-      </c>
-      <c r="B82" t="s">
-        <v>94</v>
-      </c>
-      <c r="C82" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>95</v>
-      </c>
-      <c r="B83" t="s">
-        <v>96</v>
-      </c>
-      <c r="C83" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>97</v>
-      </c>
-      <c r="B84" t="s">
-        <v>98</v>
-      </c>
-      <c r="C84" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>101</v>
-      </c>
-      <c r="B85" t="s">
-        <v>102</v>
-      </c>
-      <c r="C85" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>739</v>
-      </c>
-      <c r="B86" t="s">
-        <v>100</v>
-      </c>
-      <c r="C86" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>103</v>
-      </c>
-      <c r="B87" t="s">
-        <v>104</v>
-      </c>
-      <c r="C87" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -16049,7 +15431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
@@ -16553,7 +15935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -16616,7 +15998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -16875,7 +16257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -17187,7 +16569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
@@ -18508,7 +17890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B33"/>
   <sheetViews>
@@ -18791,7 +18173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
@@ -19138,7 +18520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -19303,7 +18685,984 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C87"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.42578125" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>725</v>
+      </c>
+      <c r="B76" t="s">
+        <v>725</v>
+      </c>
+      <c r="C76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>726</v>
+      </c>
+      <c r="B77" t="s">
+        <v>726</v>
+      </c>
+      <c r="C77" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>727</v>
+      </c>
+      <c r="B78" t="s">
+        <v>728</v>
+      </c>
+      <c r="C78" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>729</v>
+      </c>
+      <c r="B79" t="s">
+        <v>730</v>
+      </c>
+      <c r="C79" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>731</v>
+      </c>
+      <c r="B80" t="s">
+        <v>732</v>
+      </c>
+      <c r="C80" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" t="s">
+        <v>94</v>
+      </c>
+      <c r="C82" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" t="s">
+        <v>98</v>
+      </c>
+      <c r="C84" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>739</v>
+      </c>
+      <c r="B86" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -19422,906 +19781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C80"/>
-  <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C80" sqref="C1:C80"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="44.85546875" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" t="s">
-        <v>152</v>
-      </c>
-      <c r="C43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>105</v>
-      </c>
-      <c r="B45" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>109</v>
-      </c>
-      <c r="B47" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>114</v>
-      </c>
-      <c r="B50" t="s">
-        <v>153</v>
-      </c>
-      <c r="C50" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>119</v>
-      </c>
-      <c r="B53" t="s">
-        <v>154</v>
-      </c>
-      <c r="C53" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>122</v>
-      </c>
-      <c r="B54" t="s">
-        <v>155</v>
-      </c>
-      <c r="C54" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>124</v>
-      </c>
-      <c r="B55" t="s">
-        <v>156</v>
-      </c>
-      <c r="C55" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>126</v>
-      </c>
-      <c r="B56" t="s">
-        <v>127</v>
-      </c>
-      <c r="C56" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>129</v>
-      </c>
-      <c r="B57" t="s">
-        <v>130</v>
-      </c>
-      <c r="C57" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>132</v>
-      </c>
-      <c r="B58" t="s">
-        <v>133</v>
-      </c>
-      <c r="C58" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>134</v>
-      </c>
-      <c r="B59" t="s">
-        <v>135</v>
-      </c>
-      <c r="C59" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>136</v>
-      </c>
-      <c r="B60" t="s">
-        <v>137</v>
-      </c>
-      <c r="C60" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>138</v>
-      </c>
-      <c r="B61" t="s">
-        <v>139</v>
-      </c>
-      <c r="C61" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>140</v>
-      </c>
-      <c r="B62" t="s">
-        <v>140</v>
-      </c>
-      <c r="C62" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>141</v>
-      </c>
-      <c r="B63" t="s">
-        <v>142</v>
-      </c>
-      <c r="C63" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>143</v>
-      </c>
-      <c r="B64" t="s">
-        <v>144</v>
-      </c>
-      <c r="C64" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>145</v>
-      </c>
-      <c r="B65" t="s">
-        <v>146</v>
-      </c>
-      <c r="C65" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>147</v>
-      </c>
-      <c r="B66" t="s">
-        <v>148</v>
-      </c>
-      <c r="C66" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>149</v>
-      </c>
-      <c r="B67" t="s">
-        <v>31</v>
-      </c>
-      <c r="C67" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>150</v>
-      </c>
-      <c r="B68" t="s">
-        <v>151</v>
-      </c>
-      <c r="C68" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>725</v>
-      </c>
-      <c r="B69" t="s">
-        <v>725</v>
-      </c>
-      <c r="C69" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>726</v>
-      </c>
-      <c r="B70" t="s">
-        <v>726</v>
-      </c>
-      <c r="C70" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>727</v>
-      </c>
-      <c r="B71" t="s">
-        <v>728</v>
-      </c>
-      <c r="C71" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>729</v>
-      </c>
-      <c r="B72" t="s">
-        <v>730</v>
-      </c>
-      <c r="C72" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>731</v>
-      </c>
-      <c r="B73" t="s">
-        <v>732</v>
-      </c>
-      <c r="C73" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>91</v>
-      </c>
-      <c r="B74" t="s">
-        <v>92</v>
-      </c>
-      <c r="C74" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>93</v>
-      </c>
-      <c r="B75" t="s">
-        <v>94</v>
-      </c>
-      <c r="C75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>95</v>
-      </c>
-      <c r="B76" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>97</v>
-      </c>
-      <c r="B77" t="s">
-        <v>98</v>
-      </c>
-      <c r="C77" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>101</v>
-      </c>
-      <c r="B78" t="s">
-        <v>102</v>
-      </c>
-      <c r="C78" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>739</v>
-      </c>
-      <c r="B79" t="s">
-        <v>100</v>
-      </c>
-      <c r="C79" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>103</v>
-      </c>
-      <c r="B80" t="s">
-        <v>104</v>
-      </c>
-      <c r="C80" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -20494,7 +19954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
@@ -20992,7 +20452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -21135,7 +20595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B139"/>
   <sheetViews>
@@ -22266,7 +21726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -22464,12 +21924,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B50" sqref="B2:B50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22502,16 +21962,16 @@
       <c r="A3" s="27" t="s">
         <v>985</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>1482</v>
+      <c r="C3" s="25" t="s">
+        <v>1692</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>1483</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>1484</v>
+      <c r="C4" s="25" t="s">
+        <v>1693</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -23288,12 +22748,1446 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="C24" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A103"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="207.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C80"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C80" sqref="C1:C80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>143</v>
+      </c>
+      <c r="B64" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>149</v>
+      </c>
+      <c r="B67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>725</v>
+      </c>
+      <c r="B69" t="s">
+        <v>725</v>
+      </c>
+      <c r="C69" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>726</v>
+      </c>
+      <c r="B70" t="s">
+        <v>726</v>
+      </c>
+      <c r="C70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>727</v>
+      </c>
+      <c r="B71" t="s">
+        <v>728</v>
+      </c>
+      <c r="C71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>729</v>
+      </c>
+      <c r="B72" t="s">
+        <v>730</v>
+      </c>
+      <c r="C72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>731</v>
+      </c>
+      <c r="B73" t="s">
+        <v>732</v>
+      </c>
+      <c r="C73" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>95</v>
+      </c>
+      <c r="B76" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>101</v>
+      </c>
+      <c r="B78" t="s">
+        <v>102</v>
+      </c>
+      <c r="C78" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>739</v>
+      </c>
+      <c r="B79" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80" t="s">
+        <v>104</v>
+      </c>
+      <c r="C80" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C80"/>
   <sheetViews>
@@ -24192,7 +25086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C80"/>
   <sheetViews>
@@ -25092,7 +25986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -25355,7 +26249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -25390,7 +26284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
@@ -25723,247 +26617,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
-    <col min="2" max="2" width="55.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>725</v>
-      </c>
-      <c r="B24" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>726</v>
-      </c>
-      <c r="B25" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>728</v>
-      </c>
-      <c r="B26" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>730</v>
-      </c>
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>732</v>
-      </c>
-      <c r="B28" t="s">
-        <v>738</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngariepy\Documents\GitHub\fgp-metadata-proxy\FME_files\LOOKUP_TABLES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\PT_Harvester\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="30" activeTab="36"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868"/>
   </bookViews>
   <sheets>
     <sheet name="PyCSW_config" sheetId="40" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5372" uniqueCount="1695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5375" uniqueCount="1696">
   <si>
     <t>default_key</t>
   </si>
@@ -5150,6 +5150,9 @@
   </si>
   <si>
     <t>https://geoegl.msp.gouv.qc.ca/ws/igo_gouvouvert.fcgi?request=getcapabilities&amp;service=wms&amp;version=1.3.0&amp;layers=MEGANTIC_AEROPHOTO&amp;legend_format=image/png&amp;feature_info_type=text/plain"</t>
+  </si>
+  <si>
+    <t>ON</t>
   </si>
 </sst>
 </file>
@@ -5291,8 +5294,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="3"/>
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
@@ -5572,13 +5575,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.28515625" bestFit="1" customWidth="1"/>
@@ -5626,6 +5629,17 @@
       </c>
       <c r="C4" s="27" t="s">
         <v>1684</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>1685</v>
       </c>
     </row>
   </sheetData>
@@ -5641,7 +5655,7 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.5703125" customWidth="1"/>
     <col min="2" max="2" width="55.28515625" customWidth="1"/>
@@ -5884,7 +5898,7 @@
       <selection activeCell="G16" sqref="G16:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" customWidth="1"/>
@@ -6168,7 +6182,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
@@ -6511,7 +6525,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.7109375" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
@@ -6866,7 +6880,7 @@
       <selection activeCell="B471" sqref="B471:D471"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="168.42578125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
@@ -13580,7 +13594,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -13956,7 +13970,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -14000,7 +14014,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
@@ -14175,7 +14189,7 @@
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -14887,7 +14901,7 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" customWidth="1"/>
   </cols>
@@ -15105,7 +15119,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
@@ -15173,7 +15187,7 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
@@ -15264,7 +15278,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" customWidth="1"/>
@@ -15439,7 +15453,7 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="2" width="43.28515625" customWidth="1"/>
@@ -15943,7 +15957,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -16006,7 +16020,7 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="38.85546875" customWidth="1"/>
@@ -16265,7 +16279,7 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.85546875" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
@@ -16577,7 +16591,7 @@
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="82" customWidth="1"/>
     <col min="2" max="2" width="95" customWidth="1"/>
@@ -17898,7 +17912,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.42578125" customWidth="1"/>
     <col min="2" max="2" width="47.28515625" customWidth="1"/>
@@ -18181,7 +18195,7 @@
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
     <col min="2" max="2" width="53.5703125" customWidth="1"/>
@@ -18528,7 +18542,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="30.140625" customWidth="1"/>
@@ -18693,7 +18707,7 @@
       <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.42578125" customWidth="1"/>
     <col min="2" max="2" width="45.140625" customWidth="1"/>
@@ -19670,7 +19684,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -19789,7 +19803,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
     <col min="3" max="3" width="58" customWidth="1"/>
@@ -19962,7 +19976,7 @@
       <selection activeCell="B34" sqref="B34:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -20460,7 +20474,7 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -20603,7 +20617,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.42578125" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
@@ -21734,7 +21748,7 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="78.7109375" customWidth="1"/>
     <col min="2" max="2" width="43.42578125" customWidth="1"/>
@@ -21932,7 +21946,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="54.140625" style="27" customWidth="1"/>
     <col min="3" max="3" width="180.5703125" style="31" customWidth="1"/>
@@ -22759,11 +22773,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="207.5703125" customWidth="1"/>
   </cols>
@@ -23296,7 +23310,7 @@
       <selection activeCell="C80" sqref="C1:C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="44.28515625" customWidth="1"/>
@@ -24195,7 +24209,7 @@
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
@@ -25094,7 +25108,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="74.85546875" customWidth="1"/>
@@ -25994,7 +26008,7 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
@@ -26257,7 +26271,7 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -26292,7 +26306,7 @@
       <selection activeCell="B12" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
     <col min="2" max="2" width="80.42578125" customWidth="1"/>

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\PT_Harvester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngariepy\Documents\GitHub\fgp-metadata-proxy\FME_files\LOOKUP_TABLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="PyCSW_config" sheetId="40" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5375" uniqueCount="1696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5377" uniqueCount="1698">
   <si>
     <t>default_key</t>
   </si>
@@ -5153,6 +5153,12 @@
   </si>
   <si>
     <t>ON</t>
+  </si>
+  <si>
+    <t>_default_email</t>
+  </si>
+  <si>
+    <t>pilote@donneesquebec.ca</t>
   </si>
 </sst>
 </file>
@@ -5294,8 +5300,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="3"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
@@ -5313,7 +5319,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5577,11 +5583,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.28515625" bestFit="1" customWidth="1"/>
@@ -5655,7 +5661,7 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.5703125" customWidth="1"/>
     <col min="2" max="2" width="55.28515625" customWidth="1"/>
@@ -5898,7 +5904,7 @@
       <selection activeCell="G16" sqref="G16:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" customWidth="1"/>
@@ -6176,13 +6182,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
@@ -6506,6 +6512,14 @@
       </c>
       <c r="B40" t="s">
         <v>1248</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1697</v>
       </c>
     </row>
   </sheetData>
@@ -6525,7 +6539,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.7109375" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
@@ -6880,7 +6894,7 @@
       <selection activeCell="B471" sqref="B471:D471"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="168.42578125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
@@ -13594,7 +13608,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -13970,7 +13984,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -14014,7 +14028,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
@@ -14189,7 +14203,7 @@
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -14901,7 +14915,7 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" customWidth="1"/>
   </cols>
@@ -15119,7 +15133,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
@@ -15187,7 +15201,7 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
@@ -15278,7 +15292,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" customWidth="1"/>
@@ -15453,7 +15467,7 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="2" width="43.28515625" customWidth="1"/>
@@ -15957,7 +15971,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -16020,7 +16034,7 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="38.85546875" customWidth="1"/>
@@ -16279,7 +16293,7 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.85546875" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
@@ -16591,7 +16605,7 @@
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="82" customWidth="1"/>
     <col min="2" max="2" width="95" customWidth="1"/>
@@ -17912,7 +17926,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.42578125" customWidth="1"/>
     <col min="2" max="2" width="47.28515625" customWidth="1"/>
@@ -18195,7 +18209,7 @@
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
     <col min="2" max="2" width="53.5703125" customWidth="1"/>
@@ -18542,7 +18556,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="30.140625" customWidth="1"/>
@@ -18707,7 +18721,7 @@
       <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.42578125" customWidth="1"/>
     <col min="2" max="2" width="45.140625" customWidth="1"/>
@@ -19684,7 +19698,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -19803,7 +19817,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
     <col min="3" max="3" width="58" customWidth="1"/>
@@ -19976,7 +19990,7 @@
       <selection activeCell="B34" sqref="B34:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -20474,7 +20488,7 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -20617,7 +20631,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.42578125" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
@@ -21748,7 +21762,7 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="78.7109375" customWidth="1"/>
     <col min="2" max="2" width="43.42578125" customWidth="1"/>
@@ -21946,7 +21960,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="54.140625" style="27" customWidth="1"/>
     <col min="3" max="3" width="180.5703125" style="31" customWidth="1"/>
@@ -22777,7 +22791,7 @@
       <selection activeCell="A2" sqref="A2:A103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="207.5703125" customWidth="1"/>
   </cols>
@@ -23310,7 +23324,7 @@
       <selection activeCell="C80" sqref="C1:C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="44.28515625" customWidth="1"/>
@@ -24209,7 +24223,7 @@
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
@@ -25108,7 +25122,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="74.85546875" customWidth="1"/>
@@ -26008,7 +26022,7 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
@@ -26271,7 +26285,7 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -26306,7 +26320,7 @@
       <selection activeCell="B12" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
     <col min="2" max="2" width="80.42578125" customWidth="1"/>

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="26" activeTab="36"/>
   </bookViews>
   <sheets>
     <sheet name="PyCSW_config" sheetId="40" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5377" uniqueCount="1698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5381" uniqueCount="1700">
   <si>
     <t>default_key</t>
   </si>
@@ -5159,6 +5159,12 @@
   </si>
   <si>
     <t>pilote@donneesquebec.ca</t>
+  </si>
+  <si>
+    <t>https://servicescarto.mern.gouv.qc.ca/pes/rest/services/Territoire/SDA_SOCIO_WMS/MapServer</t>
+  </si>
+  <si>
+    <t>https://servicescarto.mern.gouv.qc.ca/pes/rest/services/Territoire/SDA_WMS/MapServer</t>
   </si>
 </sst>
 </file>
@@ -6184,7 +6190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
@@ -22785,10 +22791,10 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A103"/>
+  <dimension ref="A1:A107"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A103"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23309,6 +23315,26 @@
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1667</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1699</v>
       </c>
     </row>
   </sheetData>

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngariepy\Documents\GitHub\fgp-metadata-proxy\FME_files\LOOKUP_TABLES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngariepy\Documents\GitHub\fgp-metadata-proxy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="26" activeTab="36"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="12" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="PyCSW_config" sheetId="40" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5381" uniqueCount="1700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5233" uniqueCount="1700">
   <si>
     <t>default_key</t>
   </si>
@@ -5263,7 +5263,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5275,7 +5275,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5636,10 +5635,10 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>1683</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>1684</v>
       </c>
     </row>
@@ -5647,10 +5646,10 @@
       <c r="A5" t="s">
         <v>1695</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>1686</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>1685</v>
       </c>
     </row>
@@ -5813,7 +5812,7 @@
       <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>1675</v>
       </c>
     </row>
@@ -5917,269 +5916,269 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>1676</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>1338</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>1359</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>1360</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>1361</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>800</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>1362</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>798</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>1363</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>1364</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>728</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>1365</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>732</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>1366</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>730</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>725</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>1367</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>726</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>1368</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>1369</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>1370</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>1371</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>1372</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="21"/>
+      <c r="B30" s="20"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
+      <c r="A34" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6228,7 +6227,7 @@
       <c r="A4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>1677</v>
       </c>
     </row>
@@ -6894,10 +6893,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F471"/>
+  <dimension ref="A1:F434"/>
   <sheetViews>
-    <sheetView topLeftCell="A439" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B471" sqref="B471:D471"/>
+    <sheetView tabSelected="1" topLeftCell="A430" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A449" sqref="A449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6906,7 +6905,7 @@
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6922,14 +6921,14 @@
       <c r="D1" t="s">
         <v>267</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>1180</v>
       </c>
       <c r="F1" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>807</v>
       </c>
@@ -10389,7 +10388,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="B249" t="s">
         <v>783</v>
@@ -10403,7 +10402,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="B250" t="s">
         <v>783</v>
@@ -10417,7 +10416,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="B251" t="s">
         <v>783</v>
@@ -10431,7 +10430,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>366</v>
+        <v>448</v>
       </c>
       <c r="B252" t="s">
         <v>783</v>
@@ -10445,7 +10444,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>341</v>
+        <v>447</v>
       </c>
       <c r="B253" t="s">
         <v>783</v>
@@ -10459,7 +10458,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B254" t="s">
         <v>783</v>
@@ -10473,7 +10472,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B255" t="s">
         <v>783</v>
@@ -10487,7 +10486,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B256" t="s">
         <v>783</v>
@@ -10501,7 +10500,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>451</v>
+        <v>345</v>
       </c>
       <c r="B257" t="s">
         <v>783</v>
@@ -10515,7 +10514,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>449</v>
+        <v>417</v>
       </c>
       <c r="B258" t="s">
         <v>783</v>
@@ -10529,7 +10528,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="B259" t="s">
         <v>783</v>
@@ -10543,7 +10542,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>417</v>
+        <v>346</v>
       </c>
       <c r="B260" t="s">
         <v>783</v>
@@ -10557,7 +10556,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B261" t="s">
         <v>783</v>
@@ -10571,7 +10570,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="B262" t="s">
         <v>783</v>
@@ -10585,7 +10584,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="B263" t="s">
         <v>783</v>
@@ -10599,7 +10598,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="B264" t="s">
         <v>783</v>
@@ -10613,7 +10612,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>342</v>
+        <v>418</v>
       </c>
       <c r="B265" t="s">
         <v>783</v>
@@ -10627,7 +10626,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B266" t="s">
         <v>783</v>
@@ -10641,7 +10640,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>347</v>
+        <v>452</v>
       </c>
       <c r="B267" t="s">
         <v>783</v>
@@ -10655,7 +10654,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="B268" t="s">
         <v>783</v>
@@ -10669,7 +10668,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>418</v>
+        <v>344</v>
       </c>
       <c r="B269" t="s">
         <v>783</v>
@@ -10683,7 +10682,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B270" t="s">
         <v>783</v>
@@ -10697,7 +10696,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>452</v>
+        <v>349</v>
       </c>
       <c r="B271" t="s">
         <v>783</v>
@@ -10710,8 +10709,8 @@
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>368</v>
+      <c r="A272" s="9" t="s">
+        <v>809</v>
       </c>
       <c r="B272" t="s">
         <v>783</v>
@@ -10725,10 +10724,10 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>344</v>
+        <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>783</v>
+        <v>277</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>274</v>
@@ -10738,8 +10737,8 @@
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>344</v>
+      <c r="A274" s="9" t="s">
+        <v>810</v>
       </c>
       <c r="B274" t="s">
         <v>783</v>
@@ -10752,36 +10751,36 @@
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>348</v>
-      </c>
-      <c r="B275" t="s">
-        <v>783</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>274</v>
+      <c r="A275" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="B275" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="D275" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>349</v>
-      </c>
-      <c r="B276" t="s">
-        <v>783</v>
-      </c>
-      <c r="C276" s="3" t="s">
-        <v>274</v>
+      <c r="A276" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="B276" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="D276" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="9" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="B277" t="s">
         <v>783</v>
@@ -10794,11 +10793,11 @@
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>276</v>
-      </c>
-      <c r="B278" t="s">
-        <v>277</v>
+      <c r="A278" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="B278" s="9" t="s">
+        <v>814</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>274</v>
@@ -10808,11 +10807,11 @@
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="B279" s="9" t="s">
-        <v>277</v>
+      <c r="A279" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="B279" s="26" t="s">
+        <v>279</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>274</v>
@@ -10823,10 +10822,10 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="9" t="s">
-        <v>810</v>
-      </c>
-      <c r="B280" t="s">
-        <v>783</v>
+        <v>816</v>
+      </c>
+      <c r="B280" s="9" t="s">
+        <v>816</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>274</v>
@@ -10836,11 +10835,11 @@
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" s="9" t="s">
-        <v>845</v>
+      <c r="A281" s="26" t="s">
+        <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>783</v>
+        <v>281</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>274</v>
@@ -10850,39 +10849,39 @@
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" s="9" t="s">
-        <v>811</v>
-      </c>
-      <c r="B282" s="9" t="s">
-        <v>811</v>
+      <c r="A282" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="B282" s="26" t="s">
+        <v>269</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="D282" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" s="9" t="s">
-        <v>812</v>
-      </c>
-      <c r="B283" s="9" t="s">
-        <v>812</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>305</v>
+      <c r="A283" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="B283" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="D283" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284" s="9" t="s">
-        <v>813</v>
+      <c r="A284" s="26" t="s">
+        <v>462</v>
       </c>
       <c r="B284" t="s">
-        <v>783</v>
+        <v>281</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>274</v>
@@ -10893,10 +10892,10 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="9" t="s">
-        <v>866</v>
-      </c>
-      <c r="B285" t="s">
-        <v>783</v>
+        <v>817</v>
+      </c>
+      <c r="B285" s="9" t="s">
+        <v>281</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>274</v>
@@ -10906,11 +10905,11 @@
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A286" s="9" t="s">
-        <v>814</v>
-      </c>
-      <c r="B286" s="9" t="s">
-        <v>814</v>
+      <c r="A286" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="B286" s="26" t="s">
+        <v>281</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>274</v>
@@ -10920,11 +10919,11 @@
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A287" s="9" t="s">
-        <v>815</v>
-      </c>
-      <c r="B287" s="9" t="s">
-        <v>814</v>
+      <c r="A287" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="B287" s="26" t="s">
+        <v>281</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>274</v>
@@ -10934,11 +10933,11 @@
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>278</v>
+      <c r="A288" s="9" t="s">
+        <v>846</v>
       </c>
       <c r="B288" t="s">
-        <v>279</v>
+        <v>783</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>274</v>
@@ -10948,11 +10947,11 @@
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289" s="9" t="s">
-        <v>816</v>
-      </c>
-      <c r="B289" s="9" t="s">
-        <v>816</v>
+      <c r="A289" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="B289" s="26" t="s">
+        <v>783</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>274</v>
@@ -10962,11 +10961,11 @@
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>280</v>
+      <c r="A290" s="9" t="s">
+        <v>819</v>
       </c>
       <c r="B290" t="s">
-        <v>281</v>
+        <v>783</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>274</v>
@@ -10977,24 +10976,24 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B291" t="s">
-        <v>269</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>270</v>
+        <v>284</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="D291" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>463</v>
+        <v>285</v>
       </c>
       <c r="B292" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>274</v>
@@ -11005,10 +11004,10 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>462</v>
+        <v>286</v>
       </c>
       <c r="B293" t="s">
-        <v>281</v>
+        <v>1185</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>274</v>
@@ -11018,11 +11017,11 @@
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294" s="9" t="s">
-        <v>817</v>
-      </c>
-      <c r="B294" s="9" t="s">
-        <v>281</v>
+      <c r="A294" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="B294" s="26" t="s">
+        <v>289</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>274</v>
@@ -11032,11 +11031,11 @@
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>282</v>
-      </c>
-      <c r="B295" t="s">
-        <v>281</v>
+      <c r="A295" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="B295" s="9" t="s">
+        <v>822</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>274</v>
@@ -11047,10 +11046,10 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="9" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>281</v>
+        <v>822</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>274</v>
@@ -11060,11 +11059,11 @@
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>281</v>
-      </c>
-      <c r="B297" t="s">
-        <v>281</v>
+      <c r="A297" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="B297" s="9" t="s">
+        <v>849</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>274</v>
@@ -11075,10 +11074,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="9" t="s">
-        <v>846</v>
-      </c>
-      <c r="B298" t="s">
-        <v>783</v>
+        <v>1181</v>
+      </c>
+      <c r="B298" s="9" t="s">
+        <v>820</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>274</v>
@@ -11088,11 +11087,11 @@
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>283</v>
-      </c>
-      <c r="B299" t="s">
-        <v>783</v>
+      <c r="A299" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="B299" s="9" t="s">
+        <v>820</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>274</v>
@@ -11102,11 +11101,11 @@
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300" s="9" t="s">
-        <v>819</v>
+      <c r="A300" s="26" t="s">
+        <v>868</v>
       </c>
       <c r="B300" t="s">
-        <v>783</v>
+        <v>868</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>274</v>
@@ -11116,11 +11115,11 @@
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>284</v>
-      </c>
-      <c r="B301" t="s">
-        <v>284</v>
+      <c r="A301" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="B301" s="9" t="s">
+        <v>868</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>274</v>
@@ -11130,11 +11129,11 @@
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A302" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B302" s="9" t="s">
-        <v>281</v>
+      <c r="A302" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="B302" s="26" t="s">
+        <v>783</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>274</v>
@@ -11144,11 +11143,11 @@
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>285</v>
+      <c r="A303" s="9" t="s">
+        <v>821</v>
       </c>
       <c r="B303" t="s">
-        <v>284</v>
+        <v>783</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>274</v>
@@ -11159,10 +11158,10 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>286</v>
+        <v>604</v>
       </c>
       <c r="B304" t="s">
-        <v>1185</v>
+        <v>783</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>274</v>
@@ -11172,11 +11171,11 @@
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A305" s="9" t="s">
-        <v>287</v>
+      <c r="A305" s="26" t="s">
+        <v>605</v>
       </c>
       <c r="B305" t="s">
-        <v>1185</v>
+        <v>783</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>274</v>
@@ -11187,10 +11186,10 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>288</v>
+        <v>606</v>
       </c>
       <c r="B306" t="s">
-        <v>289</v>
+        <v>783</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>274</v>
@@ -11200,11 +11199,11 @@
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307" s="9" t="s">
-        <v>822</v>
-      </c>
-      <c r="B307" s="9" t="s">
-        <v>822</v>
+      <c r="A307" s="26" t="s">
+        <v>607</v>
+      </c>
+      <c r="B307" s="26" t="s">
+        <v>783</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>274</v>
@@ -11214,11 +11213,11 @@
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A308" s="9" t="s">
-        <v>847</v>
-      </c>
-      <c r="B308" s="9" t="s">
-        <v>822</v>
+      <c r="A308" s="26" t="s">
+        <v>608</v>
+      </c>
+      <c r="B308" s="26" t="s">
+        <v>783</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>274</v>
@@ -11228,11 +11227,11 @@
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" s="9" t="s">
-        <v>823</v>
-      </c>
-      <c r="B309" s="9" t="s">
-        <v>822</v>
+      <c r="A309" s="26" t="s">
+        <v>609</v>
+      </c>
+      <c r="B309" s="26" t="s">
+        <v>783</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>274</v>
@@ -11242,11 +11241,11 @@
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" s="9" t="s">
-        <v>848</v>
-      </c>
-      <c r="B310" s="9" t="s">
-        <v>849</v>
+      <c r="A310" s="26" t="s">
+        <v>610</v>
+      </c>
+      <c r="B310" s="26" t="s">
+        <v>783</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>274</v>
@@ -11256,11 +11255,11 @@
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" s="9" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B311" s="9" t="s">
-        <v>820</v>
+      <c r="A311" s="26" t="s">
+        <v>611</v>
+      </c>
+      <c r="B311" s="26" t="s">
+        <v>783</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>274</v>
@@ -11270,11 +11269,11 @@
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312" s="9" t="s">
-        <v>820</v>
-      </c>
-      <c r="B312" s="9" t="s">
-        <v>820</v>
+      <c r="A312" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="B312" s="26" t="s">
+        <v>292</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>274</v>
@@ -11282,7 +11281,7 @@
       <c r="D312" t="s">
         <v>275</v>
       </c>
-      <c r="E312" s="16">
+      <c r="E312" s="15">
         <v>43991</v>
       </c>
       <c r="F312" t="s">
@@ -11290,11 +11289,11 @@
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A313" s="9" t="s">
-        <v>850</v>
-      </c>
-      <c r="B313" s="9" t="s">
-        <v>820</v>
+      <c r="A313" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="B313" s="26" t="s">
+        <v>783</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>274</v>
@@ -11305,10 +11304,10 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>868</v>
+        <v>294</v>
       </c>
       <c r="B314" t="s">
-        <v>868</v>
+        <v>783</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>274</v>
@@ -11319,10 +11318,10 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="9" t="s">
-        <v>824</v>
-      </c>
-      <c r="B315" s="9" t="s">
-        <v>868</v>
+        <v>825</v>
+      </c>
+      <c r="B315" s="26" t="s">
+        <v>783</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>274</v>
@@ -11332,11 +11331,11 @@
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>290</v>
+      <c r="A316" s="9" t="s">
+        <v>1179</v>
       </c>
       <c r="B316" t="s">
-        <v>783</v>
+        <v>1038</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>274</v>
@@ -11347,10 +11346,10 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="9" t="s">
-        <v>821</v>
-      </c>
-      <c r="B317" t="s">
-        <v>783</v>
+        <v>826</v>
+      </c>
+      <c r="B317" s="9" t="s">
+        <v>869</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>274</v>
@@ -11361,10 +11360,10 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>604</v>
+        <v>295</v>
       </c>
       <c r="B318" t="s">
-        <v>783</v>
+        <v>295</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>274</v>
@@ -11375,10 +11374,10 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>605</v>
+        <v>991</v>
       </c>
       <c r="B319" t="s">
-        <v>783</v>
+        <v>991</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>274</v>
@@ -11389,35 +11388,35 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>606</v>
+        <v>296</v>
       </c>
       <c r="B320" t="s">
-        <v>783</v>
-      </c>
-      <c r="C320" s="3" t="s">
-        <v>274</v>
+        <v>297</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="D320" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>607</v>
+        <v>298</v>
       </c>
       <c r="B321" t="s">
-        <v>783</v>
-      </c>
-      <c r="C321" s="3" t="s">
-        <v>274</v>
+        <v>299</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="D321" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>608</v>
+      <c r="A322" s="9" t="s">
+        <v>827</v>
       </c>
       <c r="B322" t="s">
         <v>783</v>
@@ -11431,10 +11430,10 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>609</v>
+        <v>300</v>
       </c>
       <c r="B323" t="s">
-        <v>783</v>
+        <v>300</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>274</v>
@@ -11444,8 +11443,8 @@
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>610</v>
+      <c r="A324" s="9" t="s">
+        <v>828</v>
       </c>
       <c r="B324" t="s">
         <v>783</v>
@@ -11459,10 +11458,10 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>611</v>
-      </c>
-      <c r="B325" t="s">
-        <v>783</v>
+        <v>999</v>
+      </c>
+      <c r="B325" s="9" t="s">
+        <v>273</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>274</v>
@@ -11473,10 +11472,10 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B326" t="s">
-        <v>292</v>
+        <v>783</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>274</v>
@@ -11486,25 +11485,25 @@
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>292</v>
-      </c>
-      <c r="B327" t="s">
-        <v>292</v>
-      </c>
-      <c r="C327" s="3" t="s">
-        <v>274</v>
+      <c r="A327" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="B327" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="D327" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="9" t="s">
-        <v>292</v>
+        <v>830</v>
       </c>
       <c r="B328" s="9" t="s">
-        <v>292</v>
+        <v>830</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>274</v>
@@ -11514,11 +11513,11 @@
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>293</v>
-      </c>
-      <c r="B329" t="s">
-        <v>783</v>
+      <c r="A329" s="9" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B329" s="9" t="s">
+        <v>1035</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>274</v>
@@ -11529,10 +11528,10 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B330" t="s">
-        <v>783</v>
+        <v>295</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>274</v>
@@ -11542,8 +11541,8 @@
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A331" s="9" t="s">
-        <v>825</v>
+      <c r="A331" s="26" t="s">
+        <v>783</v>
       </c>
       <c r="B331" t="s">
         <v>783</v>
@@ -11556,19 +11555,19 @@
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A332" s="9" t="s">
-        <v>1179</v>
+      <c r="A332" s="26" t="s">
+        <v>303</v>
       </c>
       <c r="B332" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C332" s="3" t="s">
-        <v>274</v>
+        <v>304</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="D332" t="s">
-        <v>275</v>
-      </c>
-      <c r="E332" s="16">
+        <v>306</v>
+      </c>
+      <c r="E332" s="15">
         <v>43991</v>
       </c>
       <c r="F332" t="s">
@@ -11577,10 +11576,10 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="9" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="B333" s="9" t="s">
-        <v>869</v>
+        <v>281</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>274</v>
@@ -11591,10 +11590,10 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B334" t="s">
-        <v>295</v>
+        <v>783</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>274</v>
@@ -11605,10 +11604,10 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="9" t="s">
-        <v>295</v>
+        <v>832</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>295</v>
+        <v>832</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>274</v>
@@ -11619,10 +11618,10 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>991</v>
+        <v>453</v>
       </c>
       <c r="B336" t="s">
-        <v>991</v>
+        <v>783</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>274</v>
@@ -11633,38 +11632,38 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="B337" t="s">
-        <v>297</v>
-      </c>
-      <c r="C337" s="2" t="s">
-        <v>270</v>
+        <v>783</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="D337" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>297</v>
+        <v>371</v>
       </c>
       <c r="B338" t="s">
-        <v>297</v>
-      </c>
-      <c r="C338" s="2" t="s">
-        <v>270</v>
+        <v>783</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="D338" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A339" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="B339" s="9" t="s">
-        <v>297</v>
+      <c r="A339" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="B339" s="26" t="s">
+        <v>783</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>274</v>
@@ -11675,38 +11674,38 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>298</v>
+        <v>372</v>
       </c>
       <c r="B340" t="s">
-        <v>299</v>
-      </c>
-      <c r="C340" s="2" t="s">
-        <v>270</v>
+        <v>783</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="D340" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
-        <v>299</v>
+      <c r="A341" s="9" t="s">
+        <v>833</v>
       </c>
       <c r="B341" t="s">
-        <v>299</v>
-      </c>
-      <c r="C341" s="2" t="s">
-        <v>270</v>
+        <v>783</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="D341" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="B342" s="9" t="s">
-        <v>299</v>
+        <v>1184</v>
+      </c>
+      <c r="B342" s="26" t="s">
+        <v>783</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>274</v>
@@ -11716,25 +11715,25 @@
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A343" s="9" t="s">
-        <v>827</v>
+      <c r="A343" s="26" t="s">
+        <v>308</v>
       </c>
       <c r="B343" t="s">
-        <v>783</v>
-      </c>
-      <c r="C343" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D343" t="s">
-        <v>275</v>
+        <v>269</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
-        <v>300</v>
+      <c r="A344" s="9" t="s">
+        <v>834</v>
       </c>
       <c r="B344" t="s">
-        <v>300</v>
+        <v>783</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>274</v>
@@ -11745,24 +11744,24 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="9" t="s">
-        <v>300</v>
+        <v>835</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="C345" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="D345" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D345" s="26" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="9" t="s">
-        <v>828</v>
-      </c>
-      <c r="B346" t="s">
-        <v>783</v>
+        <v>851</v>
+      </c>
+      <c r="B346" s="9" t="s">
+        <v>852</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>274</v>
@@ -11773,9 +11772,9 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>999</v>
-      </c>
-      <c r="B347" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B347" s="26" t="s">
         <v>273</v>
       </c>
       <c r="C347" s="3" t="s">
@@ -11787,10 +11786,10 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B348" t="s">
-        <v>783</v>
+        <v>273</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>274</v>
@@ -11801,24 +11800,24 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="9" t="s">
-        <v>829</v>
-      </c>
-      <c r="B349" s="9" t="s">
-        <v>829</v>
-      </c>
-      <c r="C349" s="2" t="s">
-        <v>305</v>
+        <v>836</v>
+      </c>
+      <c r="B349" s="26" t="s">
+        <v>783</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="D349" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="9" t="s">
-        <v>830</v>
-      </c>
-      <c r="B350" s="9" t="s">
-        <v>830</v>
+        <v>853</v>
+      </c>
+      <c r="B350" s="26" t="s">
+        <v>783</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>274</v>
@@ -11828,11 +11827,11 @@
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351" s="9" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B351" s="9" t="s">
-        <v>1035</v>
+      <c r="A351" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="B351" s="26" t="s">
+        <v>299</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>274</v>
@@ -11840,7 +11839,7 @@
       <c r="D351" t="s">
         <v>275</v>
       </c>
-      <c r="E351" s="16">
+      <c r="E351" s="15">
         <v>43991</v>
       </c>
       <c r="F351" t="s">
@@ -11849,10 +11848,10 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>302</v>
+        <v>456</v>
       </c>
       <c r="B352" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>274</v>
@@ -11863,7 +11862,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>783</v>
+        <v>464</v>
       </c>
       <c r="B353" t="s">
         <v>783</v>
@@ -11877,38 +11876,38 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>303</v>
+        <v>471</v>
       </c>
       <c r="B354" t="s">
-        <v>304</v>
-      </c>
-      <c r="C354" s="2" t="s">
-        <v>305</v>
+        <v>783</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="D354" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A355" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="B355" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C355" s="2" t="s">
-        <v>305</v>
+      <c r="A355" s="26" t="s">
+        <v>472</v>
+      </c>
+      <c r="B355" s="26" t="s">
+        <v>783</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="D355" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A356" s="9" t="s">
-        <v>831</v>
-      </c>
-      <c r="B356" s="9" t="s">
-        <v>281</v>
+      <c r="A356" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="B356" s="26" t="s">
+        <v>783</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>274</v>
@@ -11919,7 +11918,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>307</v>
+        <v>467</v>
       </c>
       <c r="B357" t="s">
         <v>783</v>
@@ -11932,11 +11931,11 @@
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A358" s="9" t="s">
-        <v>832</v>
-      </c>
-      <c r="B358" s="9" t="s">
-        <v>832</v>
+      <c r="A358" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="B358" s="26" t="s">
+        <v>783</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>274</v>
@@ -11947,7 +11946,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="B359" t="s">
         <v>783</v>
@@ -11961,7 +11960,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>350</v>
+        <v>470</v>
       </c>
       <c r="B360" t="s">
         <v>783</v>
@@ -11975,7 +11974,7 @@
     </row>
     <row r="361" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>371</v>
+        <v>469</v>
       </c>
       <c r="B361" t="s">
         <v>783</v>
@@ -11986,14 +11985,14 @@
       <c r="D361" t="s">
         <v>275</v>
       </c>
-      <c r="E361" s="17"/>
+      <c r="E361" s="16"/>
     </row>
     <row r="362" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>419</v>
-      </c>
-      <c r="B362" t="s">
-        <v>783</v>
+      <c r="A362" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="B362" s="9" t="s">
+        <v>837</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>274</v>
@@ -12001,14 +12000,14 @@
       <c r="D362" t="s">
         <v>275</v>
       </c>
-      <c r="E362" s="17"/>
+      <c r="E362" s="16"/>
     </row>
     <row r="363" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
-        <v>372</v>
-      </c>
-      <c r="B363" t="s">
-        <v>783</v>
+      <c r="A363" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="B363" s="9" t="s">
+        <v>839</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>274</v>
@@ -12016,11 +12015,11 @@
       <c r="D363" t="s">
         <v>275</v>
       </c>
-      <c r="E363" s="17"/>
+      <c r="E363" s="16"/>
     </row>
     <row r="364" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="9" t="s">
-        <v>833</v>
+      <c r="A364" s="26" t="s">
+        <v>311</v>
       </c>
       <c r="B364" t="s">
         <v>783</v>
@@ -12031,14 +12030,14 @@
       <c r="D364" t="s">
         <v>275</v>
       </c>
-      <c r="E364" s="17"/>
+      <c r="E364" s="16"/>
     </row>
     <row r="365" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="9" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B365" t="s">
-        <v>783</v>
+        <v>855</v>
+      </c>
+      <c r="B365" s="9" t="s">
+        <v>312</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>274</v>
@@ -12046,7 +12045,7 @@
       <c r="D365" t="s">
         <v>275</v>
       </c>
-      <c r="E365" s="16">
+      <c r="E365" s="15">
         <v>43991</v>
       </c>
       <c r="F365" t="s">
@@ -12055,40 +12054,40 @@
     </row>
     <row r="366" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B366" t="s">
-        <v>269</v>
-      </c>
-      <c r="C366" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D366" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E366" s="17"/>
+        <v>312</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D366" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="E366" s="16"/>
     </row>
     <row r="367" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="9" t="s">
-        <v>308</v>
+        <v>840</v>
       </c>
       <c r="B367" t="s">
-        <v>269</v>
-      </c>
-      <c r="C367" s="2" t="s">
-        <v>270</v>
+        <v>783</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="D367" t="s">
-        <v>271</v>
-      </c>
-      <c r="E367" s="17"/>
+        <v>275</v>
+      </c>
+      <c r="E367" s="16"/>
     </row>
     <row r="368" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="9" t="s">
-        <v>834</v>
+      <c r="A368" s="26" t="s">
+        <v>313</v>
       </c>
       <c r="B368" t="s">
-        <v>783</v>
+        <v>314</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>274</v>
@@ -12096,14 +12095,14 @@
       <c r="D368" t="s">
         <v>275</v>
       </c>
-      <c r="E368" s="17"/>
+      <c r="E368" s="16"/>
     </row>
     <row r="369" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="9" t="s">
-        <v>835</v>
-      </c>
-      <c r="B369" s="9" t="s">
-        <v>835</v>
+      <c r="A369" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="B369" s="26" t="s">
+        <v>281</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>274</v>
@@ -12111,14 +12110,14 @@
       <c r="D369" t="s">
         <v>275</v>
       </c>
-      <c r="E369" s="17"/>
+      <c r="E369" s="16"/>
     </row>
     <row r="370" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="9" t="s">
-        <v>851</v>
-      </c>
-      <c r="B370" s="9" t="s">
-        <v>852</v>
+      <c r="A370" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="B370" s="26" t="s">
+        <v>783</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>274</v>
@@ -12126,14 +12125,14 @@
       <c r="D370" t="s">
         <v>275</v>
       </c>
-      <c r="E370" s="17"/>
+      <c r="E370" s="16"/>
     </row>
     <row r="371" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>309</v>
+        <v>458</v>
       </c>
       <c r="B371" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>274</v>
@@ -12141,14 +12140,14 @@
       <c r="D371" t="s">
         <v>275</v>
       </c>
-      <c r="E371" s="17"/>
+      <c r="E371" s="16"/>
     </row>
     <row r="372" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B372" t="s">
-        <v>273</v>
+        <v>783</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>274</v>
@@ -12156,14 +12155,14 @@
       <c r="D372" t="s">
         <v>275</v>
       </c>
-      <c r="E372" s="17"/>
+      <c r="E372" s="16"/>
     </row>
     <row r="373" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>273</v>
+        <v>992</v>
       </c>
       <c r="B373" t="s">
-        <v>273</v>
+        <v>783</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>274</v>
@@ -12171,14 +12170,14 @@
       <c r="D373" t="s">
         <v>275</v>
       </c>
-      <c r="E373" s="17"/>
+      <c r="E373" s="16"/>
     </row>
     <row r="374" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="9" t="s">
-        <v>273</v>
+        <v>841</v>
       </c>
       <c r="B374" s="9" t="s">
-        <v>273</v>
+        <v>841</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>274</v>
@@ -12186,11 +12185,11 @@
       <c r="D374" t="s">
         <v>275</v>
       </c>
-      <c r="E374" s="17"/>
+      <c r="E374" s="16"/>
     </row>
     <row r="375" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="9" t="s">
-        <v>836</v>
+      <c r="A375" s="26" t="s">
+        <v>603</v>
       </c>
       <c r="B375" t="s">
         <v>783</v>
@@ -12201,11 +12200,11 @@
       <c r="D375" t="s">
         <v>275</v>
       </c>
-      <c r="E375" s="17"/>
+      <c r="E375" s="16"/>
     </row>
     <row r="376" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="9" t="s">
-        <v>853</v>
+      <c r="A376" s="26" t="s">
+        <v>570</v>
       </c>
       <c r="B376" t="s">
         <v>783</v>
@@ -12216,14 +12215,14 @@
       <c r="D376" t="s">
         <v>275</v>
       </c>
-      <c r="E376" s="17"/>
+      <c r="E376" s="16"/>
     </row>
     <row r="377" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>455</v>
+        <v>616</v>
       </c>
       <c r="B377" t="s">
-        <v>299</v>
+        <v>783</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>274</v>
@@ -12231,14 +12230,14 @@
       <c r="D377" t="s">
         <v>275</v>
       </c>
-      <c r="E377" s="17"/>
+      <c r="E377" s="16"/>
     </row>
     <row r="378" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>456</v>
+        <v>651</v>
       </c>
       <c r="B378" t="s">
-        <v>273</v>
+        <v>783</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>274</v>
@@ -12246,11 +12245,11 @@
       <c r="D378" t="s">
         <v>275</v>
       </c>
-      <c r="E378" s="17"/>
+      <c r="E378" s="16"/>
     </row>
     <row r="379" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>464</v>
+        <v>617</v>
       </c>
       <c r="B379" t="s">
         <v>783</v>
@@ -12261,11 +12260,11 @@
       <c r="D379" t="s">
         <v>275</v>
       </c>
-      <c r="E379" s="17"/>
+      <c r="E379" s="16"/>
     </row>
     <row r="380" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>471</v>
+        <v>681</v>
       </c>
       <c r="B380" t="s">
         <v>783</v>
@@ -12276,14 +12275,14 @@
       <c r="D380" t="s">
         <v>275</v>
       </c>
-      <c r="E380" s="17"/>
+      <c r="E380" s="16"/>
     </row>
     <row r="381" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
-        <v>472</v>
-      </c>
-      <c r="B381" t="s">
-        <v>783</v>
+      <c r="A381" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="B381" s="9" t="s">
+        <v>842</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>274</v>
@@ -12291,14 +12290,14 @@
       <c r="D381" t="s">
         <v>275</v>
       </c>
-      <c r="E381" s="17"/>
+      <c r="E381" s="16"/>
     </row>
     <row r="382" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B382" t="s">
-        <v>783</v>
+        <v>299</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>274</v>
@@ -12306,14 +12305,14 @@
       <c r="D382" t="s">
         <v>275</v>
       </c>
-      <c r="E382" s="17"/>
+      <c r="E382" s="16"/>
     </row>
     <row r="383" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B383" t="s">
-        <v>783</v>
+        <v>273</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>274</v>
@@ -12321,44 +12320,44 @@
       <c r="D383" t="s">
         <v>275</v>
       </c>
-      <c r="E383" s="17"/>
+      <c r="E383" s="16"/>
     </row>
     <row r="384" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>466</v>
+        <v>316</v>
       </c>
       <c r="B384" t="s">
-        <v>783</v>
-      </c>
-      <c r="C384" s="3" t="s">
-        <v>274</v>
+        <v>317</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="D384" t="s">
-        <v>275</v>
-      </c>
-      <c r="E384" s="17"/>
+        <v>271</v>
+      </c>
+      <c r="E384" s="16"/>
     </row>
     <row r="385" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
-        <v>468</v>
-      </c>
-      <c r="B385" t="s">
-        <v>783</v>
-      </c>
-      <c r="C385" s="3" t="s">
-        <v>274</v>
+      <c r="A385" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="B385" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="D385" t="s">
-        <v>275</v>
-      </c>
-      <c r="E385" s="17"/>
+        <v>271</v>
+      </c>
+      <c r="E385" s="16"/>
     </row>
     <row r="386" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>470</v>
+        <v>318</v>
       </c>
       <c r="B386" t="s">
-        <v>783</v>
+        <v>319</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>274</v>
@@ -12366,14 +12365,14 @@
       <c r="D386" t="s">
         <v>275</v>
       </c>
-      <c r="E386" s="17"/>
+      <c r="E386" s="16"/>
     </row>
     <row r="387" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>469</v>
+        <v>320</v>
       </c>
       <c r="B387" t="s">
-        <v>783</v>
+        <v>319</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>274</v>
@@ -12381,14 +12380,14 @@
       <c r="D387" t="s">
         <v>275</v>
       </c>
-      <c r="E387" s="17"/>
+      <c r="E387" s="16"/>
     </row>
     <row r="388" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="9" t="s">
-        <v>837</v>
-      </c>
-      <c r="B388" s="9" t="s">
-        <v>837</v>
+      <c r="A388" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="B388" s="26" t="s">
+        <v>322</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>274</v>
@@ -12396,14 +12395,14 @@
       <c r="D388" t="s">
         <v>275</v>
       </c>
-      <c r="E388" s="17"/>
+      <c r="E388" s="16"/>
     </row>
     <row r="389" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="9" t="s">
-        <v>838</v>
-      </c>
-      <c r="B389" s="9" t="s">
-        <v>837</v>
+      <c r="A389" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="B389" s="26" t="s">
+        <v>324</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>274</v>
@@ -12411,14 +12410,14 @@
       <c r="D389" t="s">
         <v>275</v>
       </c>
-      <c r="E389" s="17"/>
+      <c r="E389" s="16"/>
     </row>
     <row r="390" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="9" t="s">
-        <v>839</v>
-      </c>
-      <c r="B390" s="9" t="s">
-        <v>839</v>
+      <c r="A390" s="26" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B390" s="26" t="s">
+        <v>783</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>274</v>
@@ -12426,14 +12425,14 @@
       <c r="D390" t="s">
         <v>275</v>
       </c>
-      <c r="E390" s="17"/>
+      <c r="E390" s="16"/>
     </row>
     <row r="391" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="9" t="s">
-        <v>854</v>
-      </c>
-      <c r="B391" s="9" t="s">
-        <v>839</v>
+      <c r="A391" s="26" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B391" s="26" t="s">
+        <v>783</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>274</v>
@@ -12441,11 +12440,11 @@
       <c r="D391" t="s">
         <v>275</v>
       </c>
-      <c r="E391" s="17"/>
+      <c r="E391" s="16"/>
     </row>
     <row r="392" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>311</v>
+        <v>1004</v>
       </c>
       <c r="B392" t="s">
         <v>783</v>
@@ -12456,14 +12455,14 @@
       <c r="D392" t="s">
         <v>275</v>
       </c>
-      <c r="E392" s="17"/>
+      <c r="E392" s="16"/>
     </row>
     <row r="393" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="9" t="s">
-        <v>855</v>
-      </c>
-      <c r="B393" s="9" t="s">
-        <v>312</v>
+      <c r="A393" s="26" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B393" s="26" t="s">
+        <v>783</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>274</v>
@@ -12471,14 +12470,14 @@
       <c r="D393" t="s">
         <v>275</v>
       </c>
-      <c r="E393" s="17"/>
+      <c r="E393" s="16"/>
     </row>
     <row r="394" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>312</v>
+        <v>1006</v>
       </c>
       <c r="B394" t="s">
-        <v>312</v>
+        <v>783</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>274</v>
@@ -12486,14 +12485,14 @@
       <c r="D394" t="s">
         <v>275</v>
       </c>
-      <c r="E394" s="17"/>
+      <c r="E394" s="16"/>
     </row>
     <row r="395" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="9" t="s">
-        <v>840</v>
+      <c r="A395" s="26" t="s">
+        <v>1007</v>
       </c>
       <c r="B395" t="s">
-        <v>783</v>
+        <v>273</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>274</v>
@@ -12501,14 +12500,14 @@
       <c r="D395" t="s">
         <v>275</v>
       </c>
-      <c r="E395" s="17"/>
+      <c r="E395" s="16"/>
     </row>
     <row r="396" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>313</v>
+        <v>1008</v>
       </c>
       <c r="B396" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>274</v>
@@ -12516,29 +12515,29 @@
       <c r="D396" t="s">
         <v>275</v>
       </c>
-      <c r="E396" s="17"/>
+      <c r="E396" s="16"/>
     </row>
     <row r="397" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="9" t="s">
-        <v>314</v>
+      <c r="A397" s="26" t="s">
+        <v>1009</v>
       </c>
       <c r="B397" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="C397" s="2" t="s">
-        <v>305</v>
+        <v>281</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="D397" t="s">
-        <v>306</v>
-      </c>
-      <c r="E397" s="17"/>
+        <v>275</v>
+      </c>
+      <c r="E397" s="16"/>
     </row>
     <row r="398" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>457</v>
+        <v>1186</v>
       </c>
       <c r="B398" t="s">
-        <v>281</v>
+        <v>783</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>274</v>
@@ -12546,11 +12545,11 @@
       <c r="D398" t="s">
         <v>275</v>
       </c>
-      <c r="E398" s="17"/>
+      <c r="E398" s="16"/>
     </row>
     <row r="399" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>459</v>
+        <v>1187</v>
       </c>
       <c r="B399" t="s">
         <v>783</v>
@@ -12561,14 +12560,14 @@
       <c r="D399" t="s">
         <v>275</v>
       </c>
-      <c r="E399" s="17"/>
+      <c r="E399" s="16"/>
     </row>
     <row r="400" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>458</v>
+        <v>1188</v>
       </c>
       <c r="B400" t="s">
-        <v>281</v>
+        <v>783</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>274</v>
@@ -12576,11 +12575,11 @@
       <c r="D400" t="s">
         <v>275</v>
       </c>
-      <c r="E400" s="17"/>
+      <c r="E400" s="16"/>
     </row>
     <row r="401" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>315</v>
+        <v>1189</v>
       </c>
       <c r="B401" t="s">
         <v>783</v>
@@ -12591,11 +12590,11 @@
       <c r="D401" t="s">
         <v>275</v>
       </c>
-      <c r="E401" s="17"/>
+      <c r="E401" s="16"/>
     </row>
     <row r="402" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>992</v>
+        <v>1190</v>
       </c>
       <c r="B402" t="s">
         <v>783</v>
@@ -12606,14 +12605,14 @@
       <c r="D402" t="s">
         <v>275</v>
       </c>
-      <c r="E402" s="17"/>
+      <c r="E402" s="16"/>
     </row>
     <row r="403" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="9" t="s">
-        <v>841</v>
-      </c>
-      <c r="B403" s="9" t="s">
-        <v>841</v>
+      <c r="A403" s="26" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B403" s="26" t="s">
+        <v>783</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>274</v>
@@ -12621,11 +12620,11 @@
       <c r="D403" t="s">
         <v>275</v>
       </c>
-      <c r="E403" s="17"/>
+      <c r="E403" s="16"/>
     </row>
     <row r="404" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>603</v>
+        <v>1192</v>
       </c>
       <c r="B404" t="s">
         <v>783</v>
@@ -12636,11 +12635,11 @@
       <c r="D404" t="s">
         <v>275</v>
       </c>
-      <c r="E404" s="17"/>
+      <c r="E404" s="16"/>
     </row>
     <row r="405" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>570</v>
+        <v>1193</v>
       </c>
       <c r="B405" t="s">
         <v>783</v>
@@ -12651,11 +12650,11 @@
       <c r="D405" t="s">
         <v>275</v>
       </c>
-      <c r="E405" s="17"/>
+      <c r="E405" s="16"/>
     </row>
     <row r="406" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>616</v>
+        <v>1194</v>
       </c>
       <c r="B406" t="s">
         <v>783</v>
@@ -12666,11 +12665,11 @@
       <c r="D406" t="s">
         <v>275</v>
       </c>
-      <c r="E406" s="17"/>
+      <c r="E406" s="16"/>
     </row>
     <row r="407" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>651</v>
+        <v>1195</v>
       </c>
       <c r="B407" t="s">
         <v>783</v>
@@ -12681,11 +12680,11 @@
       <c r="D407" t="s">
         <v>275</v>
       </c>
-      <c r="E407" s="17"/>
+      <c r="E407" s="16"/>
     </row>
     <row r="408" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>617</v>
+        <v>1196</v>
       </c>
       <c r="B408" t="s">
         <v>783</v>
@@ -12696,11 +12695,11 @@
       <c r="D408" t="s">
         <v>275</v>
       </c>
-      <c r="E408" s="17"/>
+      <c r="E408" s="16"/>
     </row>
     <row r="409" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>681</v>
+        <v>1197</v>
       </c>
       <c r="B409" t="s">
         <v>783</v>
@@ -12711,14 +12710,14 @@
       <c r="D409" t="s">
         <v>275</v>
       </c>
-      <c r="E409" s="17"/>
+      <c r="E409" s="16"/>
     </row>
     <row r="410" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="9" t="s">
-        <v>842</v>
-      </c>
-      <c r="B410" s="9" t="s">
-        <v>842</v>
+      <c r="A410" s="26" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B410" s="26" t="s">
+        <v>783</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>274</v>
@@ -12726,14 +12725,14 @@
       <c r="D410" t="s">
         <v>275</v>
       </c>
-      <c r="E410" s="17"/>
+      <c r="E410" s="16"/>
     </row>
     <row r="411" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>461</v>
+        <v>1199</v>
       </c>
       <c r="B411" t="s">
-        <v>299</v>
+        <v>783</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>274</v>
@@ -12741,14 +12740,14 @@
       <c r="D411" t="s">
         <v>275</v>
       </c>
-      <c r="E411" s="17"/>
+      <c r="E411" s="16"/>
     </row>
     <row r="412" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>460</v>
+        <v>1200</v>
       </c>
       <c r="B412" t="s">
-        <v>273</v>
+        <v>783</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>274</v>
@@ -12756,59 +12755,59 @@
       <c r="D412" t="s">
         <v>275</v>
       </c>
-      <c r="E412" s="17"/>
+      <c r="E412" s="16"/>
     </row>
     <row r="413" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>316</v>
+        <v>1201</v>
       </c>
       <c r="B413" t="s">
-        <v>317</v>
-      </c>
-      <c r="C413" s="2" t="s">
-        <v>270</v>
+        <v>783</v>
+      </c>
+      <c r="C413" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="D413" t="s">
-        <v>271</v>
-      </c>
-      <c r="E413" s="17"/>
+        <v>275</v>
+      </c>
+      <c r="E413" s="16"/>
     </row>
     <row r="414" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>317</v>
+        <v>1202</v>
       </c>
       <c r="B414" t="s">
-        <v>317</v>
-      </c>
-      <c r="C414" s="2" t="s">
-        <v>270</v>
+        <v>783</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="D414" t="s">
-        <v>271</v>
-      </c>
-      <c r="E414" s="17"/>
+        <v>275</v>
+      </c>
+      <c r="E414" s="16"/>
     </row>
     <row r="415" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="B415" s="9" t="s">
-        <v>317</v>
+      <c r="A415" s="26" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B415" s="26" t="s">
+        <v>783</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D415" t="s">
-        <v>275</v>
-      </c>
-      <c r="E415" s="17"/>
+      <c r="D415" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="E415" s="16"/>
     </row>
     <row r="416" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="9" t="s">
-        <v>843</v>
-      </c>
-      <c r="B416" s="9" t="s">
-        <v>843</v>
+      <c r="A416" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B416" t="s">
+        <v>783</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>274</v>
@@ -12816,14 +12815,14 @@
       <c r="D416" t="s">
         <v>275</v>
       </c>
-      <c r="E416" s="17"/>
+      <c r="E416" s="16"/>
     </row>
     <row r="417" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
-        <v>318</v>
-      </c>
-      <c r="B417" t="s">
-        <v>319</v>
+      <c r="A417" s="26" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B417" s="26" t="s">
+        <v>783</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>274</v>
@@ -12831,14 +12830,14 @@
       <c r="D417" t="s">
         <v>275</v>
       </c>
-      <c r="E417" s="17"/>
+      <c r="E417" s="16"/>
     </row>
     <row r="418" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="B418" s="9" t="s">
-        <v>319</v>
+      <c r="A418" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B418" t="s">
+        <v>783</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>274</v>
@@ -12846,14 +12845,14 @@
       <c r="D418" t="s">
         <v>275</v>
       </c>
-      <c r="E418" s="17"/>
+      <c r="E418" s="16"/>
     </row>
     <row r="419" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
-        <v>320</v>
-      </c>
-      <c r="B419" t="s">
-        <v>319</v>
+      <c r="A419" s="26" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B419" s="26" t="s">
+        <v>783</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>274</v>
@@ -12861,14 +12860,14 @@
       <c r="D419" t="s">
         <v>275</v>
       </c>
-      <c r="E419" s="17"/>
+      <c r="E419" s="16"/>
     </row>
     <row r="420" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="9" t="s">
-        <v>844</v>
-      </c>
-      <c r="B420" s="9" t="s">
-        <v>844</v>
+      <c r="A420" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B420" t="s">
+        <v>783</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>274</v>
@@ -12876,14 +12875,14 @@
       <c r="D420" t="s">
         <v>275</v>
       </c>
-      <c r="E420" s="17"/>
+      <c r="E420" s="16"/>
     </row>
     <row r="421" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>321</v>
+        <v>1209</v>
       </c>
       <c r="B421" t="s">
-        <v>322</v>
+        <v>783</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>274</v>
@@ -12891,14 +12890,14 @@
       <c r="D421" t="s">
         <v>275</v>
       </c>
-      <c r="E421" s="17"/>
+      <c r="E421" s="16"/>
     </row>
     <row r="422" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
-        <v>322</v>
-      </c>
-      <c r="B422" t="s">
-        <v>322</v>
+      <c r="A422" s="26" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B422" s="26" t="s">
+        <v>783</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>274</v>
@@ -12906,14 +12905,14 @@
       <c r="D422" t="s">
         <v>275</v>
       </c>
-      <c r="E422" s="17"/>
+      <c r="E422" s="16"/>
     </row>
     <row r="423" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A423" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="B423" s="9" t="s">
-        <v>322</v>
+      <c r="A423" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B423" t="s">
+        <v>783</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>274</v>
@@ -12921,14 +12920,14 @@
       <c r="D423" t="s">
         <v>275</v>
       </c>
-      <c r="E423" s="17"/>
+      <c r="E423" s="16"/>
     </row>
     <row r="424" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>323</v>
+        <v>1212</v>
       </c>
       <c r="B424" t="s">
-        <v>324</v>
+        <v>783</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>274</v>
@@ -12936,14 +12935,14 @@
       <c r="D424" t="s">
         <v>275</v>
       </c>
-      <c r="E424" s="17"/>
-    </row>
-    <row r="425" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
-        <v>324</v>
-      </c>
-      <c r="B425" t="s">
-        <v>324</v>
+      <c r="E424" s="16"/>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425" s="26" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B425" s="26" t="s">
+        <v>783</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>274</v>
@@ -12951,14 +12950,13 @@
       <c r="D425" t="s">
         <v>275</v>
       </c>
-      <c r="E425" s="17"/>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A426" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="B426" s="9" t="s">
-        <v>324</v>
+      <c r="A426" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B426" t="s">
+        <v>783</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>274</v>
@@ -12969,7 +12967,7 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1002</v>
+        <v>1215</v>
       </c>
       <c r="B427" t="s">
         <v>783</v>
@@ -12983,7 +12981,7 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1003</v>
+        <v>1216</v>
       </c>
       <c r="B428" t="s">
         <v>783</v>
@@ -12997,7 +12995,7 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1004</v>
+        <v>1217</v>
       </c>
       <c r="B429" t="s">
         <v>783</v>
@@ -13011,7 +13009,7 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1005</v>
+        <v>1218</v>
       </c>
       <c r="B430" t="s">
         <v>783</v>
@@ -13025,7 +13023,7 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1006</v>
+        <v>1219</v>
       </c>
       <c r="B431" t="s">
         <v>783</v>
@@ -13039,10 +13037,10 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1007</v>
+        <v>1220</v>
       </c>
       <c r="B432" t="s">
-        <v>273</v>
+        <v>783</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>274</v>
@@ -13053,10 +13051,10 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B433" t="s">
-        <v>299</v>
+        <v>1358</v>
+      </c>
+      <c r="B433" s="26" t="s">
+        <v>324</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>274</v>
@@ -13067,533 +13065,15 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B434" s="9" t="s">
-        <v>281</v>
+        <v>1481</v>
+      </c>
+      <c r="B434" t="s">
+        <v>783</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>274</v>
       </c>
       <c r="D434" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A435" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B435" t="s">
-        <v>783</v>
-      </c>
-      <c r="C435" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D435" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A436" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B436" t="s">
-        <v>783</v>
-      </c>
-      <c r="C436" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D436" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A437" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B437" t="s">
-        <v>783</v>
-      </c>
-      <c r="C437" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D437" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B438" t="s">
-        <v>783</v>
-      </c>
-      <c r="C438" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D438" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A439" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B439" t="s">
-        <v>783</v>
-      </c>
-      <c r="C439" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D439" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A440" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B440" t="s">
-        <v>783</v>
-      </c>
-      <c r="C440" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D440" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A441" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B441" t="s">
-        <v>783</v>
-      </c>
-      <c r="C441" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D441" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A442" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B442" t="s">
-        <v>783</v>
-      </c>
-      <c r="C442" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D442" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A443" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B443" t="s">
-        <v>783</v>
-      </c>
-      <c r="C443" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D443" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A444" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B444" t="s">
-        <v>783</v>
-      </c>
-      <c r="C444" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D444" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A445" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B445" t="s">
-        <v>783</v>
-      </c>
-      <c r="C445" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D445" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A446" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B446" t="s">
-        <v>783</v>
-      </c>
-      <c r="C446" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D446" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B447" t="s">
-        <v>783</v>
-      </c>
-      <c r="C447" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D447" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A448" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B448" t="s">
-        <v>783</v>
-      </c>
-      <c r="C448" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D448" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A449" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B449" t="s">
-        <v>783</v>
-      </c>
-      <c r="C449" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D449" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A450" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B450" t="s">
-        <v>783</v>
-      </c>
-      <c r="C450" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D450" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A451" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B451" t="s">
-        <v>783</v>
-      </c>
-      <c r="C451" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D451" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A452" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B452" t="s">
-        <v>783</v>
-      </c>
-      <c r="C452" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D452" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A453" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B453" t="s">
-        <v>783</v>
-      </c>
-      <c r="C453" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D453" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A454" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B454" t="s">
-        <v>783</v>
-      </c>
-      <c r="C454" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D454" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A455" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B455" t="s">
-        <v>783</v>
-      </c>
-      <c r="C455" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D455" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A456" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B456" t="s">
-        <v>783</v>
-      </c>
-      <c r="C456" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D456" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A457" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B457" t="s">
-        <v>783</v>
-      </c>
-      <c r="C457" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D457" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A458" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B458" t="s">
-        <v>783</v>
-      </c>
-      <c r="C458" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D458" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A459" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B459" t="s">
-        <v>783</v>
-      </c>
-      <c r="C459" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D459" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A460" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B460" t="s">
-        <v>783</v>
-      </c>
-      <c r="C460" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D460" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A461" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B461" t="s">
-        <v>783</v>
-      </c>
-      <c r="C461" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D461" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A462" t="s">
-        <v>1213</v>
-      </c>
-      <c r="B462" t="s">
-        <v>783</v>
-      </c>
-      <c r="C462" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D462" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A463" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B463" t="s">
-        <v>783</v>
-      </c>
-      <c r="C463" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D463" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A464" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B464" t="s">
-        <v>783</v>
-      </c>
-      <c r="C464" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D464" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A465" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B465" t="s">
-        <v>783</v>
-      </c>
-      <c r="C465" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D465" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A466" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B466" t="s">
-        <v>783</v>
-      </c>
-      <c r="C466" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D466" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A467" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B467" t="s">
-        <v>783</v>
-      </c>
-      <c r="C467" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D467" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A468" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B468" t="s">
-        <v>783</v>
-      </c>
-      <c r="C468" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D468" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A469" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B469" t="s">
-        <v>783</v>
-      </c>
-      <c r="C469" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D469" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A470" t="s">
-        <v>1358</v>
-      </c>
-      <c r="B470" t="s">
-        <v>324</v>
-      </c>
-      <c r="C470" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D470" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A471" t="s">
-        <v>1481</v>
-      </c>
-      <c r="B471" s="27" t="s">
-        <v>783</v>
-      </c>
-      <c r="C471" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D471" s="27" t="s">
         <v>275</v>
       </c>
     </row>
@@ -15278,10 +14758,10 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>1674</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>886</v>
       </c>
     </row>
@@ -16308,282 +15788,282 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>1373</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>1339</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>1374</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>1375</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>1375</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>1376</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>1376</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>1377</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>1377</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>1378</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>1378</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>1379</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>1379</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>1380</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>1380</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>1381</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>1381</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>1382</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>1382</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>1383</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>1384</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>1384</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>1384</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>1385</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>1385</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>1386</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>1386</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>1387</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>1388</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>1389</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="23" t="s">
         <v>1386</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>1390</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>1391</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="24" t="s">
         <v>1392</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="23" t="s">
         <v>1391</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="23" t="s">
         <v>1393</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>1376</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>1392</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>1376</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>1394</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>1395</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="24" t="s">
         <v>1392</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="25" t="s">
         <v>1395</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="23" t="s">
         <v>1396</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>1381</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="24" t="s">
         <v>1392</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="23" t="s">
         <v>1381</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="23" t="s">
         <v>1397</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="23" t="s">
         <v>1382</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="24" t="s">
         <v>1392</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="23" t="s">
         <v>1382</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="23" t="s">
         <v>1398</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>1384</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="24" t="s">
         <v>1392</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="23" t="s">
         <v>1384</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="23" t="s">
         <v>1399</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>1400</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="24" t="s">
         <v>1392</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="23" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="23" t="s">
         <v>1401</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="23" t="s">
         <v>1385</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>1392</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="23" t="s">
         <v>1385</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="23" t="s">
         <v>1402</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>1402</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="24" t="s">
         <v>1392</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="23" t="s">
         <v>1402</v>
       </c>
     </row>
@@ -17103,7 +16583,7 @@
       <c r="B29" t="s">
         <v>967</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>968</v>
       </c>
       <c r="D29" t="s">
@@ -17939,266 +17419,266 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>1373</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>1403</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>1404</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>1405</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>1406</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>1407</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>1408</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>1409</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>1410</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>1411</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>1412</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>1413</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="26" t="s">
         <v>1414</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="26" t="s">
         <v>1415</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>1416</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>1417</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
         <v>1418</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>1419</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="26" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="26" t="s">
         <v>1420</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="26" t="s">
         <v>1421</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="26" t="s">
         <v>1422</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="26" t="s">
         <v>1423</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="26" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="26" t="s">
         <v>1424</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="26" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="26" t="s">
         <v>1425</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="26" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="26" t="s">
         <v>1426</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="26" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="26" t="s">
         <v>1427</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="26" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="26" t="s">
         <v>1428</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="26" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="26" t="s">
         <v>1429</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="26" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="26" t="s">
         <v>1430</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="26" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="26" t="s">
         <v>1431</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="26" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="26" t="s">
         <v>1432</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="26" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="26" t="s">
         <v>1433</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="26" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="26" t="s">
         <v>1434</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="26" t="s">
         <v>567</v>
       </c>
     </row>
@@ -18241,7 +17721,7 @@
       <c r="A3" t="s">
         <v>1440</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>564</v>
       </c>
     </row>
@@ -18249,7 +17729,7 @@
       <c r="A4" t="s">
         <v>1441</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>564</v>
       </c>
     </row>
@@ -18257,7 +17737,7 @@
       <c r="A5" t="s">
         <v>1442</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>564</v>
       </c>
     </row>
@@ -18265,7 +17745,7 @@
       <c r="A6" t="s">
         <v>1443</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>564</v>
       </c>
     </row>
@@ -18273,7 +17753,7 @@
       <c r="A7" t="s">
         <v>1444</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>564</v>
       </c>
     </row>
@@ -18289,7 +17769,7 @@
       <c r="A9" t="s">
         <v>1446</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18297,7 +17777,7 @@
       <c r="A10" t="s">
         <v>1447</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18305,7 +17785,7 @@
       <c r="A11" t="s">
         <v>1448</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18313,7 +17793,7 @@
       <c r="A12" t="s">
         <v>1449</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18321,7 +17801,7 @@
       <c r="A13" t="s">
         <v>1450</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18329,7 +17809,7 @@
       <c r="A14" t="s">
         <v>1451</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>564</v>
       </c>
     </row>
@@ -18337,7 +17817,7 @@
       <c r="A15" t="s">
         <v>1452</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18345,7 +17825,7 @@
       <c r="A16" t="s">
         <v>1453</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>564</v>
       </c>
     </row>
@@ -18353,7 +17833,7 @@
       <c r="A17" t="s">
         <v>1454</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18361,7 +17841,7 @@
       <c r="A18" t="s">
         <v>1455</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18369,7 +17849,7 @@
       <c r="A19" t="s">
         <v>1456</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18377,7 +17857,7 @@
       <c r="A20" t="s">
         <v>1457</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18385,7 +17865,7 @@
       <c r="A21" t="s">
         <v>1458</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18393,7 +17873,7 @@
       <c r="A22" t="s">
         <v>1459</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18401,7 +17881,7 @@
       <c r="A23" t="s">
         <v>1460</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="26" t="s">
         <v>564</v>
       </c>
     </row>
@@ -18409,7 +17889,7 @@
       <c r="A24" t="s">
         <v>1461</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="26" t="s">
         <v>564</v>
       </c>
     </row>
@@ -18417,7 +17897,7 @@
       <c r="A25" t="s">
         <v>1462</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18425,7 +17905,7 @@
       <c r="A26" t="s">
         <v>1463</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18441,7 +17921,7 @@
       <c r="A28" t="s">
         <v>1465</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="26" t="s">
         <v>564</v>
       </c>
     </row>
@@ -18449,7 +17929,7 @@
       <c r="A29" t="s">
         <v>1466</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="26" t="s">
         <v>564</v>
       </c>
     </row>
@@ -18457,7 +17937,7 @@
       <c r="A30" t="s">
         <v>1467</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18465,7 +17945,7 @@
       <c r="A31" t="s">
         <v>1468</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="26" t="s">
         <v>567</v>
       </c>
     </row>
@@ -18473,7 +17953,7 @@
       <c r="A32" t="s">
         <v>1469</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="26" t="s">
         <v>567</v>
       </c>
     </row>
@@ -18481,7 +17961,7 @@
       <c r="A33" t="s">
         <v>1470</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18489,7 +17969,7 @@
       <c r="A34" t="s">
         <v>1471</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18497,7 +17977,7 @@
       <c r="A35" t="s">
         <v>1472</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18505,7 +17985,7 @@
       <c r="A36" t="s">
         <v>1473</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18513,7 +17993,7 @@
       <c r="A37" t="s">
         <v>1474</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18521,7 +18001,7 @@
       <c r="A38" t="s">
         <v>1475</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18529,7 +18009,7 @@
       <c r="A39" t="s">
         <v>1476</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18537,7 +18017,7 @@
       <c r="A40" t="s">
         <v>1477</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18545,7 +18025,7 @@
       <c r="A41" t="s">
         <v>1478</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="26" t="s">
         <v>564</v>
       </c>
     </row>
@@ -20397,44 +19877,44 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="27" t="s">
         <v>1435</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="27" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
-        <v>783</v>
-      </c>
-      <c r="B30" s="27" t="s">
+      <c r="A30" s="28" t="s">
+        <v>783</v>
+      </c>
+      <c r="B30" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="26" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="28" t="s">
         <v>1436</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="29" t="s">
         <v>223</v>
       </c>
     </row>
@@ -20442,13 +19922,13 @@
       <c r="A32" t="s">
         <v>1437</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="27" t="s">
         <v>228</v>
       </c>
     </row>
@@ -20456,13 +19936,13 @@
       <c r="A33" t="s">
         <v>1438</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="26" t="s">
         <v>261</v>
       </c>
     </row>
@@ -20470,13 +19950,13 @@
       <c r="A34" t="s">
         <v>1480</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="26" t="s">
         <v>234</v>
       </c>
     </row>
@@ -20644,7 +20124,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>982</v>
       </c>
       <c r="B1" t="s">
@@ -20655,7 +20135,7 @@
       <c r="A2" t="s">
         <v>1012</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>564</v>
       </c>
     </row>
@@ -20663,7 +20143,7 @@
       <c r="A3" t="s">
         <v>1013</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>564</v>
       </c>
     </row>
@@ -20671,7 +20151,7 @@
       <c r="A4" t="s">
         <v>1014</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>564</v>
       </c>
     </row>
@@ -20679,7 +20159,7 @@
       <c r="A5" t="s">
         <v>1015</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>564</v>
       </c>
     </row>
@@ -20687,7 +20167,7 @@
       <c r="A6" t="s">
         <v>1016</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -20695,7 +20175,7 @@
       <c r="A7" t="s">
         <v>1017</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>564</v>
       </c>
     </row>
@@ -20703,7 +20183,7 @@
       <c r="A8" t="s">
         <v>1018</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>564</v>
       </c>
     </row>
@@ -20711,7 +20191,7 @@
       <c r="A9" t="s">
         <v>1019</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>564</v>
       </c>
     </row>
@@ -20719,7 +20199,7 @@
       <c r="A10" t="s">
         <v>1020</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>564</v>
       </c>
     </row>
@@ -20727,7 +20207,7 @@
       <c r="A11" t="s">
         <v>1021</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>564</v>
       </c>
     </row>
@@ -20735,7 +20215,7 @@
       <c r="A12" t="s">
         <v>1022</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>564</v>
       </c>
     </row>
@@ -20743,7 +20223,7 @@
       <c r="A13" t="s">
         <v>1023</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>564</v>
       </c>
     </row>
@@ -20751,7 +20231,7 @@
       <c r="A14" t="s">
         <v>1024</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>564</v>
       </c>
     </row>
@@ -20759,7 +20239,7 @@
       <c r="A15" t="s">
         <v>1025</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>564</v>
       </c>
     </row>
@@ -20767,7 +20247,7 @@
       <c r="A16" t="s">
         <v>1026</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>564</v>
       </c>
     </row>
@@ -20775,7 +20255,7 @@
       <c r="A17" t="s">
         <v>1056</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -20783,7 +20263,7 @@
       <c r="A18" t="s">
         <v>1057</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -20791,7 +20271,7 @@
       <c r="A19" t="s">
         <v>1058</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -20799,7 +20279,7 @@
       <c r="A20" t="s">
         <v>1059</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -20807,7 +20287,7 @@
       <c r="A21" t="s">
         <v>1060</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -20815,7 +20295,7 @@
       <c r="A22" t="s">
         <v>1061</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -20823,7 +20303,7 @@
       <c r="A23" t="s">
         <v>1062</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -20831,7 +20311,7 @@
       <c r="A24" t="s">
         <v>1063</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -20839,7 +20319,7 @@
       <c r="A25" t="s">
         <v>1064</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -20847,7 +20327,7 @@
       <c r="A26" t="s">
         <v>1065</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -20855,7 +20335,7 @@
       <c r="A27" t="s">
         <v>1066</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -20863,7 +20343,7 @@
       <c r="A28" t="s">
         <v>1067</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -20871,7 +20351,7 @@
       <c r="A29" t="s">
         <v>1068</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -20879,7 +20359,7 @@
       <c r="A30" t="s">
         <v>1069</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -20887,7 +20367,7 @@
       <c r="A31" t="s">
         <v>1070</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -20895,7 +20375,7 @@
       <c r="A32" t="s">
         <v>1071</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -20903,7 +20383,7 @@
       <c r="A33" t="s">
         <v>1072</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -20911,7 +20391,7 @@
       <c r="A34" t="s">
         <v>1073</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>567</v>
       </c>
     </row>
@@ -20919,7 +20399,7 @@
       <c r="A35" t="s">
         <v>1074</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -20927,7 +20407,7 @@
       <c r="A36" t="s">
         <v>1075</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -20935,7 +20415,7 @@
       <c r="A37" t="s">
         <v>1076</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -20943,7 +20423,7 @@
       <c r="A38" t="s">
         <v>1077</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -20951,7 +20431,7 @@
       <c r="A39" t="s">
         <v>1078</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -20959,7 +20439,7 @@
       <c r="A40" t="s">
         <v>1079</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -20967,7 +20447,7 @@
       <c r="A41" t="s">
         <v>1080</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -20975,7 +20455,7 @@
       <c r="A42" t="s">
         <v>1081</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -20983,7 +20463,7 @@
       <c r="A43" t="s">
         <v>1082</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -20991,7 +20471,7 @@
       <c r="A44" t="s">
         <v>1083</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -20999,7 +20479,7 @@
       <c r="A45" t="s">
         <v>1084</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21007,7 +20487,7 @@
       <c r="A46" t="s">
         <v>1085</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21015,7 +20495,7 @@
       <c r="A47" t="s">
         <v>1086</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21023,7 +20503,7 @@
       <c r="A48" t="s">
         <v>1087</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21031,7 +20511,7 @@
       <c r="A49" t="s">
         <v>1088</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21039,7 +20519,7 @@
       <c r="A50" t="s">
         <v>1089</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21047,7 +20527,7 @@
       <c r="A51" t="s">
         <v>1090</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21055,7 +20535,7 @@
       <c r="A52" t="s">
         <v>1091</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21063,7 +20543,7 @@
       <c r="A53" t="s">
         <v>1092</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21071,7 +20551,7 @@
       <c r="A54" t="s">
         <v>1093</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21079,7 +20559,7 @@
       <c r="A55" t="s">
         <v>1094</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21087,7 +20567,7 @@
       <c r="A56" t="s">
         <v>1095</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21095,7 +20575,7 @@
       <c r="A57" t="s">
         <v>1096</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21103,7 +20583,7 @@
       <c r="A58" t="s">
         <v>1097</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21111,7 +20591,7 @@
       <c r="A59" t="s">
         <v>1098</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21119,7 +20599,7 @@
       <c r="A60" t="s">
         <v>1099</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21127,7 +20607,7 @@
       <c r="A61" t="s">
         <v>1100</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21135,7 +20615,7 @@
       <c r="A62" t="s">
         <v>1101</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21143,7 +20623,7 @@
       <c r="A63" t="s">
         <v>1102</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21151,7 +20631,7 @@
       <c r="A64" t="s">
         <v>1103</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21159,7 +20639,7 @@
       <c r="A65" t="s">
         <v>1104</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21167,7 +20647,7 @@
       <c r="A66" t="s">
         <v>1105</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21175,7 +20655,7 @@
       <c r="A67" t="s">
         <v>1106</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21183,7 +20663,7 @@
       <c r="A68" t="s">
         <v>1107</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21191,7 +20671,7 @@
       <c r="A69" t="s">
         <v>1108</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21199,7 +20679,7 @@
       <c r="A70" t="s">
         <v>1109</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21207,7 +20687,7 @@
       <c r="A71" t="s">
         <v>1110</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21215,7 +20695,7 @@
       <c r="A72" t="s">
         <v>1111</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21223,7 +20703,7 @@
       <c r="A73" t="s">
         <v>1112</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21231,7 +20711,7 @@
       <c r="A74" t="s">
         <v>1113</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21239,7 +20719,7 @@
       <c r="A75" t="s">
         <v>1114</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21247,7 +20727,7 @@
       <c r="A76" t="s">
         <v>1115</v>
       </c>
-      <c r="B76" s="13" t="s">
+      <c r="B76" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21255,7 +20735,7 @@
       <c r="A77" t="s">
         <v>1116</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21263,7 +20743,7 @@
       <c r="A78" t="s">
         <v>1117</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21271,7 +20751,7 @@
       <c r="A79" t="s">
         <v>1118</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21279,7 +20759,7 @@
       <c r="A80" t="s">
         <v>1119</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21287,7 +20767,7 @@
       <c r="A81" t="s">
         <v>1120</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21295,7 +20775,7 @@
       <c r="A82" t="s">
         <v>1121</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="12" t="s">
         <v>564</v>
       </c>
     </row>
@@ -21303,7 +20783,7 @@
       <c r="A83" t="s">
         <v>1122</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21311,7 +20791,7 @@
       <c r="A84" t="s">
         <v>1123</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21319,7 +20799,7 @@
       <c r="A85" t="s">
         <v>1124</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21327,7 +20807,7 @@
       <c r="A86" t="s">
         <v>1125</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21335,7 +20815,7 @@
       <c r="A87" t="s">
         <v>1126</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="B87" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21343,7 +20823,7 @@
       <c r="A88" t="s">
         <v>1127</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21351,7 +20831,7 @@
       <c r="A89" t="s">
         <v>1128</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21359,7 +20839,7 @@
       <c r="A90" t="s">
         <v>1129</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21367,7 +20847,7 @@
       <c r="A91" t="s">
         <v>1130</v>
       </c>
-      <c r="B91" s="13" t="s">
+      <c r="B91" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21375,7 +20855,7 @@
       <c r="A92" t="s">
         <v>1131</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21383,7 +20863,7 @@
       <c r="A93" t="s">
         <v>1132</v>
       </c>
-      <c r="B93" s="13" t="s">
+      <c r="B93" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21391,7 +20871,7 @@
       <c r="A94" t="s">
         <v>1133</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="B94" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21399,7 +20879,7 @@
       <c r="A95" t="s">
         <v>1134</v>
       </c>
-      <c r="B95" s="13" t="s">
+      <c r="B95" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21407,7 +20887,7 @@
       <c r="A96" t="s">
         <v>1135</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B96" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21415,7 +20895,7 @@
       <c r="A97" t="s">
         <v>1136</v>
       </c>
-      <c r="B97" s="13" t="s">
+      <c r="B97" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21423,7 +20903,7 @@
       <c r="A98" t="s">
         <v>1137</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21431,7 +20911,7 @@
       <c r="A99" t="s">
         <v>1138</v>
       </c>
-      <c r="B99" s="13" t="s">
+      <c r="B99" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21439,7 +20919,7 @@
       <c r="A100" t="s">
         <v>1139</v>
       </c>
-      <c r="B100" s="13" t="s">
+      <c r="B100" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21447,7 +20927,7 @@
       <c r="A101" t="s">
         <v>1140</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="B101" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21455,7 +20935,7 @@
       <c r="A102" t="s">
         <v>1141</v>
       </c>
-      <c r="B102" s="13" t="s">
+      <c r="B102" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21463,7 +20943,7 @@
       <c r="A103" t="s">
         <v>1142</v>
       </c>
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21471,7 +20951,7 @@
       <c r="A104" t="s">
         <v>1143</v>
       </c>
-      <c r="B104" s="13" t="s">
+      <c r="B104" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21479,7 +20959,7 @@
       <c r="A105" t="s">
         <v>1144</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21487,7 +20967,7 @@
       <c r="A106" t="s">
         <v>1145</v>
       </c>
-      <c r="B106" s="13" t="s">
+      <c r="B106" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21495,7 +20975,7 @@
       <c r="A107" t="s">
         <v>1146</v>
       </c>
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21503,7 +20983,7 @@
       <c r="A108" t="s">
         <v>1147</v>
       </c>
-      <c r="B108" s="13" t="s">
+      <c r="B108" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21511,7 +20991,7 @@
       <c r="A109" t="s">
         <v>1148</v>
       </c>
-      <c r="B109" s="13" t="s">
+      <c r="B109" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21519,7 +20999,7 @@
       <c r="A110" t="s">
         <v>1149</v>
       </c>
-      <c r="B110" s="13" t="s">
+      <c r="B110" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21527,7 +21007,7 @@
       <c r="A111" t="s">
         <v>1150</v>
       </c>
-      <c r="B111" s="13" t="s">
+      <c r="B111" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21535,7 +21015,7 @@
       <c r="A112" t="s">
         <v>1151</v>
       </c>
-      <c r="B112" s="13" t="s">
+      <c r="B112" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21543,7 +21023,7 @@
       <c r="A113" t="s">
         <v>1152</v>
       </c>
-      <c r="B113" s="13" t="s">
+      <c r="B113" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21551,7 +21031,7 @@
       <c r="A114" t="s">
         <v>1153</v>
       </c>
-      <c r="B114" s="13" t="s">
+      <c r="B114" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21559,7 +21039,7 @@
       <c r="A115" t="s">
         <v>1154</v>
       </c>
-      <c r="B115" s="13" t="s">
+      <c r="B115" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21567,7 +21047,7 @@
       <c r="A116" t="s">
         <v>1155</v>
       </c>
-      <c r="B116" s="13" t="s">
+      <c r="B116" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21575,7 +21055,7 @@
       <c r="A117" t="s">
         <v>1156</v>
       </c>
-      <c r="B117" s="13" t="s">
+      <c r="B117" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21583,7 +21063,7 @@
       <c r="A118" t="s">
         <v>1157</v>
       </c>
-      <c r="B118" s="13" t="s">
+      <c r="B118" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21591,7 +21071,7 @@
       <c r="A119" t="s">
         <v>1158</v>
       </c>
-      <c r="B119" s="13" t="s">
+      <c r="B119" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21599,7 +21079,7 @@
       <c r="A120" t="s">
         <v>1159</v>
       </c>
-      <c r="B120" s="13" t="s">
+      <c r="B120" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21607,7 +21087,7 @@
       <c r="A121" t="s">
         <v>1160</v>
       </c>
-      <c r="B121" s="13" t="s">
+      <c r="B121" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21615,7 +21095,7 @@
       <c r="A122" t="s">
         <v>1161</v>
       </c>
-      <c r="B122" s="13" t="s">
+      <c r="B122" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21623,7 +21103,7 @@
       <c r="A123" t="s">
         <v>1162</v>
       </c>
-      <c r="B123" s="13" t="s">
+      <c r="B123" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21631,7 +21111,7 @@
       <c r="A124" t="s">
         <v>1163</v>
       </c>
-      <c r="B124" s="13" t="s">
+      <c r="B124" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21639,7 +21119,7 @@
       <c r="A125" t="s">
         <v>1164</v>
       </c>
-      <c r="B125" s="13" t="s">
+      <c r="B125" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21647,7 +21127,7 @@
       <c r="A126" t="s">
         <v>1165</v>
       </c>
-      <c r="B126" s="13" t="s">
+      <c r="B126" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21655,7 +21135,7 @@
       <c r="A127" t="s">
         <v>1166</v>
       </c>
-      <c r="B127" s="13" t="s">
+      <c r="B127" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21663,7 +21143,7 @@
       <c r="A128" t="s">
         <v>1167</v>
       </c>
-      <c r="B128" s="13" t="s">
+      <c r="B128" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21671,7 +21151,7 @@
       <c r="A129" t="s">
         <v>1168</v>
       </c>
-      <c r="B129" s="13" t="s">
+      <c r="B129" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21679,7 +21159,7 @@
       <c r="A130" t="s">
         <v>1169</v>
       </c>
-      <c r="B130" s="13" t="s">
+      <c r="B130" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21687,7 +21167,7 @@
       <c r="A131" t="s">
         <v>1170</v>
       </c>
-      <c r="B131" s="13" t="s">
+      <c r="B131" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21695,7 +21175,7 @@
       <c r="A132" t="s">
         <v>1171</v>
       </c>
-      <c r="B132" s="13" t="s">
+      <c r="B132" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21703,7 +21183,7 @@
       <c r="A133" t="s">
         <v>1172</v>
       </c>
-      <c r="B133" s="13" t="s">
+      <c r="B133" s="12" t="s">
         <v>564</v>
       </c>
     </row>
@@ -21711,7 +21191,7 @@
       <c r="A134" t="s">
         <v>1173</v>
       </c>
-      <c r="B134" s="13" t="s">
+      <c r="B134" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21719,7 +21199,7 @@
       <c r="A135" t="s">
         <v>1174</v>
       </c>
-      <c r="B135" s="13" t="s">
+      <c r="B135" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21727,7 +21207,7 @@
       <c r="A136" t="s">
         <v>1175</v>
       </c>
-      <c r="B136" s="13" t="s">
+      <c r="B136" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21735,7 +21215,7 @@
       <c r="A137" t="s">
         <v>1176</v>
       </c>
-      <c r="B137" s="13" t="s">
+      <c r="B137" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21743,7 +21223,7 @@
       <c r="A138" t="s">
         <v>1177</v>
       </c>
-      <c r="B138" s="13" t="s">
+      <c r="B138" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21751,7 +21231,7 @@
       <c r="A139" t="s">
         <v>1178</v>
       </c>
-      <c r="B139" s="13" t="s">
+      <c r="B139" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21790,11 +21270,11 @@
         <v>564</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>1051</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>564</v>
       </c>
     </row>
@@ -21887,7 +21367,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>1048</v>
       </c>
       <c r="B15" t="s">
@@ -21943,7 +21423,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="26" t="s">
         <v>1673</v>
       </c>
       <c r="B22" t="s">
@@ -21968,811 +21448,811 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="54.140625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="180.5703125" style="31" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="27"/>
+    <col min="1" max="2" width="54.140625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="180.5703125" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>1374</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>1331</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>986</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>1522</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>985</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>1692</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>1483</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>1693</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>1485</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>1486</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>988</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>1487</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>1488</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>1489</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>1500</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>1501</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>1506</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>1507</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>1492</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="31" t="s">
         <v>1493</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>1498</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>1499</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>1490</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>1491</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="26" t="s">
         <v>1508</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="30" t="s">
         <v>1509</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="26" t="s">
         <v>1502</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>1503</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>1520</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>1521</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>1496</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="30" t="s">
         <v>1497</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
         <v>1518</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="30" t="s">
         <v>1519</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>1516</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="30" t="s">
         <v>1517</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="26" t="s">
         <v>1510</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="32" t="s">
         <v>1511</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="26" t="s">
         <v>1514</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="26" t="s">
         <v>1515</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="26" t="s">
         <v>1512</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="30" t="s">
         <v>1513</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="26" t="s">
         <v>1494</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="30" t="s">
         <v>1495</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="26" t="s">
         <v>1504</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="30" t="s">
         <v>1505</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="26" t="s">
         <v>1523</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="24" t="s">
         <v>1524</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="26" t="s">
         <v>1546</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="30" t="s">
         <v>1547</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="26" t="s">
         <v>1533</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26" t="s">
         <v>1534</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="26" t="s">
         <v>1531</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="30" t="s">
         <v>1532</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="26" t="s">
         <v>1550</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="30" t="s">
         <v>1551</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="26" t="s">
         <v>1558</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="30" t="s">
         <v>1559</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="26" t="s">
         <v>1542</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="30" t="s">
         <v>1543</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="26" t="s">
         <v>1011</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="26" t="s">
         <v>1541</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="26" t="s">
         <v>1529</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="30" t="s">
         <v>1530</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="26" t="s">
         <v>1548</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="30" t="s">
         <v>1549</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="26" t="s">
         <v>1525</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="30" t="s">
         <v>1526</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="26" t="s">
         <v>1544</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="30" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="26" t="s">
         <v>1527</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="30" t="s">
         <v>1528</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="26" t="s">
         <v>1535</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="31" t="s">
         <v>1536</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="26" t="s">
         <v>1556</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="30" t="s">
         <v>1557</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="26" t="s">
         <v>1554</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="30" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="26" t="s">
         <v>1552</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="30" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="26" t="s">
         <v>1539</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="26" t="s">
         <v>1540</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="26" t="s">
         <v>1537</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="26" t="s">
         <v>1538</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="26" t="s">
         <v>987</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="30" t="s">
         <v>1560</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="26" t="s">
         <v>1561</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="26" t="s">
         <v>1562</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="26" t="s">
         <v>1563</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="30" t="s">
         <v>1564</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="26" t="s">
         <v>1567</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="30" t="s">
         <v>1568</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="26" t="s">
         <v>1569</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="30" t="s">
         <v>1570</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="26" t="s">
         <v>1565</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="30" t="s">
         <v>1566</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="26" t="s">
         <v>1573</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="30" t="s">
         <v>1574</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="26" t="s">
         <v>1571</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="30" t="s">
         <v>1572</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="26" t="s">
         <v>1671</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="26" t="s">
         <v>1672</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="27" t="s">
+      <c r="A52" s="26" t="s">
         <v>1575</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="30" t="s">
         <v>1576</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="26" t="s">
         <v>1577</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="30" t="s">
         <v>1578</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="26" t="s">
         <v>1670</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="30" t="s">
         <v>1578</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="26" t="s">
         <v>1579</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="30" t="s">
         <v>1580</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="26" t="s">
         <v>1603</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="30" t="s">
         <v>1604</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="26" t="s">
         <v>1593</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="30" t="s">
         <v>1594</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="26" t="s">
         <v>1599</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="30" t="s">
         <v>1600</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="26" t="s">
         <v>1595</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="30" t="s">
         <v>1596</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="27" t="s">
+      <c r="A60" s="26" t="s">
         <v>1587</v>
       </c>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="30" t="s">
         <v>1588</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="27" t="s">
+      <c r="A61" s="26" t="s">
         <v>1591</v>
       </c>
-      <c r="C61" s="31" t="s">
+      <c r="C61" s="30" t="s">
         <v>1592</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="26" t="s">
         <v>1605</v>
       </c>
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="30" t="s">
         <v>1606</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="26" t="s">
         <v>1589</v>
       </c>
-      <c r="C63" s="31" t="s">
+      <c r="C63" s="30" t="s">
         <v>1590</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="27" t="s">
+      <c r="A64" s="26" t="s">
         <v>1581</v>
       </c>
-      <c r="C64" s="31" t="s">
+      <c r="C64" s="30" t="s">
         <v>1582</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="26" t="s">
         <v>1601</v>
       </c>
-      <c r="C65" s="31" t="s">
+      <c r="C65" s="30" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="27" t="s">
+      <c r="A66" s="26" t="s">
         <v>1597</v>
       </c>
-      <c r="C66" s="31" t="s">
+      <c r="C66" s="30" t="s">
         <v>1598</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="26" t="s">
         <v>1585</v>
       </c>
-      <c r="C67" s="31" t="s">
+      <c r="C67" s="30" t="s">
         <v>1586</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="27" t="s">
+      <c r="A68" s="26" t="s">
         <v>1583</v>
       </c>
-      <c r="C68" s="31" t="s">
+      <c r="C68" s="30" t="s">
         <v>1584</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="27" t="s">
+      <c r="A69" s="26" t="s">
         <v>1620</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="C69" s="30" t="s">
         <v>1621</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="27" t="s">
+      <c r="A70" s="26" t="s">
         <v>1630</v>
       </c>
-      <c r="C70" s="31" t="s">
+      <c r="C70" s="30" t="s">
         <v>1631</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="26" t="s">
         <v>1614</v>
       </c>
-      <c r="C71" s="31" t="s">
+      <c r="C71" s="30" t="s">
         <v>1615</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="27" t="s">
+      <c r="A72" s="26" t="s">
         <v>1640</v>
       </c>
-      <c r="C72" s="31" t="s">
+      <c r="C72" s="30" t="s">
         <v>1641</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="27" t="s">
+      <c r="A73" s="26" t="s">
         <v>1646</v>
       </c>
-      <c r="C73" s="31" t="s">
+      <c r="C73" s="30" t="s">
         <v>1647</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="27" t="s">
+      <c r="A74" s="26" t="s">
         <v>1642</v>
       </c>
-      <c r="C74" s="31" t="s">
+      <c r="C74" s="30" t="s">
         <v>1643</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="27" t="s">
+      <c r="A75" s="26" t="s">
         <v>1634</v>
       </c>
-      <c r="C75" s="31" t="s">
+      <c r="C75" s="30" t="s">
         <v>1635</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="27" t="s">
+      <c r="A76" s="26" t="s">
         <v>1608</v>
       </c>
-      <c r="C76" s="31" t="s">
+      <c r="C76" s="30" t="s">
         <v>1609</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="27" t="s">
+      <c r="A77" s="26" t="s">
         <v>1650</v>
       </c>
-      <c r="C77" s="31" t="s">
+      <c r="C77" s="30" t="s">
         <v>1651</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="27" t="s">
+      <c r="A78" s="26" t="s">
         <v>1648</v>
       </c>
-      <c r="C78" s="31" t="s">
+      <c r="C78" s="30" t="s">
         <v>1649</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="27" t="s">
+      <c r="A79" s="26" t="s">
         <v>1656</v>
       </c>
-      <c r="C79" s="31" t="s">
+      <c r="C79" s="30" t="s">
         <v>1657</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="27" t="s">
+      <c r="A80" s="26" t="s">
         <v>1658</v>
       </c>
-      <c r="C80" s="31" t="s">
+      <c r="C80" s="30" t="s">
         <v>1659</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="27" t="s">
+      <c r="A81" s="26" t="s">
         <v>1626</v>
       </c>
-      <c r="C81" s="31" t="s">
+      <c r="C81" s="30" t="s">
         <v>1627</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="27" t="s">
+      <c r="A82" s="26" t="s">
         <v>1618</v>
       </c>
-      <c r="C82" s="31" t="s">
+      <c r="C82" s="30" t="s">
         <v>1619</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="27" t="s">
+      <c r="A83" s="26" t="s">
         <v>1636</v>
       </c>
-      <c r="C83" s="31" t="s">
+      <c r="C83" s="30" t="s">
         <v>1637</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="27" t="s">
+      <c r="A84" s="26" t="s">
         <v>1622</v>
       </c>
-      <c r="C84" s="31" t="s">
+      <c r="C84" s="30" t="s">
         <v>1623</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="27" t="s">
+      <c r="A85" s="26" t="s">
         <v>984</v>
       </c>
-      <c r="C85" s="31" t="s">
+      <c r="C85" s="30" t="s">
         <v>1607</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="27" t="s">
+      <c r="A86" s="26" t="s">
         <v>1628</v>
       </c>
-      <c r="C86" s="31" t="s">
+      <c r="C86" s="30" t="s">
         <v>1629</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="27" t="s">
+      <c r="A87" s="26" t="s">
         <v>1652</v>
       </c>
-      <c r="C87" s="31" t="s">
+      <c r="C87" s="30" t="s">
         <v>1653</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="27" t="s">
+      <c r="A88" s="26" t="s">
         <v>1610</v>
       </c>
-      <c r="C88" s="31" t="s">
+      <c r="C88" s="30" t="s">
         <v>1611</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="27" t="s">
+      <c r="A89" s="26" t="s">
         <v>1612</v>
       </c>
-      <c r="C89" s="31" t="s">
+      <c r="C89" s="30" t="s">
         <v>1613</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="27" t="s">
+      <c r="A90" s="26" t="s">
         <v>1624</v>
       </c>
-      <c r="C90" s="31" t="s">
+      <c r="C90" s="30" t="s">
         <v>1625</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="27" t="s">
+      <c r="A91" s="26" t="s">
         <v>1616</v>
       </c>
-      <c r="C91" s="31" t="s">
+      <c r="C91" s="30" t="s">
         <v>1617</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="27" t="s">
+      <c r="A92" s="26" t="s">
         <v>1654</v>
       </c>
-      <c r="C92" s="31" t="s">
+      <c r="C92" s="30" t="s">
         <v>1655</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="27" t="s">
+      <c r="A93" s="26" t="s">
         <v>1644</v>
       </c>
-      <c r="C93" s="31" t="s">
+      <c r="C93" s="30" t="s">
         <v>1645</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="27" t="s">
+      <c r="A94" s="26" t="s">
         <v>1660</v>
       </c>
-      <c r="C94" s="31" t="s">
+      <c r="C94" s="30" t="s">
         <v>1661</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="27" t="s">
+      <c r="A95" s="26" t="s">
         <v>1638</v>
       </c>
-      <c r="C95" s="31" t="s">
+      <c r="C95" s="30" t="s">
         <v>1639</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="27" t="s">
+      <c r="A96" s="26" t="s">
         <v>1632</v>
       </c>
-      <c r="C96" s="31" t="s">
+      <c r="C96" s="30" t="s">
         <v>1633</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="27" t="s">
+      <c r="A97" s="26" t="s">
         <v>1662</v>
       </c>
-      <c r="C97" s="31" t="s">
+      <c r="C97" s="30" t="s">
         <v>1663</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="27" t="s">
+      <c r="A98" s="26" t="s">
         <v>1668</v>
       </c>
-      <c r="C98" s="31" t="s">
+      <c r="C98" s="30" t="s">
         <v>1669</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="27" t="s">
+      <c r="A99" s="26" t="s">
         <v>1664</v>
       </c>
-      <c r="C99" s="31" t="s">
+      <c r="C99" s="30" t="s">
         <v>1665</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="27" t="s">
+      <c r="A100" s="26" t="s">
         <v>1666</v>
       </c>
-      <c r="C100" s="31" t="s">
+      <c r="C100" s="30" t="s">
         <v>1667</v>
       </c>
     </row>
@@ -22793,7 +22273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
@@ -24256,882 +23736,882 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>1221</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="26" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="26" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="26" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="26" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="26" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="26" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="26" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="26" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="19" t="s">
         <v>796</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="26" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="19" t="s">
         <v>795</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" s="26" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="19" t="s">
         <v>797</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="26" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C56" s="26" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="C57" s="26" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C58" s="27" t="s">
+      <c r="C58" s="26" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="26" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="20" t="s">
+      <c r="A60" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="26" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="20" t="s">
+      <c r="A61" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="26" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="26" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="20" t="s">
+      <c r="A63" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="26" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="20" t="s">
+      <c r="A64" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="26" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="26" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="20" t="s">
+      <c r="A66" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="C66" s="27" t="s">
+      <c r="C66" s="26" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="20" t="s">
+      <c r="A67" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="27" t="s">
+      <c r="C67" s="26" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
+      <c r="A68" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C68" s="27" t="s">
+      <c r="C68" s="26" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="s">
+      <c r="A69" s="19" t="s">
         <v>725</v>
       </c>
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="19" t="s">
         <v>725</v>
       </c>
-      <c r="C69" s="27" t="s">
+      <c r="C69" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="20" t="s">
+      <c r="A70" s="19" t="s">
         <v>726</v>
       </c>
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="19" t="s">
         <v>726</v>
       </c>
-      <c r="C70" s="27" t="s">
+      <c r="C70" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="20" t="s">
+      <c r="A71" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="B71" s="20" t="s">
+      <c r="B71" s="19" t="s">
         <v>728</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="20" t="s">
+      <c r="A72" s="19" t="s">
         <v>729</v>
       </c>
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="19" t="s">
         <v>730</v>
       </c>
-      <c r="C72" s="27" t="s">
+      <c r="C72" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="20" t="s">
+      <c r="A73" s="19" t="s">
         <v>731</v>
       </c>
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="19" t="s">
         <v>732</v>
       </c>
-      <c r="C73" s="27" t="s">
+      <c r="C73" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="s">
+      <c r="A74" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C74" s="27" t="s">
+      <c r="C74" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="20" t="s">
+      <c r="A75" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B75" s="20" t="s">
+      <c r="B75" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C75" s="27" t="s">
+      <c r="C75" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="20" t="s">
+      <c r="A76" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B76" s="20" t="s">
+      <c r="B76" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="27" t="s">
+      <c r="C76" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="20" t="s">
+      <c r="A77" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="20" t="s">
+      <c r="A78" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B78" s="20" t="s">
+      <c r="B78" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C78" s="27" t="s">
+      <c r="C78" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="20" t="s">
+      <c r="A79" s="19" t="s">
         <v>739</v>
       </c>
-      <c r="B79" s="20" t="s">
+      <c r="B79" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C79" s="27" t="s">
+      <c r="C79" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="20" t="s">
+      <c r="A80" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B80" s="20" t="s">
+      <c r="B80" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C80" s="27" t="s">
+      <c r="C80" s="26" t="s">
         <v>74</v>
       </c>
     </row>
@@ -26500,7 +25980,7 @@
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>1675</v>
       </c>
     </row>

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -5077,9 +5077,6 @@
     <t>https://raw.githubusercontent.com/federal-geospatial-platform/fgp-metadata-proxy/master/images/resampled/laval.png</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/federal-geospatial-platform/fgp-metadata-proxy/master/images/resampled/llongueuil.gif</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/federal-geospatial-platform/fgp-metadata-proxy/master/images/resampled/montreal.png</t>
   </si>
   <si>
@@ -5165,6 +5162,9 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/federal-geospatial-platform/fgp-metadata-proxy/master/images/resampled/stationnement_mtl.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/federal-geospatial-platform/fgp-metadata-proxy/master/images/resampled/longueuil.png</t>
   </si>
 </sst>
 </file>
@@ -16087,7 +16087,7 @@
   <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16515,7 +16515,7 @@
         <v>954</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>1670</v>
+        <v>1699</v>
       </c>
       <c r="D25" t="s">
         <v>888</v>
@@ -16532,7 +16532,7 @@
         <v>955</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="D26" t="s">
         <v>888</v>
@@ -16549,7 +16549,7 @@
         <v>956</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="D27" t="s">
         <v>888</v>
@@ -16566,7 +16566,7 @@
         <v>957</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="D28" t="s">
         <v>888</v>
@@ -16583,7 +16583,7 @@
         <v>958</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="D29" t="s">
         <v>888</v>
@@ -16600,7 +16600,7 @@
         <v>959</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="D30" t="s">
         <v>888</v>
@@ -16617,7 +16617,7 @@
         <v>960</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="D31" t="s">
         <v>888</v>
@@ -16634,7 +16634,7 @@
         <v>1241</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="D32" t="s">
         <v>888</v>
@@ -16651,7 +16651,7 @@
         <v>961</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="D33" t="s">
         <v>888</v>
@@ -16668,7 +16668,7 @@
         <v>1242</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="D34" t="s">
         <v>888</v>
@@ -16787,7 +16787,7 @@
         <v>886</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="D41" t="s">
         <v>888</v>
@@ -16804,7 +16804,7 @@
         <v>1237</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="D42" t="s">
         <v>888</v>
@@ -16821,7 +16821,7 @@
         <v>1238</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="D43" t="s">
         <v>888</v>
@@ -16872,7 +16872,7 @@
         <v>1239</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D46" t="s">
         <v>888</v>
@@ -16889,7 +16889,7 @@
         <v>897</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="D47" t="s">
         <v>888</v>
@@ -16906,7 +16906,7 @@
         <v>1240</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="D48" t="s">
         <v>888</v>
@@ -16940,7 +16940,7 @@
         <v>901</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="D50" t="s">
         <v>888</v>
@@ -16974,7 +16974,7 @@
         <v>907</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="D52" t="s">
         <v>888</v>
@@ -16991,7 +16991,7 @@
         <v>1249</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="D53" t="s">
         <v>888</v>
@@ -17008,7 +17008,7 @@
         <v>927</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="D54" t="s">
         <v>888</v>
@@ -17042,7 +17042,7 @@
         <v>929</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="D56" t="s">
         <v>888</v>
@@ -17059,7 +17059,7 @@
         <v>930</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D57" t="s">
         <v>888</v>
@@ -17076,7 +17076,7 @@
         <v>1243</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="D58" t="s">
         <v>888</v>
@@ -17093,7 +17093,7 @@
         <v>1244</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D59" t="s">
         <v>888</v>
@@ -17110,7 +17110,7 @@
         <v>1245</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="D60" t="s">
         <v>888</v>
@@ -17127,7 +17127,7 @@
         <v>1246</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D61" t="s">
         <v>888</v>
@@ -17144,7 +17144,7 @@
         <v>943</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D62" t="s">
         <v>888</v>
@@ -17178,7 +17178,7 @@
         <v>945</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="D64" t="s">
         <v>888</v>
@@ -17195,7 +17195,7 @@
         <v>1250</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="D65" t="s">
         <v>888</v>
@@ -17212,7 +17212,7 @@
         <v>1247</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="D66" t="s">
         <v>888</v>
@@ -17229,7 +17229,7 @@
         <v>1248</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D67" t="s">
         <v>888</v>

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="12" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="PyCSW_config" sheetId="40" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5233" uniqueCount="1700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5242" uniqueCount="1701">
   <si>
     <t>default_key</t>
   </si>
@@ -5165,6 +5165,9 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/federal-geospatial-platform/fgp-metadata-proxy/master/images/resampled/britishcolumbia.png</t>
+  </si>
+  <si>
+    <t>Ministère de l’Immigration, de la Francisation et de l’Intégration</t>
   </si>
 </sst>
 </file>
@@ -5661,7 +5664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
@@ -13090,10 +13093,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13459,6 +13462,14 @@
       </c>
       <c r="B45" t="s">
         <v>840</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B46" t="s">
+        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -13685,10 +13696,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14385,6 +14396,14 @@
       </c>
       <c r="B74" s="9" t="s">
         <v>322</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1250</v>
       </c>
     </row>
   </sheetData>
@@ -16087,10 +16106,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17391,6 +17410,23 @@
         <v>886</v>
       </c>
       <c r="E76" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="25" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>886</v>
+      </c>
+      <c r="E77" s="25" t="s">
         <v>1211</v>
       </c>
     </row>

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="12" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="12" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="PyCSW_config" sheetId="40" r:id="rId1"/>
@@ -13095,7 +13095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
@@ -16108,7 +16108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
@@ -17415,7 +17415,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
-        <v>1250</v>
+        <v>1700</v>
       </c>
       <c r="B77" t="s">
         <v>1700</v>

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="12" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="PyCSW_config" sheetId="40" r:id="rId1"/>
@@ -4388,9 +4388,6 @@
     <t>b7d9e240-6576-4ddc-b4cb-1c19e2116cf1</t>
   </si>
   <si>
-    <t>Quebec Government and Municipalities</t>
-  </si>
-  <si>
     <t>current</t>
   </si>
   <si>
@@ -5168,13 +5165,16 @@
   </si>
   <si>
     <t>Ministère de l’Immigration, de la Francisation et de l’Intégration</t>
+  </si>
+  <si>
+    <t>Government and Municipalities of Québec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5230,6 +5230,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF201F1E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -5266,7 +5274,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5305,6 +5313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink 2" xfId="3"/>
@@ -5602,13 +5611,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B1" t="s">
         <v>1643</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1644</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1645</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5616,10 +5625,10 @@
         <v>783</v>
       </c>
       <c r="B2" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C2" t="s">
         <v>1646</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1647</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5627,10 +5636,10 @@
         <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="C3" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5638,21 +5647,21 @@
         <v>10</v>
       </c>
       <c r="B4" s="25" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>1646</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>1647</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
   </sheetData>
@@ -5703,7 +5712,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5815,7 +5824,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -5941,7 +5950,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6194,8 +6203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6233,7 +6242,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6360,8 +6369,8 @@
       <c r="A20" s="7" t="s">
         <v>788</v>
       </c>
-      <c r="B20" t="s">
-        <v>1442</v>
+      <c r="B20" s="32" t="s">
+        <v>1700</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6526,10 +6535,10 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B41" t="s">
         <v>1659</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1660</v>
       </c>
     </row>
   </sheetData>
@@ -13070,7 +13079,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B434" t="s">
         <v>781</v>
@@ -14780,7 +14789,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>883</v>
@@ -16108,7 +16117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
@@ -16146,7 +16155,7 @@
         <v>1249</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="D2" t="s">
         <v>886</v>
@@ -16163,7 +16172,7 @@
         <v>885</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D3" t="s">
         <v>886</v>
@@ -16180,7 +16189,7 @@
         <v>892</v>
       </c>
       <c r="C4" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D4" t="s">
         <v>886</v>
@@ -16197,7 +16206,7 @@
         <v>894</v>
       </c>
       <c r="C5" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D5" t="s">
         <v>886</v>
@@ -16214,7 +16223,7 @@
         <v>896</v>
       </c>
       <c r="C6" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D6" t="s">
         <v>886</v>
@@ -16231,7 +16240,7 @@
         <v>900</v>
       </c>
       <c r="C7" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D7" t="s">
         <v>886</v>
@@ -16248,7 +16257,7 @@
         <v>901</v>
       </c>
       <c r="C8" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D8" t="s">
         <v>886</v>
@@ -16265,7 +16274,7 @@
         <v>903</v>
       </c>
       <c r="C9" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D9" t="s">
         <v>886</v>
@@ -16282,7 +16291,7 @@
         <v>907</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D10" t="s">
         <v>886</v>
@@ -16299,7 +16308,7 @@
         <v>908</v>
       </c>
       <c r="C11" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D11" t="s">
         <v>886</v>
@@ -16316,7 +16325,7 @@
         <v>909</v>
       </c>
       <c r="C12" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D12" t="s">
         <v>886</v>
@@ -16333,7 +16342,7 @@
         <v>910</v>
       </c>
       <c r="C13" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D13" t="s">
         <v>886</v>
@@ -16350,7 +16359,7 @@
         <v>911</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D14" t="s">
         <v>886</v>
@@ -16367,7 +16376,7 @@
         <v>912</v>
       </c>
       <c r="C15" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D15" t="s">
         <v>886</v>
@@ -16384,7 +16393,7 @@
         <v>913</v>
       </c>
       <c r="C16" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D16" t="s">
         <v>886</v>
@@ -16401,7 +16410,7 @@
         <v>914</v>
       </c>
       <c r="C17" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D17" t="s">
         <v>886</v>
@@ -16418,7 +16427,7 @@
         <v>915</v>
       </c>
       <c r="C18" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D18" t="s">
         <v>886</v>
@@ -16435,7 +16444,7 @@
         <v>916</v>
       </c>
       <c r="C19" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D19" t="s">
         <v>886</v>
@@ -16452,7 +16461,7 @@
         <v>917</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D20" t="s">
         <v>886</v>
@@ -16469,7 +16478,7 @@
         <v>918</v>
       </c>
       <c r="C21" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D21" t="s">
         <v>886</v>
@@ -16486,7 +16495,7 @@
         <v>949</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="D22" t="s">
         <v>886</v>
@@ -16503,7 +16512,7 @@
         <v>950</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="D23" t="s">
         <v>886</v>
@@ -16520,7 +16529,7 @@
         <v>951</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="D24" t="s">
         <v>886</v>
@@ -16537,7 +16546,7 @@
         <v>952</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="D25" t="s">
         <v>886</v>
@@ -16554,7 +16563,7 @@
         <v>953</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="D26" t="s">
         <v>886</v>
@@ -16571,7 +16580,7 @@
         <v>954</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="D27" t="s">
         <v>886</v>
@@ -16588,7 +16597,7 @@
         <v>955</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="D28" t="s">
         <v>886</v>
@@ -16605,7 +16614,7 @@
         <v>956</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="D29" t="s">
         <v>886</v>
@@ -16622,7 +16631,7 @@
         <v>957</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="D30" t="s">
         <v>886</v>
@@ -16639,7 +16648,7 @@
         <v>958</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="D31" t="s">
         <v>886</v>
@@ -16656,7 +16665,7 @@
         <v>1239</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="D32" t="s">
         <v>886</v>
@@ -16673,7 +16682,7 @@
         <v>959</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="D33" t="s">
         <v>886</v>
@@ -16690,7 +16699,7 @@
         <v>1240</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="D34" t="s">
         <v>886</v>
@@ -16707,7 +16716,7 @@
         <v>919</v>
       </c>
       <c r="C35" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D35" t="s">
         <v>886</v>
@@ -16724,7 +16733,7 @@
         <v>920</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D36" t="s">
         <v>886</v>
@@ -16741,7 +16750,7 @@
         <v>921</v>
       </c>
       <c r="C37" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D37" t="s">
         <v>886</v>
@@ -16758,7 +16767,7 @@
         <v>922</v>
       </c>
       <c r="C38" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D38" t="s">
         <v>886</v>
@@ -16775,7 +16784,7 @@
         <v>923</v>
       </c>
       <c r="C39" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D39" t="s">
         <v>886</v>
@@ -16792,7 +16801,7 @@
         <v>924</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D40" t="s">
         <v>886</v>
@@ -16809,7 +16818,7 @@
         <v>884</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="D41" t="s">
         <v>886</v>
@@ -16826,7 +16835,7 @@
         <v>1235</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="D42" t="s">
         <v>886</v>
@@ -16843,7 +16852,7 @@
         <v>1236</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="D43" t="s">
         <v>886</v>
@@ -16894,7 +16903,7 @@
         <v>1237</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="D46" t="s">
         <v>886</v>
@@ -16911,7 +16920,7 @@
         <v>895</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="D47" t="s">
         <v>886</v>
@@ -16928,7 +16937,7 @@
         <v>1238</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D48" t="s">
         <v>886</v>
@@ -16962,7 +16971,7 @@
         <v>899</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="D50" t="s">
         <v>886</v>
@@ -16996,7 +17005,7 @@
         <v>905</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="D52" t="s">
         <v>886</v>
@@ -17013,7 +17022,7 @@
         <v>1247</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="D53" t="s">
         <v>886</v>
@@ -17030,7 +17039,7 @@
         <v>925</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="D54" t="s">
         <v>886</v>
@@ -17064,7 +17073,7 @@
         <v>927</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="D56" t="s">
         <v>886</v>
@@ -17081,7 +17090,7 @@
         <v>928</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="D57" t="s">
         <v>886</v>
@@ -17098,7 +17107,7 @@
         <v>1241</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="D58" t="s">
         <v>886</v>
@@ -17115,7 +17124,7 @@
         <v>1242</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="D59" t="s">
         <v>886</v>
@@ -17132,7 +17141,7 @@
         <v>1243</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D60" t="s">
         <v>886</v>
@@ -17149,7 +17158,7 @@
         <v>1244</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="D61" t="s">
         <v>886</v>
@@ -17166,7 +17175,7 @@
         <v>941</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D62" t="s">
         <v>886</v>
@@ -17200,7 +17209,7 @@
         <v>943</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="D64" t="s">
         <v>886</v>
@@ -17217,7 +17226,7 @@
         <v>1248</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D65" t="s">
         <v>886</v>
@@ -17234,7 +17243,7 @@
         <v>1245</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="D66" t="s">
         <v>886</v>
@@ -17251,7 +17260,7 @@
         <v>1246</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D67" t="s">
         <v>886</v>
@@ -17268,7 +17277,7 @@
         <v>929</v>
       </c>
       <c r="C68" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D68" t="s">
         <v>886</v>
@@ -17285,7 +17294,7 @@
         <v>930</v>
       </c>
       <c r="C69" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D69" t="s">
         <v>886</v>
@@ -17302,7 +17311,7 @@
         <v>931</v>
       </c>
       <c r="C70" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D70" t="s">
         <v>886</v>
@@ -17319,7 +17328,7 @@
         <v>932</v>
       </c>
       <c r="C71" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D71" t="s">
         <v>886</v>
@@ -17336,7 +17345,7 @@
         <v>934</v>
       </c>
       <c r="C72" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D72" t="s">
         <v>886</v>
@@ -17353,7 +17362,7 @@
         <v>936</v>
       </c>
       <c r="C73" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D73" t="s">
         <v>886</v>
@@ -17370,7 +17379,7 @@
         <v>944</v>
       </c>
       <c r="C74" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D74" t="s">
         <v>886</v>
@@ -17387,7 +17396,7 @@
         <v>947</v>
       </c>
       <c r="C75" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D75" t="s">
         <v>886</v>
@@ -17404,7 +17413,7 @@
         <v>948</v>
       </c>
       <c r="C76" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D76" t="s">
         <v>886</v>
@@ -17415,13 +17424,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B77" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D77" s="25" t="s">
         <v>886</v>
@@ -20024,7 +20033,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B34" s="25" t="s">
         <v>230</v>
@@ -21500,7 +21509,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -21545,7 +21554,7 @@
         <v>972</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -21553,23 +21562,23 @@
         <v>971</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>1448</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>1449</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -21577,199 +21586,199 @@
         <v>974</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>1451</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>1463</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>1464</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>1469</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>1470</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>1455</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>1461</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>1462</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>1453</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>1454</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>1471</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>1465</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>1483</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>1484</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C16" s="29" t="s">
         <v>1459</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C17" s="29" t="s">
         <v>1481</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>1482</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C18" s="29" t="s">
         <v>1479</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C19" s="31" t="s">
         <v>1473</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>1474</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>1477</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>1478</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C21" s="29" t="s">
         <v>1475</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C22" s="29" t="s">
         <v>1457</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>1458</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C23" s="29" t="s">
         <v>1467</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>1468</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>1486</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>1487</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C25" s="29" t="s">
         <v>1509</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>1510</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>1496</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>1497</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C27" s="29" t="s">
         <v>1494</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C28" s="29" t="s">
         <v>1513</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>1514</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C29" s="29" t="s">
         <v>1521</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>1522</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C30" s="29" t="s">
         <v>1505</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>1506</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -21777,95 +21786,95 @@
         <v>997</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C32" s="29" t="s">
         <v>1492</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C33" s="29" t="s">
         <v>1511</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>1512</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C34" s="29" t="s">
         <v>1488</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>1489</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C35" s="29" t="s">
         <v>1507</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>1508</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C36" s="29" t="s">
         <v>1490</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C37" s="30" t="s">
         <v>1498</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C38" s="29" t="s">
         <v>1519</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>1520</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C39" s="29" t="s">
         <v>1517</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>1518</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C40" s="29" t="s">
         <v>1515</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C41" s="25" t="s">
         <v>1502</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C42" s="25" t="s">
         <v>1500</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>1501</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -21873,335 +21882,335 @@
         <v>973</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C44" s="25" t="s">
         <v>1524</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>1525</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C45" s="29" t="s">
         <v>1526</v>
-      </c>
-      <c r="C45" s="29" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C46" s="29" t="s">
         <v>1530</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C47" s="29" t="s">
         <v>1532</v>
-      </c>
-      <c r="C47" s="29" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C48" s="29" t="s">
         <v>1528</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>1529</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C49" s="29" t="s">
         <v>1536</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>1537</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C50" s="29" t="s">
         <v>1534</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>1535</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" s="25" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C51" s="25" t="s">
         <v>1634</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>1635</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C52" s="29" t="s">
         <v>1538</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>1539</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C53" s="29" t="s">
         <v>1540</v>
-      </c>
-      <c r="C53" s="29" t="s">
-        <v>1541</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" s="25" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C55" s="29" t="s">
         <v>1542</v>
-      </c>
-      <c r="C55" s="29" t="s">
-        <v>1543</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C56" s="29" t="s">
         <v>1566</v>
-      </c>
-      <c r="C56" s="29" t="s">
-        <v>1567</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C57" s="29" t="s">
         <v>1556</v>
-      </c>
-      <c r="C57" s="29" t="s">
-        <v>1557</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C58" s="29" t="s">
         <v>1562</v>
-      </c>
-      <c r="C58" s="29" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C59" s="29" t="s">
         <v>1558</v>
-      </c>
-      <c r="C59" s="29" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C60" s="29" t="s">
         <v>1550</v>
-      </c>
-      <c r="C60" s="29" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C61" s="29" t="s">
         <v>1554</v>
-      </c>
-      <c r="C61" s="29" t="s">
-        <v>1555</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C62" s="29" t="s">
         <v>1568</v>
-      </c>
-      <c r="C62" s="29" t="s">
-        <v>1569</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C63" s="29" t="s">
         <v>1552</v>
-      </c>
-      <c r="C63" s="29" t="s">
-        <v>1553</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C64" s="29" t="s">
         <v>1544</v>
-      </c>
-      <c r="C64" s="29" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C65" s="29" t="s">
         <v>1564</v>
-      </c>
-      <c r="C65" s="29" t="s">
-        <v>1565</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C66" s="29" t="s">
         <v>1560</v>
-      </c>
-      <c r="C66" s="29" t="s">
-        <v>1561</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C67" s="29" t="s">
         <v>1548</v>
-      </c>
-      <c r="C67" s="29" t="s">
-        <v>1549</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C68" s="29" t="s">
         <v>1546</v>
-      </c>
-      <c r="C68" s="29" t="s">
-        <v>1547</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C69" s="29" t="s">
         <v>1583</v>
-      </c>
-      <c r="C69" s="29" t="s">
-        <v>1584</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C70" s="29" t="s">
         <v>1593</v>
-      </c>
-      <c r="C70" s="29" t="s">
-        <v>1594</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C71" s="29" t="s">
         <v>1577</v>
-      </c>
-      <c r="C71" s="29" t="s">
-        <v>1578</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C72" s="29" t="s">
         <v>1603</v>
-      </c>
-      <c r="C72" s="29" t="s">
-        <v>1604</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C73" s="29" t="s">
         <v>1609</v>
-      </c>
-      <c r="C73" s="29" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C74" s="29" t="s">
         <v>1605</v>
-      </c>
-      <c r="C74" s="29" t="s">
-        <v>1606</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C75" s="29" t="s">
         <v>1597</v>
-      </c>
-      <c r="C75" s="29" t="s">
-        <v>1598</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C76" s="29" t="s">
         <v>1571</v>
-      </c>
-      <c r="C76" s="29" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C77" s="29" t="s">
         <v>1613</v>
-      </c>
-      <c r="C77" s="29" t="s">
-        <v>1614</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C78" s="29" t="s">
         <v>1611</v>
-      </c>
-      <c r="C78" s="29" t="s">
-        <v>1612</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C79" s="29" t="s">
         <v>1619</v>
-      </c>
-      <c r="C79" s="29" t="s">
-        <v>1620</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C80" s="29" t="s">
         <v>1621</v>
-      </c>
-      <c r="C80" s="29" t="s">
-        <v>1622</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C81" s="29" t="s">
         <v>1589</v>
-      </c>
-      <c r="C81" s="29" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C82" s="29" t="s">
         <v>1581</v>
-      </c>
-      <c r="C82" s="29" t="s">
-        <v>1582</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C83" s="29" t="s">
         <v>1599</v>
-      </c>
-      <c r="C83" s="29" t="s">
-        <v>1600</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C84" s="29" t="s">
         <v>1585</v>
-      </c>
-      <c r="C84" s="29" t="s">
-        <v>1586</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -22209,127 +22218,127 @@
         <v>970</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C86" s="29" t="s">
         <v>1591</v>
-      </c>
-      <c r="C86" s="29" t="s">
-        <v>1592</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C87" s="29" t="s">
         <v>1615</v>
-      </c>
-      <c r="C87" s="29" t="s">
-        <v>1616</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C88" s="29" t="s">
         <v>1573</v>
-      </c>
-      <c r="C88" s="29" t="s">
-        <v>1574</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="25" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C89" s="29" t="s">
         <v>1575</v>
-      </c>
-      <c r="C89" s="29" t="s">
-        <v>1576</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="25" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C90" s="29" t="s">
         <v>1587</v>
-      </c>
-      <c r="C90" s="29" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="25" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C91" s="29" t="s">
         <v>1579</v>
-      </c>
-      <c r="C91" s="29" t="s">
-        <v>1580</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="25" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C92" s="29" t="s">
         <v>1617</v>
-      </c>
-      <c r="C92" s="29" t="s">
-        <v>1618</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="25" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C93" s="29" t="s">
         <v>1607</v>
-      </c>
-      <c r="C93" s="29" t="s">
-        <v>1608</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="25" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C94" s="29" t="s">
         <v>1623</v>
-      </c>
-      <c r="C94" s="29" t="s">
-        <v>1624</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="25" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C95" s="29" t="s">
         <v>1601</v>
-      </c>
-      <c r="C95" s="29" t="s">
-        <v>1602</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="25" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C96" s="29" t="s">
         <v>1595</v>
-      </c>
-      <c r="C96" s="29" t="s">
-        <v>1596</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="25" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C97" s="29" t="s">
         <v>1625</v>
-      </c>
-      <c r="C97" s="29" t="s">
-        <v>1626</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="25" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C98" s="29" t="s">
         <v>1631</v>
-      </c>
-      <c r="C98" s="29" t="s">
-        <v>1632</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="25" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C99" s="29" t="s">
         <v>1627</v>
-      </c>
-      <c r="C99" s="29" t="s">
-        <v>1628</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="25" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C100" s="29" t="s">
         <v>1629</v>
-      </c>
-      <c r="C100" s="29" t="s">
-        <v>1630</v>
       </c>
     </row>
   </sheetData>
@@ -22365,532 +22374,532 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
   </sheetData>
@@ -25942,7 +25951,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -26062,7 +26071,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="25" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="PyCSW_config" sheetId="40" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5242" uniqueCount="1701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5244" uniqueCount="1702">
   <si>
     <t>default_key</t>
   </si>
@@ -5168,6 +5168,9 @@
   </si>
   <si>
     <t>Government and Municipalities of Québec</t>
+  </si>
+  <si>
+    <t>30aeb5c1-4285-46c8-b60b-15b1a6f4258b</t>
   </si>
 </sst>
 </file>
@@ -6203,7 +6206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -20196,10 +20199,10 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B139"/>
+  <dimension ref="A1:B140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21317,6 +21320,14 @@
         <v>1164</v>
       </c>
       <c r="B139" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B140" s="24" t="s">
         <v>8</v>
       </c>
     </row>

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="25" activeTab="33"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="868" firstSheet="12" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="PyCSW_config" sheetId="40" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5244" uniqueCount="1702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5248" uniqueCount="1703">
   <si>
     <t>default_key</t>
   </si>
@@ -5171,6 +5171,9 @@
   </si>
   <si>
     <t>30aeb5c1-4285-46c8-b60b-15b1a6f4258b</t>
+  </si>
+  <si>
+    <t>PSP Plot Centres</t>
   </si>
 </sst>
 </file>
@@ -6910,10 +6913,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F434"/>
+  <dimension ref="A1:F435"/>
   <sheetViews>
-    <sheetView topLeftCell="A430" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A449" sqref="A449"/>
+    <sheetView tabSelected="1" topLeftCell="A421" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E443" sqref="E443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13091,6 +13094,20 @@
         <v>272</v>
       </c>
       <c r="D434" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B435" s="25" t="s">
+        <v>781</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D435" s="25" t="s">
         <v>273</v>
       </c>
     </row>
@@ -20201,7 +20218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+    <sheetView topLeftCell="A124" workbookViewId="0">
       <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Documents/NRCAN/fgp-metadata-proxy/FME_files/LOOKUP_TABLES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398707A4-F137-8342-8906-7FAB921CD086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556B3CEC-BBAD-BC4F-A65A-21646FE2E3BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" tabRatio="868" firstSheet="9" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PyCSW_config" sheetId="40" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5935" uniqueCount="1935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5938" uniqueCount="1936">
   <si>
     <t>default_key</t>
   </si>
@@ -5880,6 +5880,9 @@
   </si>
   <si>
     <t>dataset_﻿title</t>
+  </si>
+  <si>
+    <t>NB</t>
   </si>
 </sst>
 </file>
@@ -6363,10 +6366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6427,6 +6430,17 @@
         <v>1648</v>
       </c>
       <c r="C5" s="25" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>1647</v>
       </c>
     </row>
@@ -16191,7 +16205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86520BA4-A0EF-8649-B1DD-A2483E0DD6F7}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
+++ b/FME_files/LOOKUP_TABLES/P-T_ETL_LOOKUP_TABLES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Documents/NRCAN/fgp-metadata-proxy/FME_files/LOOKUP_TABLES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556B3CEC-BBAD-BC4F-A65A-21646FE2E3BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBB7A67-F126-8C44-8A3C-FDAB1FEAA494}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-200" yWindow="460" windowWidth="35840" windowHeight="21940" tabRatio="868" firstSheet="12" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PyCSW_config" sheetId="40" r:id="rId1"/>
@@ -37,28 +37,29 @@
     <sheet name="License_QC" sheetId="27" r:id="rId22"/>
     <sheet name="NB_ESRISERVICES" sheetId="51" r:id="rId23"/>
     <sheet name="NB_Remove" sheetId="46" r:id="rId24"/>
-    <sheet name="NB_KeywordRemove" sheetId="48" r:id="rId25"/>
-    <sheet name="NB_SlashCountSeparator" sheetId="42" r:id="rId26"/>
-    <sheet name="NB_TOPICS_DATASET" sheetId="50" r:id="rId27"/>
-    <sheet name="NB_TOPICS_GENERIC" sheetId="49" r:id="rId28"/>
-    <sheet name="Progress" sheetId="10" r:id="rId29"/>
-    <sheet name="QC_JSON_CONFIG" sheetId="31" r:id="rId30"/>
-    <sheet name="ResourceType_TBS_QC" sheetId="32" r:id="rId31"/>
-    <sheet name="Role" sheetId="11" r:id="rId32"/>
-    <sheet name="Sector_ON" sheetId="35" r:id="rId33"/>
-    <sheet name="Sector_NB" sheetId="43" r:id="rId34"/>
-    <sheet name="Sector_QC" sheetId="22" r:id="rId35"/>
-    <sheet name="Spatial_ON" sheetId="36" r:id="rId36"/>
-    <sheet name="SpatialRep_API_ON" sheetId="37" r:id="rId37"/>
-    <sheet name="SpatialRef" sheetId="13" r:id="rId38"/>
-    <sheet name="SpatialRepresentation" sheetId="14" r:id="rId39"/>
-    <sheet name="SubjectNTopic_TBS_QC" sheetId="30" r:id="rId40"/>
-    <sheet name="Update" sheetId="6" r:id="rId41"/>
-    <sheet name="UpdateFrequency_TBS_QC" sheetId="29" r:id="rId42"/>
-    <sheet name="UUID_Spatial_BC" sheetId="26" r:id="rId43"/>
-    <sheet name="UUID_Spatial_QC" sheetId="24" r:id="rId44"/>
-    <sheet name="WMS_URL_QC" sheetId="38" r:id="rId45"/>
-    <sheet name="QC_MAP_RES_REMOVE" sheetId="39" r:id="rId46"/>
+    <sheet name="NB_GeoDataTypes" sheetId="52" r:id="rId25"/>
+    <sheet name="NB_Keywords" sheetId="48" r:id="rId26"/>
+    <sheet name="NB_SlashCountSeparator" sheetId="42" r:id="rId27"/>
+    <sheet name="NB_TOPICS_DATASET" sheetId="50" r:id="rId28"/>
+    <sheet name="NB_TOPICS_GENERIC" sheetId="49" r:id="rId29"/>
+    <sheet name="Progress" sheetId="10" r:id="rId30"/>
+    <sheet name="QC_JSON_CONFIG" sheetId="31" r:id="rId31"/>
+    <sheet name="ResourceType_TBS_QC" sheetId="32" r:id="rId32"/>
+    <sheet name="Role" sheetId="11" r:id="rId33"/>
+    <sheet name="Sector_ON" sheetId="35" r:id="rId34"/>
+    <sheet name="Sector_NB" sheetId="43" r:id="rId35"/>
+    <sheet name="Sector_QC" sheetId="22" r:id="rId36"/>
+    <sheet name="Spatial_ON" sheetId="36" r:id="rId37"/>
+    <sheet name="SpatialRep_API_ON" sheetId="37" r:id="rId38"/>
+    <sheet name="SpatialRef" sheetId="13" r:id="rId39"/>
+    <sheet name="SpatialRepresentation" sheetId="14" r:id="rId40"/>
+    <sheet name="SubjectNTopic_TBS_QC" sheetId="30" r:id="rId41"/>
+    <sheet name="Update" sheetId="6" r:id="rId42"/>
+    <sheet name="UpdateFrequency_TBS_QC" sheetId="29" r:id="rId43"/>
+    <sheet name="UUID_Spatial_BC" sheetId="26" r:id="rId44"/>
+    <sheet name="UUID_Spatial_QC" sheetId="24" r:id="rId45"/>
+    <sheet name="WMS_URL_QC" sheetId="38" r:id="rId46"/>
+    <sheet name="QC_MAP_RES_REMOVE" sheetId="39" r:id="rId47"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5938" uniqueCount="1936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6235" uniqueCount="2042">
   <si>
     <t>default_key</t>
   </si>
@@ -5883,15 +5884,340 @@
   </si>
   <si>
     <t>NB</t>
+  </si>
+  <si>
+    <t>tag_validity</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>nursing</t>
+  </si>
+  <si>
+    <t>limits</t>
+  </si>
+  <si>
+    <t>local service districts</t>
+  </si>
+  <si>
+    <t>parcels</t>
+  </si>
+  <si>
+    <t>nbhc</t>
+  </si>
+  <si>
+    <t>french immersion</t>
+  </si>
+  <si>
+    <t>mineral</t>
+  </si>
+  <si>
+    <t>federal</t>
+  </si>
+  <si>
+    <t>point cloud</t>
+  </si>
+  <si>
+    <t>orignial</t>
+  </si>
+  <si>
+    <t>lyme disease</t>
+  </si>
+  <si>
+    <t>downtown</t>
+  </si>
+  <si>
+    <t>mineral deposits</t>
+  </si>
+  <si>
+    <t>ecodistrict</t>
+  </si>
+  <si>
+    <t>parish</t>
+  </si>
+  <si>
+    <t>district scolaire</t>
+  </si>
+  <si>
+    <t>park</t>
+  </si>
+  <si>
+    <t>ecosection</t>
+  </si>
+  <si>
+    <t>watershed</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>nuisance</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>roadkill</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>natural</t>
+  </si>
+  <si>
+    <t>senior</t>
+  </si>
+  <si>
+    <t>accident</t>
+  </si>
+  <si>
+    <t>bear</t>
+  </si>
+  <si>
+    <t>fundy</t>
+  </si>
+  <si>
+    <t>central business district</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>commercial truck</t>
+  </si>
+  <si>
+    <t>tick</t>
+  </si>
+  <si>
+    <t>forest</t>
+  </si>
+  <si>
+    <t>bedrock</t>
+  </si>
+  <si>
+    <t>offshore</t>
+  </si>
+  <si>
+    <t>ecoregion</t>
+  </si>
+  <si>
+    <t>wellfield</t>
+  </si>
+  <si>
+    <t>local government</t>
+  </si>
+  <si>
+    <t>drivers exam</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>county</t>
+  </si>
+  <si>
+    <t>wetland</t>
+  </si>
+  <si>
+    <t>conservation</t>
+  </si>
+  <si>
+    <t>hospitals</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>peat</t>
+  </si>
+  <si>
+    <t>fishing</t>
+  </si>
+  <si>
+    <t>crown land</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>public school</t>
+  </si>
+  <si>
+    <t>northumberland</t>
+  </si>
+  <si>
+    <t>ours</t>
+  </si>
+  <si>
+    <t>lake</t>
+  </si>
+  <si>
+    <t>ecole</t>
+  </si>
+  <si>
+    <t>drillhole</t>
+  </si>
+  <si>
+    <t>minerals</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>deer</t>
+  </si>
+  <si>
+    <t>csnb</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>protected</t>
+  </si>
+  <si>
+    <t>moose</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>corporate registry</t>
+  </si>
+  <si>
+    <t>mining</t>
+  </si>
+  <si>
+    <t>military</t>
+  </si>
+  <si>
+    <t>geology</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>licensed</t>
+  </si>
+  <si>
+    <t>mineral exploration</t>
+  </si>
+  <si>
+    <t>municipality</t>
+  </si>
+  <si>
+    <t>new brunswick</t>
+  </si>
+  <si>
+    <t>petroleum</t>
+  </si>
+  <si>
+    <t>school year</t>
+  </si>
+  <si>
+    <t>rail</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>school district</t>
+  </si>
+  <si>
+    <t>wildlife</t>
+  </si>
+  <si>
+    <t>sections</t>
+  </si>
+  <si>
+    <t>community boundaries</t>
+  </si>
+  <si>
+    <t>service centre</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>railway</t>
+  </si>
+  <si>
+    <t>inland</t>
+  </si>
+  <si>
+    <t>pipeline</t>
+  </si>
+  <si>
+    <t>assessment</t>
+  </si>
+  <si>
+    <t>seafloor</t>
+  </si>
+  <si>
+    <t>land use</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>New Brunswick data</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>polygon</t>
+  </si>
+  <si>
+    <t>multipoint</t>
+  </si>
+  <si>
+    <t>multiline</t>
+  </si>
+  <si>
+    <t>multipolygon</t>
+  </si>
+  <si>
+    <t>datatype</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -5982,6 +6308,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -6027,27 +6359,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -6055,7 +6388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -6065,30 +6398,34 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Hyperlink 3" xfId="5" xr:uid="{936E26A9-6C8B-6842-A1AF-9FBF27EF1270}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 3" xfId="4" xr:uid="{2CEFD527-886F-834C-9CCC-35544F7406DC}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{E04371D7-9CD3-8E47-923E-BEA66BF5575D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6368,7 +6705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -16524,418 +16861,56 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D4E8AF-B2CC-A841-BA4B-ADF3FBC1AAF2}">
-  <dimension ref="D1:D81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353E734B-FA88-F240-81B5-0B79D6736D9B}">
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="41"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1" t="s">
-        <v>1829</v>
-      </c>
-    </row>
-    <row r="2" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D2" t="s">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="3" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="4" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D4" t="s">
-        <v>1826</v>
-      </c>
-    </row>
-    <row r="5" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
-        <v>1825</v>
-      </c>
-    </row>
-    <row r="6" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="7" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D7" t="s">
-        <v>1823</v>
-      </c>
-    </row>
-    <row r="8" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
-        <v>1822</v>
-      </c>
-    </row>
-    <row r="9" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="10" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="11" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>1819</v>
-      </c>
-    </row>
-    <row r="12" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="13" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="14" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="15" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="16" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
-        <v>1813</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>1811</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
-        <v>1809</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
-        <v>1808</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D25" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D26" t="s">
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D27" t="s">
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D28" t="s">
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D29" t="s">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D30" t="s">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D32" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D33" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D34" t="s">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D35" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D36" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D37" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D38" t="s">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D39" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D40" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D41" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D42" t="s">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D43" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D44" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D45" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D46" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D47" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D48" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D49" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D50" t="s">
-        <v>1781</v>
-      </c>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D51" t="s">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D52" t="s">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D53" t="s">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D54" t="s">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D55" t="s">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D56" t="s">
-        <v>1775</v>
-      </c>
-    </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D57" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D58" t="s">
-        <v>1773</v>
-      </c>
-    </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D59" t="s">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D60" t="s">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D61" t="s">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D62" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D63" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D64" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D65" t="s">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D66" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D67" t="s">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D68" t="s">
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D69" t="s">
-        <v>1763</v>
-      </c>
-    </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D70" t="s">
-        <v>1762</v>
-      </c>
-    </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D71" t="s">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D72" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D73" t="s">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D74" t="s">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D75" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D76" t="s">
-        <v>1756</v>
-      </c>
-    </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D77" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D78" t="s">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D79" t="s">
-        <v>1753</v>
-      </c>
-    </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D80" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D81" t="s">
-        <v>1751</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="41" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="41" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="41" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="41" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="41" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -16944,6 +16919,1506 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D4E8AF-B2CC-A841-BA4B-ADF3FBC1AAF2}">
+  <dimension ref="A1:B185"/>
+  <sheetViews>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="40" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="39" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="40" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="40" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="40" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="39" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="39" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="40" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="39" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="39" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="40" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="40" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="39" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="40" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="40" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="39" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="40" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="40" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="40" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="40" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="40" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="39" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="39" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="40" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="39" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="39" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="39" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="39" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="39" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="39" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="39" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="39" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="40" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="39" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="39" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="39" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="40" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="39" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="39" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="40" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="40" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="39" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="39" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="40" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B47" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="40" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B48" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="40" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B49" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="40" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B50" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="39" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B51" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="40" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B52" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="40" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B53" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="39" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B54" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="40" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B55" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="40" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B56" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="39" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B57" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="40" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B58" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="40" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B59" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="39" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B60" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="39" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B61" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="39" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B62" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="40" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B63" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="39" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B64" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="40" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B65" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="40" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B66" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="40" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B67" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="39" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B68" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="39" t="s">
+        <v>565</v>
+      </c>
+      <c r="B69" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="40" t="s">
+        <v>564</v>
+      </c>
+      <c r="B70" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="B71" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="39" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B72" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="40" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B73" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="39" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B74" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="40" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B75" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="39" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B76" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="39" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B77" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="40" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B78" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="40" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B79" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="40" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B80" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="39" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B81" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="39" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B82" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="39" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B83" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="40" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B84" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="40" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B85" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="40" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B86" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="39" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B87" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="39" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B88" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="39" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B89" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="39" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B90" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="40" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B91" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="39" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B92" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="40" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B93" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="39" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B94" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="39" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B95" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="39" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B96" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" s="39" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B97" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="40" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B98" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="39" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B99" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" s="39" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B100" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="39" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B101" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="40" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B102" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103" s="39" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B103" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="40" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B104" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A105" s="39" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B105" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" s="39" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B106" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107" s="39" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B107" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="40" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B108" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="40" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B109" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A110" s="39" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B110" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="40" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B111" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="40" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B112" s="40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113" s="39" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B113" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114" s="39" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B114" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A115" s="39" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B115" s="40" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="40" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B116" s=